--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1415"/>
+  <dimension ref="A1:D1416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31564,6 +31564,28 @@
         </is>
       </c>
     </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>21BCE3130</t>
+        </is>
+      </c>
+      <c r="B1416" t="inlineStr">
+        <is>
+          <t>18.5LPA</t>
+        </is>
+      </c>
+      <c r="C1416" t="inlineStr">
+        <is>
+          <t>Optum</t>
+        </is>
+      </c>
+      <c r="D1416" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1416"/>
+  <dimension ref="A1:D1415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31564,28 +31564,6 @@
         </is>
       </c>
     </row>
-    <row r="1416">
-      <c r="A1416" t="inlineStr">
-        <is>
-          <t>21BCE3130</t>
-        </is>
-      </c>
-      <c r="B1416" t="inlineStr">
-        <is>
-          <t>18.5LPA</t>
-        </is>
-      </c>
-      <c r="C1416" t="inlineStr">
-        <is>
-          <t>Optum</t>
-        </is>
-      </c>
-      <c r="D1416" t="inlineStr">
-        <is>
-          <t>BCE</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1415"/>
+  <dimension ref="A1:D1425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31564,6 +31564,226 @@
         </is>
       </c>
     </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>21BDS0180</t>
+        </is>
+      </c>
+      <c r="B1416" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C1416" t="inlineStr">
+        <is>
+          <t>Accelerize 360</t>
+        </is>
+      </c>
+      <c r="D1416" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t>21BIT0060</t>
+        </is>
+      </c>
+      <c r="B1417" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C1417" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goldman Sachs Internship </t>
+        </is>
+      </c>
+      <c r="D1417" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>21BIT0061</t>
+        </is>
+      </c>
+      <c r="B1418" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C1418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goldman Sachs Internship </t>
+        </is>
+      </c>
+      <c r="D1418" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t>21BIT0062</t>
+        </is>
+      </c>
+      <c r="B1419" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C1419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goldman Sachs Internship </t>
+        </is>
+      </c>
+      <c r="D1419" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>21BIT0063</t>
+        </is>
+      </c>
+      <c r="B1420" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C1420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goldman Sachs Internship </t>
+        </is>
+      </c>
+      <c r="D1420" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
+        <is>
+          <t>21BIT0064</t>
+        </is>
+      </c>
+      <c r="B1421" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C1421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goldman Sachs Internship </t>
+        </is>
+      </c>
+      <c r="D1421" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
+        <is>
+          <t>21BDS0149</t>
+        </is>
+      </c>
+      <c r="B1422" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C1422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goldman Sachs Internship </t>
+        </is>
+      </c>
+      <c r="D1422" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr">
+        <is>
+          <t>21BBS0101</t>
+        </is>
+      </c>
+      <c r="B1423" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C1423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goldman Sachs Internship </t>
+        </is>
+      </c>
+      <c r="D1423" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="inlineStr">
+        <is>
+          <t>21BBS0102</t>
+        </is>
+      </c>
+      <c r="B1424" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C1424" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goldman Sachs Internship </t>
+        </is>
+      </c>
+      <c r="D1424" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
+        <is>
+          <t>21BCE8170</t>
+        </is>
+      </c>
+      <c r="B1425" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C1425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goldman Sachs Internship </t>
+        </is>
+      </c>
+      <c r="D1425" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -4753,7 +4753,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4775,7 +4775,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4907,7 +4907,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4973,7 +4973,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -5105,7 +5105,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -5149,7 +5149,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -5171,7 +5171,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -17030,7 +17030,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -17052,7 +17052,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -17074,7 +17074,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -17096,7 +17096,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1425"/>
+  <dimension ref="A1:D1497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31784,6 +31784,1590 @@
         </is>
       </c>
     </row>
+    <row r="1426">
+      <c r="A1426" t="inlineStr">
+        <is>
+          <t>21BCE1218</t>
+        </is>
+      </c>
+      <c r="B1426" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1426" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1426" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr">
+        <is>
+          <t>21BCE1219</t>
+        </is>
+      </c>
+      <c r="B1427" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1427" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1427" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="inlineStr">
+        <is>
+          <t>21BCE1220</t>
+        </is>
+      </c>
+      <c r="B1428" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1428" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1428" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t>21BCE1221</t>
+        </is>
+      </c>
+      <c r="B1429" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1429" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1429" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t>21BCE1222</t>
+        </is>
+      </c>
+      <c r="B1430" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1430" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1430" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="inlineStr">
+        <is>
+          <t>21BCE1223</t>
+        </is>
+      </c>
+      <c r="B1431" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1431" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1431" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="inlineStr">
+        <is>
+          <t>21BCE1224</t>
+        </is>
+      </c>
+      <c r="B1432" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1432" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1432" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="inlineStr">
+        <is>
+          <t>21BCE1225</t>
+        </is>
+      </c>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1433" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="inlineStr">
+        <is>
+          <t>21BCE1226</t>
+        </is>
+      </c>
+      <c r="B1434" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1434" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1434" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="inlineStr">
+        <is>
+          <t>21BCE1227</t>
+        </is>
+      </c>
+      <c r="B1435" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1435" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1435" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="inlineStr">
+        <is>
+          <t>21BCE1228</t>
+        </is>
+      </c>
+      <c r="B1436" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1436" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1436" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="inlineStr">
+        <is>
+          <t>21BCE1229</t>
+        </is>
+      </c>
+      <c r="B1437" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1437" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1437" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="inlineStr">
+        <is>
+          <t>21BCE1230</t>
+        </is>
+      </c>
+      <c r="B1438" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1438" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1438" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="inlineStr">
+        <is>
+          <t>21BCE1231</t>
+        </is>
+      </c>
+      <c r="B1439" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1439" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1439" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="inlineStr">
+        <is>
+          <t>21BCE1232</t>
+        </is>
+      </c>
+      <c r="B1440" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1440" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1440" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="inlineStr">
+        <is>
+          <t>21BCE1233</t>
+        </is>
+      </c>
+      <c r="B1441" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1441" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1441" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="inlineStr">
+        <is>
+          <t>21BCE1234</t>
+        </is>
+      </c>
+      <c r="B1442" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1442" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1442" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="inlineStr">
+        <is>
+          <t>21BCE1235</t>
+        </is>
+      </c>
+      <c r="B1443" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1443" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1443" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="inlineStr">
+        <is>
+          <t>21BCE1236</t>
+        </is>
+      </c>
+      <c r="B1444" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1444" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1444" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="inlineStr">
+        <is>
+          <t>21BCE1237</t>
+        </is>
+      </c>
+      <c r="B1445" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1445" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1445" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="inlineStr">
+        <is>
+          <t>21BCE1238</t>
+        </is>
+      </c>
+      <c r="B1446" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1446" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1446" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t>21BCE1239</t>
+        </is>
+      </c>
+      <c r="B1447" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1447" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1447" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>21BCE1240</t>
+        </is>
+      </c>
+      <c r="B1448" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1448" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1448" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t>21BCE1241</t>
+        </is>
+      </c>
+      <c r="B1449" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1449" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1449" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="inlineStr">
+        <is>
+          <t>21BCE1242</t>
+        </is>
+      </c>
+      <c r="B1450" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1450" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1450" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="inlineStr">
+        <is>
+          <t>21BCE1243</t>
+        </is>
+      </c>
+      <c r="B1451" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1451" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1451" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="inlineStr">
+        <is>
+          <t>21BCE1244</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1452" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1452" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="inlineStr">
+        <is>
+          <t>21BIT0189</t>
+        </is>
+      </c>
+      <c r="B1453" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1453" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1453" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t>21BIT0190</t>
+        </is>
+      </c>
+      <c r="B1454" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1454" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="D1454" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t>21BCE1688</t>
+        </is>
+      </c>
+      <c r="B1455" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1455" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1455" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t>21BCE1689</t>
+        </is>
+      </c>
+      <c r="B1456" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1456" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1456" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t>21BCE1690</t>
+        </is>
+      </c>
+      <c r="B1457" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1457" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1457" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t>21BCE1691</t>
+        </is>
+      </c>
+      <c r="B1458" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1458" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1458" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="inlineStr">
+        <is>
+          <t>21BCE1692</t>
+        </is>
+      </c>
+      <c r="B1459" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1459" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1459" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t>21BCE1693</t>
+        </is>
+      </c>
+      <c r="B1460" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1460" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1460" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t>21BCE1694</t>
+        </is>
+      </c>
+      <c r="B1461" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1461" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1461" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="inlineStr">
+        <is>
+          <t>21BCE1695</t>
+        </is>
+      </c>
+      <c r="B1462" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1462" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1462" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="inlineStr">
+        <is>
+          <t>21BCE1696</t>
+        </is>
+      </c>
+      <c r="B1463" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1463" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1463" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="inlineStr">
+        <is>
+          <t>21BCE1697</t>
+        </is>
+      </c>
+      <c r="B1464" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1464" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1464" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="inlineStr">
+        <is>
+          <t>21BCE1698</t>
+        </is>
+      </c>
+      <c r="B1465" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1465" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1465" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="inlineStr">
+        <is>
+          <t>21BCE1008</t>
+        </is>
+      </c>
+      <c r="B1466" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1466" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1466" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="inlineStr">
+        <is>
+          <t>21BCE1009</t>
+        </is>
+      </c>
+      <c r="B1467" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1467" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1467" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="inlineStr">
+        <is>
+          <t>21BCE1010</t>
+        </is>
+      </c>
+      <c r="B1468" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1468" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1468" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="inlineStr">
+        <is>
+          <t>21BCE1011</t>
+        </is>
+      </c>
+      <c r="B1469" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1469" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1469" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="inlineStr">
+        <is>
+          <t>21BBS0110</t>
+        </is>
+      </c>
+      <c r="B1470" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1470" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1470" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="inlineStr">
+        <is>
+          <t>21BRS1164</t>
+        </is>
+      </c>
+      <c r="B1471" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1471" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1471" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="inlineStr">
+        <is>
+          <t>21BRS1165</t>
+        </is>
+      </c>
+      <c r="B1472" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1472" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1472" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="inlineStr">
+        <is>
+          <t>21BRS1166</t>
+        </is>
+      </c>
+      <c r="B1473" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1473" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1473" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="inlineStr">
+        <is>
+          <t>21BPS1241</t>
+        </is>
+      </c>
+      <c r="B1474" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1474" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1474" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="inlineStr">
+        <is>
+          <t>21BDS0029</t>
+        </is>
+      </c>
+      <c r="B1475" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1475" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1475" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="inlineStr">
+        <is>
+          <t>21BCT0158</t>
+        </is>
+      </c>
+      <c r="B1476" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1476" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1476" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="inlineStr">
+        <is>
+          <t>21BIT0546</t>
+        </is>
+      </c>
+      <c r="B1477" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1477" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1477" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="inlineStr">
+        <is>
+          <t>21BIT0547</t>
+        </is>
+      </c>
+      <c r="B1478" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1478" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1478" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="inlineStr">
+        <is>
+          <t>21BCE4002</t>
+        </is>
+      </c>
+      <c r="B1479" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1479" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1479" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="inlineStr">
+        <is>
+          <t>21BCE4003</t>
+        </is>
+      </c>
+      <c r="B1480" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1480" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1480" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="inlineStr">
+        <is>
+          <t>21BCE4004</t>
+        </is>
+      </c>
+      <c r="B1481" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1481" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1481" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="inlineStr">
+        <is>
+          <t>21BCE4005</t>
+        </is>
+      </c>
+      <c r="B1482" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1482" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1482" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="inlineStr">
+        <is>
+          <t>21BCE4006</t>
+        </is>
+      </c>
+      <c r="B1483" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1483" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1483" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="inlineStr">
+        <is>
+          <t>21BCE4007</t>
+        </is>
+      </c>
+      <c r="B1484" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1484" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1484" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>21BCE4008</t>
+        </is>
+      </c>
+      <c r="B1485" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1485" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1485" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>21BRS1345</t>
+        </is>
+      </c>
+      <c r="B1486" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1486" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1486" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>21BRS1346</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1487" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1487" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>21BDS0345</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1488" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1488" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t>21BDS0346</t>
+        </is>
+      </c>
+      <c r="B1489" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1489" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1489" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>21BCB0178</t>
+        </is>
+      </c>
+      <c r="B1490" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1490" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1490" t="inlineStr">
+        <is>
+          <t>BCB</t>
+        </is>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>21BLC1436</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1491" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1491" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t>21BAI1486</t>
+        </is>
+      </c>
+      <c r="B1492" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1492" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1492" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t>21BAI1487</t>
+        </is>
+      </c>
+      <c r="B1493" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1493" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1493" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t>21BAI1488</t>
+        </is>
+      </c>
+      <c r="B1494" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1494" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1494" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t>21BAI1489</t>
+        </is>
+      </c>
+      <c r="B1495" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1495" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1495" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>21BAI1490</t>
+        </is>
+      </c>
+      <c r="B1496" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1496" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1496" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t>21BLC1436</t>
+        </is>
+      </c>
+      <c r="B1497" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1497" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1497" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -31792,7 +31792,7 @@
       </c>
       <c r="B1426" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1426" t="inlineStr">
@@ -31814,7 +31814,7 @@
       </c>
       <c r="B1427" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1427" t="inlineStr">
@@ -31836,7 +31836,7 @@
       </c>
       <c r="B1428" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1428" t="inlineStr">
@@ -31858,7 +31858,7 @@
       </c>
       <c r="B1429" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1429" t="inlineStr">
@@ -31880,7 +31880,7 @@
       </c>
       <c r="B1430" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1430" t="inlineStr">
@@ -31902,7 +31902,7 @@
       </c>
       <c r="B1431" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1431" t="inlineStr">
@@ -31924,7 +31924,7 @@
       </c>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1432" t="inlineStr">
@@ -31946,7 +31946,7 @@
       </c>
       <c r="B1433" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1433" t="inlineStr">
@@ -31968,7 +31968,7 @@
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
@@ -31990,7 +31990,7 @@
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
@@ -32012,7 +32012,7 @@
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
@@ -32034,7 +32034,7 @@
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
@@ -32056,7 +32056,7 @@
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
@@ -32078,7 +32078,7 @@
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
@@ -32100,7 +32100,7 @@
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
@@ -32122,7 +32122,7 @@
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
@@ -32144,7 +32144,7 @@
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
@@ -32166,7 +32166,7 @@
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
@@ -32188,7 +32188,7 @@
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
@@ -32210,7 +32210,7 @@
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
@@ -32232,7 +32232,7 @@
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
@@ -32254,7 +32254,7 @@
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
@@ -32276,7 +32276,7 @@
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
@@ -32298,7 +32298,7 @@
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
@@ -32320,7 +32320,7 @@
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
@@ -32342,7 +32342,7 @@
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
@@ -32364,7 +32364,7 @@
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
@@ -32386,7 +32386,7 @@
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
@@ -32408,7 +32408,7 @@
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1497"/>
+  <dimension ref="A1:D1503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33368,6 +33368,138 @@
         </is>
       </c>
     </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>21BCE1437</t>
+        </is>
+      </c>
+      <c r="B1498" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C1498" t="inlineStr">
+        <is>
+          <t>Volvo</t>
+        </is>
+      </c>
+      <c r="D1498" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t>21BEC0798</t>
+        </is>
+      </c>
+      <c r="B1499" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C1499" t="inlineStr">
+        <is>
+          <t>Siemens EDA Internship</t>
+        </is>
+      </c>
+      <c r="D1499" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t>21BCE1298</t>
+        </is>
+      </c>
+      <c r="B1500" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C1500" t="inlineStr">
+        <is>
+          <t>Uber</t>
+        </is>
+      </c>
+      <c r="D1500" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t>21BCE1299</t>
+        </is>
+      </c>
+      <c r="B1501" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C1501" t="inlineStr">
+        <is>
+          <t>Uber</t>
+        </is>
+      </c>
+      <c r="D1501" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t>21BCE1300</t>
+        </is>
+      </c>
+      <c r="B1502" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C1502" t="inlineStr">
+        <is>
+          <t>Uber</t>
+        </is>
+      </c>
+      <c r="D1502" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>21BAI1901</t>
+        </is>
+      </c>
+      <c r="B1503" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C1503" t="inlineStr">
+        <is>
+          <t>Uber</t>
+        </is>
+      </c>
+      <c r="D1503" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1503"/>
+  <dimension ref="A1:D1513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33500,6 +33500,226 @@
         </is>
       </c>
     </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>21BCE9061</t>
+        </is>
+      </c>
+      <c r="B1504" t="inlineStr">
+        <is>
+          <t>13LPA</t>
+        </is>
+      </c>
+      <c r="C1504" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="D1504" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>21BCE9062</t>
+        </is>
+      </c>
+      <c r="B1505" t="inlineStr">
+        <is>
+          <t>13LPA</t>
+        </is>
+      </c>
+      <c r="C1505" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="D1505" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>21BCE9063</t>
+        </is>
+      </c>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t>13LPA</t>
+        </is>
+      </c>
+      <c r="C1506" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="D1506" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>21BCE9064</t>
+        </is>
+      </c>
+      <c r="B1507" t="inlineStr">
+        <is>
+          <t>13LPA</t>
+        </is>
+      </c>
+      <c r="C1507" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="D1507" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>21BCE9065</t>
+        </is>
+      </c>
+      <c r="B1508" t="inlineStr">
+        <is>
+          <t>13LPA</t>
+        </is>
+      </c>
+      <c r="C1508" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="D1508" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>21BCE9066</t>
+        </is>
+      </c>
+      <c r="B1509" t="inlineStr">
+        <is>
+          <t>13LPA</t>
+        </is>
+      </c>
+      <c r="C1509" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="D1509" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>21BCE9067</t>
+        </is>
+      </c>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>13LPA</t>
+        </is>
+      </c>
+      <c r="C1510" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="D1510" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t>21BCE9068</t>
+        </is>
+      </c>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>13LPA</t>
+        </is>
+      </c>
+      <c r="C1511" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="D1511" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>21BCE9069</t>
+        </is>
+      </c>
+      <c r="B1512" t="inlineStr">
+        <is>
+          <t>13LPA</t>
+        </is>
+      </c>
+      <c r="C1512" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="D1512" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>21BCE9070</t>
+        </is>
+      </c>
+      <c r="B1513" t="inlineStr">
+        <is>
+          <t>13LPA</t>
+        </is>
+      </c>
+      <c r="C1513" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="D1513" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -3675,7 +3675,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>32LPA</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>32LPA</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>32LPA</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>32LPA</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4753,7 +4753,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4775,7 +4775,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4907,7 +4907,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4973,7 +4973,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -5105,7 +5105,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -5149,7 +5149,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -5171,7 +5171,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -17030,7 +17030,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -17052,7 +17052,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -17074,7 +17074,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -17096,7 +17096,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>12LPA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1513"/>
+  <dimension ref="A1:D1517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>55LPA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>55LPA</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>55LPA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>55LPA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>55LPA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>55LPA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>55LPA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>55LPA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>55LPA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>55LPA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -33717,6 +33717,94 @@
       <c r="D1513" t="inlineStr">
         <is>
           <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="inlineStr">
+        <is>
+          <t>21BCE9071</t>
+        </is>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>13LPA</t>
+        </is>
+      </c>
+      <c r="C1514" t="inlineStr">
+        <is>
+          <t>British Telecom</t>
+        </is>
+      </c>
+      <c r="D1514" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t>21BAI1591</t>
+        </is>
+      </c>
+      <c r="B1515" t="inlineStr">
+        <is>
+          <t>13LPA</t>
+        </is>
+      </c>
+      <c r="C1515" t="inlineStr">
+        <is>
+          <t>British Telecom</t>
+        </is>
+      </c>
+      <c r="D1515" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t>21BRS1592</t>
+        </is>
+      </c>
+      <c r="B1516" t="inlineStr">
+        <is>
+          <t>13LPA</t>
+        </is>
+      </c>
+      <c r="C1516" t="inlineStr">
+        <is>
+          <t>British Telecom</t>
+        </is>
+      </c>
+      <c r="D1516" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t>21BLC1593</t>
+        </is>
+      </c>
+      <c r="B1517" t="inlineStr">
+        <is>
+          <t>13LPA</t>
+        </is>
+      </c>
+      <c r="C1517" t="inlineStr">
+        <is>
+          <t>British Telecom</t>
+        </is>
+      </c>
+      <c r="D1517" t="inlineStr">
+        <is>
+          <t>BLC</t>
         </is>
       </c>
     </row>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1517"/>
+  <dimension ref="A1:D1521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15275,7 +15275,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>Google PPO</t>
+          <t>Google PPO</t>
         </is>
       </c>
       <c r="D675" t="inlineStr">
@@ -15297,7 +15297,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>Google PPO</t>
+          <t>Google PPO</t>
         </is>
       </c>
       <c r="D676" t="inlineStr">
@@ -33805,6 +33805,94 @@
       <c r="D1517" t="inlineStr">
         <is>
           <t>BLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t>21BCE0742</t>
+        </is>
+      </c>
+      <c r="B1518" t="inlineStr">
+        <is>
+          <t>22.2LPA</t>
+        </is>
+      </c>
+      <c r="C1518" t="inlineStr">
+        <is>
+          <t>KLA Technologies</t>
+        </is>
+      </c>
+      <c r="D1518" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t>21BPS1620</t>
+        </is>
+      </c>
+      <c r="B1519" t="inlineStr">
+        <is>
+          <t>22.2LPA</t>
+        </is>
+      </c>
+      <c r="C1519" t="inlineStr">
+        <is>
+          <t>KLA Technologies</t>
+        </is>
+      </c>
+      <c r="D1519" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t>21BCE5329</t>
+        </is>
+      </c>
+      <c r="B1520" t="inlineStr">
+        <is>
+          <t>22.2LPA</t>
+        </is>
+      </c>
+      <c r="C1520" t="inlineStr">
+        <is>
+          <t>KLA Technologies</t>
+        </is>
+      </c>
+      <c r="D1520" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t>21BCE10581</t>
+        </is>
+      </c>
+      <c r="B1521" t="inlineStr">
+        <is>
+          <t>22.2LPA</t>
+        </is>
+      </c>
+      <c r="C1521" t="inlineStr">
+        <is>
+          <t>KLA Technologies</t>
+        </is>
+      </c>
+      <c r="D1521" t="inlineStr">
+        <is>
+          <t>BCE</t>
         </is>
       </c>
     </row>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1521"/>
+  <dimension ref="A1:D1537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33896,6 +33896,358 @@
         </is>
       </c>
     </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t>21BEC0400</t>
+        </is>
+      </c>
+      <c r="B1522" t="inlineStr">
+        <is>
+          <t>23LPA</t>
+        </is>
+      </c>
+      <c r="C1522" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+      <c r="D1522" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t>21BEC0401</t>
+        </is>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t>23LPA</t>
+        </is>
+      </c>
+      <c r="C1523" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+      <c r="D1523" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t>21BEC0402</t>
+        </is>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>23LPA</t>
+        </is>
+      </c>
+      <c r="C1524" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+      <c r="D1524" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t>21BEC0403</t>
+        </is>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>23LPA</t>
+        </is>
+      </c>
+      <c r="C1525" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+      <c r="D1525" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t>21BEC0404</t>
+        </is>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>23LPA</t>
+        </is>
+      </c>
+      <c r="C1526" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+      <c r="D1526" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t>21BEC0405</t>
+        </is>
+      </c>
+      <c r="B1527" t="inlineStr">
+        <is>
+          <t>23LPA</t>
+        </is>
+      </c>
+      <c r="C1527" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+      <c r="D1527" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t>21BEC0406</t>
+        </is>
+      </c>
+      <c r="B1528" t="inlineStr">
+        <is>
+          <t>23LPA</t>
+        </is>
+      </c>
+      <c r="C1528" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+      <c r="D1528" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t>21BCE5614</t>
+        </is>
+      </c>
+      <c r="B1529" t="inlineStr">
+        <is>
+          <t>13LPA</t>
+        </is>
+      </c>
+      <c r="C1529" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="D1529" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>21BCE1444</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>11LPA</t>
+        </is>
+      </c>
+      <c r="C1530" t="inlineStr">
+        <is>
+          <t>Hyperverge</t>
+        </is>
+      </c>
+      <c r="D1530" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>21BCE1445</t>
+        </is>
+      </c>
+      <c r="B1531" t="inlineStr">
+        <is>
+          <t>11LPA</t>
+        </is>
+      </c>
+      <c r="C1531" t="inlineStr">
+        <is>
+          <t>Hyperverge</t>
+        </is>
+      </c>
+      <c r="D1531" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>21BCE1446</t>
+        </is>
+      </c>
+      <c r="B1532" t="inlineStr">
+        <is>
+          <t>11LPA</t>
+        </is>
+      </c>
+      <c r="C1532" t="inlineStr">
+        <is>
+          <t>Hyperverge</t>
+        </is>
+      </c>
+      <c r="D1532" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t>21BCE1447</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr">
+        <is>
+          <t>11LPA</t>
+        </is>
+      </c>
+      <c r="C1533" t="inlineStr">
+        <is>
+          <t>Hyperverge</t>
+        </is>
+      </c>
+      <c r="D1533" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t>21BRS1563</t>
+        </is>
+      </c>
+      <c r="B1534" t="inlineStr">
+        <is>
+          <t>11LPA</t>
+        </is>
+      </c>
+      <c r="C1534" t="inlineStr">
+        <is>
+          <t>Hyperverge</t>
+        </is>
+      </c>
+      <c r="D1534" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t>21BCE1010</t>
+        </is>
+      </c>
+      <c r="B1535" t="inlineStr">
+        <is>
+          <t>11LPA</t>
+        </is>
+      </c>
+      <c r="C1535" t="inlineStr">
+        <is>
+          <t>Hyperverge</t>
+        </is>
+      </c>
+      <c r="D1535" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t>21BEC1676</t>
+        </is>
+      </c>
+      <c r="B1536" t="inlineStr">
+        <is>
+          <t>11LPA</t>
+        </is>
+      </c>
+      <c r="C1536" t="inlineStr">
+        <is>
+          <t>IAST</t>
+        </is>
+      </c>
+      <c r="D1536" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t>21BEC1564</t>
+        </is>
+      </c>
+      <c r="B1537" t="inlineStr">
+        <is>
+          <t>11LPA</t>
+        </is>
+      </c>
+      <c r="C1537" t="inlineStr">
+        <is>
+          <t>IAST</t>
+        </is>
+      </c>
+      <c r="D1537" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -19626,7 +19626,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>13LPA</t>
+          <t>17LPA</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
@@ -19648,7 +19648,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>13LPA</t>
+          <t>17LPA</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
@@ -19670,7 +19670,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>13LPA</t>
+          <t>17LPA</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -19692,7 +19692,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>13LPA</t>
+          <t>17LPA</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -19714,7 +19714,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>13LPA</t>
+          <t>17LPA</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -19736,7 +19736,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>13LPA</t>
+          <t>17LPA</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -617,7 +617,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>33LPA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>33LPA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>33LPA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>33LPA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>33LPA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.18LPA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.18LPA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.18LPA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.18LPA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.18LPA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.18LPA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.18LPA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.18LPA</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.18LPA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.18LPA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>11.67LPA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.18LPA</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>18LPA</t>
+          <t>33LPA</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>18LPA</t>
+          <t>33LPA</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>18LPA</t>
+          <t>33LPA</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>18LPA</t>
+          <t>33LPA</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>18LPA</t>
+          <t>33LPA</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>18LPA</t>
+          <t>33LPA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>18LPA</t>
+          <t>33LPA</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>18LPA</t>
+          <t>33LPA</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>18LPA</t>
+          <t>33LPA</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>42.93LPA</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>42.93LPA</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>42.93LPA</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>42.93LPA</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>42.93LPA</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>42.93LPA</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>42.93LPA</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>42.93LPA</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>42.93LPA</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>42.93LPA</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>42.93LPA</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.5LPA</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.5LPA</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.5LPA</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.5LPA</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.5LPA</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.5LPA</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.5LPA</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.5LPA</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.5LPA</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.5LPA</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.5LPA</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.5LPA</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.5LPA</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.5LPA</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.5LPA</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.5LPA</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.5LPA</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.5LPA</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4159,7 +4159,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.5LPA</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.5LPA</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.5LPA</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>55LPA</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>45LPA</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>45LPA</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>45LPA</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>34.4LPA</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>34.4LPA</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -5897,7 +5897,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>13.2LPA</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>13.2LPA</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>13.2LPA</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>13.2LPA</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>13.2LPA</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>13.2LPA</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>13.2LPA</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>13.2LPA</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>13.2LPA</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>13.2LPA</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>13.2LPA</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.75LPA</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -6227,7 +6227,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.75LPA</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.75LPA</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -6271,7 +6271,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.75LPA</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -6293,7 +6293,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.75LPA</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -6315,7 +6315,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.75LPA</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.75LPA</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -6359,7 +6359,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.75LPA</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.75LPA</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.75LPA</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.75LPA</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.75LPA</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.75LPA</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.75LPA</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.75LPA</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.75LPA</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -6557,7 +6557,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.75LPA</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -6579,7 +6579,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.75LPA</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.75LPA</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -6623,7 +6623,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.75LPA</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.75LPA</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -6667,7 +6667,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.75LPA</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>19.75LPA</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -6711,7 +6711,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>33LPA</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>33LPA</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.71LPA</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -7195,7 +7195,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.71LPA</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.71LPA</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>45LPA</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -7349,7 +7349,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>55LPA</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24LPA</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -7393,7 +7393,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24LPA</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -7723,7 +7723,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>10.88LPA</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>10.88LPA</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -7767,7 +7767,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>10.88LPA</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -7789,7 +7789,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>10.88LPA</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -7811,7 +7811,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>10.88LPA</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -7833,7 +7833,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>10.88LPA</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -7855,7 +7855,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>10.88LPA</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -7877,7 +7877,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>10.88LPA</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -7899,7 +7899,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>10.88LPA</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>10.88LPA</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24LPA</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -8009,7 +8009,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>34.4LPA</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>45LPA</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -8053,7 +8053,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>45LPA</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -8075,7 +8075,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -8207,7 +8207,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>15LPA</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -9043,7 +9043,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>60LPA</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -9263,7 +9263,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>18.57LPA</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>18.57LPA</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -9307,7 +9307,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>18.57LPA</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -9329,7 +9329,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>18.57LPA</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -9505,7 +9505,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.67LPA</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -9527,7 +9527,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.67LPA</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -9549,7 +9549,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24.67LPA</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -10693,7 +10693,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>14LPA</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>14LPA</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -10737,7 +10737,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>14LPA</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -11023,7 +11023,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>17.5LPA</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -11045,7 +11045,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>17.5LPA</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -11067,7 +11067,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>17.5LPA</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -11089,7 +11089,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>17.5LPA</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -11111,7 +11111,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>17.5LPA</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -11133,7 +11133,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>17.5LPA</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -11617,7 +11617,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>34.4LPA</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -11639,7 +11639,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>34.4LPA</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -11661,7 +11661,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>34.4LPA</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -11683,7 +11683,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>34.4LPA</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -14236,7 +14236,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>34.4LPA</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -15270,7 +15270,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>60LPA</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -15292,7 +15292,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>60LPA</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -21650,7 +21650,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>45LPA</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
@@ -21672,7 +21672,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>45LPA</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
@@ -22904,7 +22904,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>15.5LPA</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr">
@@ -22926,7 +22926,7 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>15.5LPA</t>
         </is>
       </c>
       <c r="C1023" t="inlineStr">
@@ -23696,7 +23696,7 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>34.4LPA</t>
         </is>
       </c>
       <c r="C1058" t="inlineStr">
@@ -25654,7 +25654,7 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
@@ -25676,7 +25676,7 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
@@ -25698,7 +25698,7 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
@@ -25720,7 +25720,7 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
@@ -25742,7 +25742,7 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
@@ -25764,7 +25764,7 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
@@ -25786,7 +25786,7 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
@@ -25808,7 +25808,7 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
@@ -25830,7 +25830,7 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
@@ -25852,7 +25852,7 @@
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
@@ -25874,7 +25874,7 @@
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
@@ -25896,7 +25896,7 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
@@ -25918,7 +25918,7 @@
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
@@ -25940,7 +25940,7 @@
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
@@ -25962,7 +25962,7 @@
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
@@ -25984,7 +25984,7 @@
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
@@ -26006,7 +26006,7 @@
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
@@ -26028,7 +26028,7 @@
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
@@ -26050,7 +26050,7 @@
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
@@ -26072,7 +26072,7 @@
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
@@ -26094,7 +26094,7 @@
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
@@ -26116,7 +26116,7 @@
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
@@ -26138,7 +26138,7 @@
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
@@ -26160,7 +26160,7 @@
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
@@ -26182,7 +26182,7 @@
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
@@ -26204,7 +26204,7 @@
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
@@ -26226,7 +26226,7 @@
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
@@ -26248,7 +26248,7 @@
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
@@ -26270,7 +26270,7 @@
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
@@ -26292,7 +26292,7 @@
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
@@ -26314,7 +26314,7 @@
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
@@ -26336,7 +26336,7 @@
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
@@ -26864,7 +26864,7 @@
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
@@ -26886,7 +26886,7 @@
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
@@ -26908,7 +26908,7 @@
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
@@ -26930,7 +26930,7 @@
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
@@ -26952,7 +26952,7 @@
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
@@ -26974,7 +26974,7 @@
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
@@ -26996,7 +26996,7 @@
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
@@ -27018,7 +27018,7 @@
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr">
@@ -27040,7 +27040,7 @@
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
@@ -27062,7 +27062,7 @@
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
@@ -27084,7 +27084,7 @@
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr">
@@ -27106,7 +27106,7 @@
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
@@ -27128,7 +27128,7 @@
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
@@ -27150,7 +27150,7 @@
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
@@ -27172,7 +27172,7 @@
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
@@ -27194,7 +27194,7 @@
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
@@ -27216,7 +27216,7 @@
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
@@ -27238,7 +27238,7 @@
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
@@ -27260,7 +27260,7 @@
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
@@ -27282,7 +27282,7 @@
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
@@ -27304,7 +27304,7 @@
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
@@ -27326,7 +27326,7 @@
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
@@ -28184,7 +28184,7 @@
       </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1262" t="inlineStr">
@@ -28206,7 +28206,7 @@
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr">
@@ -31440,7 +31440,7 @@
       </c>
       <c r="B1410" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1410" t="inlineStr">
@@ -33398,7 +33398,7 @@
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>20.5LPA</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
@@ -33420,7 +33420,7 @@
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
@@ -33442,7 +33442,7 @@
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
@@ -33464,7 +33464,7 @@
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
@@ -33486,7 +33486,7 @@
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -4555,7 +4555,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>13.5LPA</t>
+          <t>16.84LPA</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -10781,7 +10781,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>13.5LPA</t>
+          <t>16.84LPA</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -10803,7 +10803,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>13.5LPA</t>
+          <t>16.84LPA</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>13.5LPA</t>
+          <t>16.84LPA</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -10847,7 +10847,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>13.5LPA</t>
+          <t>16.84LPA</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>13.5LPA</t>
+          <t>16.84LPA</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -10891,7 +10891,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>13.5LPA</t>
+          <t>16.84LPA</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -10913,7 +10913,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>13.5LPA</t>
+          <t>16.84LPA</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -10935,7 +10935,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>13.5LPA</t>
+          <t>16.84LPA</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -10957,7 +10957,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>13.5LPA</t>
+          <t>16.29LPA</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -10979,7 +10979,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>13.5LPA</t>
+          <t>16.29LPA</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -11001,7 +11001,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>13.5LPA</t>
+          <t>16.29LPA</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -11221,7 +11221,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>13.5LPA</t>
+          <t>16.84LPA</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1537"/>
+  <dimension ref="A1:D1611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34248,6 +34248,1636 @@
         </is>
       </c>
     </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t>21BCE7193</t>
+        </is>
+      </c>
+      <c r="B1538" t="inlineStr">
+        <is>
+          <t>23LPA</t>
+        </is>
+      </c>
+      <c r="C1538" t="inlineStr">
+        <is>
+          <t>PlaySimple Games</t>
+        </is>
+      </c>
+      <c r="D1538" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t>21BCE7194</t>
+        </is>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t>18LPA</t>
+        </is>
+      </c>
+      <c r="C1539" t="inlineStr">
+        <is>
+          <t>Blackrock</t>
+        </is>
+      </c>
+      <c r="D1539" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t>21BCE7195</t>
+        </is>
+      </c>
+      <c r="B1540" t="inlineStr">
+        <is>
+          <t>18LPA</t>
+        </is>
+      </c>
+      <c r="C1540" t="inlineStr">
+        <is>
+          <t>Blackrock</t>
+        </is>
+      </c>
+      <c r="D1540" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t>21BDS7196</t>
+        </is>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t>18LPA</t>
+        </is>
+      </c>
+      <c r="C1541" t="inlineStr">
+        <is>
+          <t>Blackrock</t>
+        </is>
+      </c>
+      <c r="D1541" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t>21BCE7197</t>
+        </is>
+      </c>
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t>18LPA</t>
+        </is>
+      </c>
+      <c r="C1542" t="inlineStr">
+        <is>
+          <t>Blackrock</t>
+        </is>
+      </c>
+      <c r="D1542" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21BIT0732
+</t>
+        </is>
+      </c>
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t>14.1LPA</t>
+        </is>
+      </c>
+      <c r="C1543" t="inlineStr">
+        <is>
+          <t>o9 Solutions</t>
+        </is>
+      </c>
+      <c r="D1543" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21BIT0732
+</t>
+        </is>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>14.1LPA</t>
+        </is>
+      </c>
+      <c r="C1544" t="inlineStr">
+        <is>
+          <t>o9 Solutions</t>
+        </is>
+      </c>
+      <c r="D1544" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="inlineStr">
+        <is>
+          <t>21BCM0095</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1545" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1545" t="inlineStr">
+        <is>
+          <t>BCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="inlineStr">
+        <is>
+          <t>21BCM0096</t>
+        </is>
+      </c>
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1546" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1546" t="inlineStr">
+        <is>
+          <t>BCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t>21BCM0097</t>
+        </is>
+      </c>
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1547" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1547" t="inlineStr">
+        <is>
+          <t>BCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="inlineStr">
+        <is>
+          <t>21BCM0098</t>
+        </is>
+      </c>
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1548" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1548" t="inlineStr">
+        <is>
+          <t>BCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>21BCM0099</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1549" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1549" t="inlineStr">
+        <is>
+          <t>BCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t>21BCM0100</t>
+        </is>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1550" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1550" t="inlineStr">
+        <is>
+          <t>BCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t>21BCM0101</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1551" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1551" t="inlineStr">
+        <is>
+          <t>BCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t>21BME1017</t>
+        </is>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1552" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1552" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t>21BME1018</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1553" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1553" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>21BME1019</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1554" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1554" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>21BME1020</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1555" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1555" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>21BME1021</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1556" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1556" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>21BME1022</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1557" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1557" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>21BME1023</t>
+        </is>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1558" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1558" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t>21BME1024</t>
+        </is>
+      </c>
+      <c r="B1559" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1559" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1559" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t>21BME1025</t>
+        </is>
+      </c>
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1560" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1560" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
+        <is>
+          <t>21BME1026</t>
+        </is>
+      </c>
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1561" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1561" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t>21BME1027</t>
+        </is>
+      </c>
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1562" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1562" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t>21BME1028</t>
+        </is>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1563" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1563" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t>21BME1029</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1564" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1564" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t>21BME1030</t>
+        </is>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1565" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1565" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t>21BME1031</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1566" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t>21BMA0023</t>
+        </is>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1567" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1567" t="inlineStr">
+        <is>
+          <t>BMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
+        <is>
+          <t>21BMA0024</t>
+        </is>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1568" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1568" t="inlineStr">
+        <is>
+          <t>BMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
+        <is>
+          <t>21BMA0025</t>
+        </is>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1569" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1569" t="inlineStr">
+        <is>
+          <t>BMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
+        <is>
+          <t>21BMA0026</t>
+        </is>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1570" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1570" t="inlineStr">
+        <is>
+          <t>BMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="inlineStr">
+        <is>
+          <t>21BMV1105</t>
+        </is>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1571" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1571" t="inlineStr">
+        <is>
+          <t>BMV</t>
+        </is>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
+        <is>
+          <t>21BEE1137</t>
+        </is>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1572" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1572" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
+          <t>21BEE1138</t>
+        </is>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1573" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1573" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
+        <is>
+          <t>21BEE1139</t>
+        </is>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1574" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1574" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="inlineStr">
+        <is>
+          <t>21BEE1140</t>
+        </is>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1575" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1575" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="inlineStr">
+        <is>
+          <t>21BEI0038</t>
+        </is>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1576" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1576" t="inlineStr">
+        <is>
+          <t>BEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="inlineStr">
+        <is>
+          <t>21BEI0039</t>
+        </is>
+      </c>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1577" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1577" t="inlineStr">
+        <is>
+          <t>BEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="inlineStr">
+        <is>
+          <t>21BEI0040</t>
+        </is>
+      </c>
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1578" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1578" t="inlineStr">
+        <is>
+          <t>BEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="inlineStr">
+        <is>
+          <t>21BEI0041</t>
+        </is>
+      </c>
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1579" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1579" t="inlineStr">
+        <is>
+          <t>BEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="inlineStr">
+        <is>
+          <t>21BEC1166</t>
+        </is>
+      </c>
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1580" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1580" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="inlineStr">
+        <is>
+          <t>21BML0049</t>
+        </is>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1581" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1581" t="inlineStr">
+        <is>
+          <t>BML</t>
+        </is>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="inlineStr">
+        <is>
+          <t>21BMM0080</t>
+        </is>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1582" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D1582" t="inlineStr">
+        <is>
+          <t>BMM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="inlineStr">
+        <is>
+          <t>21BPS1253</t>
+        </is>
+      </c>
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1583" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1583" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="inlineStr">
+        <is>
+          <t>21BPS1254</t>
+        </is>
+      </c>
+      <c r="B1584" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1584" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1584" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="inlineStr">
+        <is>
+          <t>21BPS1255</t>
+        </is>
+      </c>
+      <c r="B1585" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1585" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1585" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="inlineStr">
+        <is>
+          <t>21BBS0143</t>
+        </is>
+      </c>
+      <c r="B1586" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1586" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1586" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="inlineStr">
+        <is>
+          <t>21BBS0144</t>
+        </is>
+      </c>
+      <c r="B1587" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1587" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1587" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="inlineStr">
+        <is>
+          <t>21BEE0246</t>
+        </is>
+      </c>
+      <c r="B1588" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1588" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1588" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="inlineStr">
+        <is>
+          <t>21BCE5250</t>
+        </is>
+      </c>
+      <c r="B1589" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1589" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1589" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="inlineStr">
+        <is>
+          <t>21BCE5251</t>
+        </is>
+      </c>
+      <c r="B1590" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1590" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1590" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="inlineStr">
+        <is>
+          <t>21BCE5252</t>
+        </is>
+      </c>
+      <c r="B1591" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1591" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1591" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="inlineStr">
+        <is>
+          <t>21BCE5253</t>
+        </is>
+      </c>
+      <c r="B1592" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1592" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1592" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="inlineStr">
+        <is>
+          <t>21BCE5254</t>
+        </is>
+      </c>
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1593" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1593" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="inlineStr">
+        <is>
+          <t>21BCE5255</t>
+        </is>
+      </c>
+      <c r="B1594" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1594" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1594" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="inlineStr">
+        <is>
+          <t>21BCT0032</t>
+        </is>
+      </c>
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1595" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1595" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="inlineStr">
+        <is>
+          <t>21BCT0033</t>
+        </is>
+      </c>
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1596" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1596" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="inlineStr">
+        <is>
+          <t>21BEC1476</t>
+        </is>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1597" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1597" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="inlineStr">
+        <is>
+          <t>21BEC1477</t>
+        </is>
+      </c>
+      <c r="B1598" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1598" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1598" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="inlineStr">
+        <is>
+          <t>21BEC1478</t>
+        </is>
+      </c>
+      <c r="B1599" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1599" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1599" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="inlineStr">
+        <is>
+          <t>21BEC1479</t>
+        </is>
+      </c>
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1600" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1600" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="inlineStr">
+        <is>
+          <t>21BIT0583</t>
+        </is>
+      </c>
+      <c r="B1601" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1601" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1601" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="inlineStr">
+        <is>
+          <t>21BIT0584</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1602" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1602" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="inlineStr">
+        <is>
+          <t>21BIT0585</t>
+        </is>
+      </c>
+      <c r="B1603" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1603" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1603" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="inlineStr">
+        <is>
+          <t>21BKT0032</t>
+        </is>
+      </c>
+      <c r="B1604" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1604" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1604" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t>21BCB0121</t>
+        </is>
+      </c>
+      <c r="B1605" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1605" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1605" t="inlineStr">
+        <is>
+          <t>BCB</t>
+        </is>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t>21BDS0113</t>
+        </is>
+      </c>
+      <c r="B1606" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1606" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1606" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="inlineStr">
+        <is>
+          <t>21BDS0114</t>
+        </is>
+      </c>
+      <c r="B1607" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1607" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1607" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="inlineStr">
+        <is>
+          <t>21BCI0083</t>
+        </is>
+      </c>
+      <c r="B1608" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1608" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1608" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="inlineStr">
+        <is>
+          <t>21BCE9221</t>
+        </is>
+      </c>
+      <c r="B1609" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1609" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1609" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="inlineStr">
+        <is>
+          <t>21BCE9222</t>
+        </is>
+      </c>
+      <c r="B1610" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1610" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1610" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="inlineStr">
+        <is>
+          <t>21BKT0156</t>
+        </is>
+      </c>
+      <c r="B1611" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1611" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1611" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -10737,7 +10737,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>16.84LPA</t>
+          <t>18.92LPA</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>16.84LPA</t>
+          <t>18.92LPA</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -10781,7 +10781,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>16.84LPA</t>
+          <t>18.92LPA</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -10803,7 +10803,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>16.84LPA</t>
+          <t>18.92LPA</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>16.84LPA</t>
+          <t>18.92LPA</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -10847,7 +10847,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>16.84LPA</t>
+          <t>18.92LPA</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>16.84LPA</t>
+          <t>18.92LPA</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -10891,7 +10891,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>16.84LPA</t>
+          <t>18.92LPA</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -10913,7 +10913,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>16.84LPA</t>
+          <t>18.92LPA</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -10935,7 +10935,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>16.29LPA</t>
+          <t>18.92LPA</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -10957,7 +10957,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>16.29LPA</t>
+          <t>18.92LPA</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -10979,7 +10979,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>16.29LPA</t>
+          <t>18.92LPA</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -11199,7 +11199,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>16.84LPA</t>
+          <t>18.92LPA</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1821"/>
+  <dimension ref="A1:D1873"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40498,6 +40498,1150 @@
         </is>
       </c>
     </row>
+    <row r="1822">
+      <c r="A1822" t="inlineStr">
+        <is>
+          <t>21BPS1630</t>
+        </is>
+      </c>
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t>8.25LPA</t>
+        </is>
+      </c>
+      <c r="C1822" t="inlineStr">
+        <is>
+          <t>Standard Chartered</t>
+        </is>
+      </c>
+      <c r="D1822" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="inlineStr">
+        <is>
+          <t>21BBS0225</t>
+        </is>
+      </c>
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t>8.25LPA</t>
+        </is>
+      </c>
+      <c r="C1823" t="inlineStr">
+        <is>
+          <t>Standard Chartered</t>
+        </is>
+      </c>
+      <c r="D1823" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="inlineStr">
+        <is>
+          <t>21BCB7099</t>
+        </is>
+      </c>
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t>8.25LPA</t>
+        </is>
+      </c>
+      <c r="C1824" t="inlineStr">
+        <is>
+          <t>Standard Chartered</t>
+        </is>
+      </c>
+      <c r="D1824" t="inlineStr">
+        <is>
+          <t>BCB</t>
+        </is>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="inlineStr">
+        <is>
+          <t>21BCI0081</t>
+        </is>
+      </c>
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t>8.25LPA</t>
+        </is>
+      </c>
+      <c r="C1825" t="inlineStr">
+        <is>
+          <t>Standard Chartered</t>
+        </is>
+      </c>
+      <c r="D1825" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="inlineStr">
+        <is>
+          <t>21BDS0219</t>
+        </is>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>8.25LPA</t>
+        </is>
+      </c>
+      <c r="C1826" t="inlineStr">
+        <is>
+          <t>Standard Chartered</t>
+        </is>
+      </c>
+      <c r="D1826" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="inlineStr">
+        <is>
+          <t>21BCI0352</t>
+        </is>
+      </c>
+      <c r="B1827" t="inlineStr">
+        <is>
+          <t>8.25LPA</t>
+        </is>
+      </c>
+      <c r="C1827" t="inlineStr">
+        <is>
+          <t>Standard Chartered</t>
+        </is>
+      </c>
+      <c r="D1827" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="inlineStr">
+        <is>
+          <t>21BDS0190</t>
+        </is>
+      </c>
+      <c r="B1828" t="inlineStr">
+        <is>
+          <t>8.25LPA</t>
+        </is>
+      </c>
+      <c r="C1828" t="inlineStr">
+        <is>
+          <t>Standard Chartered</t>
+        </is>
+      </c>
+      <c r="D1828" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="inlineStr">
+        <is>
+          <t>21BME0468</t>
+        </is>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C1829" t="inlineStr">
+        <is>
+          <t>Ather Energy</t>
+        </is>
+      </c>
+      <c r="D1829" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="inlineStr">
+        <is>
+          <t>21BDS0088</t>
+        </is>
+      </c>
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C1830" t="inlineStr">
+        <is>
+          <t>Merilytics</t>
+        </is>
+      </c>
+      <c r="D1830" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="inlineStr">
+        <is>
+          <t>21BCE1439</t>
+        </is>
+      </c>
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C1831" t="inlineStr">
+        <is>
+          <t>Merilytics</t>
+        </is>
+      </c>
+      <c r="D1831" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="inlineStr">
+        <is>
+          <t>21BAI1037</t>
+        </is>
+      </c>
+      <c r="B1832" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C1832" t="inlineStr">
+        <is>
+          <t>Merilytics</t>
+        </is>
+      </c>
+      <c r="D1832" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="inlineStr">
+        <is>
+          <t>21BCE3527</t>
+        </is>
+      </c>
+      <c r="B1833" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1833" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1833" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="inlineStr">
+        <is>
+          <t>21BCE5369</t>
+        </is>
+      </c>
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1834" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1834" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="inlineStr">
+        <is>
+          <t>21BCE2909</t>
+        </is>
+      </c>
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1835" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1835" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="inlineStr">
+        <is>
+          <t>21BCE7766</t>
+        </is>
+      </c>
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1836" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1836" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="inlineStr">
+        <is>
+          <t>21BCE7068</t>
+        </is>
+      </c>
+      <c r="B1837" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1837" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1837" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="inlineStr">
+        <is>
+          <t>21BAI10291</t>
+        </is>
+      </c>
+      <c r="B1838" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1838" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1838" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="inlineStr">
+        <is>
+          <t>21BAI10404</t>
+        </is>
+      </c>
+      <c r="B1839" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1839" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1839" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="inlineStr">
+        <is>
+          <t>21BCE9062</t>
+        </is>
+      </c>
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1840" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1840" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="inlineStr">
+        <is>
+          <t>21BCE10425</t>
+        </is>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1841" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1841" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="inlineStr">
+        <is>
+          <t>21BCY10011</t>
+        </is>
+      </c>
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1842" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1842" t="inlineStr">
+        <is>
+          <t>BCY</t>
+        </is>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="inlineStr">
+        <is>
+          <t>21BCY10096</t>
+        </is>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1843" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1843" t="inlineStr">
+        <is>
+          <t>BCY</t>
+        </is>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="inlineStr">
+        <is>
+          <t>21BEE0100</t>
+        </is>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1844" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1844" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="inlineStr">
+        <is>
+          <t>21BEC2362</t>
+        </is>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1845" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1845" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="inlineStr">
+        <is>
+          <t>21BCE0713</t>
+        </is>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1846" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1846" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="inlineStr">
+        <is>
+          <t>21BAI10024</t>
+        </is>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1847" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1847" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="inlineStr">
+        <is>
+          <t>21BEC2194</t>
+        </is>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1848" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1848" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="inlineStr">
+        <is>
+          <t>21BAI1019</t>
+        </is>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1849" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1849" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="inlineStr">
+        <is>
+          <t>21BEC0058</t>
+        </is>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1850" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1850" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="inlineStr">
+        <is>
+          <t>21BEC0115</t>
+        </is>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1851" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1851" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="inlineStr">
+        <is>
+          <t>21BEC0535</t>
+        </is>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1852" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1852" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="inlineStr">
+        <is>
+          <t>21BEC0846</t>
+        </is>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1853" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1853" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="inlineStr">
+        <is>
+          <t>21BEI0034</t>
+        </is>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1854" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1854" t="inlineStr">
+        <is>
+          <t>BEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="inlineStr">
+        <is>
+          <t>21BCE2776</t>
+        </is>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1855" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1855" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="inlineStr">
+        <is>
+          <t>21BCE0399</t>
+        </is>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1856" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1856" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="inlineStr">
+        <is>
+          <t>21BCE7642</t>
+        </is>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1857" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1857" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="inlineStr">
+        <is>
+          <t>21BEE0146</t>
+        </is>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1858" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1858" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="inlineStr">
+        <is>
+          <t>21BDS0108</t>
+        </is>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1859" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1859" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="inlineStr">
+        <is>
+          <t>21BDS0151</t>
+        </is>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1860" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1860" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="inlineStr">
+        <is>
+          <t>21BCE1901</t>
+        </is>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1861" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1861" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="inlineStr">
+        <is>
+          <t>21BCE9453</t>
+        </is>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1862" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1862" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="inlineStr">
+        <is>
+          <t>21BDS0195</t>
+        </is>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1863" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1863" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="inlineStr">
+        <is>
+          <t>21BCE1440</t>
+        </is>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1864" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1864" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="inlineStr">
+        <is>
+          <t>21BCE5601</t>
+        </is>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1865" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1865" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>21BCE0465</t>
+        </is>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1866" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1866" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="inlineStr">
+        <is>
+          <t>21BCE7242</t>
+        </is>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1867" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1867" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="inlineStr">
+        <is>
+          <t>21BCE9260</t>
+        </is>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1868" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1868" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="inlineStr">
+        <is>
+          <t>21BCE2813</t>
+        </is>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1869" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1869" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="inlineStr">
+        <is>
+          <t>21BCE11034</t>
+        </is>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1870" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1870" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="inlineStr">
+        <is>
+          <t>21BCE0427</t>
+        </is>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1871" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1871" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="inlineStr">
+        <is>
+          <t>21BCE0573</t>
+        </is>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1872" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1872" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="inlineStr">
+        <is>
+          <t>21BCE5753</t>
+        </is>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1873" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1873" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1873"/>
+  <dimension ref="A1:D1889"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41642,6 +41642,358 @@
         </is>
       </c>
     </row>
+    <row r="1874">
+      <c r="A1874" t="inlineStr">
+        <is>
+          <t>21BCB0079</t>
+        </is>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>8.25LPA</t>
+        </is>
+      </c>
+      <c r="C1874" t="inlineStr">
+        <is>
+          <t>Standard Chartered</t>
+        </is>
+      </c>
+      <c r="D1874" t="inlineStr">
+        <is>
+          <t>BCB</t>
+        </is>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
+        <is>
+          <t>21BCE0300</t>
+        </is>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C1875" t="inlineStr">
+        <is>
+          <t>MUFG</t>
+        </is>
+      </c>
+      <c r="D1875" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="inlineStr">
+        <is>
+          <t>21BCI0276</t>
+        </is>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C1876" t="inlineStr">
+        <is>
+          <t>MUFG</t>
+        </is>
+      </c>
+      <c r="D1876" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
+        <is>
+          <t>21BIT0037</t>
+        </is>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C1877" t="inlineStr">
+        <is>
+          <t>MUFG</t>
+        </is>
+      </c>
+      <c r="D1877" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr">
+        <is>
+          <t>21BCE8748</t>
+        </is>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C1878" t="inlineStr">
+        <is>
+          <t>MUFG</t>
+        </is>
+      </c>
+      <c r="D1878" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>21BLC1422</t>
+        </is>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C1879" t="inlineStr">
+        <is>
+          <t>MUFG</t>
+        </is>
+      </c>
+      <c r="D1879" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="inlineStr">
+        <is>
+          <t>21BDS0056</t>
+        </is>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C1880" t="inlineStr">
+        <is>
+          <t>MUFG</t>
+        </is>
+      </c>
+      <c r="D1880" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="inlineStr">
+        <is>
+          <t>21BAI1614</t>
+        </is>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C1881" t="inlineStr">
+        <is>
+          <t>MUFG</t>
+        </is>
+      </c>
+      <c r="D1881" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="inlineStr">
+        <is>
+          <t>21BIT0496</t>
+        </is>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1882" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1882" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="inlineStr">
+        <is>
+          <t>21BEC1128</t>
+        </is>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1883" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1883" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="inlineStr">
+        <is>
+          <t>21BCE7191</t>
+        </is>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1884" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1884" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="inlineStr">
+        <is>
+          <t>21BPS1493</t>
+        </is>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1885" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1885" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="inlineStr">
+        <is>
+          <t>21BAI1802</t>
+        </is>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1886" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1886" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="inlineStr">
+        <is>
+          <t>21BEC0050</t>
+        </is>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C1887" t="inlineStr">
+        <is>
+          <t>Deloitte India</t>
+        </is>
+      </c>
+      <c r="D1887" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="inlineStr">
+        <is>
+          <t>21BCE1035</t>
+        </is>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>18.5LPA</t>
+        </is>
+      </c>
+      <c r="C1888" t="inlineStr">
+        <is>
+          <t>Optum</t>
+        </is>
+      </c>
+      <c r="D1888" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="inlineStr">
+        <is>
+          <t>21BCE5755</t>
+        </is>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>18.5LPA</t>
+        </is>
+      </c>
+      <c r="C1889" t="inlineStr">
+        <is>
+          <t>Optum</t>
+        </is>
+      </c>
+      <c r="D1889" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1889"/>
+  <dimension ref="A1:D1906"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>42.93LPA</t>
+          <t>33.5LPA</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4753,7 +4753,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4775,7 +4775,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4907,7 +4907,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4973,7 +4973,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -5105,7 +5105,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -5149,7 +5149,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -5171,7 +5171,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -17030,7 +17030,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -17052,7 +17052,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -17074,7 +17074,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -41989,6 +41989,380 @@
         </is>
       </c>
       <c r="D1889" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="inlineStr">
+        <is>
+          <t>21BEC1827</t>
+        </is>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C1890" t="inlineStr">
+        <is>
+          <t>Ather Energy</t>
+        </is>
+      </c>
+      <c r="D1890" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="inlineStr">
+        <is>
+          <t>21BEE0326</t>
+        </is>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C1891" t="inlineStr">
+        <is>
+          <t>Ather Energy</t>
+        </is>
+      </c>
+      <c r="D1891" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="inlineStr">
+        <is>
+          <t>21BEE1018</t>
+        </is>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C1892" t="inlineStr">
+        <is>
+          <t>Ather Energy</t>
+        </is>
+      </c>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="inlineStr">
+        <is>
+          <t>21BME0542</t>
+        </is>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C1893" t="inlineStr">
+        <is>
+          <t>Ather Energy</t>
+        </is>
+      </c>
+      <c r="D1893" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="inlineStr">
+        <is>
+          <t>21BCM0180</t>
+        </is>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1894" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1894" t="inlineStr">
+        <is>
+          <t>BCM</t>
+        </is>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="inlineStr">
+        <is>
+          <t>21BME1057</t>
+        </is>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1895" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1895" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="inlineStr">
+        <is>
+          <t>21BME1207</t>
+        </is>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1896" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1896" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="inlineStr">
+        <is>
+          <t>21BEC0467</t>
+        </is>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>15.5LPA</t>
+        </is>
+      </c>
+      <c r="C1897" t="inlineStr">
+        <is>
+          <t>LEK Consulting</t>
+        </is>
+      </c>
+      <c r="D1897" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="inlineStr">
+        <is>
+          <t>21BBT0182</t>
+        </is>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>15.5LPA</t>
+        </is>
+      </c>
+      <c r="C1898" t="inlineStr">
+        <is>
+          <t>LEK Consulting</t>
+        </is>
+      </c>
+      <c r="D1898" t="inlineStr">
+        <is>
+          <t>BBT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>21BCE2298</t>
+        </is>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>15.5LPA</t>
+        </is>
+      </c>
+      <c r="C1899" t="inlineStr">
+        <is>
+          <t>LEK Consulting</t>
+        </is>
+      </c>
+      <c r="D1899" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="inlineStr">
+        <is>
+          <t>21BEC2402</t>
+        </is>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>15.5LPA</t>
+        </is>
+      </c>
+      <c r="C1900" t="inlineStr">
+        <is>
+          <t>LEK Consulting</t>
+        </is>
+      </c>
+      <c r="D1900" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="inlineStr">
+        <is>
+          <t>21BME0168</t>
+        </is>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>15.5LPA</t>
+        </is>
+      </c>
+      <c r="C1901" t="inlineStr">
+        <is>
+          <t>LEK Consulting</t>
+        </is>
+      </c>
+      <c r="D1901" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="inlineStr">
+        <is>
+          <t>21BBT0132</t>
+        </is>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>15.5LPA</t>
+        </is>
+      </c>
+      <c r="C1902" t="inlineStr">
+        <is>
+          <t>LEK Consulting</t>
+        </is>
+      </c>
+      <c r="D1902" t="inlineStr">
+        <is>
+          <t>BBT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="inlineStr">
+        <is>
+          <t>21BCE5737</t>
+        </is>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>18LPA</t>
+        </is>
+      </c>
+      <c r="C1903" t="inlineStr">
+        <is>
+          <t>Blackrock</t>
+        </is>
+      </c>
+      <c r="D1903" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="inlineStr">
+        <is>
+          <t>21BDS0338</t>
+        </is>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>18LPA</t>
+        </is>
+      </c>
+      <c r="C1904" t="inlineStr">
+        <is>
+          <t>Blackrock</t>
+        </is>
+      </c>
+      <c r="D1904" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="inlineStr">
+        <is>
+          <t>21BCE0818</t>
+        </is>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>18LPA</t>
+        </is>
+      </c>
+      <c r="C1905" t="inlineStr">
+        <is>
+          <t>Blackrock</t>
+        </is>
+      </c>
+      <c r="D1905" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="inlineStr">
+        <is>
+          <t>21BCE9122</t>
+        </is>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>18LPA</t>
+        </is>
+      </c>
+      <c r="C1906" t="inlineStr">
+        <is>
+          <t>Blackrock</t>
+        </is>
+      </c>
+      <c r="D1906" t="inlineStr">
         <is>
           <t>BCE</t>
         </is>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1906"/>
+  <dimension ref="A1:D1939"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42368,6 +42368,732 @@
         </is>
       </c>
     </row>
+    <row r="1907">
+      <c r="A1907" t="inlineStr">
+        <is>
+          <t>21BCE0002</t>
+        </is>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1907" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1907" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="inlineStr">
+        <is>
+          <t>21BCE3983</t>
+        </is>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1908" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1908" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="inlineStr">
+        <is>
+          <t>21BCE3014</t>
+        </is>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1909" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1909" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="inlineStr">
+        <is>
+          <t>21BCE9667</t>
+        </is>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1910" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1910" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="inlineStr">
+        <is>
+          <t>21BCE8912</t>
+        </is>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1911" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1911" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="inlineStr">
+        <is>
+          <t>21BCE3349</t>
+        </is>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1912" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1912" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="inlineStr">
+        <is>
+          <t>21BCE3391</t>
+        </is>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1913" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1913" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="inlineStr">
+        <is>
+          <t>21BCE9434</t>
+        </is>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1914" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1914" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="inlineStr">
+        <is>
+          <t>21BCE7164</t>
+        </is>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1915" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1915" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="inlineStr">
+        <is>
+          <t>21BCE9220</t>
+        </is>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1916" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1916" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="inlineStr">
+        <is>
+          <t>21BCE1293</t>
+        </is>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1917" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1917" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="inlineStr">
+        <is>
+          <t>21BCE2948</t>
+        </is>
+      </c>
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1918" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1918" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="inlineStr">
+        <is>
+          <t>21BIT0730</t>
+        </is>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1919" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1919" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="inlineStr">
+        <is>
+          <t>21BCE0938</t>
+        </is>
+      </c>
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1920" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1920" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="inlineStr">
+        <is>
+          <t>21BCE2353</t>
+        </is>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1921" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1921" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="inlineStr">
+        <is>
+          <t>21BCE7183</t>
+        </is>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1922" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1922" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="inlineStr">
+        <is>
+          <t>21BIT0433</t>
+        </is>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1923" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1923" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="inlineStr">
+        <is>
+          <t>21BCE1978</t>
+        </is>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1924" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1924" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="inlineStr">
+        <is>
+          <t>21BCE0753</t>
+        </is>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1925" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1925" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="inlineStr">
+        <is>
+          <t>21BCE1989</t>
+        </is>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1926" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1926" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="inlineStr">
+        <is>
+          <t>21BCE9792</t>
+        </is>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1927" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1927" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="inlineStr">
+        <is>
+          <t>21BCE8650</t>
+        </is>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1928" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1928" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="inlineStr">
+        <is>
+          <t>21BDS0269</t>
+        </is>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1929" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1929" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="inlineStr">
+        <is>
+          <t>21BCE9101</t>
+        </is>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1930" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1930" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="inlineStr">
+        <is>
+          <t>21BAI1231</t>
+        </is>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1931" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1931" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="inlineStr">
+        <is>
+          <t>21BCE9931</t>
+        </is>
+      </c>
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1932" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1932" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="inlineStr">
+        <is>
+          <t>21BCE6169</t>
+        </is>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1933" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1933" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="inlineStr">
+        <is>
+          <t>21BIT0731</t>
+        </is>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1934" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1934" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="inlineStr">
+        <is>
+          <t>21BCE7632</t>
+        </is>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1935" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1935" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="inlineStr">
+        <is>
+          <t>21BCE9356</t>
+        </is>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1936" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1936" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="inlineStr">
+        <is>
+          <t>21BCE2349</t>
+        </is>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1937" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1937" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="inlineStr">
+        <is>
+          <t>21BCE7926</t>
+        </is>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1938" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1938" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="inlineStr">
+        <is>
+          <t>21BEI0051</t>
+        </is>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C1939" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D1939" t="inlineStr">
+        <is>
+          <t>BEI</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -7239,7 +7239,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>22.6LPA</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1939"/>
+  <dimension ref="A1:D1946"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43094,6 +43094,160 @@
         </is>
       </c>
     </row>
+    <row r="1940">
+      <c r="A1940" t="inlineStr">
+        <is>
+          <t>21BCE0149</t>
+        </is>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>18LPA</t>
+        </is>
+      </c>
+      <c r="C1940" t="inlineStr">
+        <is>
+          <t>Zluri</t>
+        </is>
+      </c>
+      <c r="D1940" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="inlineStr">
+        <is>
+          <t>21BCE0963</t>
+        </is>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>18LPA</t>
+        </is>
+      </c>
+      <c r="C1941" t="inlineStr">
+        <is>
+          <t>Zluri</t>
+        </is>
+      </c>
+      <c r="D1941" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="inlineStr">
+        <is>
+          <t>21BAI1706</t>
+        </is>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>18LPA</t>
+        </is>
+      </c>
+      <c r="C1942" t="inlineStr">
+        <is>
+          <t>Zluri</t>
+        </is>
+      </c>
+      <c r="D1942" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="inlineStr">
+        <is>
+          <t>21BCE9853</t>
+        </is>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>18LPA</t>
+        </is>
+      </c>
+      <c r="C1943" t="inlineStr">
+        <is>
+          <t>Zluri</t>
+        </is>
+      </c>
+      <c r="D1943" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="inlineStr">
+        <is>
+          <t>21BAI1644</t>
+        </is>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>18LPA</t>
+        </is>
+      </c>
+      <c r="C1944" t="inlineStr">
+        <is>
+          <t>Zluri</t>
+        </is>
+      </c>
+      <c r="D1944" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="inlineStr">
+        <is>
+          <t>21BME0123</t>
+        </is>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C1945" t="inlineStr">
+        <is>
+          <t>Forbes Marshall</t>
+        </is>
+      </c>
+      <c r="D1945" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="inlineStr">
+        <is>
+          <t>21BIT0273</t>
+        </is>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C1946" t="inlineStr">
+        <is>
+          <t>Forbes Marshall</t>
+        </is>
+      </c>
+      <c r="D1946" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1946"/>
+  <dimension ref="A1:D1951"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43248,6 +43248,116 @@
         </is>
       </c>
     </row>
+    <row r="1947">
+      <c r="A1947" t="inlineStr">
+        <is>
+          <t>21BCE11692</t>
+        </is>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C1947" t="inlineStr">
+        <is>
+          <t>SOCIETE GENERALE</t>
+        </is>
+      </c>
+      <c r="D1947" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="inlineStr">
+        <is>
+          <t>21BCE9377</t>
+        </is>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C1948" t="inlineStr">
+        <is>
+          <t>SOCIETE GENERALE</t>
+        </is>
+      </c>
+      <c r="D1948" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="inlineStr">
+        <is>
+          <t>21BCE7985</t>
+        </is>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C1949" t="inlineStr">
+        <is>
+          <t>SOCIETE GENERALE</t>
+        </is>
+      </c>
+      <c r="D1949" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="inlineStr">
+        <is>
+          <t>21BCE0152</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C1950" t="inlineStr">
+        <is>
+          <t>TCS R&amp;D</t>
+        </is>
+      </c>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="inlineStr">
+        <is>
+          <t>21BRS1608</t>
+        </is>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C1951" t="inlineStr">
+        <is>
+          <t>Trademarkia</t>
+        </is>
+      </c>
+      <c r="D1951" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1951"/>
+  <dimension ref="A1:D2002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43358,6 +43358,1129 @@
         </is>
       </c>
     </row>
+    <row r="1952">
+      <c r="A1952" t="inlineStr">
+        <is>
+          <t>21BCE7134</t>
+        </is>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C1952" t="inlineStr">
+        <is>
+          <t>Quantiphi Analytics</t>
+        </is>
+      </c>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="inlineStr">
+        <is>
+          <t>21BRS1416</t>
+        </is>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C1953" t="inlineStr">
+        <is>
+          <t>Quantiphi Analytics</t>
+        </is>
+      </c>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="inlineStr">
+        <is>
+          <t>21BCE10671</t>
+        </is>
+      </c>
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C1954" t="inlineStr">
+        <is>
+          <t>Quantiphi Analytics</t>
+        </is>
+      </c>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="inlineStr">
+        <is>
+          <t>21BCE0470</t>
+        </is>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C1955" t="inlineStr">
+        <is>
+          <t>Quantiphi Analytics</t>
+        </is>
+      </c>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="inlineStr">
+        <is>
+          <t>21BCE7044</t>
+        </is>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C1956" t="inlineStr">
+        <is>
+          <t>Quantiphi Analytics</t>
+        </is>
+      </c>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="inlineStr">
+        <is>
+          <t>21BCE7829</t>
+        </is>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C1957" t="inlineStr">
+        <is>
+          <t>Quantiphi Analytics</t>
+        </is>
+      </c>
+      <c r="D1957" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="inlineStr">
+        <is>
+          <t>21BCE0315</t>
+        </is>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C1958" t="inlineStr">
+        <is>
+          <t>Quantiphi Analytics</t>
+        </is>
+      </c>
+      <c r="D1958" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="inlineStr">
+        <is>
+          <t>21BCE9040</t>
+        </is>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C1959" t="inlineStr">
+        <is>
+          <t>Quantiphi Analytics</t>
+        </is>
+      </c>
+      <c r="D1959" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="inlineStr">
+        <is>
+          <t>21BCE3194</t>
+        </is>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C1960" t="inlineStr">
+        <is>
+          <t>Quantiphi Analytics</t>
+        </is>
+      </c>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="inlineStr">
+        <is>
+          <t>21BCE9146</t>
+        </is>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C1961" t="inlineStr">
+        <is>
+          <t>Quantiphi Analytics</t>
+        </is>
+      </c>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="inlineStr">
+        <is>
+          <t>21BCE2234</t>
+        </is>
+      </c>
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C1962" t="inlineStr">
+        <is>
+          <t>Quantiphi Analytics</t>
+        </is>
+      </c>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="inlineStr">
+        <is>
+          <t>21BAI1873</t>
+        </is>
+      </c>
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C1963" t="inlineStr">
+        <is>
+          <t>Quantiphi Analytics</t>
+        </is>
+      </c>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="inlineStr">
+        <is>
+          <t>21BCT0093</t>
+        </is>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C1964" t="inlineStr">
+        <is>
+          <t>Prodapt</t>
+        </is>
+      </c>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="inlineStr">
+        <is>
+          <t>21BIT0011</t>
+        </is>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C1965" t="inlineStr">
+        <is>
+          <t>Prodapt</t>
+        </is>
+      </c>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="inlineStr">
+        <is>
+          <t>21BCE2712</t>
+        </is>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C1966" t="inlineStr">
+        <is>
+          <t>Prodapt</t>
+        </is>
+      </c>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="inlineStr">
+        <is>
+          <t>21BCE0184</t>
+        </is>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C1967" t="inlineStr">
+        <is>
+          <t>Prodapt</t>
+        </is>
+      </c>
+      <c r="D1967" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="inlineStr">
+        <is>
+          <t>21BCE2522</t>
+        </is>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C1968" t="inlineStr">
+        <is>
+          <t>Prodapt</t>
+        </is>
+      </c>
+      <c r="D1968" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="inlineStr">
+        <is>
+          <t>21BCI0257</t>
+        </is>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1969" t="inlineStr">
+        <is>
+          <t>Prodapt</t>
+        </is>
+      </c>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="inlineStr">
+        <is>
+          <t>21BCE2285</t>
+        </is>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1970" t="inlineStr">
+        <is>
+          <t>Prodapt</t>
+        </is>
+      </c>
+      <c r="D1970" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="inlineStr">
+        <is>
+          <t>21BCE3843</t>
+        </is>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1971" t="inlineStr">
+        <is>
+          <t>Prodapt</t>
+        </is>
+      </c>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="inlineStr">
+        <is>
+          <t>21BCE0578</t>
+        </is>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1972" t="inlineStr">
+        <is>
+          <t>Prodapt</t>
+        </is>
+      </c>
+      <c r="D1972" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="inlineStr">
+        <is>
+          <t>21BCE3078</t>
+        </is>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1973" t="inlineStr">
+        <is>
+          <t>Prodapt</t>
+        </is>
+      </c>
+      <c r="D1973" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="inlineStr">
+        <is>
+          <t>21BCE0856</t>
+        </is>
+      </c>
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1974" t="inlineStr">
+        <is>
+          <t>Prodapt</t>
+        </is>
+      </c>
+      <c r="D1974" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="inlineStr">
+        <is>
+          <t>21BCE0273</t>
+        </is>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1975" t="inlineStr">
+        <is>
+          <t>Prodapt</t>
+        </is>
+      </c>
+      <c r="D1975" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="inlineStr">
+        <is>
+          <t>21BCE2831</t>
+        </is>
+      </c>
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1976" t="inlineStr">
+        <is>
+          <t>Prodapt</t>
+        </is>
+      </c>
+      <c r="D1976" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="inlineStr">
+        <is>
+          <t>21BIT0290</t>
+        </is>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1977" t="inlineStr">
+        <is>
+          <t>Prodapt</t>
+        </is>
+      </c>
+      <c r="D1977" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="inlineStr">
+        <is>
+          <t>21BCE3468</t>
+        </is>
+      </c>
+      <c r="B1978" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1978" t="inlineStr">
+        <is>
+          <t>Prodapt</t>
+        </is>
+      </c>
+      <c r="D1978" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" t="inlineStr">
+        <is>
+          <t>21BCI0219</t>
+        </is>
+      </c>
+      <c r="B1979" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1979" t="inlineStr">
+        <is>
+          <t>Prodapt</t>
+        </is>
+      </c>
+      <c r="D1979" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="inlineStr">
+        <is>
+          <t>21BCE0685</t>
+        </is>
+      </c>
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1980" t="inlineStr">
+        <is>
+          <t>Prodapt</t>
+        </is>
+      </c>
+      <c r="D1980" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="inlineStr">
+        <is>
+          <t>21BCE3515</t>
+        </is>
+      </c>
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1981" t="inlineStr">
+        <is>
+          <t>Prodapt</t>
+        </is>
+      </c>
+      <c r="D1981" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" t="inlineStr">
+        <is>
+          <t>21BCE2902</t>
+        </is>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1982" t="inlineStr">
+        <is>
+          <t>Prodapt</t>
+        </is>
+      </c>
+      <c r="D1982" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="inlineStr">
+        <is>
+          <t>21BCE3957</t>
+        </is>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1983" t="inlineStr">
+        <is>
+          <t>Prodapt</t>
+        </is>
+      </c>
+      <c r="D1983" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" t="inlineStr">
+        <is>
+          <t>21BCI0376</t>
+        </is>
+      </c>
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1984" t="inlineStr">
+        <is>
+          <t>Prodapt</t>
+        </is>
+      </c>
+      <c r="D1984" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" t="inlineStr">
+        <is>
+          <t>21BCT0266</t>
+        </is>
+      </c>
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1985" t="inlineStr">
+        <is>
+          <t>Prodapt</t>
+        </is>
+      </c>
+      <c r="D1985" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="inlineStr">
+        <is>
+          <t>21BCE0961</t>
+        </is>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1986" t="inlineStr">
+        <is>
+          <t>Prodapt</t>
+        </is>
+      </c>
+      <c r="D1986" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="inlineStr">
+        <is>
+          <t>21BCI0045</t>
+        </is>
+      </c>
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C1987" t="inlineStr">
+        <is>
+          <t>Prodapt</t>
+        </is>
+      </c>
+      <c r="D1987" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" t="inlineStr">
+        <is>
+          <t>21BKT0022</t>
+        </is>
+      </c>
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t>9.34LPA</t>
+        </is>
+      </c>
+      <c r="C1988" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="D1988" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="inlineStr">
+        <is>
+          <t>21BIT0271</t>
+        </is>
+      </c>
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>9.34LPA</t>
+        </is>
+      </c>
+      <c r="C1989" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="D1989" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" t="inlineStr">
+        <is>
+          <t>21BIT0516</t>
+        </is>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>9.34LPA</t>
+        </is>
+      </c>
+      <c r="C1990" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="D1990" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" t="inlineStr">
+        <is>
+          <t>21BEC0961</t>
+        </is>
+      </c>
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>9.34LPA</t>
+        </is>
+      </c>
+      <c r="C1991" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="D1991" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="inlineStr">
+        <is>
+          <t>21BCT0424</t>
+        </is>
+      </c>
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>9.34LPA</t>
+        </is>
+      </c>
+      <c r="C1992" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="D1992" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" t="inlineStr">
+        <is>
+          <t>21BEC2054</t>
+        </is>
+      </c>
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>9.34LPA</t>
+        </is>
+      </c>
+      <c r="C1993" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="D1993" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="inlineStr">
+        <is>
+          <t>21BME0002</t>
+        </is>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>9.34LPA</t>
+        </is>
+      </c>
+      <c r="C1994" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="D1994" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="inlineStr">
+        <is>
+          <t>21BAI1862</t>
+        </is>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>9.34LPA</t>
+        </is>
+      </c>
+      <c r="C1995" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="D1995" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="inlineStr">
+        <is>
+          <t>21BCE0930</t>
+        </is>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>9.34LPA</t>
+        </is>
+      </c>
+      <c r="C1996" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="D1996" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" t="inlineStr">
+        <is>
+          <t>21BEC0403</t>
+        </is>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>9.34LPA</t>
+        </is>
+      </c>
+      <c r="C1997" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="D1997" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="inlineStr">
+        <is>
+          <t>21BIT0527</t>
+        </is>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>9.34LPA</t>
+        </is>
+      </c>
+      <c r="C1998" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="D1998" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="inlineStr">
+        <is>
+          <t>21BEC0533</t>
+        </is>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>9.34LPA</t>
+        </is>
+      </c>
+      <c r="C1999" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21BKT0191
+</t>
+        </is>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>9.34LPA</t>
+        </is>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="inlineStr">
+        <is>
+          <t>21BPS1500</t>
+        </is>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2001" t="inlineStr">
+        <is>
+          <t>Accelerize 360</t>
+        </is>
+      </c>
+      <c r="D2001" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" t="inlineStr">
+        <is>
+          <t>21BCM0134</t>
+        </is>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2002" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D2002" t="inlineStr">
+        <is>
+          <t>BCM</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -44158,7 +44158,7 @@
       </c>
       <c r="B1988" t="inlineStr">
         <is>
-          <t>9.34LPA</t>
+          <t>19.3LPA</t>
         </is>
       </c>
       <c r="C1988" t="inlineStr">
@@ -44180,7 +44180,7 @@
       </c>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>9.34LPA</t>
+          <t>19.3LPA</t>
         </is>
       </c>
       <c r="C1989" t="inlineStr">
@@ -44202,7 +44202,7 @@
       </c>
       <c r="B1990" t="inlineStr">
         <is>
-          <t>9.34LPA</t>
+          <t>19.3LPA</t>
         </is>
       </c>
       <c r="C1990" t="inlineStr">
@@ -44224,7 +44224,7 @@
       </c>
       <c r="B1991" t="inlineStr">
         <is>
-          <t>9.34LPA</t>
+          <t>19.3LPA</t>
         </is>
       </c>
       <c r="C1991" t="inlineStr">
@@ -44246,7 +44246,7 @@
       </c>
       <c r="B1992" t="inlineStr">
         <is>
-          <t>9.34LPA</t>
+          <t>19.3LPA</t>
         </is>
       </c>
       <c r="C1992" t="inlineStr">
@@ -44268,7 +44268,7 @@
       </c>
       <c r="B1993" t="inlineStr">
         <is>
-          <t>9.34LPA</t>
+          <t>19.3LPA</t>
         </is>
       </c>
       <c r="C1993" t="inlineStr">

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -44268,7 +44268,7 @@
       </c>
       <c r="B1993" t="inlineStr">
         <is>
-          <t>19.3LPA</t>
+          <t>9.34LPA</t>
         </is>
       </c>
       <c r="C1993" t="inlineStr">
@@ -44423,7 +44423,7 @@
       </c>
       <c r="B2000" t="inlineStr">
         <is>
-          <t>9.34LPA</t>
+          <t>19.3LPA</t>
         </is>
       </c>
       <c r="C2000" t="inlineStr">

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2002"/>
+  <dimension ref="A1:D2061"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44481,6 +44481,1288 @@
         </is>
       </c>
     </row>
+    <row r="2003">
+      <c r="A2003" t="inlineStr">
+        <is>
+          <t>21BAI1140</t>
+        </is>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2003" t="inlineStr">
+        <is>
+          <t>Fractal Analytics</t>
+        </is>
+      </c>
+      <c r="D2003" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="inlineStr">
+        <is>
+          <t>21BLC1664</t>
+        </is>
+      </c>
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2004" t="inlineStr">
+        <is>
+          <t>Fractal Analytics</t>
+        </is>
+      </c>
+      <c r="D2004" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" t="inlineStr">
+        <is>
+          <t>21BRS1349</t>
+        </is>
+      </c>
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2005" t="inlineStr">
+        <is>
+          <t>Fractal Analytics</t>
+        </is>
+      </c>
+      <c r="D2005" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" t="inlineStr">
+        <is>
+          <t>21BLC1564</t>
+        </is>
+      </c>
+      <c r="B2006" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2006" t="inlineStr">
+        <is>
+          <t>Fractal Analytics</t>
+        </is>
+      </c>
+      <c r="D2006" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="inlineStr">
+        <is>
+          <t>21BCE3045</t>
+        </is>
+      </c>
+      <c r="B2007" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2007" t="inlineStr">
+        <is>
+          <t>Fractal Analytics</t>
+        </is>
+      </c>
+      <c r="D2007" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" t="inlineStr">
+        <is>
+          <t>21BCE11623</t>
+        </is>
+      </c>
+      <c r="B2008" t="inlineStr">
+        <is>
+          <t>24.7LPA</t>
+        </is>
+      </c>
+      <c r="C2008" t="inlineStr">
+        <is>
+          <t>Cisco</t>
+        </is>
+      </c>
+      <c r="D2008" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" t="inlineStr">
+        <is>
+          <t>21BCE3114</t>
+        </is>
+      </c>
+      <c r="B2009" t="inlineStr"/>
+      <c r="C2009" t="inlineStr">
+        <is>
+          <t>Bluebird</t>
+        </is>
+      </c>
+      <c r="D2009" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" t="inlineStr">
+        <is>
+          <t>21BBS0167</t>
+        </is>
+      </c>
+      <c r="B2010" t="inlineStr"/>
+      <c r="C2010" t="inlineStr">
+        <is>
+          <t>Bluebird</t>
+        </is>
+      </c>
+      <c r="D2010" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="inlineStr">
+        <is>
+          <t>21BIT0589</t>
+        </is>
+      </c>
+      <c r="B2011" t="inlineStr"/>
+      <c r="C2011" t="inlineStr">
+        <is>
+          <t>Bluebird</t>
+        </is>
+      </c>
+      <c r="D2011" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" t="inlineStr">
+        <is>
+          <t>21BIT0634</t>
+        </is>
+      </c>
+      <c r="B2012" t="inlineStr"/>
+      <c r="C2012" t="inlineStr">
+        <is>
+          <t>Bluebird</t>
+        </is>
+      </c>
+      <c r="D2012" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" t="inlineStr">
+        <is>
+          <t>21BBT0106</t>
+        </is>
+      </c>
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>12.95LPA</t>
+        </is>
+      </c>
+      <c r="C2013" t="inlineStr">
+        <is>
+          <t>Thermofisher</t>
+        </is>
+      </c>
+      <c r="D2013" t="inlineStr">
+        <is>
+          <t>BBT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" t="inlineStr">
+        <is>
+          <t>21BCE1895</t>
+        </is>
+      </c>
+      <c r="B2014" t="inlineStr">
+        <is>
+          <t>12.95LPA</t>
+        </is>
+      </c>
+      <c r="C2014" t="inlineStr">
+        <is>
+          <t>Thermofisher</t>
+        </is>
+      </c>
+      <c r="D2014" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="inlineStr">
+        <is>
+          <t>21BOE10053</t>
+        </is>
+      </c>
+      <c r="B2015" t="inlineStr">
+        <is>
+          <t>12.95LPA</t>
+        </is>
+      </c>
+      <c r="C2015" t="inlineStr">
+        <is>
+          <t>Thermofisher</t>
+        </is>
+      </c>
+      <c r="D2015" t="inlineStr">
+        <is>
+          <t>BOE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" t="inlineStr">
+        <is>
+          <t>21BCE0934</t>
+        </is>
+      </c>
+      <c r="B2016" t="inlineStr">
+        <is>
+          <t>12.95LPA</t>
+        </is>
+      </c>
+      <c r="C2016" t="inlineStr">
+        <is>
+          <t>Thermofisher</t>
+        </is>
+      </c>
+      <c r="D2016" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" t="inlineStr">
+        <is>
+          <t>21BCE5980</t>
+        </is>
+      </c>
+      <c r="B2017" t="inlineStr">
+        <is>
+          <t>12.95LPA</t>
+        </is>
+      </c>
+      <c r="C2017" t="inlineStr">
+        <is>
+          <t>Thermofisher</t>
+        </is>
+      </c>
+      <c r="D2017" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" t="inlineStr">
+        <is>
+          <t>21BCE3618</t>
+        </is>
+      </c>
+      <c r="B2018" t="inlineStr">
+        <is>
+          <t>12.95LPA</t>
+        </is>
+      </c>
+      <c r="C2018" t="inlineStr">
+        <is>
+          <t>Thermofisher</t>
+        </is>
+      </c>
+      <c r="D2018" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" t="inlineStr">
+        <is>
+          <t>21BCE1566</t>
+        </is>
+      </c>
+      <c r="B2019" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2019" t="inlineStr">
+        <is>
+          <t>Value Creed</t>
+        </is>
+      </c>
+      <c r="D2019" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="inlineStr">
+        <is>
+          <t>21BCE5540</t>
+        </is>
+      </c>
+      <c r="B2020" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2020" t="inlineStr">
+        <is>
+          <t>Value Creed</t>
+        </is>
+      </c>
+      <c r="D2020" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="inlineStr">
+        <is>
+          <t>21BML0181</t>
+        </is>
+      </c>
+      <c r="B2021" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2021" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2021" t="inlineStr">
+        <is>
+          <t>BML</t>
+        </is>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" t="inlineStr">
+        <is>
+          <t>21BML0119</t>
+        </is>
+      </c>
+      <c r="B2022" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2022" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2022" t="inlineStr">
+        <is>
+          <t>BML</t>
+        </is>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="inlineStr">
+        <is>
+          <t>21BML0016</t>
+        </is>
+      </c>
+      <c r="B2023" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2023" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2023" t="inlineStr">
+        <is>
+          <t>BML</t>
+        </is>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="inlineStr">
+        <is>
+          <t>21BML0058</t>
+        </is>
+      </c>
+      <c r="B2024" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2024" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2024" t="inlineStr">
+        <is>
+          <t>BML</t>
+        </is>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" t="inlineStr">
+        <is>
+          <t>21BML0060</t>
+        </is>
+      </c>
+      <c r="B2025" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2025" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2025" t="inlineStr">
+        <is>
+          <t>BML</t>
+        </is>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" t="inlineStr">
+        <is>
+          <t>21BCE0521</t>
+        </is>
+      </c>
+      <c r="B2026" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2026" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2026" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" t="inlineStr">
+        <is>
+          <t>21BDS0273</t>
+        </is>
+      </c>
+      <c r="B2027" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2027" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2027" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="inlineStr">
+        <is>
+          <t>21BRS1158</t>
+        </is>
+      </c>
+      <c r="B2028" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2028" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2028" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="inlineStr">
+        <is>
+          <t>21BAI1735</t>
+        </is>
+      </c>
+      <c r="B2029" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2029" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2029" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" t="inlineStr">
+        <is>
+          <t>21BCE9842</t>
+        </is>
+      </c>
+      <c r="B2030" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2030" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2030" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" t="inlineStr">
+        <is>
+          <t>21BRS1504</t>
+        </is>
+      </c>
+      <c r="B2031" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2031" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2031" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" t="inlineStr">
+        <is>
+          <t>21BDS0007</t>
+        </is>
+      </c>
+      <c r="B2032" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2032" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2032" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" t="inlineStr">
+        <is>
+          <t>21BDS0334</t>
+        </is>
+      </c>
+      <c r="B2033" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2033" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2033" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" t="inlineStr">
+        <is>
+          <t>21BRS1490</t>
+        </is>
+      </c>
+      <c r="B2034" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2034" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2034" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" t="inlineStr">
+        <is>
+          <t>21BDS0303</t>
+        </is>
+      </c>
+      <c r="B2035" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2035" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2035" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" t="inlineStr">
+        <is>
+          <t>21BDS0205</t>
+        </is>
+      </c>
+      <c r="B2036" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2036" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2036" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="inlineStr">
+        <is>
+          <t>21BDS0254</t>
+        </is>
+      </c>
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2037" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2037" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="inlineStr">
+        <is>
+          <t>21BDS0291</t>
+        </is>
+      </c>
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2038" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2038" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="inlineStr">
+        <is>
+          <t>21BDS0101</t>
+        </is>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2039" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2039" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="inlineStr">
+        <is>
+          <t>21BKT0029</t>
+        </is>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2040" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2040" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="inlineStr">
+        <is>
+          <t>21BRS1279</t>
+        </is>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2041" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2041" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="inlineStr">
+        <is>
+          <t>21BDS0005</t>
+        </is>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2042" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2042" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="inlineStr">
+        <is>
+          <t>21BCE9083</t>
+        </is>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2043" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2043" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="inlineStr">
+        <is>
+          <t>21BCE9098</t>
+        </is>
+      </c>
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2044" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2044" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="inlineStr">
+        <is>
+          <t>21BCE9932</t>
+        </is>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2045" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2045" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="inlineStr">
+        <is>
+          <t>21BCE9204</t>
+        </is>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2046" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2046" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="inlineStr">
+        <is>
+          <t>21BDS0121</t>
+        </is>
+      </c>
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2047" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2047" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="inlineStr">
+        <is>
+          <t>21BAI10241</t>
+        </is>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C2048" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D2048" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="inlineStr">
+        <is>
+          <t>21BEE0425</t>
+        </is>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2049" t="inlineStr">
+        <is>
+          <t>GE Vernova</t>
+        </is>
+      </c>
+      <c r="D2049" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="inlineStr">
+        <is>
+          <t>21BEE0012</t>
+        </is>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2050" t="inlineStr">
+        <is>
+          <t>GE Vernova</t>
+        </is>
+      </c>
+      <c r="D2050" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="inlineStr">
+        <is>
+          <t>21BEE1049</t>
+        </is>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2051" t="inlineStr">
+        <is>
+          <t>GE Vernova</t>
+        </is>
+      </c>
+      <c r="D2051" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="inlineStr">
+        <is>
+          <t>21BEE0188</t>
+        </is>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2052" t="inlineStr">
+        <is>
+          <t>GE Vernova</t>
+        </is>
+      </c>
+      <c r="D2052" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="inlineStr">
+        <is>
+          <t>21BEE0184</t>
+        </is>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2053" t="inlineStr">
+        <is>
+          <t>GE Vernova</t>
+        </is>
+      </c>
+      <c r="D2053" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="inlineStr">
+        <is>
+          <t>21BEI0002</t>
+        </is>
+      </c>
+      <c r="B2054" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2054" t="inlineStr">
+        <is>
+          <t>GE Vernova</t>
+        </is>
+      </c>
+      <c r="D2054" t="inlineStr">
+        <is>
+          <t>BEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="inlineStr">
+        <is>
+          <t>21BME0582</t>
+        </is>
+      </c>
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2055" t="inlineStr">
+        <is>
+          <t>GE Vernova</t>
+        </is>
+      </c>
+      <c r="D2055" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="inlineStr">
+        <is>
+          <t>21BME0444</t>
+        </is>
+      </c>
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2056" t="inlineStr">
+        <is>
+          <t>GE Vernova</t>
+        </is>
+      </c>
+      <c r="D2056" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="inlineStr">
+        <is>
+          <t>21BME0418</t>
+        </is>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2057" t="inlineStr">
+        <is>
+          <t>GE Vernova</t>
+        </is>
+      </c>
+      <c r="D2057" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" t="inlineStr">
+        <is>
+          <t>21BME0404</t>
+        </is>
+      </c>
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2058" t="inlineStr">
+        <is>
+          <t>GE Vernova</t>
+        </is>
+      </c>
+      <c r="D2058" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" t="inlineStr">
+        <is>
+          <t>23MES0038</t>
+        </is>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2059" t="inlineStr">
+        <is>
+          <t>GE Vernova</t>
+        </is>
+      </c>
+      <c r="D2059" t="inlineStr">
+        <is>
+          <t>MES</t>
+        </is>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="inlineStr">
+        <is>
+          <t>21BME1121</t>
+        </is>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2060" t="inlineStr">
+        <is>
+          <t>GE Vernova</t>
+        </is>
+      </c>
+      <c r="D2060" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="inlineStr">
+        <is>
+          <t>21BCE9005</t>
+        </is>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>22.2LPA</t>
+        </is>
+      </c>
+      <c r="C2061" t="inlineStr">
+        <is>
+          <t>KLA Technologies</t>
+        </is>
+      </c>
+      <c r="D2061" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2061"/>
+  <dimension ref="A1:D2060"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45700,7 +45700,7 @@
     <row r="2059">
       <c r="A2059" t="inlineStr">
         <is>
-          <t>23MES0038</t>
+          <t>21BME1121</t>
         </is>
       </c>
       <c r="B2059" t="inlineStr">
@@ -45715,49 +45715,27 @@
       </c>
       <c r="D2059" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>BME</t>
         </is>
       </c>
     </row>
     <row r="2060">
       <c r="A2060" t="inlineStr">
         <is>
-          <t>21BME1121</t>
+          <t>21BCE9005</t>
         </is>
       </c>
       <c r="B2060" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>22.2LPA</t>
         </is>
       </c>
       <c r="C2060" t="inlineStr">
         <is>
-          <t>GE Vernova</t>
+          <t>KLA Technologies</t>
         </is>
       </c>
       <c r="D2060" t="inlineStr">
-        <is>
-          <t>BME</t>
-        </is>
-      </c>
-    </row>
-    <row r="2061">
-      <c r="A2061" t="inlineStr">
-        <is>
-          <t>21BCE9005</t>
-        </is>
-      </c>
-      <c r="B2061" t="inlineStr">
-        <is>
-          <t>22.2LPA</t>
-        </is>
-      </c>
-      <c r="C2061" t="inlineStr">
-        <is>
-          <t>KLA Technologies</t>
-        </is>
-      </c>
-      <c r="D2061" t="inlineStr">
         <is>
           <t>BCE</t>
         </is>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2060"/>
+  <dimension ref="A1:D2086"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44619,7 +44619,11 @@
           <t>21BCE3114</t>
         </is>
       </c>
-      <c r="B2009" t="inlineStr"/>
+      <c r="B2009" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="C2009" t="inlineStr">
         <is>
           <t>Bluebird</t>
@@ -44637,7 +44641,11 @@
           <t>21BBS0167</t>
         </is>
       </c>
-      <c r="B2010" t="inlineStr"/>
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="C2010" t="inlineStr">
         <is>
           <t>Bluebird</t>
@@ -44655,7 +44663,11 @@
           <t>21BIT0589</t>
         </is>
       </c>
-      <c r="B2011" t="inlineStr"/>
+      <c r="B2011" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="C2011" t="inlineStr">
         <is>
           <t>Bluebird</t>
@@ -44673,7 +44685,11 @@
           <t>21BIT0634</t>
         </is>
       </c>
-      <c r="B2012" t="inlineStr"/>
+      <c r="B2012" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="C2012" t="inlineStr">
         <is>
           <t>Bluebird</t>
@@ -45736,6 +45752,578 @@
         </is>
       </c>
       <c r="D2060" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="inlineStr">
+        <is>
+          <t>21BMH1101</t>
+        </is>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2061" t="inlineStr">
+        <is>
+          <t>Apple Internship</t>
+        </is>
+      </c>
+      <c r="D2061" t="inlineStr">
+        <is>
+          <t>BMH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="inlineStr">
+        <is>
+          <t>21BCE0182</t>
+        </is>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>11.1LPA</t>
+        </is>
+      </c>
+      <c r="C2062" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="D2062" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="inlineStr">
+        <is>
+          <t>21BCE0562</t>
+        </is>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>11.1LPA</t>
+        </is>
+      </c>
+      <c r="C2063" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="D2063" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="inlineStr">
+        <is>
+          <t>21BCE2428</t>
+        </is>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>11.1LPA</t>
+        </is>
+      </c>
+      <c r="C2064" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="D2064" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="inlineStr">
+        <is>
+          <t>21BCE1282</t>
+        </is>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>11.1LPA</t>
+        </is>
+      </c>
+      <c r="C2065" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="D2065" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="inlineStr">
+        <is>
+          <t>21BCE5221</t>
+        </is>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>11.1LPA</t>
+        </is>
+      </c>
+      <c r="C2066" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="D2066" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="inlineStr">
+        <is>
+          <t>21BCE7088</t>
+        </is>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>11.1LPA</t>
+        </is>
+      </c>
+      <c r="C2067" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="D2067" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" t="inlineStr">
+        <is>
+          <t>21BCE7146</t>
+        </is>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>11.1LPA</t>
+        </is>
+      </c>
+      <c r="C2068" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="D2068" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="inlineStr">
+        <is>
+          <t>21BCE8217</t>
+        </is>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>11.1LPA</t>
+        </is>
+      </c>
+      <c r="C2069" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="D2069" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="inlineStr">
+        <is>
+          <t>21BCE10055</t>
+        </is>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>11.1LPA</t>
+        </is>
+      </c>
+      <c r="C2070" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="D2070" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" t="inlineStr">
+        <is>
+          <t>21BCE10108</t>
+        </is>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>11.1LPA</t>
+        </is>
+      </c>
+      <c r="C2071" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="D2071" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" t="inlineStr">
+        <is>
+          <t>21BCE1660</t>
+        </is>
+      </c>
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>11LPA</t>
+        </is>
+      </c>
+      <c r="C2072" t="inlineStr">
+        <is>
+          <t>Scienaptic Systems</t>
+        </is>
+      </c>
+      <c r="D2072" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" t="inlineStr">
+        <is>
+          <t>21BCE8952</t>
+        </is>
+      </c>
+      <c r="B2073" t="inlineStr">
+        <is>
+          <t>11LPA</t>
+        </is>
+      </c>
+      <c r="C2073" t="inlineStr">
+        <is>
+          <t>Scienaptic Systems</t>
+        </is>
+      </c>
+      <c r="D2073" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="inlineStr">
+        <is>
+          <t>21BCE10259</t>
+        </is>
+      </c>
+      <c r="B2074" t="inlineStr">
+        <is>
+          <t>11LPA</t>
+        </is>
+      </c>
+      <c r="C2074" t="inlineStr">
+        <is>
+          <t>Scienaptic Systems</t>
+        </is>
+      </c>
+      <c r="D2074" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="inlineStr">
+        <is>
+          <t>21BCE8028</t>
+        </is>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2075" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="D2075" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" t="inlineStr">
+        <is>
+          <t>21BCE9385</t>
+        </is>
+      </c>
+      <c r="B2076" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2076" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="D2076" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" t="inlineStr">
+        <is>
+          <t>21BCE0484</t>
+        </is>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2077" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="D2077" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" t="inlineStr">
+        <is>
+          <t>21BRS1588</t>
+        </is>
+      </c>
+      <c r="B2078" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2078" t="inlineStr">
+        <is>
+          <t>Electronic Arts</t>
+        </is>
+      </c>
+      <c r="D2078" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" t="inlineStr">
+        <is>
+          <t>21BCE10044</t>
+        </is>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2079" t="inlineStr">
+        <is>
+          <t>Electronic Arts</t>
+        </is>
+      </c>
+      <c r="D2079" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="inlineStr">
+        <is>
+          <t>21BCY10052</t>
+        </is>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>21LPA</t>
+        </is>
+      </c>
+      <c r="C2080" t="inlineStr">
+        <is>
+          <t>Superjoin</t>
+        </is>
+      </c>
+      <c r="D2080" t="inlineStr">
+        <is>
+          <t>BCY</t>
+        </is>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" t="inlineStr">
+        <is>
+          <t>21BCE2887</t>
+        </is>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>21LPA</t>
+        </is>
+      </c>
+      <c r="C2081" t="inlineStr">
+        <is>
+          <t>Superjoin</t>
+        </is>
+      </c>
+      <c r="D2081" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="inlineStr">
+        <is>
+          <t>21BAI1734</t>
+        </is>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2082" t="inlineStr">
+        <is>
+          <t>SOCIETE GENERALE</t>
+        </is>
+      </c>
+      <c r="D2082" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="inlineStr">
+        <is>
+          <t>21BCE2287</t>
+        </is>
+      </c>
+      <c r="B2083" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2083" t="inlineStr">
+        <is>
+          <t>SOCIETE GENERALE</t>
+        </is>
+      </c>
+      <c r="D2083" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="inlineStr">
+        <is>
+          <t>21BCE2682</t>
+        </is>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2084" t="inlineStr">
+        <is>
+          <t>SOCIETE GENERALE</t>
+        </is>
+      </c>
+      <c r="D2084" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="inlineStr">
+        <is>
+          <t>21BCE2192</t>
+        </is>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2085" t="inlineStr">
+        <is>
+          <t>SOCIETE GENERALE</t>
+        </is>
+      </c>
+      <c r="D2085" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" t="inlineStr">
+        <is>
+          <t>21BCE0945</t>
+        </is>
+      </c>
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2086" t="inlineStr">
+        <is>
+          <t>SOCIETE GENERALE</t>
+        </is>
+      </c>
+      <c r="D2086" t="inlineStr">
         <is>
           <t>BCE</t>
         </is>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2086"/>
+  <dimension ref="A1:D2233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46329,6 +46329,3240 @@
         </is>
       </c>
     </row>
+    <row r="2087">
+      <c r="A2087" t="inlineStr">
+        <is>
+          <t>21BCE2678</t>
+        </is>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2087" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2087" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" t="inlineStr">
+        <is>
+          <t>21BCE3238</t>
+        </is>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2088" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2088" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" t="inlineStr">
+        <is>
+          <t>21BCE0969</t>
+        </is>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2089" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2089" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="inlineStr">
+        <is>
+          <t>21BAI1678</t>
+        </is>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2090" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2090" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="inlineStr">
+        <is>
+          <t>21BDS0064</t>
+        </is>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2091" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2091" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" t="inlineStr">
+        <is>
+          <t>21BAI1245</t>
+        </is>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2092" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2092" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" t="inlineStr">
+        <is>
+          <t>21BCE5437</t>
+        </is>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2093" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2093" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" t="inlineStr">
+        <is>
+          <t>21BCE1017</t>
+        </is>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2094" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2094" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" t="inlineStr">
+        <is>
+          <t>21BIT0096</t>
+        </is>
+      </c>
+      <c r="B2095" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2095" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2095" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" t="inlineStr">
+        <is>
+          <t>21BCE0897</t>
+        </is>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2096" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2096" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" t="inlineStr">
+        <is>
+          <t>21BIT0004</t>
+        </is>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2097" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2097" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" t="inlineStr">
+        <is>
+          <t>21BCE3302</t>
+        </is>
+      </c>
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2098" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2098" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="inlineStr">
+        <is>
+          <t>21BBS0015</t>
+        </is>
+      </c>
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2099" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2099" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" t="inlineStr">
+        <is>
+          <t>21BCE0314</t>
+        </is>
+      </c>
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2100" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2100" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" t="inlineStr">
+        <is>
+          <t>21BIT0245</t>
+        </is>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2101" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2101" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" t="inlineStr">
+        <is>
+          <t>21BCE2356</t>
+        </is>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2102" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2102" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" t="inlineStr">
+        <is>
+          <t>21BCE2994</t>
+        </is>
+      </c>
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2103" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2103" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" t="inlineStr">
+        <is>
+          <t>21BCI0302</t>
+        </is>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2104" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2104" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" t="inlineStr">
+        <is>
+          <t>21BCE5419</t>
+        </is>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2105" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2105" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" t="inlineStr">
+        <is>
+          <t>21BCT0174</t>
+        </is>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2106" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2106" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" t="inlineStr">
+        <is>
+          <t>21BRS1718</t>
+        </is>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2107" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2107" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" t="inlineStr">
+        <is>
+          <t>21BRS1100</t>
+        </is>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2108" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2108" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" t="inlineStr">
+        <is>
+          <t>21BCE0126</t>
+        </is>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2109" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2109" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" t="inlineStr">
+        <is>
+          <t>21BCE3234</t>
+        </is>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2110" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2110" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" t="inlineStr">
+        <is>
+          <t>21BCT0224</t>
+        </is>
+      </c>
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2111" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2111" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" t="inlineStr">
+        <is>
+          <t>21BCI0154</t>
+        </is>
+      </c>
+      <c r="B2112" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2112" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2112" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" t="inlineStr">
+        <is>
+          <t>21BIT0334</t>
+        </is>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2113" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2113" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" t="inlineStr">
+        <is>
+          <t>21BAI1611</t>
+        </is>
+      </c>
+      <c r="B2114" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2114" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2114" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="inlineStr">
+        <is>
+          <t>21BAI1199</t>
+        </is>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2115" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2115" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="inlineStr">
+        <is>
+          <t>21BDS0271</t>
+        </is>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2116" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2116" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="inlineStr">
+        <is>
+          <t>21BAI1346</t>
+        </is>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2117" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2117" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="inlineStr">
+        <is>
+          <t>21BIT0329</t>
+        </is>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2118" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2118" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="inlineStr">
+        <is>
+          <t>21BCE5404</t>
+        </is>
+      </c>
+      <c r="B2119" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2119" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2119" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="inlineStr">
+        <is>
+          <t>21BCI0221</t>
+        </is>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2120" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2120" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="inlineStr">
+        <is>
+          <t>21BIT0725</t>
+        </is>
+      </c>
+      <c r="B2121" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2121" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2121" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" t="inlineStr">
+        <is>
+          <t>21BCE1837</t>
+        </is>
+      </c>
+      <c r="B2122" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2122" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2122" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" t="inlineStr">
+        <is>
+          <t>21BCE5428</t>
+        </is>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2123" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2123" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" t="inlineStr">
+        <is>
+          <t>21BIT0274</t>
+        </is>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2124" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2124" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="inlineStr">
+        <is>
+          <t>21BAI1399</t>
+        </is>
+      </c>
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2125" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2125" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" t="inlineStr">
+        <is>
+          <t>21BCE3055</t>
+        </is>
+      </c>
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2126" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2126" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" t="inlineStr">
+        <is>
+          <t>21BCE5069</t>
+        </is>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2127" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2127" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" t="inlineStr">
+        <is>
+          <t>21BCI0300</t>
+        </is>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2128" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" t="inlineStr">
+        <is>
+          <t>21BPS1368</t>
+        </is>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2129" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" t="inlineStr">
+        <is>
+          <t>21BCE2299</t>
+        </is>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2130" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2130" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" t="inlineStr">
+        <is>
+          <t>21BCE5080</t>
+        </is>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2131" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2131" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" t="inlineStr">
+        <is>
+          <t>21BCE3919</t>
+        </is>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2132" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2132" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="inlineStr">
+        <is>
+          <t>21BCE1819</t>
+        </is>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2133" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="inlineStr">
+        <is>
+          <t>21BBS0067</t>
+        </is>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2134" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2134" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="inlineStr">
+        <is>
+          <t>21BKT0139</t>
+        </is>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2135" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2135" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="inlineStr">
+        <is>
+          <t>21BCE5518</t>
+        </is>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2136" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2136" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="inlineStr">
+        <is>
+          <t>21BCE5735</t>
+        </is>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2137" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2137" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="inlineStr">
+        <is>
+          <t>21BCE5053</t>
+        </is>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2138" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2138" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="inlineStr">
+        <is>
+          <t>21BCE5658</t>
+        </is>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2139" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2139" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="inlineStr">
+        <is>
+          <t>21BCE1897</t>
+        </is>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2140" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2140" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="inlineStr">
+        <is>
+          <t>21BCT0393</t>
+        </is>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2141" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2141" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="inlineStr">
+        <is>
+          <t>21BAI1008</t>
+        </is>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2142" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2142" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="inlineStr">
+        <is>
+          <t>21BCE0190</t>
+        </is>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2143" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2143" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="inlineStr">
+        <is>
+          <t>21BCE5909</t>
+        </is>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2144" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2144" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="inlineStr">
+        <is>
+          <t>21BAI1156</t>
+        </is>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2145" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2145" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="inlineStr">
+        <is>
+          <t>21BCE3559</t>
+        </is>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2146" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2146" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="inlineStr">
+        <is>
+          <t>21BCI0018</t>
+        </is>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2147" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2147" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="inlineStr">
+        <is>
+          <t>21BCE0207</t>
+        </is>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2148" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2148" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="inlineStr">
+        <is>
+          <t>21BRS1690</t>
+        </is>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2149" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2149" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="inlineStr">
+        <is>
+          <t>21BCE6181</t>
+        </is>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2150" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2150" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="inlineStr">
+        <is>
+          <t>21BRS1347</t>
+        </is>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2151" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2151" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="inlineStr">
+        <is>
+          <t>21BCE1364</t>
+        </is>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2152" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2152" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="inlineStr">
+        <is>
+          <t>21BDS0081</t>
+        </is>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2153" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2153" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="inlineStr">
+        <is>
+          <t>21BRS1572</t>
+        </is>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2154" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2154" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="inlineStr">
+        <is>
+          <t>21BIT0342</t>
+        </is>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2155" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2155" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="inlineStr">
+        <is>
+          <t>21BIT0617</t>
+        </is>
+      </c>
+      <c r="B2156" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2156" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2156" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="inlineStr">
+        <is>
+          <t>21BCT0321</t>
+        </is>
+      </c>
+      <c r="B2157" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2157" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2157" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="inlineStr">
+        <is>
+          <t>21BCE0145</t>
+        </is>
+      </c>
+      <c r="B2158" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2158" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2158" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="inlineStr">
+        <is>
+          <t>21BCE2056</t>
+        </is>
+      </c>
+      <c r="B2159" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2159" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2159" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="inlineStr">
+        <is>
+          <t>21BIT0692</t>
+        </is>
+      </c>
+      <c r="B2160" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2160" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2160" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="inlineStr">
+        <is>
+          <t>21BCE5995</t>
+        </is>
+      </c>
+      <c r="B2161" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2161" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2161" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="inlineStr">
+        <is>
+          <t>21BCE2023</t>
+        </is>
+      </c>
+      <c r="B2162" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2162" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2162" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" t="inlineStr">
+        <is>
+          <t>21BDS0300</t>
+        </is>
+      </c>
+      <c r="B2163" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2163" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2163" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" t="inlineStr">
+        <is>
+          <t>21BCE5636</t>
+        </is>
+      </c>
+      <c r="B2164" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2164" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2164" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" t="inlineStr">
+        <is>
+          <t>21BRS1153</t>
+        </is>
+      </c>
+      <c r="B2165" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2165" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2165" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="inlineStr">
+        <is>
+          <t>21BCE2900</t>
+        </is>
+      </c>
+      <c r="B2166" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2166" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2166" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="inlineStr">
+        <is>
+          <t>21BDS0089</t>
+        </is>
+      </c>
+      <c r="B2167" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2167" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2167" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="inlineStr">
+        <is>
+          <t>21BCE0588</t>
+        </is>
+      </c>
+      <c r="B2168" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2168" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2168" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="inlineStr">
+        <is>
+          <t>21BDS0125</t>
+        </is>
+      </c>
+      <c r="B2169" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2169" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2169" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" t="inlineStr">
+        <is>
+          <t>21BCE2146</t>
+        </is>
+      </c>
+      <c r="B2170" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2170" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2170" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="inlineStr">
+        <is>
+          <t>21BAI1856</t>
+        </is>
+      </c>
+      <c r="B2171" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2171" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2171" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="inlineStr">
+        <is>
+          <t>21BPS1334</t>
+        </is>
+      </c>
+      <c r="B2172" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2172" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2172" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="inlineStr">
+        <is>
+          <t>21BAI1755</t>
+        </is>
+      </c>
+      <c r="B2173" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2173" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2173" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="inlineStr">
+        <is>
+          <t>21BCI0038</t>
+        </is>
+      </c>
+      <c r="B2174" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2174" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2174" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="inlineStr">
+        <is>
+          <t>21BDS0118</t>
+        </is>
+      </c>
+      <c r="B2175" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2175" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2175" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="inlineStr">
+        <is>
+          <t>21BCI0206</t>
+        </is>
+      </c>
+      <c r="B2176" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2176" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2176" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="inlineStr">
+        <is>
+          <t>21BCE6175</t>
+        </is>
+      </c>
+      <c r="B2177" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2177" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2177" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="inlineStr">
+        <is>
+          <t>21BCE3897</t>
+        </is>
+      </c>
+      <c r="B2178" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2178" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2178" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="inlineStr">
+        <is>
+          <t>21BCE2314</t>
+        </is>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2179" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2179" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" t="inlineStr">
+        <is>
+          <t>21BAI1660</t>
+        </is>
+      </c>
+      <c r="B2180" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2180" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2180" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="inlineStr">
+        <is>
+          <t>21BAI1235</t>
+        </is>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2181" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2181" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="inlineStr">
+        <is>
+          <t>21BBS0030</t>
+        </is>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2182" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2182" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="inlineStr">
+        <is>
+          <t>21BCE5188</t>
+        </is>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2183" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2183" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" t="inlineStr">
+        <is>
+          <t>21BCE3622</t>
+        </is>
+      </c>
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2184" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2184" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="inlineStr">
+        <is>
+          <t>21BIT0121</t>
+        </is>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2185" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2185" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="inlineStr">
+        <is>
+          <t>21BCE1451</t>
+        </is>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2186" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2186" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="inlineStr">
+        <is>
+          <t>21BCE5643</t>
+        </is>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2187" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2187" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="inlineStr">
+        <is>
+          <t>21BCE1447</t>
+        </is>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2188" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2188" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="inlineStr">
+        <is>
+          <t>21BAI1091</t>
+        </is>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2189" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2189" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="inlineStr">
+        <is>
+          <t>21BCT0098</t>
+        </is>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2190" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2190" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="inlineStr">
+        <is>
+          <t>21BCE2692</t>
+        </is>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2191" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2191" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="inlineStr">
+        <is>
+          <t>21BCE0793</t>
+        </is>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2192" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2192" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="inlineStr">
+        <is>
+          <t>21BCE3012</t>
+        </is>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2193" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2193" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="inlineStr">
+        <is>
+          <t>21BDS0211</t>
+        </is>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2194" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2194" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="inlineStr">
+        <is>
+          <t>21BAI1395</t>
+        </is>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2195" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2195" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="inlineStr">
+        <is>
+          <t>21BDS0338</t>
+        </is>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2196" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2196" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="inlineStr">
+        <is>
+          <t>21BIT0481</t>
+        </is>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2197" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2197" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" t="inlineStr">
+        <is>
+          <t>21BCE2921</t>
+        </is>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2198" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2198" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="inlineStr">
+        <is>
+          <t>21BCI0087</t>
+        </is>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2199" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2199" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="inlineStr">
+        <is>
+          <t>21BCE5800</t>
+        </is>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2200" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2200" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="inlineStr">
+        <is>
+          <t>21BCE3762</t>
+        </is>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2201" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2201" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="inlineStr">
+        <is>
+          <t>21BCE6003</t>
+        </is>
+      </c>
+      <c r="B2202" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2202" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2202" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="inlineStr">
+        <is>
+          <t>21BKT0052</t>
+        </is>
+      </c>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2203" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2203" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="inlineStr">
+        <is>
+          <t>21BAI1200</t>
+        </is>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2204" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2204" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="inlineStr">
+        <is>
+          <t>21BCE3201</t>
+        </is>
+      </c>
+      <c r="B2205" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2205" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2205" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="inlineStr">
+        <is>
+          <t>21BDS0218</t>
+        </is>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2206" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2206" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" t="inlineStr">
+        <is>
+          <t>21BCE2753</t>
+        </is>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2207" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2207" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" t="inlineStr">
+        <is>
+          <t>21BCE3751</t>
+        </is>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2208" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2208" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" t="inlineStr">
+        <is>
+          <t>21BCT0119</t>
+        </is>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2209" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2209" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" t="inlineStr">
+        <is>
+          <t>21BCE5114</t>
+        </is>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2210" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2210" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" t="inlineStr">
+        <is>
+          <t>21BCE5777</t>
+        </is>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2211" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2211" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" t="inlineStr">
+        <is>
+          <t>21BCE0840</t>
+        </is>
+      </c>
+      <c r="B2212" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2212" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2212" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" t="inlineStr">
+        <is>
+          <t>21BKT0096</t>
+        </is>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2213" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2213" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" t="inlineStr">
+        <is>
+          <t>21BIT0722</t>
+        </is>
+      </c>
+      <c r="B2214" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2214" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2214" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" t="inlineStr">
+        <is>
+          <t>21BCE5396</t>
+        </is>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2215" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2215" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" t="inlineStr">
+        <is>
+          <t>21BCE5168</t>
+        </is>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2216" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2216" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" t="inlineStr">
+        <is>
+          <t>21BCE0994</t>
+        </is>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2217" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2217" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" t="inlineStr">
+        <is>
+          <t>21BRS1621</t>
+        </is>
+      </c>
+      <c r="B2218" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2218" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2218" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" t="inlineStr">
+        <is>
+          <t>21BDS0114</t>
+        </is>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2219" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2219" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" t="inlineStr">
+        <is>
+          <t>21BCE3218</t>
+        </is>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2220" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2220" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="inlineStr">
+        <is>
+          <t>21BAI1706</t>
+        </is>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2221" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2221" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="inlineStr">
+        <is>
+          <t>21BCT0295</t>
+        </is>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2222" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2222" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="inlineStr">
+        <is>
+          <t>21BIT0284</t>
+        </is>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2223" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2223" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="inlineStr">
+        <is>
+          <t>21BKT0132</t>
+        </is>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2224" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2224" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" t="inlineStr">
+        <is>
+          <t>21BCE1674</t>
+        </is>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2225" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2225" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" t="inlineStr">
+        <is>
+          <t>21BAI1809</t>
+        </is>
+      </c>
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2226" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2226" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" t="inlineStr">
+        <is>
+          <t>21BCT0231</t>
+        </is>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2227" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2227" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" t="inlineStr">
+        <is>
+          <t>21BCE2943</t>
+        </is>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2228" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2228" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" t="inlineStr">
+        <is>
+          <t>21BIT0280</t>
+        </is>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2229" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2229" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="inlineStr">
+        <is>
+          <t>21BCE1370</t>
+        </is>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2230" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2230" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" t="inlineStr">
+        <is>
+          <t>21BRS1236</t>
+        </is>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2231" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2231" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" t="inlineStr">
+        <is>
+          <t>21BBS0052</t>
+        </is>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2232" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2232" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" t="inlineStr">
+        <is>
+          <t>21BDS0166</t>
+        </is>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2233" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2233" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2233"/>
+  <dimension ref="A1:D2234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49563,6 +49563,28 @@
         </is>
       </c>
     </row>
+    <row r="2234">
+      <c r="A2234" t="inlineStr">
+        <is>
+          <t>21BCE2196</t>
+        </is>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2234" t="inlineStr">
+        <is>
+          <t>Honeywell</t>
+        </is>
+      </c>
+      <c r="D2234" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2234"/>
+  <dimension ref="A1:D2236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49585,6 +49585,50 @@
         </is>
       </c>
     </row>
+    <row r="2235">
+      <c r="A2235" t="inlineStr">
+        <is>
+          <t>21BCE10549</t>
+        </is>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>15.9LPA</t>
+        </is>
+      </c>
+      <c r="C2235" t="inlineStr">
+        <is>
+          <t>Accenture MC</t>
+        </is>
+      </c>
+      <c r="D2235" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" t="inlineStr">
+        <is>
+          <t>21BIT0238</t>
+        </is>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>15.9LPA</t>
+        </is>
+      </c>
+      <c r="C2236" t="inlineStr">
+        <is>
+          <t>Accenture MC</t>
+        </is>
+      </c>
+      <c r="D2236" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2236"/>
+  <dimension ref="A1:D2258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46337,7 +46337,7 @@
       </c>
       <c r="B2087" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2087" t="inlineStr">
@@ -46359,7 +46359,7 @@
       </c>
       <c r="B2088" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2088" t="inlineStr">
@@ -46381,7 +46381,7 @@
       </c>
       <c r="B2089" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2089" t="inlineStr">
@@ -46403,7 +46403,7 @@
       </c>
       <c r="B2090" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2090" t="inlineStr">
@@ -46425,7 +46425,7 @@
       </c>
       <c r="B2091" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2091" t="inlineStr">
@@ -46447,7 +46447,7 @@
       </c>
       <c r="B2092" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2092" t="inlineStr">
@@ -46469,7 +46469,7 @@
       </c>
       <c r="B2093" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2093" t="inlineStr">
@@ -46491,7 +46491,7 @@
       </c>
       <c r="B2094" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2094" t="inlineStr">
@@ -46513,7 +46513,7 @@
       </c>
       <c r="B2095" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2095" t="inlineStr">
@@ -46535,7 +46535,7 @@
       </c>
       <c r="B2096" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2096" t="inlineStr">
@@ -46557,7 +46557,7 @@
       </c>
       <c r="B2097" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2097" t="inlineStr">
@@ -46579,7 +46579,7 @@
       </c>
       <c r="B2098" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2098" t="inlineStr">
@@ -46601,7 +46601,7 @@
       </c>
       <c r="B2099" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2099" t="inlineStr">
@@ -46623,7 +46623,7 @@
       </c>
       <c r="B2100" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2100" t="inlineStr">
@@ -46645,7 +46645,7 @@
       </c>
       <c r="B2101" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2101" t="inlineStr">
@@ -46667,7 +46667,7 @@
       </c>
       <c r="B2102" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2102" t="inlineStr">
@@ -46689,7 +46689,7 @@
       </c>
       <c r="B2103" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2103" t="inlineStr">
@@ -46711,7 +46711,7 @@
       </c>
       <c r="B2104" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2104" t="inlineStr">
@@ -46733,7 +46733,7 @@
       </c>
       <c r="B2105" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2105" t="inlineStr">
@@ -46755,7 +46755,7 @@
       </c>
       <c r="B2106" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2106" t="inlineStr">
@@ -46777,7 +46777,7 @@
       </c>
       <c r="B2107" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2107" t="inlineStr">
@@ -46799,7 +46799,7 @@
       </c>
       <c r="B2108" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2108" t="inlineStr">
@@ -46821,7 +46821,7 @@
       </c>
       <c r="B2109" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2109" t="inlineStr">
@@ -46843,7 +46843,7 @@
       </c>
       <c r="B2110" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2110" t="inlineStr">
@@ -46865,7 +46865,7 @@
       </c>
       <c r="B2111" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2111" t="inlineStr">
@@ -46887,7 +46887,7 @@
       </c>
       <c r="B2112" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2112" t="inlineStr">
@@ -46909,7 +46909,7 @@
       </c>
       <c r="B2113" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2113" t="inlineStr">
@@ -46931,7 +46931,7 @@
       </c>
       <c r="B2114" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2114" t="inlineStr">
@@ -46953,7 +46953,7 @@
       </c>
       <c r="B2115" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2115" t="inlineStr">
@@ -46975,7 +46975,7 @@
       </c>
       <c r="B2116" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2116" t="inlineStr">
@@ -46997,7 +46997,7 @@
       </c>
       <c r="B2117" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2117" t="inlineStr">
@@ -47019,7 +47019,7 @@
       </c>
       <c r="B2118" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2118" t="inlineStr">
@@ -47041,7 +47041,7 @@
       </c>
       <c r="B2119" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2119" t="inlineStr">
@@ -47063,7 +47063,7 @@
       </c>
       <c r="B2120" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2120" t="inlineStr">
@@ -47085,7 +47085,7 @@
       </c>
       <c r="B2121" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2121" t="inlineStr">
@@ -47107,7 +47107,7 @@
       </c>
       <c r="B2122" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2122" t="inlineStr">
@@ -47129,7 +47129,7 @@
       </c>
       <c r="B2123" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2123" t="inlineStr">
@@ -47151,7 +47151,7 @@
       </c>
       <c r="B2124" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2124" t="inlineStr">
@@ -47173,7 +47173,7 @@
       </c>
       <c r="B2125" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2125" t="inlineStr">
@@ -47195,7 +47195,7 @@
       </c>
       <c r="B2126" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2126" t="inlineStr">
@@ -47217,7 +47217,7 @@
       </c>
       <c r="B2127" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2127" t="inlineStr">
@@ -47239,7 +47239,7 @@
       </c>
       <c r="B2128" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2128" t="inlineStr">
@@ -47261,7 +47261,7 @@
       </c>
       <c r="B2129" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2129" t="inlineStr">
@@ -47283,7 +47283,7 @@
       </c>
       <c r="B2130" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2130" t="inlineStr">
@@ -47305,7 +47305,7 @@
       </c>
       <c r="B2131" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2131" t="inlineStr">
@@ -47327,7 +47327,7 @@
       </c>
       <c r="B2132" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2132" t="inlineStr">
@@ -47349,7 +47349,7 @@
       </c>
       <c r="B2133" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2133" t="inlineStr">
@@ -47371,7 +47371,7 @@
       </c>
       <c r="B2134" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2134" t="inlineStr">
@@ -47393,7 +47393,7 @@
       </c>
       <c r="B2135" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2135" t="inlineStr">
@@ -47415,7 +47415,7 @@
       </c>
       <c r="B2136" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2136" t="inlineStr">
@@ -47437,7 +47437,7 @@
       </c>
       <c r="B2137" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2137" t="inlineStr">
@@ -47459,7 +47459,7 @@
       </c>
       <c r="B2138" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2138" t="inlineStr">
@@ -47481,7 +47481,7 @@
       </c>
       <c r="B2139" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2139" t="inlineStr">
@@ -47503,7 +47503,7 @@
       </c>
       <c r="B2140" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2140" t="inlineStr">
@@ -47525,7 +47525,7 @@
       </c>
       <c r="B2141" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2141" t="inlineStr">
@@ -47547,7 +47547,7 @@
       </c>
       <c r="B2142" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2142" t="inlineStr">
@@ -47569,7 +47569,7 @@
       </c>
       <c r="B2143" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2143" t="inlineStr">
@@ -47591,7 +47591,7 @@
       </c>
       <c r="B2144" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2144" t="inlineStr">
@@ -47613,7 +47613,7 @@
       </c>
       <c r="B2145" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2145" t="inlineStr">
@@ -47635,7 +47635,7 @@
       </c>
       <c r="B2146" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2146" t="inlineStr">
@@ -47657,7 +47657,7 @@
       </c>
       <c r="B2147" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2147" t="inlineStr">
@@ -47679,7 +47679,7 @@
       </c>
       <c r="B2148" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2148" t="inlineStr">
@@ -47701,7 +47701,7 @@
       </c>
       <c r="B2149" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2149" t="inlineStr">
@@ -47723,7 +47723,7 @@
       </c>
       <c r="B2150" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2150" t="inlineStr">
@@ -47745,7 +47745,7 @@
       </c>
       <c r="B2151" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2151" t="inlineStr">
@@ -47767,7 +47767,7 @@
       </c>
       <c r="B2152" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2152" t="inlineStr">
@@ -47789,7 +47789,7 @@
       </c>
       <c r="B2153" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2153" t="inlineStr">
@@ -47811,7 +47811,7 @@
       </c>
       <c r="B2154" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2154" t="inlineStr">
@@ -47833,7 +47833,7 @@
       </c>
       <c r="B2155" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2155" t="inlineStr">
@@ -47855,7 +47855,7 @@
       </c>
       <c r="B2156" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2156" t="inlineStr">
@@ -47877,7 +47877,7 @@
       </c>
       <c r="B2157" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2157" t="inlineStr">
@@ -47899,7 +47899,7 @@
       </c>
       <c r="B2158" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2158" t="inlineStr">
@@ -47921,7 +47921,7 @@
       </c>
       <c r="B2159" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2159" t="inlineStr">
@@ -47943,7 +47943,7 @@
       </c>
       <c r="B2160" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2160" t="inlineStr">
@@ -47965,7 +47965,7 @@
       </c>
       <c r="B2161" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2161" t="inlineStr">
@@ -47987,7 +47987,7 @@
       </c>
       <c r="B2162" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2162" t="inlineStr">
@@ -48009,7 +48009,7 @@
       </c>
       <c r="B2163" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2163" t="inlineStr">
@@ -48031,7 +48031,7 @@
       </c>
       <c r="B2164" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2164" t="inlineStr">
@@ -48053,7 +48053,7 @@
       </c>
       <c r="B2165" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2165" t="inlineStr">
@@ -48075,7 +48075,7 @@
       </c>
       <c r="B2166" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2166" t="inlineStr">
@@ -48097,7 +48097,7 @@
       </c>
       <c r="B2167" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2167" t="inlineStr">
@@ -48119,7 +48119,7 @@
       </c>
       <c r="B2168" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2168" t="inlineStr">
@@ -48141,7 +48141,7 @@
       </c>
       <c r="B2169" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2169" t="inlineStr">
@@ -48163,7 +48163,7 @@
       </c>
       <c r="B2170" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2170" t="inlineStr">
@@ -48185,7 +48185,7 @@
       </c>
       <c r="B2171" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2171" t="inlineStr">
@@ -48207,7 +48207,7 @@
       </c>
       <c r="B2172" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2172" t="inlineStr">
@@ -48229,7 +48229,7 @@
       </c>
       <c r="B2173" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2173" t="inlineStr">
@@ -48251,7 +48251,7 @@
       </c>
       <c r="B2174" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2174" t="inlineStr">
@@ -48273,7 +48273,7 @@
       </c>
       <c r="B2175" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2175" t="inlineStr">
@@ -48295,7 +48295,7 @@
       </c>
       <c r="B2176" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2176" t="inlineStr">
@@ -48317,7 +48317,7 @@
       </c>
       <c r="B2177" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2177" t="inlineStr">
@@ -48339,7 +48339,7 @@
       </c>
       <c r="B2178" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2178" t="inlineStr">
@@ -48361,7 +48361,7 @@
       </c>
       <c r="B2179" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2179" t="inlineStr">
@@ -48383,7 +48383,7 @@
       </c>
       <c r="B2180" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2180" t="inlineStr">
@@ -48405,7 +48405,7 @@
       </c>
       <c r="B2181" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2181" t="inlineStr">
@@ -48427,7 +48427,7 @@
       </c>
       <c r="B2182" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2182" t="inlineStr">
@@ -48449,7 +48449,7 @@
       </c>
       <c r="B2183" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2183" t="inlineStr">
@@ -48471,7 +48471,7 @@
       </c>
       <c r="B2184" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2184" t="inlineStr">
@@ -48493,7 +48493,7 @@
       </c>
       <c r="B2185" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2185" t="inlineStr">
@@ -48515,7 +48515,7 @@
       </c>
       <c r="B2186" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2186" t="inlineStr">
@@ -48537,7 +48537,7 @@
       </c>
       <c r="B2187" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2187" t="inlineStr">
@@ -48559,7 +48559,7 @@
       </c>
       <c r="B2188" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2188" t="inlineStr">
@@ -48581,7 +48581,7 @@
       </c>
       <c r="B2189" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2189" t="inlineStr">
@@ -48603,7 +48603,7 @@
       </c>
       <c r="B2190" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2190" t="inlineStr">
@@ -48625,7 +48625,7 @@
       </c>
       <c r="B2191" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2191" t="inlineStr">
@@ -48647,7 +48647,7 @@
       </c>
       <c r="B2192" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2192" t="inlineStr">
@@ -48669,7 +48669,7 @@
       </c>
       <c r="B2193" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2193" t="inlineStr">
@@ -48691,7 +48691,7 @@
       </c>
       <c r="B2194" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2194" t="inlineStr">
@@ -48713,7 +48713,7 @@
       </c>
       <c r="B2195" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2195" t="inlineStr">
@@ -48735,7 +48735,7 @@
       </c>
       <c r="B2196" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2196" t="inlineStr">
@@ -48757,7 +48757,7 @@
       </c>
       <c r="B2197" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2197" t="inlineStr">
@@ -48779,7 +48779,7 @@
       </c>
       <c r="B2198" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2198" t="inlineStr">
@@ -48801,7 +48801,7 @@
       </c>
       <c r="B2199" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2199" t="inlineStr">
@@ -48823,7 +48823,7 @@
       </c>
       <c r="B2200" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2200" t="inlineStr">
@@ -48845,7 +48845,7 @@
       </c>
       <c r="B2201" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2201" t="inlineStr">
@@ -48867,7 +48867,7 @@
       </c>
       <c r="B2202" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2202" t="inlineStr">
@@ -48889,7 +48889,7 @@
       </c>
       <c r="B2203" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2203" t="inlineStr">
@@ -48911,7 +48911,7 @@
       </c>
       <c r="B2204" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2204" t="inlineStr">
@@ -48933,7 +48933,7 @@
       </c>
       <c r="B2205" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2205" t="inlineStr">
@@ -48955,7 +48955,7 @@
       </c>
       <c r="B2206" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2206" t="inlineStr">
@@ -48977,7 +48977,7 @@
       </c>
       <c r="B2207" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2207" t="inlineStr">
@@ -48999,7 +48999,7 @@
       </c>
       <c r="B2208" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2208" t="inlineStr">
@@ -49021,7 +49021,7 @@
       </c>
       <c r="B2209" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2209" t="inlineStr">
@@ -49043,7 +49043,7 @@
       </c>
       <c r="B2210" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2210" t="inlineStr">
@@ -49065,7 +49065,7 @@
       </c>
       <c r="B2211" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2211" t="inlineStr">
@@ -49087,7 +49087,7 @@
       </c>
       <c r="B2212" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2212" t="inlineStr">
@@ -49109,7 +49109,7 @@
       </c>
       <c r="B2213" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2213" t="inlineStr">
@@ -49131,7 +49131,7 @@
       </c>
       <c r="B2214" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2214" t="inlineStr">
@@ -49153,7 +49153,7 @@
       </c>
       <c r="B2215" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2215" t="inlineStr">
@@ -49175,7 +49175,7 @@
       </c>
       <c r="B2216" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2216" t="inlineStr">
@@ -49197,7 +49197,7 @@
       </c>
       <c r="B2217" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2217" t="inlineStr">
@@ -49219,7 +49219,7 @@
       </c>
       <c r="B2218" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2218" t="inlineStr">
@@ -49241,7 +49241,7 @@
       </c>
       <c r="B2219" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2219" t="inlineStr">
@@ -49263,7 +49263,7 @@
       </c>
       <c r="B2220" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2220" t="inlineStr">
@@ -49285,7 +49285,7 @@
       </c>
       <c r="B2221" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2221" t="inlineStr">
@@ -49307,7 +49307,7 @@
       </c>
       <c r="B2222" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2222" t="inlineStr">
@@ -49329,7 +49329,7 @@
       </c>
       <c r="B2223" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2223" t="inlineStr">
@@ -49351,7 +49351,7 @@
       </c>
       <c r="B2224" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2224" t="inlineStr">
@@ -49373,7 +49373,7 @@
       </c>
       <c r="B2225" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2225" t="inlineStr">
@@ -49395,7 +49395,7 @@
       </c>
       <c r="B2226" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2226" t="inlineStr">
@@ -49417,7 +49417,7 @@
       </c>
       <c r="B2227" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2227" t="inlineStr">
@@ -49439,7 +49439,7 @@
       </c>
       <c r="B2228" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2228" t="inlineStr">
@@ -49461,7 +49461,7 @@
       </c>
       <c r="B2229" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2229" t="inlineStr">
@@ -49483,7 +49483,7 @@
       </c>
       <c r="B2230" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2230" t="inlineStr">
@@ -49505,7 +49505,7 @@
       </c>
       <c r="B2231" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2231" t="inlineStr">
@@ -49527,7 +49527,7 @@
       </c>
       <c r="B2232" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2232" t="inlineStr">
@@ -49549,7 +49549,7 @@
       </c>
       <c r="B2233" t="inlineStr">
         <is>
-          <t>9LPA</t>
+          <t>9.1LPA</t>
         </is>
       </c>
       <c r="C2233" t="inlineStr">
@@ -49626,6 +49626,491 @@
       <c r="D2236" t="inlineStr">
         <is>
           <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" t="inlineStr">
+        <is>
+          <t>21BKT0017</t>
+        </is>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>9.7LPA</t>
+        </is>
+      </c>
+      <c r="C2237" t="inlineStr">
+        <is>
+          <t>FIS</t>
+        </is>
+      </c>
+      <c r="D2237" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" t="inlineStr">
+        <is>
+          <t>21BPS1394</t>
+        </is>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>9.7LPA</t>
+        </is>
+      </c>
+      <c r="C2238" t="inlineStr">
+        <is>
+          <t>FIS</t>
+        </is>
+      </c>
+      <c r="D2238" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" t="inlineStr">
+        <is>
+          <t>21BPS1494</t>
+        </is>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>9.7LPA</t>
+        </is>
+      </c>
+      <c r="C2239" t="inlineStr">
+        <is>
+          <t>FIS</t>
+        </is>
+      </c>
+      <c r="D2239" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" t="inlineStr">
+        <is>
+          <t>21BRS1361</t>
+        </is>
+      </c>
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>9.7LPA</t>
+        </is>
+      </c>
+      <c r="C2240" t="inlineStr">
+        <is>
+          <t>FIS</t>
+        </is>
+      </c>
+      <c r="D2240" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" t="inlineStr">
+        <is>
+          <t>21BKT0038</t>
+        </is>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>9.7LPA</t>
+        </is>
+      </c>
+      <c r="C2241" t="inlineStr">
+        <is>
+          <t>FIS</t>
+        </is>
+      </c>
+      <c r="D2241" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" t="inlineStr">
+        <is>
+          <t>21BCE2512</t>
+        </is>
+      </c>
+      <c r="B2242" t="inlineStr">
+        <is>
+          <t>9.7LPA</t>
+        </is>
+      </c>
+      <c r="C2242" t="inlineStr">
+        <is>
+          <t>FIS</t>
+        </is>
+      </c>
+      <c r="D2242" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" t="inlineStr">
+        <is>
+          <t>21BCE0205</t>
+        </is>
+      </c>
+      <c r="B2243" t="inlineStr">
+        <is>
+          <t>9.7LPA</t>
+        </is>
+      </c>
+      <c r="C2243" t="inlineStr">
+        <is>
+          <t>FIS</t>
+        </is>
+      </c>
+      <c r="D2243" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" t="inlineStr">
+        <is>
+          <t>21BCB0063</t>
+        </is>
+      </c>
+      <c r="B2244" t="inlineStr">
+        <is>
+          <t>9.7LPA</t>
+        </is>
+      </c>
+      <c r="C2244" t="inlineStr">
+        <is>
+          <t>FIS</t>
+        </is>
+      </c>
+      <c r="D2244" t="inlineStr">
+        <is>
+          <t>BCB</t>
+        </is>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" t="inlineStr">
+        <is>
+          <t>21BCE4007</t>
+        </is>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>9.7LPA</t>
+        </is>
+      </c>
+      <c r="C2245" t="inlineStr">
+        <is>
+          <t>FIS</t>
+        </is>
+      </c>
+      <c r="D2245" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" t="inlineStr">
+        <is>
+          <t>21BCI0265</t>
+        </is>
+      </c>
+      <c r="B2246" t="inlineStr">
+        <is>
+          <t>9.7LPA</t>
+        </is>
+      </c>
+      <c r="C2246" t="inlineStr">
+        <is>
+          <t>FIS</t>
+        </is>
+      </c>
+      <c r="D2246" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" t="inlineStr">
+        <is>
+          <t>21BCE2700</t>
+        </is>
+      </c>
+      <c r="B2247" t="inlineStr">
+        <is>
+          <t>9.7LPA</t>
+        </is>
+      </c>
+      <c r="C2247" t="inlineStr">
+        <is>
+          <t>FIS</t>
+        </is>
+      </c>
+      <c r="D2247" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" t="inlineStr">
+        <is>
+          <t>21BCE1532</t>
+        </is>
+      </c>
+      <c r="B2248" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C2248" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="D2248" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" t="inlineStr">
+        <is>
+          <t>21BCY10166</t>
+        </is>
+      </c>
+      <c r="B2249" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C2249" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="D2249" t="inlineStr">
+        <is>
+          <t>BCY</t>
+        </is>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" t="inlineStr">
+        <is>
+          <t>21BCE9426</t>
+        </is>
+      </c>
+      <c r="B2250" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C2250" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="D2250" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" t="inlineStr">
+        <is>
+          <t>21BCE10878</t>
+        </is>
+      </c>
+      <c r="B2251" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C2251" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="D2251" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" t="inlineStr">
+        <is>
+          <t>21BCY10079</t>
+        </is>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C2252" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="D2252" t="inlineStr">
+        <is>
+          <t>BCY</t>
+        </is>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" t="inlineStr">
+        <is>
+          <t>21BCE7439</t>
+        </is>
+      </c>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C2253" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="D2253" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" t="inlineStr">
+        <is>
+          <t>21BIT0620</t>
+        </is>
+      </c>
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C2254" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="D2254" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" t="inlineStr">
+        <is>
+          <t>21BCE1910</t>
+        </is>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C2255" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="D2255" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" t="inlineStr">
+        <is>
+          <t>21BCE9089</t>
+        </is>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C2256" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="D2256" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21BCE0105
+</t>
+        </is>
+      </c>
+      <c r="B2257" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2257" t="inlineStr">
+        <is>
+          <t>SOCIETE GENERALE</t>
+        </is>
+      </c>
+      <c r="D2257" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" t="inlineStr">
+        <is>
+          <t>21BCE2278</t>
+        </is>
+      </c>
+      <c r="B2258" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2258" t="inlineStr">
+        <is>
+          <t>SOCIETE GENERALE</t>
+        </is>
+      </c>
+      <c r="D2258" t="inlineStr">
+        <is>
+          <t>BCE</t>
         </is>
       </c>
     </row>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2258"/>
+  <dimension ref="A1:D2285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50114,6 +50114,600 @@
         </is>
       </c>
     </row>
+    <row r="2259">
+      <c r="A2259" t="inlineStr">
+        <is>
+          <t>21BAI1326</t>
+        </is>
+      </c>
+      <c r="B2259" t="inlineStr">
+        <is>
+          <t>13.96LPA</t>
+        </is>
+      </c>
+      <c r="C2259" t="inlineStr">
+        <is>
+          <t>Kinaxis</t>
+        </is>
+      </c>
+      <c r="D2259" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" t="inlineStr">
+        <is>
+          <t>21BCE1812</t>
+        </is>
+      </c>
+      <c r="B2260" t="inlineStr">
+        <is>
+          <t>13.96LPA</t>
+        </is>
+      </c>
+      <c r="C2260" t="inlineStr">
+        <is>
+          <t>Kinaxis</t>
+        </is>
+      </c>
+      <c r="D2260" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" t="inlineStr">
+        <is>
+          <t>21BAI1844</t>
+        </is>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>13.96LPA</t>
+        </is>
+      </c>
+      <c r="C2261" t="inlineStr">
+        <is>
+          <t>Kinaxis</t>
+        </is>
+      </c>
+      <c r="D2261" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" t="inlineStr">
+        <is>
+          <t>21BCE5695</t>
+        </is>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>13.96LPA</t>
+        </is>
+      </c>
+      <c r="C2262" t="inlineStr">
+        <is>
+          <t>Kinaxis</t>
+        </is>
+      </c>
+      <c r="D2262" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" t="inlineStr">
+        <is>
+          <t>21BAI1216</t>
+        </is>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>17.5LPA</t>
+        </is>
+      </c>
+      <c r="C2263" t="inlineStr">
+        <is>
+          <t>Kinaxis</t>
+        </is>
+      </c>
+      <c r="D2263" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" t="inlineStr">
+        <is>
+          <t>21BCE2180</t>
+        </is>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>17.5LPA</t>
+        </is>
+      </c>
+      <c r="C2264" t="inlineStr">
+        <is>
+          <t>Kinaxis</t>
+        </is>
+      </c>
+      <c r="D2264" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" t="inlineStr">
+        <is>
+          <t>21BCE0245</t>
+        </is>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2265" t="inlineStr">
+        <is>
+          <t>HSBC EDPI</t>
+        </is>
+      </c>
+      <c r="D2265" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" t="inlineStr">
+        <is>
+          <t>21BCE11656</t>
+        </is>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2266" t="inlineStr">
+        <is>
+          <t>HSBC EDPI</t>
+        </is>
+      </c>
+      <c r="D2266" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" t="inlineStr">
+        <is>
+          <t>21BCE9006</t>
+        </is>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2267" t="inlineStr">
+        <is>
+          <t>HSBC EDPI</t>
+        </is>
+      </c>
+      <c r="D2267" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" t="inlineStr">
+        <is>
+          <t>21BCE8992</t>
+        </is>
+      </c>
+      <c r="B2268" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2268" t="inlineStr">
+        <is>
+          <t>HSBC EDPI</t>
+        </is>
+      </c>
+      <c r="D2268" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" t="inlineStr">
+        <is>
+          <t>21BAI1691</t>
+        </is>
+      </c>
+      <c r="B2269" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2269" t="inlineStr">
+        <is>
+          <t>HSBC EDPI</t>
+        </is>
+      </c>
+      <c r="D2269" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" t="inlineStr">
+        <is>
+          <t>21BCE0429</t>
+        </is>
+      </c>
+      <c r="B2270" t="inlineStr">
+        <is>
+          <t>15LPA</t>
+        </is>
+      </c>
+      <c r="C2270" t="inlineStr">
+        <is>
+          <t>Hyperverge</t>
+        </is>
+      </c>
+      <c r="D2270" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" t="inlineStr">
+        <is>
+          <t>21BCE0586</t>
+        </is>
+      </c>
+      <c r="B2271" t="inlineStr">
+        <is>
+          <t>11LPA</t>
+        </is>
+      </c>
+      <c r="C2271" t="inlineStr">
+        <is>
+          <t>Hitwicket</t>
+        </is>
+      </c>
+      <c r="D2271" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" t="inlineStr">
+        <is>
+          <t>21BPS1302</t>
+        </is>
+      </c>
+      <c r="B2272" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2272" t="inlineStr">
+        <is>
+          <t>Kuhoo Technology</t>
+        </is>
+      </c>
+      <c r="D2272" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" t="inlineStr">
+        <is>
+          <t>21BCE6015</t>
+        </is>
+      </c>
+      <c r="B2273" t="inlineStr">
+        <is>
+          <t>11.5LPA</t>
+        </is>
+      </c>
+      <c r="C2273" t="inlineStr">
+        <is>
+          <t>London Stock Exchange Group</t>
+        </is>
+      </c>
+      <c r="D2273" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" t="inlineStr">
+        <is>
+          <t>21BIT0177</t>
+        </is>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>11.5LPA</t>
+        </is>
+      </c>
+      <c r="C2274" t="inlineStr">
+        <is>
+          <t>London Stock Exchange Group</t>
+        </is>
+      </c>
+      <c r="D2274" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" t="inlineStr">
+        <is>
+          <t>21BCE2254</t>
+        </is>
+      </c>
+      <c r="B2275" t="inlineStr">
+        <is>
+          <t>11.5LPA</t>
+        </is>
+      </c>
+      <c r="C2275" t="inlineStr">
+        <is>
+          <t>London Stock Exchange Group</t>
+        </is>
+      </c>
+      <c r="D2275" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" t="inlineStr">
+        <is>
+          <t>21BIT0347</t>
+        </is>
+      </c>
+      <c r="B2276" t="inlineStr">
+        <is>
+          <t>11.5LPA</t>
+        </is>
+      </c>
+      <c r="C2276" t="inlineStr">
+        <is>
+          <t>London Stock Exchange Group</t>
+        </is>
+      </c>
+      <c r="D2276" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" t="inlineStr">
+        <is>
+          <t>21BDS0198</t>
+        </is>
+      </c>
+      <c r="B2277" t="inlineStr">
+        <is>
+          <t>9.1LPA</t>
+        </is>
+      </c>
+      <c r="C2277" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2277" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" t="inlineStr">
+        <is>
+          <t>21BPS1198</t>
+        </is>
+      </c>
+      <c r="B2278" t="inlineStr">
+        <is>
+          <t>9.1LPA</t>
+        </is>
+      </c>
+      <c r="C2278" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2278" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" t="inlineStr">
+        <is>
+          <t>21BCE2031</t>
+        </is>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>9.1LPA</t>
+        </is>
+      </c>
+      <c r="C2279" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2279" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" t="inlineStr">
+        <is>
+          <t>21BCE0481</t>
+        </is>
+      </c>
+      <c r="B2280" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C2280" t="inlineStr">
+        <is>
+          <t>MUFG</t>
+        </is>
+      </c>
+      <c r="D2280" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" t="inlineStr">
+        <is>
+          <t>21BCE0877</t>
+        </is>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>MUFG</t>
+        </is>
+      </c>
+      <c r="D2281" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" t="inlineStr">
+        <is>
+          <t>21BCE1430</t>
+        </is>
+      </c>
+      <c r="B2282" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C2282" t="inlineStr">
+        <is>
+          <t>MUFG</t>
+        </is>
+      </c>
+      <c r="D2282" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" t="inlineStr">
+        <is>
+          <t>21BCE1592</t>
+        </is>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C2283" t="inlineStr">
+        <is>
+          <t>MUFG</t>
+        </is>
+      </c>
+      <c r="D2283" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" t="inlineStr">
+        <is>
+          <t>21BCE1649</t>
+        </is>
+      </c>
+      <c r="B2284" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C2284" t="inlineStr">
+        <is>
+          <t>MUFG</t>
+        </is>
+      </c>
+      <c r="D2284" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" t="inlineStr">
+        <is>
+          <t>21BCE10180</t>
+        </is>
+      </c>
+      <c r="B2285" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C2285" t="inlineStr">
+        <is>
+          <t>MUFG</t>
+        </is>
+      </c>
+      <c r="D2285" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2285"/>
+  <dimension ref="A1:D2326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>15LPA</t>
+          <t>20LPA</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>11.13LPA</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -4731,7 +4731,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>11.13LPA</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -23982,7 +23982,7 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>28LPA</t>
         </is>
       </c>
       <c r="C1071" t="inlineStr">
@@ -24004,7 +24004,7 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>28LPA</t>
         </is>
       </c>
       <c r="C1072" t="inlineStr">
@@ -31528,7 +31528,7 @@
       </c>
       <c r="B1414" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9.5LPA</t>
         </is>
       </c>
       <c r="C1414" t="inlineStr">
@@ -31550,7 +31550,7 @@
       </c>
       <c r="B1415" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9.5LPA</t>
         </is>
       </c>
       <c r="C1415" t="inlineStr">
@@ -31572,7 +31572,7 @@
       </c>
       <c r="B1416" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9.5LPA</t>
         </is>
       </c>
       <c r="C1416" t="inlineStr">
@@ -31594,7 +31594,7 @@
       </c>
       <c r="B1417" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9.5LPA</t>
         </is>
       </c>
       <c r="C1417" t="inlineStr">
@@ -31616,7 +31616,7 @@
       </c>
       <c r="B1418" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9.5LPA</t>
         </is>
       </c>
       <c r="C1418" t="inlineStr">
@@ -31638,7 +31638,7 @@
       </c>
       <c r="B1419" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9.5LPA</t>
         </is>
       </c>
       <c r="C1419" t="inlineStr">
@@ -31660,7 +31660,7 @@
       </c>
       <c r="B1420" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9.5LPA</t>
         </is>
       </c>
       <c r="C1420" t="inlineStr">
@@ -31682,7 +31682,7 @@
       </c>
       <c r="B1421" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9.5LPA</t>
         </is>
       </c>
       <c r="C1421" t="inlineStr">
@@ -31704,7 +31704,7 @@
       </c>
       <c r="B1422" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9.5LPA</t>
         </is>
       </c>
       <c r="C1422" t="inlineStr">
@@ -40264,7 +40264,7 @@
       </c>
       <c r="B1811" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1811" t="inlineStr">
@@ -40286,7 +40286,7 @@
       </c>
       <c r="B1812" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1812" t="inlineStr">
@@ -40308,7 +40308,7 @@
       </c>
       <c r="B1813" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C1813" t="inlineStr">
@@ -46139,7 +46139,7 @@
       </c>
       <c r="B2078" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>38LPA</t>
         </is>
       </c>
       <c r="C2078" t="inlineStr">
@@ -46161,7 +46161,7 @@
       </c>
       <c r="B2079" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>38LPA</t>
         </is>
       </c>
       <c r="C2079" t="inlineStr">
@@ -50703,6 +50703,908 @@
         </is>
       </c>
       <c r="D2285" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" t="inlineStr">
+        <is>
+          <t>21BRS1565</t>
+        </is>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C2286" t="inlineStr">
+        <is>
+          <t>Quantiphi Analytics</t>
+        </is>
+      </c>
+      <c r="D2286" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" t="inlineStr">
+        <is>
+          <t>21BCE3112</t>
+        </is>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C2287" t="inlineStr">
+        <is>
+          <t>Quantiphi Analytics</t>
+        </is>
+      </c>
+      <c r="D2287" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" t="inlineStr">
+        <is>
+          <t>21BDS0263</t>
+        </is>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C2288" t="inlineStr">
+        <is>
+          <t>Quantiphi Analytics</t>
+        </is>
+      </c>
+      <c r="D2288" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" t="inlineStr">
+        <is>
+          <t>21BCE9121</t>
+        </is>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C2289" t="inlineStr">
+        <is>
+          <t>Quantiphi Analytics</t>
+        </is>
+      </c>
+      <c r="D2289" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" t="inlineStr">
+        <is>
+          <t>21BCE1735</t>
+        </is>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>17LPA</t>
+        </is>
+      </c>
+      <c r="C2290" t="inlineStr">
+        <is>
+          <t>Solar Winds</t>
+        </is>
+      </c>
+      <c r="D2290" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" t="inlineStr">
+        <is>
+          <t>21BCE7760</t>
+        </is>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>22LPA</t>
+        </is>
+      </c>
+      <c r="C2291" t="inlineStr">
+        <is>
+          <t>Tekion</t>
+        </is>
+      </c>
+      <c r="D2291" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" t="inlineStr">
+        <is>
+          <t>21BCE9636</t>
+        </is>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>22LPA</t>
+        </is>
+      </c>
+      <c r="C2292" t="inlineStr">
+        <is>
+          <t>Tekion</t>
+        </is>
+      </c>
+      <c r="D2292" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" t="inlineStr">
+        <is>
+          <t>21BCE10404</t>
+        </is>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>22LPA</t>
+        </is>
+      </c>
+      <c r="C2293" t="inlineStr">
+        <is>
+          <t>Tekion</t>
+        </is>
+      </c>
+      <c r="D2293" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" t="inlineStr">
+        <is>
+          <t>21BCE11077</t>
+        </is>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>22LPA</t>
+        </is>
+      </c>
+      <c r="C2294" t="inlineStr">
+        <is>
+          <t>Tekion</t>
+        </is>
+      </c>
+      <c r="D2294" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" t="inlineStr">
+        <is>
+          <t>21BEC0052</t>
+        </is>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2295" t="inlineStr">
+        <is>
+          <t>NVIDIA</t>
+        </is>
+      </c>
+      <c r="D2295" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21BCE7331 </t>
+        </is>
+      </c>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>17LPA</t>
+        </is>
+      </c>
+      <c r="C2296" t="inlineStr">
+        <is>
+          <t>Solar Winds</t>
+        </is>
+      </c>
+      <c r="D2296" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" t="inlineStr">
+        <is>
+          <t>21BCE9147</t>
+        </is>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2297" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2297" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" t="inlineStr">
+        <is>
+          <t>21BHI10014</t>
+        </is>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2298" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2298" t="inlineStr">
+        <is>
+          <t>BHI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" t="inlineStr">
+        <is>
+          <t>21BCE6168</t>
+        </is>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2299" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2299" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" t="inlineStr">
+        <is>
+          <t>21BCE10201</t>
+        </is>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2300" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2300" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" t="inlineStr">
+        <is>
+          <t>21BCE11078</t>
+        </is>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2301" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" t="inlineStr">
+        <is>
+          <t>21BRS1359</t>
+        </is>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2302" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2302" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" t="inlineStr">
+        <is>
+          <t>21BCE2471</t>
+        </is>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2303" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2303" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" t="inlineStr">
+        <is>
+          <t>21BCE7060</t>
+        </is>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2304" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2304" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" t="inlineStr">
+        <is>
+          <t>21BCE1246</t>
+        </is>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2305" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2305" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" t="inlineStr">
+        <is>
+          <t>21BCE8539</t>
+        </is>
+      </c>
+      <c r="B2306" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2306" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2306" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" t="inlineStr">
+        <is>
+          <t>21BCT0127</t>
+        </is>
+      </c>
+      <c r="B2307" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2307" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2307" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" t="inlineStr">
+        <is>
+          <t>21BEC1558</t>
+        </is>
+      </c>
+      <c r="B2308" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2308" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2308" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" t="inlineStr">
+        <is>
+          <t>21BCE7333</t>
+        </is>
+      </c>
+      <c r="B2309" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2309" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2309" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" t="inlineStr">
+        <is>
+          <t>21BCE9601</t>
+        </is>
+      </c>
+      <c r="B2310" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2310" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2310" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" t="inlineStr">
+        <is>
+          <t>21BCE10630</t>
+        </is>
+      </c>
+      <c r="B2311" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2311" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2311" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" t="inlineStr">
+        <is>
+          <t>21BCE1616</t>
+        </is>
+      </c>
+      <c r="B2312" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2312" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2312" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" t="inlineStr">
+        <is>
+          <t>21BIT0438</t>
+        </is>
+      </c>
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2313" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2313" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" t="inlineStr">
+        <is>
+          <t>21BCE0871</t>
+        </is>
+      </c>
+      <c r="B2314" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2314" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2314" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" t="inlineStr">
+        <is>
+          <t>21BAI10209</t>
+        </is>
+      </c>
+      <c r="B2315" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2315" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2315" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" t="inlineStr">
+        <is>
+          <t>21BCE5694</t>
+        </is>
+      </c>
+      <c r="B2316" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2316" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2316" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" t="inlineStr">
+        <is>
+          <t>21BCE5885</t>
+        </is>
+      </c>
+      <c r="B2317" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2317" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2317" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" t="inlineStr">
+        <is>
+          <t>21BCE10310</t>
+        </is>
+      </c>
+      <c r="B2318" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2318" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2318" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" t="inlineStr">
+        <is>
+          <t>21BCE3603</t>
+        </is>
+      </c>
+      <c r="B2319" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2319" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2319" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" t="inlineStr">
+        <is>
+          <t>21BSA10090</t>
+        </is>
+      </c>
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2320" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2320" t="inlineStr">
+        <is>
+          <t>BSA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" t="inlineStr">
+        <is>
+          <t>21BCE9249</t>
+        </is>
+      </c>
+      <c r="B2321" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2321" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2321" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" t="inlineStr">
+        <is>
+          <t>21BCE9337</t>
+        </is>
+      </c>
+      <c r="B2322" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2322" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2322" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" t="inlineStr">
+        <is>
+          <t>21BAI1665</t>
+        </is>
+      </c>
+      <c r="B2323" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2323" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2323" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" t="inlineStr">
+        <is>
+          <t>21BCE9371</t>
+        </is>
+      </c>
+      <c r="B2324" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2324" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2324" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" t="inlineStr">
+        <is>
+          <t>21BCI0026</t>
+        </is>
+      </c>
+      <c r="B2325" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2325" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2325" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" t="inlineStr">
+        <is>
+          <t>21BCE9411</t>
+        </is>
+      </c>
+      <c r="B2326" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2326" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="D2326" t="inlineStr">
         <is>
           <t>BCE</t>
         </is>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2326"/>
+  <dimension ref="A1:D2332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51610,6 +51610,138 @@
         </is>
       </c>
     </row>
+    <row r="2327">
+      <c r="A2327" t="inlineStr">
+        <is>
+          <t>21BPS1603</t>
+        </is>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>9.1LPA</t>
+        </is>
+      </c>
+      <c r="C2327" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2327" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" t="inlineStr">
+        <is>
+          <t>21BPS1207</t>
+        </is>
+      </c>
+      <c r="B2328" t="inlineStr">
+        <is>
+          <t>9.1LPA</t>
+        </is>
+      </c>
+      <c r="C2328" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2328" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" t="inlineStr">
+        <is>
+          <t>21BPS1069</t>
+        </is>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>9.1LPA</t>
+        </is>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2329" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" t="inlineStr">
+        <is>
+          <t>21BCI0184</t>
+        </is>
+      </c>
+      <c r="B2330" t="inlineStr">
+        <is>
+          <t>9.1LPA</t>
+        </is>
+      </c>
+      <c r="C2330" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2330" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" t="inlineStr">
+        <is>
+          <t>21BPS1272</t>
+        </is>
+      </c>
+      <c r="B2331" t="inlineStr">
+        <is>
+          <t>9.1LPA</t>
+        </is>
+      </c>
+      <c r="C2331" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2331" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" t="inlineStr">
+        <is>
+          <t>21BCE1074</t>
+        </is>
+      </c>
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>9.1LPA</t>
+        </is>
+      </c>
+      <c r="C2332" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D2332" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2332"/>
+  <dimension ref="A1:D2345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51742,6 +51742,292 @@
         </is>
       </c>
     </row>
+    <row r="2333">
+      <c r="A2333" t="inlineStr">
+        <is>
+          <t>21BCE0948</t>
+        </is>
+      </c>
+      <c r="B2333" t="inlineStr">
+        <is>
+          <t>11.1LPA</t>
+        </is>
+      </c>
+      <c r="C2333" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="D2333" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" t="inlineStr">
+        <is>
+          <t>21BCE0883</t>
+        </is>
+      </c>
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>11.1LPA</t>
+        </is>
+      </c>
+      <c r="C2334" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="D2334" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" t="inlineStr">
+        <is>
+          <t>21BCE3178</t>
+        </is>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>11.1LPA</t>
+        </is>
+      </c>
+      <c r="C2335" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="D2335" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" t="inlineStr">
+        <is>
+          <t>21BCE6156</t>
+        </is>
+      </c>
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t>11.1LPA</t>
+        </is>
+      </c>
+      <c r="C2336" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="D2336" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" t="inlineStr">
+        <is>
+          <t>21BCE1949</t>
+        </is>
+      </c>
+      <c r="B2337" t="inlineStr">
+        <is>
+          <t>11.1LPA</t>
+        </is>
+      </c>
+      <c r="C2337" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="D2337" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" t="inlineStr">
+        <is>
+          <t>21BCE6005</t>
+        </is>
+      </c>
+      <c r="B2338" t="inlineStr">
+        <is>
+          <t>11.1LPA</t>
+        </is>
+      </c>
+      <c r="C2338" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="D2338" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" t="inlineStr">
+        <is>
+          <t>21BCE7116</t>
+        </is>
+      </c>
+      <c r="B2339" t="inlineStr">
+        <is>
+          <t>11.1LPA</t>
+        </is>
+      </c>
+      <c r="C2339" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="D2339" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" t="inlineStr">
+        <is>
+          <t>21BCE7124</t>
+        </is>
+      </c>
+      <c r="B2340" t="inlineStr">
+        <is>
+          <t>11.1LPA</t>
+        </is>
+      </c>
+      <c r="C2340" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="D2340" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" t="inlineStr">
+        <is>
+          <t>21BCE10116</t>
+        </is>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>11.1LPA</t>
+        </is>
+      </c>
+      <c r="C2341" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="D2341" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" t="inlineStr">
+        <is>
+          <t>21BCE10667</t>
+        </is>
+      </c>
+      <c r="B2342" t="inlineStr">
+        <is>
+          <t>11.1LPA</t>
+        </is>
+      </c>
+      <c r="C2342" t="inlineStr">
+        <is>
+          <t>John Deere</t>
+        </is>
+      </c>
+      <c r="D2342" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" t="inlineStr">
+        <is>
+          <t>21BCE3990</t>
+        </is>
+      </c>
+      <c r="B2343" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C2343" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="D2343" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" t="inlineStr">
+        <is>
+          <t>21BCE6192</t>
+        </is>
+      </c>
+      <c r="B2344" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C2344" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="D2344" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" t="inlineStr">
+        <is>
+          <t>21BCE10407</t>
+        </is>
+      </c>
+      <c r="B2345" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C2345" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="D2345" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2346"/>
+  <dimension ref="A1:E2348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63780,6 +63780,60 @@
         </is>
       </c>
     </row>
+    <row r="2347">
+      <c r="A2347" t="inlineStr">
+        <is>
+          <t>21BCI0080</t>
+        </is>
+      </c>
+      <c r="B2347" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2347" t="inlineStr">
+        <is>
+          <t>Bajaj Finserv Health</t>
+        </is>
+      </c>
+      <c r="D2347" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="E2347" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" t="inlineStr">
+        <is>
+          <t>21BCT0245</t>
+        </is>
+      </c>
+      <c r="B2348" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2348" t="inlineStr">
+        <is>
+          <t>Bajaj Finserv Health</t>
+        </is>
+      </c>
+      <c r="D2348" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+      <c r="E2348" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2348"/>
+  <dimension ref="A1:E2365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63834,6 +63834,465 @@
         </is>
       </c>
     </row>
+    <row r="2349">
+      <c r="A2349" t="inlineStr">
+        <is>
+          <t>21BIT0023</t>
+        </is>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>14.5LPA</t>
+        </is>
+      </c>
+      <c r="C2349" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D2349" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E2349" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" t="inlineStr">
+        <is>
+          <t>21BCI0272</t>
+        </is>
+      </c>
+      <c r="B2350" t="inlineStr">
+        <is>
+          <t>14.5LPA</t>
+        </is>
+      </c>
+      <c r="C2350" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D2350" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="E2350" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" t="inlineStr">
+        <is>
+          <t>21BPS1509</t>
+        </is>
+      </c>
+      <c r="B2351" t="inlineStr">
+        <is>
+          <t>14.5LPA</t>
+        </is>
+      </c>
+      <c r="C2351" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D2351" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="E2351" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" t="inlineStr">
+        <is>
+          <t>21BCE5284</t>
+        </is>
+      </c>
+      <c r="B2352" t="inlineStr">
+        <is>
+          <t>14.5LPA</t>
+        </is>
+      </c>
+      <c r="C2352" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D2352" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2352" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" t="inlineStr">
+        <is>
+          <t>21BCE2820</t>
+        </is>
+      </c>
+      <c r="B2353" t="inlineStr">
+        <is>
+          <t>14.5LPA</t>
+        </is>
+      </c>
+      <c r="C2353" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D2353" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2353" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" t="inlineStr">
+        <is>
+          <t>21BAI1214</t>
+        </is>
+      </c>
+      <c r="B2354" t="inlineStr">
+        <is>
+          <t>14.5LPA</t>
+        </is>
+      </c>
+      <c r="C2354" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D2354" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2354" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" t="inlineStr">
+        <is>
+          <t>21BDS0004</t>
+        </is>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>14.5LPA</t>
+        </is>
+      </c>
+      <c r="C2355" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D2355" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E2355" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" t="inlineStr">
+        <is>
+          <t>21BCE0449</t>
+        </is>
+      </c>
+      <c r="B2356" t="inlineStr">
+        <is>
+          <t>11.1LPA</t>
+        </is>
+      </c>
+      <c r="C2356" t="inlineStr">
+        <is>
+          <t>Salescode.AI</t>
+        </is>
+      </c>
+      <c r="D2356" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2356" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" t="inlineStr">
+        <is>
+          <t>21BBS0106</t>
+        </is>
+      </c>
+      <c r="B2357" t="inlineStr">
+        <is>
+          <t>11.1LPA</t>
+        </is>
+      </c>
+      <c r="C2357" t="inlineStr">
+        <is>
+          <t>Salescode.AI</t>
+        </is>
+      </c>
+      <c r="D2357" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="E2357" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" t="inlineStr">
+        <is>
+          <t>21BCB0097</t>
+        </is>
+      </c>
+      <c r="B2358" t="inlineStr">
+        <is>
+          <t>11.1LPA</t>
+        </is>
+      </c>
+      <c r="C2358" t="inlineStr">
+        <is>
+          <t>Salescode.AI</t>
+        </is>
+      </c>
+      <c r="D2358" t="inlineStr">
+        <is>
+          <t>BCB</t>
+        </is>
+      </c>
+      <c r="E2358" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="A2359" t="inlineStr">
+        <is>
+          <t>21BEE0274</t>
+        </is>
+      </c>
+      <c r="B2359" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2359" t="inlineStr">
+        <is>
+          <t>Reliance Industries</t>
+        </is>
+      </c>
+      <c r="D2359" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E2359" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360" t="inlineStr">
+        <is>
+          <t>21BEE0331</t>
+        </is>
+      </c>
+      <c r="B2360" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2360" t="inlineStr">
+        <is>
+          <t>Reliance Industries</t>
+        </is>
+      </c>
+      <c r="D2360" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E2360" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361" t="inlineStr">
+        <is>
+          <t>21BEE1065</t>
+        </is>
+      </c>
+      <c r="B2361" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2361" t="inlineStr">
+        <is>
+          <t>Reliance Industries</t>
+        </is>
+      </c>
+      <c r="D2361" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E2361" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" t="inlineStr">
+        <is>
+          <t>21BEE1093</t>
+        </is>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2362" t="inlineStr">
+        <is>
+          <t>Reliance Industries</t>
+        </is>
+      </c>
+      <c r="D2362" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E2362" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" t="inlineStr">
+        <is>
+          <t>21BME1166</t>
+        </is>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2363" t="inlineStr">
+        <is>
+          <t>Reliance Industries</t>
+        </is>
+      </c>
+      <c r="D2363" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E2363" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="inlineStr">
+        <is>
+          <t>21BMR10002</t>
+        </is>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>Reliance Industries</t>
+        </is>
+      </c>
+      <c r="D2364" t="inlineStr">
+        <is>
+          <t>BMR</t>
+        </is>
+      </c>
+      <c r="E2364" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" t="inlineStr">
+        <is>
+          <t>21BMR10021</t>
+        </is>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2365" t="inlineStr">
+        <is>
+          <t>Reliance Industries</t>
+        </is>
+      </c>
+      <c r="D2365" t="inlineStr">
+        <is>
+          <t>BMR</t>
+        </is>
+      </c>
+      <c r="E2365" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -1941,7 +1941,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
     </row>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2365"/>
+  <dimension ref="A1:E2367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64293,6 +64293,60 @@
         </is>
       </c>
     </row>
+    <row r="2366">
+      <c r="A2366" t="inlineStr">
+        <is>
+          <t>21BMM0091</t>
+        </is>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>5.25LPA</t>
+        </is>
+      </c>
+      <c r="C2366" t="inlineStr">
+        <is>
+          <t>Renault Nissan</t>
+        </is>
+      </c>
+      <c r="D2366" t="inlineStr">
+        <is>
+          <t>BMM</t>
+        </is>
+      </c>
+      <c r="E2366" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2367">
+      <c r="A2367" t="inlineStr">
+        <is>
+          <t>21BEC1204</t>
+        </is>
+      </c>
+      <c r="B2367" t="inlineStr">
+        <is>
+          <t>5.25LPA</t>
+        </is>
+      </c>
+      <c r="C2367" t="inlineStr">
+        <is>
+          <t>Renault Nissan</t>
+        </is>
+      </c>
+      <c r="D2367" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2367" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2367"/>
+  <dimension ref="A1:E2379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64347,6 +64347,330 @@
         </is>
       </c>
     </row>
+    <row r="2368">
+      <c r="A2368" t="inlineStr">
+        <is>
+          <t>21BCE0600</t>
+        </is>
+      </c>
+      <c r="B2368" t="inlineStr">
+        <is>
+          <t>17.5LPA</t>
+        </is>
+      </c>
+      <c r="C2368" t="inlineStr">
+        <is>
+          <t>HPE</t>
+        </is>
+      </c>
+      <c r="D2368" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2368" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2369">
+      <c r="A2369" t="inlineStr">
+        <is>
+          <t>21BAI1919</t>
+        </is>
+      </c>
+      <c r="B2369" t="inlineStr">
+        <is>
+          <t>22LPA</t>
+        </is>
+      </c>
+      <c r="C2369" t="inlineStr">
+        <is>
+          <t>Tekion</t>
+        </is>
+      </c>
+      <c r="D2369" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2369" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2370">
+      <c r="A2370" t="inlineStr">
+        <is>
+          <t>21BCE9203</t>
+        </is>
+      </c>
+      <c r="B2370" t="inlineStr">
+        <is>
+          <t>22LPA</t>
+        </is>
+      </c>
+      <c r="C2370" t="inlineStr">
+        <is>
+          <t>Tekion</t>
+        </is>
+      </c>
+      <c r="D2370" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2370" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2371">
+      <c r="A2371" t="inlineStr">
+        <is>
+          <t>21BCE11616</t>
+        </is>
+      </c>
+      <c r="B2371" t="inlineStr">
+        <is>
+          <t>22LPA</t>
+        </is>
+      </c>
+      <c r="C2371" t="inlineStr">
+        <is>
+          <t>Tekion</t>
+        </is>
+      </c>
+      <c r="D2371" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2371" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="A2372" t="inlineStr">
+        <is>
+          <t>21BCE3731</t>
+        </is>
+      </c>
+      <c r="B2372" t="inlineStr">
+        <is>
+          <t>22LPA</t>
+        </is>
+      </c>
+      <c r="C2372" t="inlineStr">
+        <is>
+          <t>Tekion</t>
+        </is>
+      </c>
+      <c r="D2372" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2372" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373" t="inlineStr">
+        <is>
+          <t>21BCE0245</t>
+        </is>
+      </c>
+      <c r="B2373" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2373" t="inlineStr">
+        <is>
+          <t>HSBC EDPI</t>
+        </is>
+      </c>
+      <c r="D2373" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2373" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374" t="inlineStr">
+        <is>
+          <t>21BCE11656</t>
+        </is>
+      </c>
+      <c r="B2374" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2374" t="inlineStr">
+        <is>
+          <t>HSBC EDPI</t>
+        </is>
+      </c>
+      <c r="D2374" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2374" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2375">
+      <c r="A2375" t="inlineStr">
+        <is>
+          <t>21BCE9006</t>
+        </is>
+      </c>
+      <c r="B2375" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2375" t="inlineStr">
+        <is>
+          <t>HSBC EDPI</t>
+        </is>
+      </c>
+      <c r="D2375" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2375" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2376">
+      <c r="A2376" t="inlineStr">
+        <is>
+          <t>21BCE8992</t>
+        </is>
+      </c>
+      <c r="B2376" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2376" t="inlineStr">
+        <is>
+          <t>HSBC EDPI</t>
+        </is>
+      </c>
+      <c r="D2376" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2376" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" t="inlineStr">
+        <is>
+          <t>21BAI1691</t>
+        </is>
+      </c>
+      <c r="B2377" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2377" t="inlineStr">
+        <is>
+          <t>HSBC EDPI</t>
+        </is>
+      </c>
+      <c r="D2377" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2377" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2378">
+      <c r="A2378" t="inlineStr">
+        <is>
+          <t>21BCE3991</t>
+        </is>
+      </c>
+      <c r="B2378" t="inlineStr">
+        <is>
+          <t>12.95LPA</t>
+        </is>
+      </c>
+      <c r="C2378" t="inlineStr">
+        <is>
+          <t>Thermofisher</t>
+        </is>
+      </c>
+      <c r="D2378" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2378" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2379">
+      <c r="A2379" t="inlineStr">
+        <is>
+          <t>21BCE0799</t>
+        </is>
+      </c>
+      <c r="B2379" t="inlineStr">
+        <is>
+          <t>12.95LPA</t>
+        </is>
+      </c>
+      <c r="C2379" t="inlineStr">
+        <is>
+          <t>Thermofisher</t>
+        </is>
+      </c>
+      <c r="D2379" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2379" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2379"/>
+  <dimension ref="A1:E2424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35564,7 +35564,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>21bai1167</t>
+          <t>21BAI1167</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr">
@@ -35579,7 +35579,7 @@
       </c>
       <c r="D1302" t="inlineStr">
         <is>
-          <t>bai</t>
+          <t>BAI</t>
         </is>
       </c>
       <c r="E1302" t="inlineStr">
@@ -64666,6 +64666,1221 @@
         </is>
       </c>
       <c r="E2379" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2380">
+      <c r="A2380" t="inlineStr">
+        <is>
+          <t>21BCE0626</t>
+        </is>
+      </c>
+      <c r="B2380" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2380" t="inlineStr">
+        <is>
+          <t>HSBC Technologies</t>
+        </is>
+      </c>
+      <c r="D2380" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2380" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381" t="inlineStr">
+        <is>
+          <t>21BCE2334</t>
+        </is>
+      </c>
+      <c r="B2381" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2381" t="inlineStr">
+        <is>
+          <t>HSBC Technologies</t>
+        </is>
+      </c>
+      <c r="D2381" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2381" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2382">
+      <c r="A2382" t="inlineStr">
+        <is>
+          <t>21BIT0015</t>
+        </is>
+      </c>
+      <c r="B2382" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2382" t="inlineStr">
+        <is>
+          <t>HSBC Technologies</t>
+        </is>
+      </c>
+      <c r="D2382" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E2382" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" t="inlineStr">
+        <is>
+          <t>21BCE1486</t>
+        </is>
+      </c>
+      <c r="B2383" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2383" t="inlineStr">
+        <is>
+          <t>HSBC Technologies</t>
+        </is>
+      </c>
+      <c r="D2383" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2383" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2384">
+      <c r="A2384" t="inlineStr">
+        <is>
+          <t>21BAI1147</t>
+        </is>
+      </c>
+      <c r="B2384" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2384" t="inlineStr">
+        <is>
+          <t>HSBC Technologies</t>
+        </is>
+      </c>
+      <c r="D2384" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2384" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2385">
+      <c r="A2385" t="inlineStr">
+        <is>
+          <t>21BCE2036</t>
+        </is>
+      </c>
+      <c r="B2385" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2385" t="inlineStr">
+        <is>
+          <t>HSBC Technologies</t>
+        </is>
+      </c>
+      <c r="D2385" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2385" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2386">
+      <c r="A2386" t="inlineStr">
+        <is>
+          <t>21BCE5876</t>
+        </is>
+      </c>
+      <c r="B2386" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2386" t="inlineStr">
+        <is>
+          <t>HSBC Technologies</t>
+        </is>
+      </c>
+      <c r="D2386" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2386" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2387">
+      <c r="A2387" t="inlineStr">
+        <is>
+          <t>21BCE2891</t>
+        </is>
+      </c>
+      <c r="B2387" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2387" t="inlineStr">
+        <is>
+          <t>HSBC Technologies</t>
+        </is>
+      </c>
+      <c r="D2387" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2387" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2388">
+      <c r="A2388" t="inlineStr">
+        <is>
+          <t>21BIT0180</t>
+        </is>
+      </c>
+      <c r="B2388" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2388" t="inlineStr">
+        <is>
+          <t>HSBC Technologies</t>
+        </is>
+      </c>
+      <c r="D2388" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E2388" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2389">
+      <c r="A2389" t="inlineStr">
+        <is>
+          <t>21BCE1992</t>
+        </is>
+      </c>
+      <c r="B2389" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2389" t="inlineStr">
+        <is>
+          <t>HSBC Technologies</t>
+        </is>
+      </c>
+      <c r="D2389" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2389" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" t="inlineStr">
+        <is>
+          <t>21BCE0462</t>
+        </is>
+      </c>
+      <c r="B2390" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2390" t="inlineStr">
+        <is>
+          <t>HSBC Technologies</t>
+        </is>
+      </c>
+      <c r="D2390" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2390" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391" t="inlineStr">
+        <is>
+          <t>21BCE3095</t>
+        </is>
+      </c>
+      <c r="B2391" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C2391" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="D2391" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2391" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392" t="inlineStr">
+        <is>
+          <t>21BIT0351</t>
+        </is>
+      </c>
+      <c r="B2392" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C2392" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="D2392" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E2392" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2393">
+      <c r="A2393" t="inlineStr">
+        <is>
+          <t>21BCE1184</t>
+        </is>
+      </c>
+      <c r="B2393" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C2393" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="D2393" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2393" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2394">
+      <c r="A2394" t="inlineStr">
+        <is>
+          <t>21BCE5774</t>
+        </is>
+      </c>
+      <c r="B2394" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C2394" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="D2394" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2394" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2395">
+      <c r="A2395" t="inlineStr">
+        <is>
+          <t>21BCE9047</t>
+        </is>
+      </c>
+      <c r="B2395" t="inlineStr">
+        <is>
+          <t>22LPA</t>
+        </is>
+      </c>
+      <c r="C2395" t="inlineStr">
+        <is>
+          <t>Tekion</t>
+        </is>
+      </c>
+      <c r="D2395" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2395" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2396">
+      <c r="A2396" t="inlineStr">
+        <is>
+          <t>21BCE2355</t>
+        </is>
+      </c>
+      <c r="B2396" t="inlineStr">
+        <is>
+          <t>22LPA</t>
+        </is>
+      </c>
+      <c r="C2396" t="inlineStr">
+        <is>
+          <t>Tekion</t>
+        </is>
+      </c>
+      <c r="D2396" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2396" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2397">
+      <c r="A2397" t="inlineStr">
+        <is>
+          <t>21BAI1130</t>
+        </is>
+      </c>
+      <c r="B2397" t="inlineStr">
+        <is>
+          <t>22LPA</t>
+        </is>
+      </c>
+      <c r="C2397" t="inlineStr">
+        <is>
+          <t>Tekion</t>
+        </is>
+      </c>
+      <c r="D2397" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2397" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2398">
+      <c r="A2398" t="inlineStr">
+        <is>
+          <t>21BAI1414</t>
+        </is>
+      </c>
+      <c r="B2398" t="inlineStr">
+        <is>
+          <t>22LPA</t>
+        </is>
+      </c>
+      <c r="C2398" t="inlineStr">
+        <is>
+          <t>Tekion</t>
+        </is>
+      </c>
+      <c r="D2398" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2398" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2399">
+      <c r="A2399" t="inlineStr">
+        <is>
+          <t>21BDS0180</t>
+        </is>
+      </c>
+      <c r="B2399" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2399" t="inlineStr">
+        <is>
+          <t>Accelerize 360</t>
+        </is>
+      </c>
+      <c r="D2399" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E2399" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2400">
+      <c r="A2400" t="inlineStr">
+        <is>
+          <t>21BPS1500</t>
+        </is>
+      </c>
+      <c r="B2400" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2400" t="inlineStr">
+        <is>
+          <t>Accelerize 360</t>
+        </is>
+      </c>
+      <c r="D2400" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="E2400" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2401">
+      <c r="A2401" t="inlineStr">
+        <is>
+          <t>21BLC1565</t>
+        </is>
+      </c>
+      <c r="B2401" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2401" t="inlineStr">
+        <is>
+          <t>Accelerize 360</t>
+        </is>
+      </c>
+      <c r="D2401" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E2401" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2402">
+      <c r="A2402" t="inlineStr">
+        <is>
+          <t>21BBS0073</t>
+        </is>
+      </c>
+      <c r="B2402" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2402" t="inlineStr">
+        <is>
+          <t>Accelerize 360</t>
+        </is>
+      </c>
+      <c r="D2402" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="E2402" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2403">
+      <c r="A2403" t="inlineStr">
+        <is>
+          <t>21BCE10026</t>
+        </is>
+      </c>
+      <c r="B2403" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2403" t="inlineStr">
+        <is>
+          <t>Accelerize 360</t>
+        </is>
+      </c>
+      <c r="D2403" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2403" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2404">
+      <c r="A2404" t="inlineStr">
+        <is>
+          <t>21BCE7149</t>
+        </is>
+      </c>
+      <c r="B2404" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2404" t="inlineStr">
+        <is>
+          <t>Accelerize 360</t>
+        </is>
+      </c>
+      <c r="D2404" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2404" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2405">
+      <c r="A2405" t="inlineStr">
+        <is>
+          <t>21BRS1564</t>
+        </is>
+      </c>
+      <c r="B2405" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C2405" t="inlineStr">
+        <is>
+          <t>Saviynt</t>
+        </is>
+      </c>
+      <c r="D2405" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E2405" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2406">
+      <c r="A2406" t="inlineStr">
+        <is>
+          <t>21BCE2628</t>
+        </is>
+      </c>
+      <c r="B2406" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C2406" t="inlineStr">
+        <is>
+          <t>Saviynt</t>
+        </is>
+      </c>
+      <c r="D2406" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2406" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" t="inlineStr">
+        <is>
+          <t>21BRS1265</t>
+        </is>
+      </c>
+      <c r="B2407" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C2407" t="inlineStr">
+        <is>
+          <t>Saviynt</t>
+        </is>
+      </c>
+      <c r="D2407" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E2407" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408" t="inlineStr">
+        <is>
+          <t>21BCE7367</t>
+        </is>
+      </c>
+      <c r="B2408" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2408" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="D2408" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2408" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2409">
+      <c r="A2409" t="inlineStr">
+        <is>
+          <t>21BLC1337</t>
+        </is>
+      </c>
+      <c r="B2409" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2409" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="D2409" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E2409" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410" t="inlineStr">
+        <is>
+          <t>21BCE1353</t>
+        </is>
+      </c>
+      <c r="B2410" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2410" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="D2410" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2410" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="A2411" t="inlineStr">
+        <is>
+          <t>21BCE8493</t>
+        </is>
+      </c>
+      <c r="B2411" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2411" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="D2411" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2411" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2412">
+      <c r="A2412" t="inlineStr">
+        <is>
+          <t>21BCE7288</t>
+        </is>
+      </c>
+      <c r="B2412" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2412" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="D2412" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2412" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2413">
+      <c r="A2413" t="inlineStr">
+        <is>
+          <t>21BCE5010</t>
+        </is>
+      </c>
+      <c r="B2413" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2413" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="D2413" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2413" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2414">
+      <c r="A2414" t="inlineStr">
+        <is>
+          <t>21BME0195</t>
+        </is>
+      </c>
+      <c r="B2414" t="inlineStr">
+        <is>
+          <t>8.9LPA</t>
+        </is>
+      </c>
+      <c r="C2414" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gensol </t>
+        </is>
+      </c>
+      <c r="D2414" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E2414" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2415">
+      <c r="A2415" t="inlineStr">
+        <is>
+          <t>21BEE1230</t>
+        </is>
+      </c>
+      <c r="B2415" t="inlineStr">
+        <is>
+          <t>8.9LPA</t>
+        </is>
+      </c>
+      <c r="C2415" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gensol </t>
+        </is>
+      </c>
+      <c r="D2415" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E2415" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2416">
+      <c r="A2416" t="inlineStr">
+        <is>
+          <t>21BME1155</t>
+        </is>
+      </c>
+      <c r="B2416" t="inlineStr">
+        <is>
+          <t>8.9LPA</t>
+        </is>
+      </c>
+      <c r="C2416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gensol </t>
+        </is>
+      </c>
+      <c r="D2416" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E2416" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2417">
+      <c r="A2417" t="inlineStr">
+        <is>
+          <t>21BBT0237</t>
+        </is>
+      </c>
+      <c r="B2417" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2417" t="inlineStr">
+        <is>
+          <t>Boston Scientific</t>
+        </is>
+      </c>
+      <c r="D2417" t="inlineStr">
+        <is>
+          <t>BBT</t>
+        </is>
+      </c>
+      <c r="E2417" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2418">
+      <c r="A2418" t="inlineStr">
+        <is>
+          <t>21BBT0196</t>
+        </is>
+      </c>
+      <c r="B2418" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2418" t="inlineStr">
+        <is>
+          <t>Boston Scientific</t>
+        </is>
+      </c>
+      <c r="D2418" t="inlineStr">
+        <is>
+          <t>BBT</t>
+        </is>
+      </c>
+      <c r="E2418" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2419">
+      <c r="A2419" t="inlineStr">
+        <is>
+          <t>21BRS1200</t>
+        </is>
+      </c>
+      <c r="B2419" t="inlineStr">
+        <is>
+          <t>11LPA</t>
+        </is>
+      </c>
+      <c r="C2419" t="inlineStr">
+        <is>
+          <t>Peritys Innovations LLP</t>
+        </is>
+      </c>
+      <c r="D2419" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E2419" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2420">
+      <c r="A2420" t="inlineStr">
+        <is>
+          <t>21BCI0180</t>
+        </is>
+      </c>
+      <c r="B2420" t="inlineStr">
+        <is>
+          <t>11LPA</t>
+        </is>
+      </c>
+      <c r="C2420" t="inlineStr">
+        <is>
+          <t>Peritys Innovations LLP</t>
+        </is>
+      </c>
+      <c r="D2420" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="E2420" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2421">
+      <c r="A2421" t="inlineStr">
+        <is>
+          <t>21BIT0253</t>
+        </is>
+      </c>
+      <c r="B2421" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2421" t="inlineStr">
+        <is>
+          <t>Peritys Innovations LLP</t>
+        </is>
+      </c>
+      <c r="D2421" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E2421" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2422">
+      <c r="A2422" t="inlineStr">
+        <is>
+          <t>21BCB0199</t>
+        </is>
+      </c>
+      <c r="B2422" t="inlineStr">
+        <is>
+          <t>11LPA</t>
+        </is>
+      </c>
+      <c r="C2422" t="inlineStr">
+        <is>
+          <t>Interacts AI</t>
+        </is>
+      </c>
+      <c r="D2422" t="inlineStr">
+        <is>
+          <t>BCB</t>
+        </is>
+      </c>
+      <c r="E2422" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2423">
+      <c r="A2423" t="inlineStr">
+        <is>
+          <t>21BKT0140</t>
+        </is>
+      </c>
+      <c r="B2423" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2423" t="inlineStr">
+        <is>
+          <t>Interacts AI</t>
+        </is>
+      </c>
+      <c r="D2423" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+      <c r="E2423" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2424">
+      <c r="A2424" t="inlineStr">
+        <is>
+          <t>21BPS1344</t>
+        </is>
+      </c>
+      <c r="B2424" t="inlineStr">
+        <is>
+          <t>11LPA</t>
+        </is>
+      </c>
+      <c r="C2424" t="inlineStr">
+        <is>
+          <t>Interacts AI</t>
+        </is>
+      </c>
+      <c r="D2424" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="E2424" t="inlineStr">
         <is>
           <t>Male</t>
         </is>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2424"/>
+  <dimension ref="A1:E2433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65886,6 +65886,249 @@
         </is>
       </c>
     </row>
+    <row r="2425">
+      <c r="A2425" t="inlineStr">
+        <is>
+          <t>21BCE1453</t>
+        </is>
+      </c>
+      <c r="B2425" t="inlineStr">
+        <is>
+          <t>14.5LPA</t>
+        </is>
+      </c>
+      <c r="C2425" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D2425" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2425" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2426">
+      <c r="A2426" t="inlineStr">
+        <is>
+          <t>21BCE5230</t>
+        </is>
+      </c>
+      <c r="B2426" t="inlineStr">
+        <is>
+          <t>14.5LPA</t>
+        </is>
+      </c>
+      <c r="C2426" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D2426" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2426" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2427">
+      <c r="A2427" t="inlineStr">
+        <is>
+          <t>21BKT0002</t>
+        </is>
+      </c>
+      <c r="B2427" t="inlineStr">
+        <is>
+          <t>14.5LPA</t>
+        </is>
+      </c>
+      <c r="C2427" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D2427" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+      <c r="E2427" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2428">
+      <c r="A2428" t="inlineStr">
+        <is>
+          <t>21BCE5265</t>
+        </is>
+      </c>
+      <c r="B2428" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2428" t="inlineStr">
+        <is>
+          <t>HSBC Technologies</t>
+        </is>
+      </c>
+      <c r="D2428" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2428" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2429">
+      <c r="A2429" t="inlineStr">
+        <is>
+          <t>21BCE0204</t>
+        </is>
+      </c>
+      <c r="B2429" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2429" t="inlineStr">
+        <is>
+          <t>HSBC Technologies</t>
+        </is>
+      </c>
+      <c r="D2429" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2429" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2430">
+      <c r="A2430" t="inlineStr">
+        <is>
+          <t>21BCE3649</t>
+        </is>
+      </c>
+      <c r="B2430" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2430" t="inlineStr">
+        <is>
+          <t>HSBC Technologies</t>
+        </is>
+      </c>
+      <c r="D2430" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2430" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2431">
+      <c r="A2431" t="inlineStr">
+        <is>
+          <t>21BCE0134</t>
+        </is>
+      </c>
+      <c r="B2431" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Samsung Research Internship </t>
+        </is>
+      </c>
+      <c r="D2431" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2431" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2432">
+      <c r="A2432" t="inlineStr">
+        <is>
+          <t>21BCE0992</t>
+        </is>
+      </c>
+      <c r="B2432" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Samsung Research Internship </t>
+        </is>
+      </c>
+      <c r="D2432" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2432" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2433">
+      <c r="A2433" t="inlineStr">
+        <is>
+          <t>21BCE3356</t>
+        </is>
+      </c>
+      <c r="B2433" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Samsung Research Internship </t>
+        </is>
+      </c>
+      <c r="D2433" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2433" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2433"/>
+  <dimension ref="A1:E2508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66129,6 +66129,2031 @@
         </is>
       </c>
     </row>
+    <row r="2434">
+      <c r="A2434" t="inlineStr">
+        <is>
+          <t>21BCE10337</t>
+        </is>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2434" t="inlineStr">
+        <is>
+          <t>Accelerize 360</t>
+        </is>
+      </c>
+      <c r="D2434" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2434" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2435">
+      <c r="A2435" t="inlineStr">
+        <is>
+          <t>21BBT0237</t>
+        </is>
+      </c>
+      <c r="B2435" t="inlineStr">
+        <is>
+          <t>13.6LPA</t>
+        </is>
+      </c>
+      <c r="C2435" t="inlineStr">
+        <is>
+          <t>ZS Associates</t>
+        </is>
+      </c>
+      <c r="D2435" t="inlineStr">
+        <is>
+          <t>BBT</t>
+        </is>
+      </c>
+      <c r="E2435" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2436">
+      <c r="A2436" t="inlineStr">
+        <is>
+          <t>21BIT0320</t>
+        </is>
+      </c>
+      <c r="B2436" t="inlineStr">
+        <is>
+          <t>13.6LPA</t>
+        </is>
+      </c>
+      <c r="C2436" t="inlineStr">
+        <is>
+          <t>ZS Associates</t>
+        </is>
+      </c>
+      <c r="D2436" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E2436" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2437">
+      <c r="A2437" t="inlineStr">
+        <is>
+          <t>21BEC0587</t>
+        </is>
+      </c>
+      <c r="B2437" t="inlineStr">
+        <is>
+          <t>13.6LPA</t>
+        </is>
+      </c>
+      <c r="C2437" t="inlineStr">
+        <is>
+          <t>ZS Associates</t>
+        </is>
+      </c>
+      <c r="D2437" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2437" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2438">
+      <c r="A2438" t="inlineStr">
+        <is>
+          <t>21BEE0179</t>
+        </is>
+      </c>
+      <c r="B2438" t="inlineStr">
+        <is>
+          <t>13.6LPA</t>
+        </is>
+      </c>
+      <c r="C2438" t="inlineStr">
+        <is>
+          <t>ZS Associates</t>
+        </is>
+      </c>
+      <c r="D2438" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E2438" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2439">
+      <c r="A2439" t="inlineStr">
+        <is>
+          <t>21BDS0139</t>
+        </is>
+      </c>
+      <c r="B2439" t="inlineStr">
+        <is>
+          <t>13.6LPA</t>
+        </is>
+      </c>
+      <c r="C2439" t="inlineStr">
+        <is>
+          <t>ZS Associates</t>
+        </is>
+      </c>
+      <c r="D2439" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E2439" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2440">
+      <c r="A2440" t="inlineStr">
+        <is>
+          <t>21BDS0173</t>
+        </is>
+      </c>
+      <c r="B2440" t="inlineStr">
+        <is>
+          <t>13.6LPA</t>
+        </is>
+      </c>
+      <c r="C2440" t="inlineStr">
+        <is>
+          <t>ZS Associates</t>
+        </is>
+      </c>
+      <c r="D2440" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E2440" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2441">
+      <c r="A2441" t="inlineStr">
+        <is>
+          <t>21BCE1792</t>
+        </is>
+      </c>
+      <c r="B2441" t="inlineStr">
+        <is>
+          <t>13.6LPA</t>
+        </is>
+      </c>
+      <c r="C2441" t="inlineStr">
+        <is>
+          <t>ZS Associates</t>
+        </is>
+      </c>
+      <c r="D2441" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2441" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2442">
+      <c r="A2442" t="inlineStr">
+        <is>
+          <t>21BHI10051</t>
+        </is>
+      </c>
+      <c r="B2442" t="inlineStr">
+        <is>
+          <t>13.6LPA</t>
+        </is>
+      </c>
+      <c r="C2442" t="inlineStr">
+        <is>
+          <t>ZS Associates</t>
+        </is>
+      </c>
+      <c r="D2442" t="inlineStr">
+        <is>
+          <t>BHI</t>
+        </is>
+      </c>
+      <c r="E2442" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2443">
+      <c r="A2443" t="inlineStr">
+        <is>
+          <t>21BEE0381</t>
+        </is>
+      </c>
+      <c r="B2443" t="inlineStr">
+        <is>
+          <t>13.6LPA</t>
+        </is>
+      </c>
+      <c r="C2443" t="inlineStr">
+        <is>
+          <t>ZS Associates</t>
+        </is>
+      </c>
+      <c r="D2443" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E2443" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2444">
+      <c r="A2444" t="inlineStr">
+        <is>
+          <t>21BCE2087</t>
+        </is>
+      </c>
+      <c r="B2444" t="inlineStr">
+        <is>
+          <t>13.6LPA</t>
+        </is>
+      </c>
+      <c r="C2444" t="inlineStr">
+        <is>
+          <t>ZS Associates</t>
+        </is>
+      </c>
+      <c r="D2444" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2444" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2445">
+      <c r="A2445" t="inlineStr">
+        <is>
+          <t>21BCE0704</t>
+        </is>
+      </c>
+      <c r="B2445" t="inlineStr">
+        <is>
+          <t>13.6LPA</t>
+        </is>
+      </c>
+      <c r="C2445" t="inlineStr">
+        <is>
+          <t>ZS Associates</t>
+        </is>
+      </c>
+      <c r="D2445" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2445" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2446">
+      <c r="A2446" t="inlineStr">
+        <is>
+          <t>21BDS0266</t>
+        </is>
+      </c>
+      <c r="B2446" t="inlineStr">
+        <is>
+          <t>13.6LPA</t>
+        </is>
+      </c>
+      <c r="C2446" t="inlineStr">
+        <is>
+          <t>ZS Associates</t>
+        </is>
+      </c>
+      <c r="D2446" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E2446" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2447">
+      <c r="A2447" t="inlineStr">
+        <is>
+          <t>21BHI10028</t>
+        </is>
+      </c>
+      <c r="B2447" t="inlineStr">
+        <is>
+          <t>13.6LPA</t>
+        </is>
+      </c>
+      <c r="C2447" t="inlineStr">
+        <is>
+          <t>ZS Associates</t>
+        </is>
+      </c>
+      <c r="D2447" t="inlineStr">
+        <is>
+          <t>BHI</t>
+        </is>
+      </c>
+      <c r="E2447" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="A2448" t="inlineStr">
+        <is>
+          <t>21BIT0098</t>
+        </is>
+      </c>
+      <c r="B2448" t="inlineStr">
+        <is>
+          <t>13.6LPA</t>
+        </is>
+      </c>
+      <c r="C2448" t="inlineStr">
+        <is>
+          <t>ZS Associates</t>
+        </is>
+      </c>
+      <c r="D2448" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E2448" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2449">
+      <c r="A2449" t="inlineStr">
+        <is>
+          <t>21BCE3966</t>
+        </is>
+      </c>
+      <c r="B2449" t="inlineStr">
+        <is>
+          <t>13.6LPA</t>
+        </is>
+      </c>
+      <c r="C2449" t="inlineStr">
+        <is>
+          <t>ZS Associates</t>
+        </is>
+      </c>
+      <c r="D2449" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2449" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2450">
+      <c r="A2450" t="inlineStr">
+        <is>
+          <t>21BCE7055</t>
+        </is>
+      </c>
+      <c r="B2450" t="inlineStr">
+        <is>
+          <t>13.6LPA</t>
+        </is>
+      </c>
+      <c r="C2450" t="inlineStr">
+        <is>
+          <t>ZS Associates</t>
+        </is>
+      </c>
+      <c r="D2450" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2450" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2451">
+      <c r="A2451" t="inlineStr">
+        <is>
+          <t>21BCE0583</t>
+        </is>
+      </c>
+      <c r="B2451" t="inlineStr">
+        <is>
+          <t>13.6LPA</t>
+        </is>
+      </c>
+      <c r="C2451" t="inlineStr">
+        <is>
+          <t>ZS Associates</t>
+        </is>
+      </c>
+      <c r="D2451" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2451" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2452">
+      <c r="A2452" t="inlineStr">
+        <is>
+          <t>21BCE2270</t>
+        </is>
+      </c>
+      <c r="B2452" t="inlineStr">
+        <is>
+          <t>13.6LPA</t>
+        </is>
+      </c>
+      <c r="C2452" t="inlineStr">
+        <is>
+          <t>ZS Associates</t>
+        </is>
+      </c>
+      <c r="D2452" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2452" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2453">
+      <c r="A2453" t="inlineStr">
+        <is>
+          <t>21BCE2222</t>
+        </is>
+      </c>
+      <c r="B2453" t="inlineStr">
+        <is>
+          <t>13.6LPA</t>
+        </is>
+      </c>
+      <c r="C2453" t="inlineStr">
+        <is>
+          <t>ZS Associates</t>
+        </is>
+      </c>
+      <c r="D2453" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2453" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2454">
+      <c r="A2454" t="inlineStr">
+        <is>
+          <t>21BCE0174</t>
+        </is>
+      </c>
+      <c r="B2454" t="inlineStr">
+        <is>
+          <t>13.6LPA</t>
+        </is>
+      </c>
+      <c r="C2454" t="inlineStr">
+        <is>
+          <t>ZS Associates</t>
+        </is>
+      </c>
+      <c r="D2454" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2454" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2455">
+      <c r="A2455" t="inlineStr">
+        <is>
+          <t>21BBS0065</t>
+        </is>
+      </c>
+      <c r="B2455" t="inlineStr">
+        <is>
+          <t>13.6LPA</t>
+        </is>
+      </c>
+      <c r="C2455" t="inlineStr">
+        <is>
+          <t>ZS Associates</t>
+        </is>
+      </c>
+      <c r="D2455" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="E2455" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2456">
+      <c r="A2456" t="inlineStr">
+        <is>
+          <t>21BCE1907</t>
+        </is>
+      </c>
+      <c r="B2456" t="inlineStr">
+        <is>
+          <t>13.6LPA</t>
+        </is>
+      </c>
+      <c r="C2456" t="inlineStr">
+        <is>
+          <t>ZS Associates</t>
+        </is>
+      </c>
+      <c r="D2456" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2456" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2457">
+      <c r="A2457" t="inlineStr">
+        <is>
+          <t>21BAI1194</t>
+        </is>
+      </c>
+      <c r="B2457" t="inlineStr">
+        <is>
+          <t>13.6LPA</t>
+        </is>
+      </c>
+      <c r="C2457" t="inlineStr">
+        <is>
+          <t>ZS Associates</t>
+        </is>
+      </c>
+      <c r="D2457" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2457" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2458">
+      <c r="A2458" t="inlineStr">
+        <is>
+          <t>21BCE2686</t>
+        </is>
+      </c>
+      <c r="B2458" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C2458" t="inlineStr">
+        <is>
+          <t>Evertz</t>
+        </is>
+      </c>
+      <c r="D2458" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2458" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2459">
+      <c r="A2459" t="inlineStr">
+        <is>
+          <t>21BCE1723</t>
+        </is>
+      </c>
+      <c r="B2459" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C2459" t="inlineStr">
+        <is>
+          <t>Evertz</t>
+        </is>
+      </c>
+      <c r="D2459" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2459" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2460">
+      <c r="A2460" t="inlineStr">
+        <is>
+          <t>21BCM0085</t>
+        </is>
+      </c>
+      <c r="B2460" t="inlineStr">
+        <is>
+          <t>6.6LPA</t>
+        </is>
+      </c>
+      <c r="C2460" t="inlineStr">
+        <is>
+          <t>Adani Wilmar</t>
+        </is>
+      </c>
+      <c r="D2460" t="inlineStr">
+        <is>
+          <t>BCM</t>
+        </is>
+      </c>
+      <c r="E2460" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2461">
+      <c r="A2461" t="inlineStr">
+        <is>
+          <t>21BCM0112</t>
+        </is>
+      </c>
+      <c r="B2461" t="inlineStr">
+        <is>
+          <t>6.6LPA</t>
+        </is>
+      </c>
+      <c r="C2461" t="inlineStr">
+        <is>
+          <t>Adani Wilmar</t>
+        </is>
+      </c>
+      <c r="D2461" t="inlineStr">
+        <is>
+          <t>BCM</t>
+        </is>
+      </c>
+      <c r="E2461" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2462">
+      <c r="A2462" t="inlineStr">
+        <is>
+          <t>21BME1219</t>
+        </is>
+      </c>
+      <c r="B2462" t="inlineStr">
+        <is>
+          <t>6.6LPA</t>
+        </is>
+      </c>
+      <c r="C2462" t="inlineStr">
+        <is>
+          <t>Adani Wilmar</t>
+        </is>
+      </c>
+      <c r="D2462" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E2462" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2463">
+      <c r="A2463" t="inlineStr">
+        <is>
+          <t>21BCE2910</t>
+        </is>
+      </c>
+      <c r="B2463" t="inlineStr">
+        <is>
+          <t>12.35LPA</t>
+        </is>
+      </c>
+      <c r="C2463" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia</t>
+        </is>
+      </c>
+      <c r="D2463" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2463" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2464">
+      <c r="A2464" t="inlineStr">
+        <is>
+          <t>21BCI0006</t>
+        </is>
+      </c>
+      <c r="B2464" t="inlineStr">
+        <is>
+          <t>12.35LPA</t>
+        </is>
+      </c>
+      <c r="C2464" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia</t>
+        </is>
+      </c>
+      <c r="D2464" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="E2464" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2465">
+      <c r="A2465" t="inlineStr">
+        <is>
+          <t>21BCE6189</t>
+        </is>
+      </c>
+      <c r="B2465" t="inlineStr">
+        <is>
+          <t>12.35LPA</t>
+        </is>
+      </c>
+      <c r="C2465" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia</t>
+        </is>
+      </c>
+      <c r="D2465" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2465" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2466">
+      <c r="A2466" t="inlineStr">
+        <is>
+          <t>21BAI1112</t>
+        </is>
+      </c>
+      <c r="B2466" t="inlineStr">
+        <is>
+          <t>12.35LPA</t>
+        </is>
+      </c>
+      <c r="C2466" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia</t>
+        </is>
+      </c>
+      <c r="D2466" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2466" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" t="inlineStr">
+        <is>
+          <t>21BPS1333</t>
+        </is>
+      </c>
+      <c r="B2467" t="inlineStr">
+        <is>
+          <t>12.35LPA</t>
+        </is>
+      </c>
+      <c r="C2467" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia</t>
+        </is>
+      </c>
+      <c r="D2467" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="E2467" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" t="inlineStr">
+        <is>
+          <t>21BAI1431</t>
+        </is>
+      </c>
+      <c r="B2468" t="inlineStr">
+        <is>
+          <t>12.35LPA</t>
+        </is>
+      </c>
+      <c r="C2468" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia</t>
+        </is>
+      </c>
+      <c r="D2468" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2468" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" t="inlineStr">
+        <is>
+          <t>21BCE2148</t>
+        </is>
+      </c>
+      <c r="B2469" t="inlineStr">
+        <is>
+          <t>12.35LPA</t>
+        </is>
+      </c>
+      <c r="C2469" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia</t>
+        </is>
+      </c>
+      <c r="D2469" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2469" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2470">
+      <c r="A2470" t="inlineStr">
+        <is>
+          <t>21BCE3058</t>
+        </is>
+      </c>
+      <c r="B2470" t="inlineStr">
+        <is>
+          <t>12.35LPA</t>
+        </is>
+      </c>
+      <c r="C2470" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia</t>
+        </is>
+      </c>
+      <c r="D2470" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2470" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2471">
+      <c r="A2471" t="inlineStr">
+        <is>
+          <t>21BIT0619</t>
+        </is>
+      </c>
+      <c r="B2471" t="inlineStr">
+        <is>
+          <t>12.35LPA</t>
+        </is>
+      </c>
+      <c r="C2471" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia</t>
+        </is>
+      </c>
+      <c r="D2471" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E2471" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" t="inlineStr">
+        <is>
+          <t>21BCE0786</t>
+        </is>
+      </c>
+      <c r="B2472" t="inlineStr">
+        <is>
+          <t>12.35LPA</t>
+        </is>
+      </c>
+      <c r="C2472" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia</t>
+        </is>
+      </c>
+      <c r="D2472" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2472" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" t="inlineStr">
+        <is>
+          <t>21BKT0193</t>
+        </is>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>12.35LPA</t>
+        </is>
+      </c>
+      <c r="C2473" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia</t>
+        </is>
+      </c>
+      <c r="D2473" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+      <c r="E2473" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" t="inlineStr">
+        <is>
+          <t>21BCE1424</t>
+        </is>
+      </c>
+      <c r="B2474" t="inlineStr">
+        <is>
+          <t>12.35LPA</t>
+        </is>
+      </c>
+      <c r="C2474" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia</t>
+        </is>
+      </c>
+      <c r="D2474" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2474" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2475">
+      <c r="A2475" t="inlineStr">
+        <is>
+          <t>21BPS1277</t>
+        </is>
+      </c>
+      <c r="B2475" t="inlineStr">
+        <is>
+          <t>12.35LPA</t>
+        </is>
+      </c>
+      <c r="C2475" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia</t>
+        </is>
+      </c>
+      <c r="D2475" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="E2475" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2476">
+      <c r="A2476" t="inlineStr">
+        <is>
+          <t>21BAI1013</t>
+        </is>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>12.35LPA</t>
+        </is>
+      </c>
+      <c r="C2476" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia</t>
+        </is>
+      </c>
+      <c r="D2476" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2476" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" t="inlineStr">
+        <is>
+          <t>21BRS1363</t>
+        </is>
+      </c>
+      <c r="B2477" t="inlineStr">
+        <is>
+          <t>12.35LPA</t>
+        </is>
+      </c>
+      <c r="C2477" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia</t>
+        </is>
+      </c>
+      <c r="D2477" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E2477" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" t="inlineStr">
+        <is>
+          <t>21BCE0189</t>
+        </is>
+      </c>
+      <c r="B2478" t="inlineStr">
+        <is>
+          <t>12.35LPA</t>
+        </is>
+      </c>
+      <c r="C2478" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia</t>
+        </is>
+      </c>
+      <c r="D2478" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2478" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2479">
+      <c r="A2479" t="inlineStr">
+        <is>
+          <t>21BAI1785</t>
+        </is>
+      </c>
+      <c r="B2479" t="inlineStr">
+        <is>
+          <t>12.35LPA</t>
+        </is>
+      </c>
+      <c r="C2479" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia</t>
+        </is>
+      </c>
+      <c r="D2479" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2479" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2480">
+      <c r="A2480" t="inlineStr">
+        <is>
+          <t>21BAI1118</t>
+        </is>
+      </c>
+      <c r="B2480" t="inlineStr">
+        <is>
+          <t>12.35LPA</t>
+        </is>
+      </c>
+      <c r="C2480" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia</t>
+        </is>
+      </c>
+      <c r="D2480" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2480" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2481">
+      <c r="A2481" t="inlineStr">
+        <is>
+          <t>21BCE3997</t>
+        </is>
+      </c>
+      <c r="B2481" t="inlineStr">
+        <is>
+          <t>12.35LPA</t>
+        </is>
+      </c>
+      <c r="C2481" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia</t>
+        </is>
+      </c>
+      <c r="D2481" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2481" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2482">
+      <c r="A2482" t="inlineStr">
+        <is>
+          <t>21BPS1406</t>
+        </is>
+      </c>
+      <c r="B2482" t="inlineStr">
+        <is>
+          <t>12.35LPA</t>
+        </is>
+      </c>
+      <c r="C2482" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia</t>
+        </is>
+      </c>
+      <c r="D2482" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="E2482" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" t="inlineStr">
+        <is>
+          <t>21BCE0346</t>
+        </is>
+      </c>
+      <c r="B2483" t="inlineStr">
+        <is>
+          <t>12.35LPA</t>
+        </is>
+      </c>
+      <c r="C2483" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia</t>
+        </is>
+      </c>
+      <c r="D2483" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2483" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2484">
+      <c r="A2484" t="inlineStr">
+        <is>
+          <t>21BCT0437</t>
+        </is>
+      </c>
+      <c r="B2484" t="inlineStr">
+        <is>
+          <t>12.35LPA</t>
+        </is>
+      </c>
+      <c r="C2484" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia</t>
+        </is>
+      </c>
+      <c r="D2484" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+      <c r="E2484" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2485">
+      <c r="A2485" t="inlineStr">
+        <is>
+          <t>21BIT0127</t>
+        </is>
+      </c>
+      <c r="B2485" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2485" t="inlineStr">
+        <is>
+          <t>Pratt &amp; Whitney</t>
+        </is>
+      </c>
+      <c r="D2485" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E2485" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2486">
+      <c r="A2486" t="inlineStr">
+        <is>
+          <t>21BIT0324</t>
+        </is>
+      </c>
+      <c r="B2486" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2486" t="inlineStr">
+        <is>
+          <t>Pratt &amp; Whitney</t>
+        </is>
+      </c>
+      <c r="D2486" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E2486" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2487">
+      <c r="A2487" t="inlineStr">
+        <is>
+          <t>21BIT0520</t>
+        </is>
+      </c>
+      <c r="B2487" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2487" t="inlineStr">
+        <is>
+          <t>Pratt &amp; Whitney</t>
+        </is>
+      </c>
+      <c r="D2487" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E2487" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2488">
+      <c r="A2488" t="inlineStr">
+        <is>
+          <t>21BAC10028</t>
+        </is>
+      </c>
+      <c r="B2488" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2488" t="inlineStr">
+        <is>
+          <t>Pratt &amp; Whitney</t>
+        </is>
+      </c>
+      <c r="D2488" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+      <c r="E2488" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2489">
+      <c r="A2489" t="inlineStr">
+        <is>
+          <t>21BCT0184</t>
+        </is>
+      </c>
+      <c r="B2489" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2489" t="inlineStr">
+        <is>
+          <t>Pratt &amp; Whitney</t>
+        </is>
+      </c>
+      <c r="D2489" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+      <c r="E2489" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2490">
+      <c r="A2490" t="inlineStr">
+        <is>
+          <t>21BCT0210</t>
+        </is>
+      </c>
+      <c r="B2490" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2490" t="inlineStr">
+        <is>
+          <t>Pratt &amp; Whitney</t>
+        </is>
+      </c>
+      <c r="D2490" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+      <c r="E2490" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="A2491" t="inlineStr">
+        <is>
+          <t>21BCT0234</t>
+        </is>
+      </c>
+      <c r="B2491" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2491" t="inlineStr">
+        <is>
+          <t>Pratt &amp; Whitney</t>
+        </is>
+      </c>
+      <c r="D2491" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+      <c r="E2491" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2492">
+      <c r="A2492" t="inlineStr">
+        <is>
+          <t>21BCE7021</t>
+        </is>
+      </c>
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2492" t="inlineStr">
+        <is>
+          <t>Pratt &amp; Whitney</t>
+        </is>
+      </c>
+      <c r="D2492" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2492" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="A2493" t="inlineStr">
+        <is>
+          <t>21BCE9281</t>
+        </is>
+      </c>
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2493" t="inlineStr">
+        <is>
+          <t>Pratt &amp; Whitney</t>
+        </is>
+      </c>
+      <c r="D2493" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2493" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2494">
+      <c r="A2494" t="inlineStr">
+        <is>
+          <t>21BAI10472</t>
+        </is>
+      </c>
+      <c r="B2494" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2494" t="inlineStr">
+        <is>
+          <t>Pratt &amp; Whitney</t>
+        </is>
+      </c>
+      <c r="D2494" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2494" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2495">
+      <c r="A2495" t="inlineStr">
+        <is>
+          <t>21BEC1245</t>
+        </is>
+      </c>
+      <c r="B2495" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2495" t="inlineStr">
+        <is>
+          <t>Reliance Industries</t>
+        </is>
+      </c>
+      <c r="D2495" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2495" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2496">
+      <c r="A2496" t="inlineStr">
+        <is>
+          <t>21BEC1420</t>
+        </is>
+      </c>
+      <c r="B2496" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2496" t="inlineStr">
+        <is>
+          <t>Reliance Industries</t>
+        </is>
+      </c>
+      <c r="D2496" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2496" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2497">
+      <c r="A2497" t="inlineStr">
+        <is>
+          <t>21BEC1501</t>
+        </is>
+      </c>
+      <c r="B2497" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2497" t="inlineStr">
+        <is>
+          <t>Reliance Industries</t>
+        </is>
+      </c>
+      <c r="D2497" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2497" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2498">
+      <c r="A2498" t="inlineStr">
+        <is>
+          <t>21BEC1626</t>
+        </is>
+      </c>
+      <c r="B2498" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2498" t="inlineStr">
+        <is>
+          <t>Reliance Industries</t>
+        </is>
+      </c>
+      <c r="D2498" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2498" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2499">
+      <c r="A2499" t="inlineStr">
+        <is>
+          <t>21BCE7382</t>
+        </is>
+      </c>
+      <c r="B2499" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2499" t="inlineStr">
+        <is>
+          <t>Collins Aerospace</t>
+        </is>
+      </c>
+      <c r="D2499" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2499" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2500">
+      <c r="A2500" t="inlineStr">
+        <is>
+          <t>21BCE7311</t>
+        </is>
+      </c>
+      <c r="B2500" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2500" t="inlineStr">
+        <is>
+          <t>Collins Aerospace</t>
+        </is>
+      </c>
+      <c r="D2500" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2500" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2501">
+      <c r="A2501" t="inlineStr">
+        <is>
+          <t>21BCE9127</t>
+        </is>
+      </c>
+      <c r="B2501" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2501" t="inlineStr">
+        <is>
+          <t>Collins Aerospace</t>
+        </is>
+      </c>
+      <c r="D2501" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2501" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="A2502" t="inlineStr">
+        <is>
+          <t>21BEC1275</t>
+        </is>
+      </c>
+      <c r="B2502" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2502" t="inlineStr">
+        <is>
+          <t>Collins Aerospace</t>
+        </is>
+      </c>
+      <c r="D2502" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2502" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2503">
+      <c r="A2503" t="inlineStr">
+        <is>
+          <t>21BEC7139</t>
+        </is>
+      </c>
+      <c r="B2503" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2503" t="inlineStr">
+        <is>
+          <t>Collins Aerospace</t>
+        </is>
+      </c>
+      <c r="D2503" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2503" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2504">
+      <c r="A2504" t="inlineStr">
+        <is>
+          <t>21BAC10011</t>
+        </is>
+      </c>
+      <c r="B2504" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2504" t="inlineStr">
+        <is>
+          <t>Collins Aerospace</t>
+        </is>
+      </c>
+      <c r="D2504" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+      <c r="E2504" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2505">
+      <c r="A2505" t="inlineStr">
+        <is>
+          <t>21BCM0053</t>
+        </is>
+      </c>
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2505" t="inlineStr">
+        <is>
+          <t>Collins Aerospace</t>
+        </is>
+      </c>
+      <c r="D2505" t="inlineStr">
+        <is>
+          <t>BCM</t>
+        </is>
+      </c>
+      <c r="E2505" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2506">
+      <c r="A2506" t="inlineStr">
+        <is>
+          <t>21BME1125</t>
+        </is>
+      </c>
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2506" t="inlineStr">
+        <is>
+          <t>Collins Aerospace</t>
+        </is>
+      </c>
+      <c r="D2506" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E2506" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2507">
+      <c r="A2507" t="inlineStr">
+        <is>
+          <t>21BMM0097</t>
+        </is>
+      </c>
+      <c r="B2507" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2507" t="inlineStr">
+        <is>
+          <t>Collins Aerospace</t>
+        </is>
+      </c>
+      <c r="D2507" t="inlineStr">
+        <is>
+          <t>BMM</t>
+        </is>
+      </c>
+      <c r="E2507" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2508">
+      <c r="A2508" t="inlineStr">
+        <is>
+          <t>21BME0065</t>
+        </is>
+      </c>
+      <c r="B2508" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2508" t="inlineStr">
+        <is>
+          <t>Collins Aerospace</t>
+        </is>
+      </c>
+      <c r="D2508" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E2508" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2508"/>
+  <dimension ref="A1:E2546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68154,6 +68154,1032 @@
         </is>
       </c>
     </row>
+    <row r="2509">
+      <c r="A2509" t="inlineStr">
+        <is>
+          <t>21BCI0427</t>
+        </is>
+      </c>
+      <c r="B2509" t="inlineStr">
+        <is>
+          <t>10.4LPA</t>
+        </is>
+      </c>
+      <c r="C2509" t="inlineStr">
+        <is>
+          <t>Rystad Energy</t>
+        </is>
+      </c>
+      <c r="D2509" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="E2509" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2510">
+      <c r="A2510" t="inlineStr">
+        <is>
+          <t>21BCE3592</t>
+        </is>
+      </c>
+      <c r="B2510" t="inlineStr">
+        <is>
+          <t>10.4LPA</t>
+        </is>
+      </c>
+      <c r="C2510" t="inlineStr">
+        <is>
+          <t>Rystad Energy</t>
+        </is>
+      </c>
+      <c r="D2510" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2510" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2511">
+      <c r="A2511" t="inlineStr">
+        <is>
+          <t>21BDS0317</t>
+        </is>
+      </c>
+      <c r="B2511" t="inlineStr">
+        <is>
+          <t>10.4LPA</t>
+        </is>
+      </c>
+      <c r="C2511" t="inlineStr">
+        <is>
+          <t>Rystad Energy</t>
+        </is>
+      </c>
+      <c r="D2511" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E2511" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2512">
+      <c r="A2512" t="inlineStr">
+        <is>
+          <t>21BEC0514</t>
+        </is>
+      </c>
+      <c r="B2512" t="inlineStr">
+        <is>
+          <t>10.4LPA</t>
+        </is>
+      </c>
+      <c r="C2512" t="inlineStr">
+        <is>
+          <t>Rystad Energy</t>
+        </is>
+      </c>
+      <c r="D2512" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2512" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2513">
+      <c r="A2513" t="inlineStr">
+        <is>
+          <t>21BCE3524</t>
+        </is>
+      </c>
+      <c r="B2513" t="inlineStr">
+        <is>
+          <t>17.5LPA</t>
+        </is>
+      </c>
+      <c r="C2513" t="inlineStr">
+        <is>
+          <t>HPE</t>
+        </is>
+      </c>
+      <c r="D2513" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2513" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2514">
+      <c r="A2514" t="inlineStr">
+        <is>
+          <t>21BIT0255</t>
+        </is>
+      </c>
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>17.5LPA</t>
+        </is>
+      </c>
+      <c r="C2514" t="inlineStr">
+        <is>
+          <t>HPE</t>
+        </is>
+      </c>
+      <c r="D2514" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E2514" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2515">
+      <c r="A2515" t="inlineStr">
+        <is>
+          <t>21BSA10015</t>
+        </is>
+      </c>
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2515" t="inlineStr">
+        <is>
+          <t>Havells</t>
+        </is>
+      </c>
+      <c r="D2515" t="inlineStr">
+        <is>
+          <t>BSA</t>
+        </is>
+      </c>
+      <c r="E2515" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2516">
+      <c r="A2516" t="inlineStr">
+        <is>
+          <t>21BEE1044</t>
+        </is>
+      </c>
+      <c r="B2516" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C2516" t="inlineStr">
+        <is>
+          <t>Havells</t>
+        </is>
+      </c>
+      <c r="D2516" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E2516" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2517">
+      <c r="A2517" t="inlineStr">
+        <is>
+          <t>21BEC7130</t>
+        </is>
+      </c>
+      <c r="B2517" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C2517" t="inlineStr">
+        <is>
+          <t>Havells</t>
+        </is>
+      </c>
+      <c r="D2517" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2517" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2518">
+      <c r="A2518" t="inlineStr">
+        <is>
+          <t>21BEC10040</t>
+        </is>
+      </c>
+      <c r="B2518" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C2518" t="inlineStr">
+        <is>
+          <t>Havells</t>
+        </is>
+      </c>
+      <c r="D2518" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2518" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2519">
+      <c r="A2519" t="inlineStr">
+        <is>
+          <t>21BAI10088</t>
+        </is>
+      </c>
+      <c r="B2519" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C2519" t="inlineStr">
+        <is>
+          <t>HPE</t>
+        </is>
+      </c>
+      <c r="D2519" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2519" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2520">
+      <c r="A2520" t="inlineStr">
+        <is>
+          <t>21BLC1133</t>
+        </is>
+      </c>
+      <c r="B2520" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C2520" t="inlineStr">
+        <is>
+          <t>HPE</t>
+        </is>
+      </c>
+      <c r="D2520" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E2520" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2521">
+      <c r="A2521" t="inlineStr">
+        <is>
+          <t>21BEC1358</t>
+        </is>
+      </c>
+      <c r="B2521" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C2521" t="inlineStr">
+        <is>
+          <t>Volvo</t>
+        </is>
+      </c>
+      <c r="D2521" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2521" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2522">
+      <c r="A2522" t="inlineStr">
+        <is>
+          <t>21BMH1041</t>
+        </is>
+      </c>
+      <c r="B2522" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C2522" t="inlineStr">
+        <is>
+          <t>Volvo</t>
+        </is>
+      </c>
+      <c r="D2522" t="inlineStr">
+        <is>
+          <t>BMH</t>
+        </is>
+      </c>
+      <c r="E2522" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" t="inlineStr">
+        <is>
+          <t>21BCI0381</t>
+        </is>
+      </c>
+      <c r="B2523" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2523" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2523" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="E2523" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2524">
+      <c r="A2524" t="inlineStr">
+        <is>
+          <t>21BLC1300</t>
+        </is>
+      </c>
+      <c r="B2524" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2524" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2524" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E2524" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2525">
+      <c r="A2525" t="inlineStr">
+        <is>
+          <t>21BCE2600</t>
+        </is>
+      </c>
+      <c r="B2525" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2525" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2525" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2525" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2526">
+      <c r="A2526" t="inlineStr">
+        <is>
+          <t>21BCE0373</t>
+        </is>
+      </c>
+      <c r="B2526" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2526" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2526" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2526" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2527">
+      <c r="A2527" t="inlineStr">
+        <is>
+          <t>21BEC0701</t>
+        </is>
+      </c>
+      <c r="B2527" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2527" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2527" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2527" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2528">
+      <c r="A2528" t="inlineStr">
+        <is>
+          <t>21BCI0187</t>
+        </is>
+      </c>
+      <c r="B2528" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2528" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2528" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="E2528" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2529">
+      <c r="A2529" t="inlineStr">
+        <is>
+          <t>21BCE0250</t>
+        </is>
+      </c>
+      <c r="B2529" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2529" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2529" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2529" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2530">
+      <c r="A2530" t="inlineStr">
+        <is>
+          <t>21BCE0323</t>
+        </is>
+      </c>
+      <c r="B2530" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2530" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2530" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2530" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2531">
+      <c r="A2531" t="inlineStr">
+        <is>
+          <t>21BCE5493</t>
+        </is>
+      </c>
+      <c r="B2531" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2531" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2531" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2531" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2532">
+      <c r="A2532" t="inlineStr">
+        <is>
+          <t>21BCE5033</t>
+        </is>
+      </c>
+      <c r="B2532" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2532" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2532" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2532" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2533">
+      <c r="A2533" t="inlineStr">
+        <is>
+          <t>21BAI1571</t>
+        </is>
+      </c>
+      <c r="B2533" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2533" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2533" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2533" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2534">
+      <c r="A2534" t="inlineStr">
+        <is>
+          <t>21BCB0189</t>
+        </is>
+      </c>
+      <c r="B2534" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2534" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2534" t="inlineStr">
+        <is>
+          <t>BCB</t>
+        </is>
+      </c>
+      <c r="E2534" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2535">
+      <c r="A2535" t="inlineStr">
+        <is>
+          <t>21BEC1180</t>
+        </is>
+      </c>
+      <c r="B2535" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2535" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2535" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2535" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2536">
+      <c r="A2536" t="inlineStr">
+        <is>
+          <t>21BCE1117</t>
+        </is>
+      </c>
+      <c r="B2536" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2536" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2536" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2536" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2537">
+      <c r="A2537" t="inlineStr">
+        <is>
+          <t>21BCE5999</t>
+        </is>
+      </c>
+      <c r="B2537" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2537" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2537" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2537" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2538">
+      <c r="A2538" t="inlineStr">
+        <is>
+          <t>21BCE1473</t>
+        </is>
+      </c>
+      <c r="B2538" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2538" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2538" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2538" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2539">
+      <c r="A2539" t="inlineStr">
+        <is>
+          <t>21BAI1022</t>
+        </is>
+      </c>
+      <c r="B2539" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2539" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2539" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2539" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2540">
+      <c r="A2540" t="inlineStr">
+        <is>
+          <t>21BEC0863</t>
+        </is>
+      </c>
+      <c r="B2540" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2540" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2540" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2540" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2541">
+      <c r="A2541" t="inlineStr">
+        <is>
+          <t>21BLC1237</t>
+        </is>
+      </c>
+      <c r="B2541" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2541" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2541" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E2541" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2542">
+      <c r="A2542" t="inlineStr">
+        <is>
+          <t>21BCE0858</t>
+        </is>
+      </c>
+      <c r="B2542" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2542" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2542" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2542" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2543">
+      <c r="A2543" t="inlineStr">
+        <is>
+          <t>21BEC0511</t>
+        </is>
+      </c>
+      <c r="B2543" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2543" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2543" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2543" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2544">
+      <c r="A2544" t="inlineStr">
+        <is>
+          <t>21BCI0119</t>
+        </is>
+      </c>
+      <c r="B2544" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2544" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2544" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="E2544" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2545">
+      <c r="A2545" t="inlineStr">
+        <is>
+          <t>21BCE0330</t>
+        </is>
+      </c>
+      <c r="B2545" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2545" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2545" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2545" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2546">
+      <c r="A2546" t="inlineStr">
+        <is>
+          <t>21BCE5461</t>
+        </is>
+      </c>
+      <c r="B2546" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2546" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2546" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2546" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2546"/>
+  <dimension ref="A1:E2593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69180,6 +69180,1275 @@
         </is>
       </c>
     </row>
+    <row r="2547">
+      <c r="A2547" t="inlineStr">
+        <is>
+          <t>21BCE2825</t>
+        </is>
+      </c>
+      <c r="B2547" t="inlineStr">
+        <is>
+          <t>15.8LPA</t>
+        </is>
+      </c>
+      <c r="C2547" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kickdrum </t>
+        </is>
+      </c>
+      <c r="D2547" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2547" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2548">
+      <c r="A2548" t="inlineStr">
+        <is>
+          <t>21BKT0091</t>
+        </is>
+      </c>
+      <c r="B2548" t="inlineStr">
+        <is>
+          <t>15.8LPA</t>
+        </is>
+      </c>
+      <c r="C2548" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kickdrum </t>
+        </is>
+      </c>
+      <c r="D2548" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+      <c r="E2548" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2549">
+      <c r="A2549" t="inlineStr">
+        <is>
+          <t>21BRS1385</t>
+        </is>
+      </c>
+      <c r="B2549" t="inlineStr">
+        <is>
+          <t>15.8LPA</t>
+        </is>
+      </c>
+      <c r="C2549" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kickdrum </t>
+        </is>
+      </c>
+      <c r="D2549" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E2549" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2550">
+      <c r="A2550" t="inlineStr">
+        <is>
+          <t>21BCE8863</t>
+        </is>
+      </c>
+      <c r="B2550" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2550" t="inlineStr">
+        <is>
+          <t>Continental Automotive</t>
+        </is>
+      </c>
+      <c r="D2550" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2550" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2551">
+      <c r="A2551" t="inlineStr">
+        <is>
+          <t>21BEC2077</t>
+        </is>
+      </c>
+      <c r="B2551" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2551" t="inlineStr">
+        <is>
+          <t>Collins Aerospace</t>
+        </is>
+      </c>
+      <c r="D2551" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2551" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2552">
+      <c r="A2552" t="inlineStr">
+        <is>
+          <t>21BCE8983</t>
+        </is>
+      </c>
+      <c r="B2552" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2552" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2552" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2552" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2553">
+      <c r="A2553" t="inlineStr">
+        <is>
+          <t>21BCE7019</t>
+        </is>
+      </c>
+      <c r="B2553" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2553" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2553" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2553" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2554">
+      <c r="A2554" t="inlineStr">
+        <is>
+          <t>21BCE9546</t>
+        </is>
+      </c>
+      <c r="B2554" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2554" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2554" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2554" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2555">
+      <c r="A2555" t="inlineStr">
+        <is>
+          <t>21BCE7015</t>
+        </is>
+      </c>
+      <c r="B2555" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2555" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2555" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2555" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2556">
+      <c r="A2556" t="inlineStr">
+        <is>
+          <t>21BCE9264</t>
+        </is>
+      </c>
+      <c r="B2556" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2556" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2556" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2556" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2557">
+      <c r="A2557" t="inlineStr">
+        <is>
+          <t>21BCE7770</t>
+        </is>
+      </c>
+      <c r="B2557" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2557" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2557" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2557" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2558">
+      <c r="A2558" t="inlineStr">
+        <is>
+          <t>21BPS1330</t>
+        </is>
+      </c>
+      <c r="B2558" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2558" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2558" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="E2558" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2559">
+      <c r="A2559" t="inlineStr">
+        <is>
+          <t>21BCE5316</t>
+        </is>
+      </c>
+      <c r="B2559" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2559" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2559" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2559" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2560">
+      <c r="A2560" t="inlineStr">
+        <is>
+          <t>21BAI1869</t>
+        </is>
+      </c>
+      <c r="B2560" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2560" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2560" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2560" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2561">
+      <c r="A2561" t="inlineStr">
+        <is>
+          <t>21BCE7747</t>
+        </is>
+      </c>
+      <c r="B2561" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2561" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2561" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2561" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2562">
+      <c r="A2562" t="inlineStr">
+        <is>
+          <t>21BCE5415</t>
+        </is>
+      </c>
+      <c r="B2562" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2562" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2562" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2562" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2563">
+      <c r="A2563" t="inlineStr">
+        <is>
+          <t>21BCE9205</t>
+        </is>
+      </c>
+      <c r="B2563" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2563" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2563" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2563" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2564">
+      <c r="A2564" t="inlineStr">
+        <is>
+          <t>21BCT0220</t>
+        </is>
+      </c>
+      <c r="B2564" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2564" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2564" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+      <c r="E2564" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2565">
+      <c r="A2565" t="inlineStr">
+        <is>
+          <t>21BCE2780</t>
+        </is>
+      </c>
+      <c r="B2565" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2565" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2565" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2565" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2566">
+      <c r="A2566" t="inlineStr">
+        <is>
+          <t>21BCT0275</t>
+        </is>
+      </c>
+      <c r="B2566" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2566" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2566" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+      <c r="E2566" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2567">
+      <c r="A2567" t="inlineStr">
+        <is>
+          <t>21BCB0174</t>
+        </is>
+      </c>
+      <c r="B2567" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2567" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2567" t="inlineStr">
+        <is>
+          <t>BCB</t>
+        </is>
+      </c>
+      <c r="E2567" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2568">
+      <c r="A2568" t="inlineStr">
+        <is>
+          <t>21BIT0733</t>
+        </is>
+      </c>
+      <c r="B2568" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2568" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2568" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E2568" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2569">
+      <c r="A2569" t="inlineStr">
+        <is>
+          <t>21BCE11546</t>
+        </is>
+      </c>
+      <c r="B2569" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2569" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2569" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2569" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2570">
+      <c r="A2570" t="inlineStr">
+        <is>
+          <t>21BSA10163</t>
+        </is>
+      </c>
+      <c r="B2570" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2570" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2570" t="inlineStr">
+        <is>
+          <t>BSA</t>
+        </is>
+      </c>
+      <c r="E2570" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2571">
+      <c r="A2571" t="inlineStr">
+        <is>
+          <t>21BCE9544</t>
+        </is>
+      </c>
+      <c r="B2571" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2571" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2571" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2571" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2572">
+      <c r="A2572" t="inlineStr">
+        <is>
+          <t>21BCE7047</t>
+        </is>
+      </c>
+      <c r="B2572" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2572" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2572" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2572" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2573">
+      <c r="A2573" t="inlineStr">
+        <is>
+          <t>21BCE7907</t>
+        </is>
+      </c>
+      <c r="B2573" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2573" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2573" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2573" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2574">
+      <c r="A2574" t="inlineStr">
+        <is>
+          <t>21BCE7062</t>
+        </is>
+      </c>
+      <c r="B2574" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2574" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2574" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2574" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2575">
+      <c r="A2575" t="inlineStr">
+        <is>
+          <t>21BCE2156</t>
+        </is>
+      </c>
+      <c r="B2575" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2575" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2575" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2575" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2576">
+      <c r="A2576" t="inlineStr">
+        <is>
+          <t>21BSA10148</t>
+        </is>
+      </c>
+      <c r="B2576" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2576" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2576" t="inlineStr">
+        <is>
+          <t>BSA</t>
+        </is>
+      </c>
+      <c r="E2576" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2577">
+      <c r="A2577" t="inlineStr">
+        <is>
+          <t>21BHI10085</t>
+        </is>
+      </c>
+      <c r="B2577" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2577" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2577" t="inlineStr">
+        <is>
+          <t>BHI</t>
+        </is>
+      </c>
+      <c r="E2577" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2578">
+      <c r="A2578" t="inlineStr">
+        <is>
+          <t>21BRS1441</t>
+        </is>
+      </c>
+      <c r="B2578" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2578" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2578" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E2578" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2579">
+      <c r="A2579" t="inlineStr">
+        <is>
+          <t>21BCE3022</t>
+        </is>
+      </c>
+      <c r="B2579" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2579" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2579" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2579" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2580">
+      <c r="A2580" t="inlineStr">
+        <is>
+          <t>21BCE10486</t>
+        </is>
+      </c>
+      <c r="B2580" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2580" t="inlineStr">
+        <is>
+          <t>Gap Internship</t>
+        </is>
+      </c>
+      <c r="D2580" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2580" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2581">
+      <c r="A2581" t="inlineStr">
+        <is>
+          <t>21BPS1332</t>
+        </is>
+      </c>
+      <c r="B2581" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2581" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2581" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="E2581" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2582">
+      <c r="A2582" t="inlineStr">
+        <is>
+          <t>21BCE2974</t>
+        </is>
+      </c>
+      <c r="B2582" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2582" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2582" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2582" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2583">
+      <c r="A2583" t="inlineStr">
+        <is>
+          <t>21BEC0811</t>
+        </is>
+      </c>
+      <c r="B2583" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2583" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2583" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2583" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2584">
+      <c r="A2584" t="inlineStr">
+        <is>
+          <t>21BLC1500</t>
+        </is>
+      </c>
+      <c r="B2584" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C2584" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D2584" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E2584" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2585">
+      <c r="A2585" t="inlineStr">
+        <is>
+          <t>21BAI1539</t>
+        </is>
+      </c>
+      <c r="B2585" t="inlineStr">
+        <is>
+          <t>10.4LPA</t>
+        </is>
+      </c>
+      <c r="C2585" t="inlineStr">
+        <is>
+          <t>Rystad Energy</t>
+        </is>
+      </c>
+      <c r="D2585" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2585" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2586">
+      <c r="A2586" t="inlineStr">
+        <is>
+          <t>21BDS0140</t>
+        </is>
+      </c>
+      <c r="B2586" t="inlineStr">
+        <is>
+          <t>10.4LPA</t>
+        </is>
+      </c>
+      <c r="C2586" t="inlineStr">
+        <is>
+          <t>Rystad Energy</t>
+        </is>
+      </c>
+      <c r="D2586" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E2586" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2587">
+      <c r="A2587" t="inlineStr">
+        <is>
+          <t>21BRS1364</t>
+        </is>
+      </c>
+      <c r="B2587" t="inlineStr">
+        <is>
+          <t>10.4LPA</t>
+        </is>
+      </c>
+      <c r="C2587" t="inlineStr">
+        <is>
+          <t>Rystad Energy</t>
+        </is>
+      </c>
+      <c r="D2587" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E2587" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2588">
+      <c r="A2588" t="inlineStr">
+        <is>
+          <t>21BCE0088</t>
+        </is>
+      </c>
+      <c r="B2588" t="inlineStr">
+        <is>
+          <t>10.4LPA</t>
+        </is>
+      </c>
+      <c r="C2588" t="inlineStr">
+        <is>
+          <t>Rystad Energy</t>
+        </is>
+      </c>
+      <c r="D2588" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2588" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2589">
+      <c r="A2589" t="inlineStr">
+        <is>
+          <t>21BAI10198</t>
+        </is>
+      </c>
+      <c r="B2589" t="inlineStr">
+        <is>
+          <t>10.4LPA</t>
+        </is>
+      </c>
+      <c r="C2589" t="inlineStr">
+        <is>
+          <t>Rystad Energy</t>
+        </is>
+      </c>
+      <c r="D2589" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2589" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2590">
+      <c r="A2590" t="inlineStr">
+        <is>
+          <t>21BCE1262</t>
+        </is>
+      </c>
+      <c r="B2590" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2590" t="inlineStr">
+        <is>
+          <t>Thorogood Associates</t>
+        </is>
+      </c>
+      <c r="D2590" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2590" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2591">
+      <c r="A2591" t="inlineStr">
+        <is>
+          <t>21BCE6188</t>
+        </is>
+      </c>
+      <c r="B2591" t="inlineStr">
+        <is>
+          <t>14.81LPA</t>
+        </is>
+      </c>
+      <c r="C2591" t="inlineStr">
+        <is>
+          <t>Thorogood Associates</t>
+        </is>
+      </c>
+      <c r="D2591" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2591" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2592">
+      <c r="A2592" t="inlineStr">
+        <is>
+          <t>21BCE3098</t>
+        </is>
+      </c>
+      <c r="B2592" t="inlineStr">
+        <is>
+          <t>14.81LPA</t>
+        </is>
+      </c>
+      <c r="C2592" t="inlineStr">
+        <is>
+          <t>Thorogood Associates</t>
+        </is>
+      </c>
+      <c r="D2592" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2592" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2593">
+      <c r="A2593" t="inlineStr">
+        <is>
+          <t>21BCE7808</t>
+        </is>
+      </c>
+      <c r="B2593" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C2593" t="inlineStr">
+        <is>
+          <t>Volvo</t>
+        </is>
+      </c>
+      <c r="D2593" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2593" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2593"/>
+  <dimension ref="A1:E2646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20287,7 +20287,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>12LPA</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -70446,6 +70446,1437 @@
       <c r="E2593" t="inlineStr">
         <is>
           <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2594">
+      <c r="A2594" t="inlineStr">
+        <is>
+          <t>21BEC1122</t>
+        </is>
+      </c>
+      <c r="B2594" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C2594" t="inlineStr">
+        <is>
+          <t>Unistring</t>
+        </is>
+      </c>
+      <c r="D2594" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2594" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2595">
+      <c r="A2595" t="inlineStr">
+        <is>
+          <t>21BEC1122</t>
+        </is>
+      </c>
+      <c r="B2595" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C2595" t="inlineStr">
+        <is>
+          <t>Unistring</t>
+        </is>
+      </c>
+      <c r="D2595" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2595" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2596">
+      <c r="A2596" t="inlineStr">
+        <is>
+          <t>21BCE10419</t>
+        </is>
+      </c>
+      <c r="B2596" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2596" t="inlineStr">
+        <is>
+          <t>NVIDIA</t>
+        </is>
+      </c>
+      <c r="D2596" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2596" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2597">
+      <c r="A2597" t="inlineStr">
+        <is>
+          <t>21BCE0672</t>
+        </is>
+      </c>
+      <c r="B2597" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2597" t="inlineStr">
+        <is>
+          <t>Kuhoo Technology</t>
+        </is>
+      </c>
+      <c r="D2597" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2597" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2598">
+      <c r="A2598" t="inlineStr">
+        <is>
+          <t>21BCE5927</t>
+        </is>
+      </c>
+      <c r="B2598" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2598" t="inlineStr">
+        <is>
+          <t>Kuhoo Technology</t>
+        </is>
+      </c>
+      <c r="D2598" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2598" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2599">
+      <c r="A2599" t="inlineStr">
+        <is>
+          <t>21BCE5944</t>
+        </is>
+      </c>
+      <c r="B2599" t="inlineStr">
+        <is>
+          <t>8.6LPA</t>
+        </is>
+      </c>
+      <c r="C2599" t="inlineStr">
+        <is>
+          <t>EY India</t>
+        </is>
+      </c>
+      <c r="D2599" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2599" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2600">
+      <c r="A2600" t="inlineStr">
+        <is>
+          <t>21BAI1001</t>
+        </is>
+      </c>
+      <c r="B2600" t="inlineStr">
+        <is>
+          <t>8.6LPA</t>
+        </is>
+      </c>
+      <c r="C2600" t="inlineStr">
+        <is>
+          <t>EY India</t>
+        </is>
+      </c>
+      <c r="D2600" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2600" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2601">
+      <c r="A2601" t="inlineStr">
+        <is>
+          <t>21BCT0128</t>
+        </is>
+      </c>
+      <c r="B2601" t="inlineStr">
+        <is>
+          <t>8.6LPA</t>
+        </is>
+      </c>
+      <c r="C2601" t="inlineStr">
+        <is>
+          <t>EY India</t>
+        </is>
+      </c>
+      <c r="D2601" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+      <c r="E2601" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2602">
+      <c r="A2602" t="inlineStr">
+        <is>
+          <t>21BAI10327</t>
+        </is>
+      </c>
+      <c r="B2602" t="inlineStr">
+        <is>
+          <t>8.6LPA</t>
+        </is>
+      </c>
+      <c r="C2602" t="inlineStr">
+        <is>
+          <t>EY India</t>
+        </is>
+      </c>
+      <c r="D2602" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2602" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2603">
+      <c r="A2603" t="inlineStr">
+        <is>
+          <t>21BAI10109</t>
+        </is>
+      </c>
+      <c r="B2603" t="inlineStr">
+        <is>
+          <t>8.6LPA</t>
+        </is>
+      </c>
+      <c r="C2603" t="inlineStr">
+        <is>
+          <t>EY India</t>
+        </is>
+      </c>
+      <c r="D2603" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2603" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2604">
+      <c r="A2604" t="inlineStr">
+        <is>
+          <t>21BCE0039</t>
+        </is>
+      </c>
+      <c r="B2604" t="inlineStr">
+        <is>
+          <t>8.6LPA</t>
+        </is>
+      </c>
+      <c r="C2604" t="inlineStr">
+        <is>
+          <t>EY India</t>
+        </is>
+      </c>
+      <c r="D2604" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2604" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2605">
+      <c r="A2605" t="inlineStr">
+        <is>
+          <t>21BCE7113</t>
+        </is>
+      </c>
+      <c r="B2605" t="inlineStr">
+        <is>
+          <t>8.6LPA</t>
+        </is>
+      </c>
+      <c r="C2605" t="inlineStr">
+        <is>
+          <t>EY India</t>
+        </is>
+      </c>
+      <c r="D2605" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2605" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2606">
+      <c r="A2606" t="inlineStr">
+        <is>
+          <t>21BAI10018</t>
+        </is>
+      </c>
+      <c r="B2606" t="inlineStr">
+        <is>
+          <t>8.6LPA</t>
+        </is>
+      </c>
+      <c r="C2606" t="inlineStr">
+        <is>
+          <t>EY India</t>
+        </is>
+      </c>
+      <c r="D2606" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2606" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2607">
+      <c r="A2607" t="inlineStr">
+        <is>
+          <t>21BCE9216</t>
+        </is>
+      </c>
+      <c r="B2607" t="inlineStr">
+        <is>
+          <t>8.6LPA</t>
+        </is>
+      </c>
+      <c r="C2607" t="inlineStr">
+        <is>
+          <t>EY India</t>
+        </is>
+      </c>
+      <c r="D2607" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2607" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2608">
+      <c r="A2608" t="inlineStr">
+        <is>
+          <t>21BEC1017</t>
+        </is>
+      </c>
+      <c r="B2608" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2608" t="inlineStr">
+        <is>
+          <t>EmbedUR</t>
+        </is>
+      </c>
+      <c r="D2608" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2608" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2609">
+      <c r="A2609" t="inlineStr">
+        <is>
+          <t>21BPS1074</t>
+        </is>
+      </c>
+      <c r="B2609" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2609" t="inlineStr">
+        <is>
+          <t>EmbedUR</t>
+        </is>
+      </c>
+      <c r="D2609" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="E2609" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2610">
+      <c r="A2610" t="inlineStr">
+        <is>
+          <t>21BCE1446</t>
+        </is>
+      </c>
+      <c r="B2610" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2610" t="inlineStr">
+        <is>
+          <t>EmbedUR</t>
+        </is>
+      </c>
+      <c r="D2610" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2610" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2611">
+      <c r="A2611" t="inlineStr">
+        <is>
+          <t>21BCE6165</t>
+        </is>
+      </c>
+      <c r="B2611" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2611" t="inlineStr">
+        <is>
+          <t>EmbedUR</t>
+        </is>
+      </c>
+      <c r="D2611" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2611" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2612">
+      <c r="A2612" t="inlineStr">
+        <is>
+          <t>21BEC1579</t>
+        </is>
+      </c>
+      <c r="B2612" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2612" t="inlineStr">
+        <is>
+          <t>EmbedUR</t>
+        </is>
+      </c>
+      <c r="D2612" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2612" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2613">
+      <c r="A2613" t="inlineStr">
+        <is>
+          <t>21BPS1528</t>
+        </is>
+      </c>
+      <c r="B2613" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2613" t="inlineStr">
+        <is>
+          <t>EmbedUR</t>
+        </is>
+      </c>
+      <c r="D2613" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="E2613" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2614">
+      <c r="A2614" t="inlineStr">
+        <is>
+          <t>21BRS1582</t>
+        </is>
+      </c>
+      <c r="B2614" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2614" t="inlineStr">
+        <is>
+          <t>EmbedUR</t>
+        </is>
+      </c>
+      <c r="D2614" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E2614" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2615">
+      <c r="A2615" t="inlineStr">
+        <is>
+          <t>21BEC1682</t>
+        </is>
+      </c>
+      <c r="B2615" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2615" t="inlineStr">
+        <is>
+          <t>EmbedUR</t>
+        </is>
+      </c>
+      <c r="D2615" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2615" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2616">
+      <c r="A2616" t="inlineStr">
+        <is>
+          <t>21BRS1716</t>
+        </is>
+      </c>
+      <c r="B2616" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2616" t="inlineStr">
+        <is>
+          <t>EmbedUR</t>
+        </is>
+      </c>
+      <c r="D2616" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E2616" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2617">
+      <c r="A2617" t="inlineStr">
+        <is>
+          <t>21BCE0527</t>
+        </is>
+      </c>
+      <c r="B2617" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2617" t="inlineStr">
+        <is>
+          <t>EmbedUR</t>
+        </is>
+      </c>
+      <c r="D2617" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2617" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2618">
+      <c r="A2618" t="inlineStr">
+        <is>
+          <t>21BEC2188</t>
+        </is>
+      </c>
+      <c r="B2618" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2618" t="inlineStr">
+        <is>
+          <t>EmbedUR</t>
+        </is>
+      </c>
+      <c r="D2618" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2618" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2619">
+      <c r="A2619" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21BBS0139 </t>
+        </is>
+      </c>
+      <c r="B2619" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2619" t="inlineStr">
+        <is>
+          <t>HPE</t>
+        </is>
+      </c>
+      <c r="D2619" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="E2619" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2620">
+      <c r="A2620" t="inlineStr">
+        <is>
+          <t>21BCE5883</t>
+        </is>
+      </c>
+      <c r="B2620" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C2620" t="inlineStr">
+        <is>
+          <t>ValueLabs</t>
+        </is>
+      </c>
+      <c r="D2620" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2620" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2621">
+      <c r="A2621" t="inlineStr">
+        <is>
+          <t>21BAI1802</t>
+        </is>
+      </c>
+      <c r="B2621" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C2621" t="inlineStr">
+        <is>
+          <t>ValueLabs</t>
+        </is>
+      </c>
+      <c r="D2621" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2621" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2622">
+      <c r="A2622" t="inlineStr">
+        <is>
+          <t>21BCI0147</t>
+        </is>
+      </c>
+      <c r="B2622" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C2622" t="inlineStr">
+        <is>
+          <t>ValueLabs</t>
+        </is>
+      </c>
+      <c r="D2622" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="E2622" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2623">
+      <c r="A2623" t="inlineStr">
+        <is>
+          <t>21BKT0090</t>
+        </is>
+      </c>
+      <c r="B2623" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C2623" t="inlineStr">
+        <is>
+          <t>ValueLabs</t>
+        </is>
+      </c>
+      <c r="D2623" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+      <c r="E2623" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2624">
+      <c r="A2624" t="inlineStr">
+        <is>
+          <t>21BDS0198</t>
+        </is>
+      </c>
+      <c r="B2624" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C2624" t="inlineStr">
+        <is>
+          <t>ValueLabs</t>
+        </is>
+      </c>
+      <c r="D2624" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E2624" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2625">
+      <c r="A2625" t="inlineStr">
+        <is>
+          <t>21BKT0008</t>
+        </is>
+      </c>
+      <c r="B2625" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C2625" t="inlineStr">
+        <is>
+          <t>ValueLabs</t>
+        </is>
+      </c>
+      <c r="D2625" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+      <c r="E2625" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2626">
+      <c r="A2626" t="inlineStr">
+        <is>
+          <t>21BKT0182</t>
+        </is>
+      </c>
+      <c r="B2626" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C2626" t="inlineStr">
+        <is>
+          <t>ValueLabs</t>
+        </is>
+      </c>
+      <c r="D2626" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+      <c r="E2626" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2627">
+      <c r="A2627" t="inlineStr">
+        <is>
+          <t>21BCE0136</t>
+        </is>
+      </c>
+      <c r="B2627" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C2627" t="inlineStr">
+        <is>
+          <t>ValueLabs</t>
+        </is>
+      </c>
+      <c r="D2627" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2627" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2628">
+      <c r="A2628" t="inlineStr">
+        <is>
+          <t>21BCE0482</t>
+        </is>
+      </c>
+      <c r="B2628" t="inlineStr">
+        <is>
+          <t>20LPA</t>
+        </is>
+      </c>
+      <c r="C2628" t="inlineStr">
+        <is>
+          <t>ValueLabs</t>
+        </is>
+      </c>
+      <c r="D2628" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2628" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2629">
+      <c r="A2629" t="inlineStr">
+        <is>
+          <t>21BCE5062</t>
+        </is>
+      </c>
+      <c r="B2629" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2629" t="inlineStr">
+        <is>
+          <t>HPE R&amp;D</t>
+        </is>
+      </c>
+      <c r="D2629" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2629" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2630">
+      <c r="A2630" t="inlineStr">
+        <is>
+          <t>21BCE2068</t>
+        </is>
+      </c>
+      <c r="B2630" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2630" t="inlineStr">
+        <is>
+          <t>HPE R&amp;D</t>
+        </is>
+      </c>
+      <c r="D2630" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2630" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2631">
+      <c r="A2631" t="inlineStr">
+        <is>
+          <t>21BCE2325</t>
+        </is>
+      </c>
+      <c r="B2631" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2631" t="inlineStr">
+        <is>
+          <t>HPE R&amp;D</t>
+        </is>
+      </c>
+      <c r="D2631" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2631" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2632">
+      <c r="A2632" t="inlineStr">
+        <is>
+          <t>21BCE3642</t>
+        </is>
+      </c>
+      <c r="B2632" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2632" t="inlineStr">
+        <is>
+          <t>HPE R&amp;D</t>
+        </is>
+      </c>
+      <c r="D2632" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2632" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2633">
+      <c r="A2633" t="inlineStr">
+        <is>
+          <t>21BCE1389</t>
+        </is>
+      </c>
+      <c r="B2633" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2633" t="inlineStr">
+        <is>
+          <t>HPE R&amp;D</t>
+        </is>
+      </c>
+      <c r="D2633" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2633" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2634">
+      <c r="A2634" t="inlineStr">
+        <is>
+          <t>21BCE6182</t>
+        </is>
+      </c>
+      <c r="B2634" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2634" t="inlineStr">
+        <is>
+          <t>HPE R&amp;D</t>
+        </is>
+      </c>
+      <c r="D2634" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2634" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2635">
+      <c r="A2635" t="inlineStr">
+        <is>
+          <t>21BCE2578</t>
+        </is>
+      </c>
+      <c r="B2635" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2635" t="inlineStr">
+        <is>
+          <t>HPE R&amp;D</t>
+        </is>
+      </c>
+      <c r="D2635" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2635" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2636">
+      <c r="A2636" t="inlineStr">
+        <is>
+          <t>21BCE1777</t>
+        </is>
+      </c>
+      <c r="B2636" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2636" t="inlineStr">
+        <is>
+          <t>HPE R&amp;D</t>
+        </is>
+      </c>
+      <c r="D2636" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2636" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2637">
+      <c r="A2637" t="inlineStr">
+        <is>
+          <t>21BCE0472</t>
+        </is>
+      </c>
+      <c r="B2637" t="inlineStr">
+        <is>
+          <t>10.4LPA</t>
+        </is>
+      </c>
+      <c r="C2637" t="inlineStr">
+        <is>
+          <t>Rystad Energy</t>
+        </is>
+      </c>
+      <c r="D2637" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2637" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2638">
+      <c r="A2638" t="inlineStr">
+        <is>
+          <t>21BCY10126</t>
+        </is>
+      </c>
+      <c r="B2638" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2638" t="inlineStr">
+        <is>
+          <t>Trademarkia</t>
+        </is>
+      </c>
+      <c r="D2638" t="inlineStr">
+        <is>
+          <t>BCY</t>
+        </is>
+      </c>
+      <c r="E2638" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2639">
+      <c r="A2639" t="inlineStr">
+        <is>
+          <t>21BCB0211</t>
+        </is>
+      </c>
+      <c r="B2639" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2639" t="inlineStr">
+        <is>
+          <t>Trademarkia</t>
+        </is>
+      </c>
+      <c r="D2639" t="inlineStr">
+        <is>
+          <t>BCB</t>
+        </is>
+      </c>
+      <c r="E2639" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2640">
+      <c r="A2640" t="inlineStr">
+        <is>
+          <t>21BCI0333</t>
+        </is>
+      </c>
+      <c r="B2640" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2640" t="inlineStr">
+        <is>
+          <t>Trademarkia</t>
+        </is>
+      </c>
+      <c r="D2640" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="E2640" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2641">
+      <c r="A2641" t="inlineStr">
+        <is>
+          <t>21BCE0536</t>
+        </is>
+      </c>
+      <c r="B2641" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C2641" t="inlineStr">
+        <is>
+          <t>Volvo</t>
+        </is>
+      </c>
+      <c r="D2641" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2641" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2642">
+      <c r="A2642" t="inlineStr">
+        <is>
+          <t>21BCE3691</t>
+        </is>
+      </c>
+      <c r="B2642" t="inlineStr">
+        <is>
+          <t>8.6LPA</t>
+        </is>
+      </c>
+      <c r="C2642" t="inlineStr">
+        <is>
+          <t>EY India</t>
+        </is>
+      </c>
+      <c r="D2642" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2642" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2643">
+      <c r="A2643" t="inlineStr">
+        <is>
+          <t>21BCE2979</t>
+        </is>
+      </c>
+      <c r="B2643" t="inlineStr">
+        <is>
+          <t>8.6LPA</t>
+        </is>
+      </c>
+      <c r="C2643" t="inlineStr">
+        <is>
+          <t>EY India</t>
+        </is>
+      </c>
+      <c r="D2643" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2643" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2644">
+      <c r="A2644" t="inlineStr">
+        <is>
+          <t>21BEC0897</t>
+        </is>
+      </c>
+      <c r="B2644" t="inlineStr">
+        <is>
+          <t>8.6LPA</t>
+        </is>
+      </c>
+      <c r="C2644" t="inlineStr">
+        <is>
+          <t>EY India</t>
+        </is>
+      </c>
+      <c r="D2644" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2644" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2645">
+      <c r="A2645" t="inlineStr">
+        <is>
+          <t>21BCE0582</t>
+        </is>
+      </c>
+      <c r="B2645" t="inlineStr">
+        <is>
+          <t>8.6LPA</t>
+        </is>
+      </c>
+      <c r="C2645" t="inlineStr">
+        <is>
+          <t>EY India</t>
+        </is>
+      </c>
+      <c r="D2645" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2645" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2646">
+      <c r="A2646" t="inlineStr">
+        <is>
+          <t>21BPS1039</t>
+        </is>
+      </c>
+      <c r="B2646" t="inlineStr">
+        <is>
+          <t>8.6LPA</t>
+        </is>
+      </c>
+      <c r="C2646" t="inlineStr">
+        <is>
+          <t>EY India</t>
+        </is>
+      </c>
+      <c r="D2646" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="E2646" t="inlineStr">
+        <is>
+          <t>Male</t>
         </is>
       </c>
     </row>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2646"/>
+  <dimension ref="A1:E2658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71880,6 +71880,330 @@
         </is>
       </c>
     </row>
+    <row r="2647">
+      <c r="A2647" t="inlineStr">
+        <is>
+          <t>21BDS0003</t>
+        </is>
+      </c>
+      <c r="B2647" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C2647" t="inlineStr">
+        <is>
+          <t>Volvo</t>
+        </is>
+      </c>
+      <c r="D2647" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E2647" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2648">
+      <c r="A2648" t="inlineStr">
+        <is>
+          <t>21BMH1113</t>
+        </is>
+      </c>
+      <c r="B2648" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C2648" t="inlineStr">
+        <is>
+          <t>Ohmium Operations</t>
+        </is>
+      </c>
+      <c r="D2648" t="inlineStr">
+        <is>
+          <t>BMH</t>
+        </is>
+      </c>
+      <c r="E2648" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2649">
+      <c r="A2649" t="inlineStr">
+        <is>
+          <t>21BME1191</t>
+        </is>
+      </c>
+      <c r="B2649" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C2649" t="inlineStr">
+        <is>
+          <t>Ohmium Operations</t>
+        </is>
+      </c>
+      <c r="D2649" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E2649" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2650">
+      <c r="A2650" t="inlineStr">
+        <is>
+          <t>21BEI0047</t>
+        </is>
+      </c>
+      <c r="B2650" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C2650" t="inlineStr">
+        <is>
+          <t>Ohmium Operations</t>
+        </is>
+      </c>
+      <c r="D2650" t="inlineStr">
+        <is>
+          <t>BEI</t>
+        </is>
+      </c>
+      <c r="E2650" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2651">
+      <c r="A2651" t="inlineStr">
+        <is>
+          <t>21BEE1173</t>
+        </is>
+      </c>
+      <c r="B2651" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C2651" t="inlineStr">
+        <is>
+          <t>Ohmium Operations</t>
+        </is>
+      </c>
+      <c r="D2651" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E2651" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2652">
+      <c r="A2652" t="inlineStr">
+        <is>
+          <t>21BEE0328</t>
+        </is>
+      </c>
+      <c r="B2652" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C2652" t="inlineStr">
+        <is>
+          <t>Ohmium Operations</t>
+        </is>
+      </c>
+      <c r="D2652" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E2652" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2653">
+      <c r="A2653" t="inlineStr">
+        <is>
+          <t>21BEE0287</t>
+        </is>
+      </c>
+      <c r="B2653" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C2653" t="inlineStr">
+        <is>
+          <t>Ohmium Operations</t>
+        </is>
+      </c>
+      <c r="D2653" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E2653" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2654">
+      <c r="A2654" t="inlineStr">
+        <is>
+          <t>21BRS1133</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>10.4LPA</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>Rystad Energy</t>
+        </is>
+      </c>
+      <c r="D2654" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E2654" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2655">
+      <c r="A2655" t="inlineStr">
+        <is>
+          <t>21BCE3989</t>
+        </is>
+      </c>
+      <c r="B2655" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C2655" t="inlineStr">
+        <is>
+          <t>Clear Tax</t>
+        </is>
+      </c>
+      <c r="D2655" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2655" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2656">
+      <c r="A2656" t="inlineStr">
+        <is>
+          <t>21BCE3139</t>
+        </is>
+      </c>
+      <c r="B2656" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C2656" t="inlineStr">
+        <is>
+          <t>Clear Tax</t>
+        </is>
+      </c>
+      <c r="D2656" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2656" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2657">
+      <c r="A2657" t="inlineStr">
+        <is>
+          <t>21BCE2916</t>
+        </is>
+      </c>
+      <c r="B2657" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C2657" t="inlineStr">
+        <is>
+          <t>Clear Tax</t>
+        </is>
+      </c>
+      <c r="D2657" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2657" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2658">
+      <c r="A2658" t="inlineStr">
+        <is>
+          <t>21BCE3369</t>
+        </is>
+      </c>
+      <c r="B2658" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C2658" t="inlineStr">
+        <is>
+          <t>Clear Tax</t>
+        </is>
+      </c>
+      <c r="D2658" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2658" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2658"/>
+  <dimension ref="A1:E2711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72204,6 +72204,1437 @@
         </is>
       </c>
     </row>
+    <row r="2659">
+      <c r="A2659" t="inlineStr">
+        <is>
+          <t>21BIT0002</t>
+        </is>
+      </c>
+      <c r="B2659" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2659" t="inlineStr">
+        <is>
+          <t>Appointy</t>
+        </is>
+      </c>
+      <c r="D2659" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E2659" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2660">
+      <c r="A2660" t="inlineStr">
+        <is>
+          <t>21BBT0296</t>
+        </is>
+      </c>
+      <c r="B2660" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2660" t="inlineStr">
+        <is>
+          <t>Appointy</t>
+        </is>
+      </c>
+      <c r="D2660" t="inlineStr">
+        <is>
+          <t>BBT</t>
+        </is>
+      </c>
+      <c r="E2660" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2661">
+      <c r="A2661" t="inlineStr">
+        <is>
+          <t>21BCE2193</t>
+        </is>
+      </c>
+      <c r="B2661" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2661" t="inlineStr">
+        <is>
+          <t>Appointy</t>
+        </is>
+      </c>
+      <c r="D2661" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2661" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2662">
+      <c r="A2662" t="inlineStr">
+        <is>
+          <t>21BCE1673</t>
+        </is>
+      </c>
+      <c r="B2662" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2662" t="inlineStr">
+        <is>
+          <t>Appointy</t>
+        </is>
+      </c>
+      <c r="D2662" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2662" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2663">
+      <c r="A2663" t="inlineStr">
+        <is>
+          <t>21BCE9090</t>
+        </is>
+      </c>
+      <c r="B2663" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2663" t="inlineStr">
+        <is>
+          <t>FedEx</t>
+        </is>
+      </c>
+      <c r="D2663" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2663" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2664">
+      <c r="A2664" t="inlineStr">
+        <is>
+          <t>21BCE9303</t>
+        </is>
+      </c>
+      <c r="B2664" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2664" t="inlineStr">
+        <is>
+          <t>FedEx</t>
+        </is>
+      </c>
+      <c r="D2664" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2664" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2665">
+      <c r="A2665" t="inlineStr">
+        <is>
+          <t>21BCE9533</t>
+        </is>
+      </c>
+      <c r="B2665" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2665" t="inlineStr">
+        <is>
+          <t>FedEx</t>
+        </is>
+      </c>
+      <c r="D2665" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2665" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2666">
+      <c r="A2666" t="inlineStr">
+        <is>
+          <t>21BCE9897</t>
+        </is>
+      </c>
+      <c r="B2666" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2666" t="inlineStr">
+        <is>
+          <t>FedEx</t>
+        </is>
+      </c>
+      <c r="D2666" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2666" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2667">
+      <c r="A2667" t="inlineStr">
+        <is>
+          <t>21BCY10093</t>
+        </is>
+      </c>
+      <c r="B2667" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2667" t="inlineStr">
+        <is>
+          <t>FedEx</t>
+        </is>
+      </c>
+      <c r="D2667" t="inlineStr">
+        <is>
+          <t>BCY</t>
+        </is>
+      </c>
+      <c r="E2667" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2668">
+      <c r="A2668" t="inlineStr">
+        <is>
+          <t>21BKT0006</t>
+        </is>
+      </c>
+      <c r="B2668" t="inlineStr">
+        <is>
+          <t>7.25LPA</t>
+        </is>
+      </c>
+      <c r="C2668" t="inlineStr">
+        <is>
+          <t>Sun Life</t>
+        </is>
+      </c>
+      <c r="D2668" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+      <c r="E2668" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2669">
+      <c r="A2669" t="inlineStr">
+        <is>
+          <t>21BIT0319</t>
+        </is>
+      </c>
+      <c r="B2669" t="inlineStr">
+        <is>
+          <t>7.25LPA</t>
+        </is>
+      </c>
+      <c r="C2669" t="inlineStr">
+        <is>
+          <t>Sun Life</t>
+        </is>
+      </c>
+      <c r="D2669" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E2669" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2670">
+      <c r="A2670" t="inlineStr">
+        <is>
+          <t>21BCE5115</t>
+        </is>
+      </c>
+      <c r="B2670" t="inlineStr">
+        <is>
+          <t>7.25LPA</t>
+        </is>
+      </c>
+      <c r="C2670" t="inlineStr">
+        <is>
+          <t>Sun Life</t>
+        </is>
+      </c>
+      <c r="D2670" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2670" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2671">
+      <c r="A2671" t="inlineStr">
+        <is>
+          <t>21BCE2702</t>
+        </is>
+      </c>
+      <c r="B2671" t="inlineStr">
+        <is>
+          <t>7.25LPA</t>
+        </is>
+      </c>
+      <c r="C2671" t="inlineStr">
+        <is>
+          <t>Sun Life</t>
+        </is>
+      </c>
+      <c r="D2671" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2671" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2672">
+      <c r="A2672" t="inlineStr">
+        <is>
+          <t>21BCE2672</t>
+        </is>
+      </c>
+      <c r="B2672" t="inlineStr">
+        <is>
+          <t>7.25LPA</t>
+        </is>
+      </c>
+      <c r="C2672" t="inlineStr">
+        <is>
+          <t>Sun Life</t>
+        </is>
+      </c>
+      <c r="D2672" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2672" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2673">
+      <c r="A2673" t="inlineStr">
+        <is>
+          <t>21BCI0169</t>
+        </is>
+      </c>
+      <c r="B2673" t="inlineStr">
+        <is>
+          <t>7.25LPA</t>
+        </is>
+      </c>
+      <c r="C2673" t="inlineStr">
+        <is>
+          <t>Sun Life</t>
+        </is>
+      </c>
+      <c r="D2673" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="E2673" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2674">
+      <c r="A2674" t="inlineStr">
+        <is>
+          <t>21BDS0283</t>
+        </is>
+      </c>
+      <c r="B2674" t="inlineStr">
+        <is>
+          <t>7.25LPA</t>
+        </is>
+      </c>
+      <c r="C2674" t="inlineStr">
+        <is>
+          <t>Sun Life</t>
+        </is>
+      </c>
+      <c r="D2674" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E2674" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2675">
+      <c r="A2675" t="inlineStr">
+        <is>
+          <t>21BIT0285</t>
+        </is>
+      </c>
+      <c r="B2675" t="inlineStr">
+        <is>
+          <t>7.25LPA</t>
+        </is>
+      </c>
+      <c r="C2675" t="inlineStr">
+        <is>
+          <t>Sun Life</t>
+        </is>
+      </c>
+      <c r="D2675" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E2675" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2676">
+      <c r="A2676" t="inlineStr">
+        <is>
+          <t>21BDS0127</t>
+        </is>
+      </c>
+      <c r="B2676" t="inlineStr">
+        <is>
+          <t>7.25LPA</t>
+        </is>
+      </c>
+      <c r="C2676" t="inlineStr">
+        <is>
+          <t>Sun Life</t>
+        </is>
+      </c>
+      <c r="D2676" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E2676" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2677">
+      <c r="A2677" t="inlineStr">
+        <is>
+          <t>21BCE10544</t>
+        </is>
+      </c>
+      <c r="B2677" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C2677" t="inlineStr">
+        <is>
+          <t>Evertz</t>
+        </is>
+      </c>
+      <c r="D2677" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2677" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2678">
+      <c r="A2678" t="inlineStr">
+        <is>
+          <t>21BCE8378</t>
+        </is>
+      </c>
+      <c r="B2678" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C2678" t="inlineStr">
+        <is>
+          <t>Evertz</t>
+        </is>
+      </c>
+      <c r="D2678" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2678" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2679">
+      <c r="A2679" t="inlineStr">
+        <is>
+          <t>21BRS1368</t>
+        </is>
+      </c>
+      <c r="B2679" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C2679" t="inlineStr">
+        <is>
+          <t>Hyundai AutoEver</t>
+        </is>
+      </c>
+      <c r="D2679" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E2679" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2680">
+      <c r="A2680" t="inlineStr">
+        <is>
+          <t>21BAI1723</t>
+        </is>
+      </c>
+      <c r="B2680" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C2680" t="inlineStr">
+        <is>
+          <t>Hyundai AutoEver</t>
+        </is>
+      </c>
+      <c r="D2680" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2680" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2681">
+      <c r="A2681" t="inlineStr">
+        <is>
+          <t>21BAI1553</t>
+        </is>
+      </c>
+      <c r="B2681" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C2681" t="inlineStr">
+        <is>
+          <t>Hyundai AutoEver</t>
+        </is>
+      </c>
+      <c r="D2681" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2681" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2682">
+      <c r="A2682" t="inlineStr">
+        <is>
+          <t>21BCE1377</t>
+        </is>
+      </c>
+      <c r="B2682" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C2682" t="inlineStr">
+        <is>
+          <t>Hyundai AutoEver</t>
+        </is>
+      </c>
+      <c r="D2682" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2682" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2683">
+      <c r="A2683" t="inlineStr">
+        <is>
+          <t>21BCE5252</t>
+        </is>
+      </c>
+      <c r="B2683" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C2683" t="inlineStr">
+        <is>
+          <t>Hyundai AutoEver</t>
+        </is>
+      </c>
+      <c r="D2683" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2683" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2684">
+      <c r="A2684" t="inlineStr">
+        <is>
+          <t>21BCI0317</t>
+        </is>
+      </c>
+      <c r="B2684" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C2684" t="inlineStr">
+        <is>
+          <t>Hyundai AutoEver</t>
+        </is>
+      </c>
+      <c r="D2684" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="E2684" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2685">
+      <c r="A2685" t="inlineStr">
+        <is>
+          <t>21BCE1001</t>
+        </is>
+      </c>
+      <c r="B2685" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2685" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2685" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2685" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2686">
+      <c r="A2686" t="inlineStr">
+        <is>
+          <t>21BCE5067</t>
+        </is>
+      </c>
+      <c r="B2686" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2686" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2686" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2686" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2687">
+      <c r="A2687" t="inlineStr">
+        <is>
+          <t>21BCE3053</t>
+        </is>
+      </c>
+      <c r="B2687" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2687" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2687" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2687" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2688">
+      <c r="A2688" t="inlineStr">
+        <is>
+          <t>21BHI10069</t>
+        </is>
+      </c>
+      <c r="B2688" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2688" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2688" t="inlineStr">
+        <is>
+          <t>BHI</t>
+        </is>
+      </c>
+      <c r="E2688" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2689">
+      <c r="A2689" t="inlineStr">
+        <is>
+          <t>21BAI10043</t>
+        </is>
+      </c>
+      <c r="B2689" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2689" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2689" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2689" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2690">
+      <c r="A2690" t="inlineStr">
+        <is>
+          <t>21BCE7107</t>
+        </is>
+      </c>
+      <c r="B2690" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2690" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2690" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2690" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2691">
+      <c r="A2691" t="inlineStr">
+        <is>
+          <t>21BCE3932</t>
+        </is>
+      </c>
+      <c r="B2691" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2691" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2691" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2691" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2692">
+      <c r="A2692" t="inlineStr">
+        <is>
+          <t>21BEC0294</t>
+        </is>
+      </c>
+      <c r="B2692" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2692" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2692" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2692" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2693">
+      <c r="A2693" t="inlineStr">
+        <is>
+          <t>21BAI1031</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2693" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2693" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2693" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2694">
+      <c r="A2694" t="inlineStr">
+        <is>
+          <t>21BBS0244</t>
+        </is>
+      </c>
+      <c r="B2694" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2694" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2694" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="E2694" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2695">
+      <c r="A2695" t="inlineStr">
+        <is>
+          <t>21BCE4004</t>
+        </is>
+      </c>
+      <c r="B2695" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2695" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2695" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2695" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2696">
+      <c r="A2696" t="inlineStr">
+        <is>
+          <t>21BCE5871</t>
+        </is>
+      </c>
+      <c r="B2696" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2696" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2696" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2696" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2697">
+      <c r="A2697" t="inlineStr">
+        <is>
+          <t>21BCE1207</t>
+        </is>
+      </c>
+      <c r="B2697" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2697" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2697" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2697" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2698">
+      <c r="A2698" t="inlineStr">
+        <is>
+          <t>21BCE10291</t>
+        </is>
+      </c>
+      <c r="B2698" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2698" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2698" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2698" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2699">
+      <c r="A2699" t="inlineStr">
+        <is>
+          <t>21BCE0844</t>
+        </is>
+      </c>
+      <c r="B2699" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2699" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2699" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2699" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2700">
+      <c r="A2700" t="inlineStr">
+        <is>
+          <t>21BEC0481</t>
+        </is>
+      </c>
+      <c r="B2700" t="inlineStr">
+        <is>
+          <t>9.5LPA</t>
+        </is>
+      </c>
+      <c r="C2700" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2700" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2700" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2701">
+      <c r="A2701" t="inlineStr">
+        <is>
+          <t>21BCE1913</t>
+        </is>
+      </c>
+      <c r="B2701" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2701" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2701" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2701" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2702">
+      <c r="A2702" t="inlineStr">
+        <is>
+          <t>21BLC1121</t>
+        </is>
+      </c>
+      <c r="B2702" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2702" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2702" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E2702" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2703">
+      <c r="A2703" t="inlineStr">
+        <is>
+          <t>21BCE9782</t>
+        </is>
+      </c>
+      <c r="B2703" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2703" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2703" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2703" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2704">
+      <c r="A2704" t="inlineStr">
+        <is>
+          <t>21BPS1361</t>
+        </is>
+      </c>
+      <c r="B2704" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2704" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2704" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="E2704" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2705">
+      <c r="A2705" t="inlineStr">
+        <is>
+          <t>21BCE5685</t>
+        </is>
+      </c>
+      <c r="B2705" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2705" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2705" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2705" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2706">
+      <c r="A2706" t="inlineStr">
+        <is>
+          <t>21BAI1445</t>
+        </is>
+      </c>
+      <c r="B2706" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2706" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2706" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2706" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2707">
+      <c r="A2707" t="inlineStr">
+        <is>
+          <t>21BKT0099</t>
+        </is>
+      </c>
+      <c r="B2707" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2707" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2707" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+      <c r="E2707" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2708">
+      <c r="A2708" t="inlineStr">
+        <is>
+          <t>21BCB7027</t>
+        </is>
+      </c>
+      <c r="B2708" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2708" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2708" t="inlineStr">
+        <is>
+          <t>BCB</t>
+        </is>
+      </c>
+      <c r="E2708" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2709">
+      <c r="A2709" t="inlineStr">
+        <is>
+          <t>21BSA10048</t>
+        </is>
+      </c>
+      <c r="B2709" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2709" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2709" t="inlineStr">
+        <is>
+          <t>BSA</t>
+        </is>
+      </c>
+      <c r="E2709" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2710">
+      <c r="A2710" t="inlineStr">
+        <is>
+          <t>21BCE5719</t>
+        </is>
+      </c>
+      <c r="B2710" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2710" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2710" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2710" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2711">
+      <c r="A2711" t="inlineStr">
+        <is>
+          <t>21BCI0242</t>
+        </is>
+      </c>
+      <c r="B2711" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2711" t="inlineStr">
+        <is>
+          <t>IBM CIO</t>
+        </is>
+      </c>
+      <c r="D2711" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="E2711" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2711"/>
+  <dimension ref="A1:E2729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20746,7 +20746,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>60LPA</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -61601,7 +61601,7 @@
       </c>
       <c r="B2266" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C2266" t="inlineStr">
@@ -61628,7 +61628,7 @@
       </c>
       <c r="B2267" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C2267" t="inlineStr">
@@ -61655,7 +61655,7 @@
       </c>
       <c r="B2268" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C2268" t="inlineStr">
@@ -61682,7 +61682,7 @@
       </c>
       <c r="B2269" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C2269" t="inlineStr">
@@ -61709,7 +61709,7 @@
       </c>
       <c r="B2270" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C2270" t="inlineStr">
@@ -62411,7 +62411,7 @@
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>29LPA</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
@@ -64490,7 +64490,7 @@
       </c>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
@@ -64517,7 +64517,7 @@
       </c>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
@@ -64544,7 +64544,7 @@
       </c>
       <c r="B2375" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C2375" t="inlineStr">
@@ -64571,7 +64571,7 @@
       </c>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
@@ -64598,7 +64598,7 @@
       </c>
       <c r="B2377" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9LPA</t>
         </is>
       </c>
       <c r="C2377" t="inlineStr">
@@ -70511,7 +70511,7 @@
       </c>
       <c r="B2596" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>29LPA</t>
         </is>
       </c>
       <c r="C2596" t="inlineStr">
@@ -73630,6 +73630,492 @@
         </is>
       </c>
       <c r="E2711" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2712">
+      <c r="A2712" t="inlineStr">
+        <is>
+          <t>21BEC0172</t>
+        </is>
+      </c>
+      <c r="B2712" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C2712" t="inlineStr">
+        <is>
+          <t>Zaptics Research</t>
+        </is>
+      </c>
+      <c r="D2712" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2712" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2713">
+      <c r="A2713" t="inlineStr">
+        <is>
+          <t>21BEC1311</t>
+        </is>
+      </c>
+      <c r="B2713" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C2713" t="inlineStr">
+        <is>
+          <t>Zaptics Research</t>
+        </is>
+      </c>
+      <c r="D2713" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2713" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2714">
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t>21BCE1441</t>
+        </is>
+      </c>
+      <c r="B2714" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C2714" t="inlineStr">
+        <is>
+          <t>Zaptics Research</t>
+        </is>
+      </c>
+      <c r="D2714" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2714" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2715">
+      <c r="A2715" t="inlineStr">
+        <is>
+          <t>21BCE7560</t>
+        </is>
+      </c>
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C2715" t="inlineStr">
+        <is>
+          <t>Hitwicket</t>
+        </is>
+      </c>
+      <c r="D2715" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2715" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2716">
+      <c r="A2716" t="inlineStr">
+        <is>
+          <t>21BAI1387</t>
+        </is>
+      </c>
+      <c r="B2716" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C2716" t="inlineStr">
+        <is>
+          <t>Hitwicket</t>
+        </is>
+      </c>
+      <c r="D2716" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2716" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2717">
+      <c r="A2717" t="inlineStr">
+        <is>
+          <t>21BCE1715</t>
+        </is>
+      </c>
+      <c r="B2717" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2717" t="inlineStr">
+        <is>
+          <t>Lumiq.ai</t>
+        </is>
+      </c>
+      <c r="D2717" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2717" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2718">
+      <c r="A2718" t="inlineStr">
+        <is>
+          <t>21BCE7690</t>
+        </is>
+      </c>
+      <c r="B2718" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2718" t="inlineStr">
+        <is>
+          <t>Lumiq.ai</t>
+        </is>
+      </c>
+      <c r="D2718" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2718" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2719">
+      <c r="A2719" t="inlineStr">
+        <is>
+          <t>21BCE3558</t>
+        </is>
+      </c>
+      <c r="B2719" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2719" t="inlineStr">
+        <is>
+          <t>Lumiq.ai</t>
+        </is>
+      </c>
+      <c r="D2719" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2719" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2720">
+      <c r="A2720" t="inlineStr">
+        <is>
+          <t>21BCE2389</t>
+        </is>
+      </c>
+      <c r="B2720" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2720" t="inlineStr">
+        <is>
+          <t>Lumiq.ai</t>
+        </is>
+      </c>
+      <c r="D2720" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2720" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2721">
+      <c r="A2721" t="inlineStr">
+        <is>
+          <t>21BCE9497</t>
+        </is>
+      </c>
+      <c r="B2721" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2721" t="inlineStr">
+        <is>
+          <t>Lumiq.ai</t>
+        </is>
+      </c>
+      <c r="D2721" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2721" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2722">
+      <c r="A2722" t="inlineStr">
+        <is>
+          <t>21BCE9359</t>
+        </is>
+      </c>
+      <c r="B2722" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2722" t="inlineStr">
+        <is>
+          <t>Lumiq.ai</t>
+        </is>
+      </c>
+      <c r="D2722" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2722" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2723">
+      <c r="A2723" t="inlineStr">
+        <is>
+          <t>21BCE9797</t>
+        </is>
+      </c>
+      <c r="B2723" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2723" t="inlineStr">
+        <is>
+          <t>Lumiq.ai</t>
+        </is>
+      </c>
+      <c r="D2723" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2723" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2724">
+      <c r="A2724" t="inlineStr">
+        <is>
+          <t>21BCE1747</t>
+        </is>
+      </c>
+      <c r="B2724" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C2724" t="inlineStr">
+        <is>
+          <t>CharterLabs</t>
+        </is>
+      </c>
+      <c r="D2724" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2724" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2725">
+      <c r="A2725" t="inlineStr">
+        <is>
+          <t>21BCE0953</t>
+        </is>
+      </c>
+      <c r="B2725" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2725" t="inlineStr">
+        <is>
+          <t>Accelerize 360</t>
+        </is>
+      </c>
+      <c r="D2725" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2725" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2726">
+      <c r="A2726" t="inlineStr">
+        <is>
+          <t>21BEE0409</t>
+        </is>
+      </c>
+      <c r="B2726" t="inlineStr">
+        <is>
+          <t>5.2LPA</t>
+        </is>
+      </c>
+      <c r="C2726" t="inlineStr">
+        <is>
+          <t>Sona BLW Precision Forgings</t>
+        </is>
+      </c>
+      <c r="D2726" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E2726" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2727">
+      <c r="A2727" t="inlineStr">
+        <is>
+          <t>21BEE1072</t>
+        </is>
+      </c>
+      <c r="B2727" t="inlineStr">
+        <is>
+          <t>5.2LPA</t>
+        </is>
+      </c>
+      <c r="C2727" t="inlineStr">
+        <is>
+          <t>Sona BLW Precision Forgings</t>
+        </is>
+      </c>
+      <c r="D2727" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E2727" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2728">
+      <c r="A2728" t="inlineStr">
+        <is>
+          <t>21BMH1169</t>
+        </is>
+      </c>
+      <c r="B2728" t="inlineStr">
+        <is>
+          <t>5.2LPA</t>
+        </is>
+      </c>
+      <c r="C2728" t="inlineStr">
+        <is>
+          <t>Sona BLW Precision Forgings</t>
+        </is>
+      </c>
+      <c r="D2728" t="inlineStr">
+        <is>
+          <t>BMH</t>
+        </is>
+      </c>
+      <c r="E2728" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2729">
+      <c r="A2729" t="inlineStr">
+        <is>
+          <t>21BEI0089</t>
+        </is>
+      </c>
+      <c r="B2729" t="inlineStr">
+        <is>
+          <t>5.2LPA</t>
+        </is>
+      </c>
+      <c r="C2729" t="inlineStr">
+        <is>
+          <t>Sona BLW Precision Forgings</t>
+        </is>
+      </c>
+      <c r="D2729" t="inlineStr">
+        <is>
+          <t>BEI</t>
+        </is>
+      </c>
+      <c r="E2729" t="inlineStr">
         <is>
           <t>Male</t>
         </is>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -71402,7 +71402,7 @@
       </c>
       <c r="B2629" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>17.5LPA</t>
         </is>
       </c>
       <c r="C2629" t="inlineStr">
@@ -71429,7 +71429,7 @@
       </c>
       <c r="B2630" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>17.5LPA</t>
         </is>
       </c>
       <c r="C2630" t="inlineStr">
@@ -71456,7 +71456,7 @@
       </c>
       <c r="B2631" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>17.5LPA</t>
         </is>
       </c>
       <c r="C2631" t="inlineStr">
@@ -71483,7 +71483,7 @@
       </c>
       <c r="B2632" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>17.5LPA</t>
         </is>
       </c>
       <c r="C2632" t="inlineStr">
@@ -71510,7 +71510,7 @@
       </c>
       <c r="B2633" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>17.5LPA</t>
         </is>
       </c>
       <c r="C2633" t="inlineStr">
@@ -71537,7 +71537,7 @@
       </c>
       <c r="B2634" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>17.5LPA</t>
         </is>
       </c>
       <c r="C2634" t="inlineStr">
@@ -71564,7 +71564,7 @@
       </c>
       <c r="B2635" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>17.5LPA</t>
         </is>
       </c>
       <c r="C2635" t="inlineStr">
@@ -71591,7 +71591,7 @@
       </c>
       <c r="B2636" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>17.5LPA</t>
         </is>
       </c>
       <c r="C2636" t="inlineStr">

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2729"/>
+  <dimension ref="A1:E2730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74121,6 +74121,33 @@
         </is>
       </c>
     </row>
+    <row r="2730">
+      <c r="A2730" t="inlineStr">
+        <is>
+          <t>21BLC1148</t>
+        </is>
+      </c>
+      <c r="B2730" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C2730" t="inlineStr">
+        <is>
+          <t>Volvo</t>
+        </is>
+      </c>
+      <c r="D2730" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E2730" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2730"/>
+  <dimension ref="A1:E2792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74148,6 +74148,1680 @@
         </is>
       </c>
     </row>
+    <row r="2731">
+      <c r="A2731" t="inlineStr">
+        <is>
+          <t>21BCY10194</t>
+        </is>
+      </c>
+      <c r="B2731" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C2731" t="inlineStr">
+        <is>
+          <t>Aptiv</t>
+        </is>
+      </c>
+      <c r="D2731" t="inlineStr">
+        <is>
+          <t>BCY</t>
+        </is>
+      </c>
+      <c r="E2731" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2732">
+      <c r="A2732" t="inlineStr">
+        <is>
+          <t>21BCE11297</t>
+        </is>
+      </c>
+      <c r="B2732" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C2732" t="inlineStr">
+        <is>
+          <t>Aptiv</t>
+        </is>
+      </c>
+      <c r="D2732" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2732" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2733">
+      <c r="A2733" t="inlineStr">
+        <is>
+          <t>21BCE10432</t>
+        </is>
+      </c>
+      <c r="B2733" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C2733" t="inlineStr">
+        <is>
+          <t>Aptiv</t>
+        </is>
+      </c>
+      <c r="D2733" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2733" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2734">
+      <c r="A2734" t="inlineStr">
+        <is>
+          <t>21BPS1407</t>
+        </is>
+      </c>
+      <c r="B2734" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C2734" t="inlineStr">
+        <is>
+          <t>Aptiv</t>
+        </is>
+      </c>
+      <c r="D2734" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="E2734" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2735">
+      <c r="A2735" t="inlineStr">
+        <is>
+          <t>21BEC7115</t>
+        </is>
+      </c>
+      <c r="B2735" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C2735" t="inlineStr">
+        <is>
+          <t>Aptiv</t>
+        </is>
+      </c>
+      <c r="D2735" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2735" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2736">
+      <c r="A2736" t="inlineStr">
+        <is>
+          <t>21BLC1312</t>
+        </is>
+      </c>
+      <c r="B2736" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C2736" t="inlineStr">
+        <is>
+          <t>Aptiv</t>
+        </is>
+      </c>
+      <c r="D2736" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E2736" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2737">
+      <c r="A2737" t="inlineStr">
+        <is>
+          <t>21BEC1463</t>
+        </is>
+      </c>
+      <c r="B2737" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C2737" t="inlineStr">
+        <is>
+          <t>Aptiv</t>
+        </is>
+      </c>
+      <c r="D2737" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2737" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2738">
+      <c r="A2738" t="inlineStr">
+        <is>
+          <t>21BLC1178</t>
+        </is>
+      </c>
+      <c r="B2738" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2738" t="inlineStr">
+        <is>
+          <t>Kuhoo Technology</t>
+        </is>
+      </c>
+      <c r="D2738" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E2738" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2739">
+      <c r="A2739" t="inlineStr">
+        <is>
+          <t>21BPS1140</t>
+        </is>
+      </c>
+      <c r="B2739" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2739" t="inlineStr">
+        <is>
+          <t>Accelerize 360</t>
+        </is>
+      </c>
+      <c r="D2739" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="E2739" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2740">
+      <c r="A2740" t="inlineStr">
+        <is>
+          <t>21BCB0244</t>
+        </is>
+      </c>
+      <c r="B2740" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2740" t="inlineStr">
+        <is>
+          <t>Accelerize 360</t>
+        </is>
+      </c>
+      <c r="D2740" t="inlineStr">
+        <is>
+          <t>BCB</t>
+        </is>
+      </c>
+      <c r="E2740" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2741">
+      <c r="A2741" t="inlineStr">
+        <is>
+          <t>21BCE9589</t>
+        </is>
+      </c>
+      <c r="B2741" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2741" t="inlineStr">
+        <is>
+          <t>Accelerize 360</t>
+        </is>
+      </c>
+      <c r="D2741" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2741" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2742">
+      <c r="A2742" t="inlineStr">
+        <is>
+          <t>21BCE0487</t>
+        </is>
+      </c>
+      <c r="B2742" t="inlineStr">
+        <is>
+          <t>10.75LPA</t>
+        </is>
+      </c>
+      <c r="C2742" t="inlineStr">
+        <is>
+          <t>Eurofins</t>
+        </is>
+      </c>
+      <c r="D2742" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2742" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2743">
+      <c r="A2743" t="inlineStr">
+        <is>
+          <t>21BCE0905</t>
+        </is>
+      </c>
+      <c r="B2743" t="inlineStr">
+        <is>
+          <t>10.75LPA</t>
+        </is>
+      </c>
+      <c r="C2743" t="inlineStr">
+        <is>
+          <t>Eurofins</t>
+        </is>
+      </c>
+      <c r="D2743" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2743" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2744">
+      <c r="A2744" t="inlineStr">
+        <is>
+          <t>21BCE2176</t>
+        </is>
+      </c>
+      <c r="B2744" t="inlineStr">
+        <is>
+          <t>10.75LPA</t>
+        </is>
+      </c>
+      <c r="C2744" t="inlineStr">
+        <is>
+          <t>Eurofins</t>
+        </is>
+      </c>
+      <c r="D2744" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2744" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2745">
+      <c r="A2745" t="inlineStr">
+        <is>
+          <t>21BCE2836</t>
+        </is>
+      </c>
+      <c r="B2745" t="inlineStr">
+        <is>
+          <t>10.75LPA</t>
+        </is>
+      </c>
+      <c r="C2745" t="inlineStr">
+        <is>
+          <t>Eurofins</t>
+        </is>
+      </c>
+      <c r="D2745" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2745" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2746">
+      <c r="A2746" t="inlineStr">
+        <is>
+          <t>21BCE11393</t>
+        </is>
+      </c>
+      <c r="B2746" t="inlineStr">
+        <is>
+          <t>10.75LPA</t>
+        </is>
+      </c>
+      <c r="C2746" t="inlineStr">
+        <is>
+          <t>Eurofins</t>
+        </is>
+      </c>
+      <c r="D2746" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2746" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2747">
+      <c r="A2747" t="inlineStr">
+        <is>
+          <t>21BCE1124</t>
+        </is>
+      </c>
+      <c r="B2747" t="inlineStr">
+        <is>
+          <t>10.75LPA</t>
+        </is>
+      </c>
+      <c r="C2747" t="inlineStr">
+        <is>
+          <t>Eurofins</t>
+        </is>
+      </c>
+      <c r="D2747" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2747" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2748">
+      <c r="A2748" t="inlineStr">
+        <is>
+          <t>21BCE5410</t>
+        </is>
+      </c>
+      <c r="B2748" t="inlineStr">
+        <is>
+          <t>10.75LPA</t>
+        </is>
+      </c>
+      <c r="C2748" t="inlineStr">
+        <is>
+          <t>Eurofins</t>
+        </is>
+      </c>
+      <c r="D2748" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2748" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2749">
+      <c r="A2749" t="inlineStr">
+        <is>
+          <t>21BCE10436</t>
+        </is>
+      </c>
+      <c r="B2749" t="inlineStr">
+        <is>
+          <t>10.75LPA</t>
+        </is>
+      </c>
+      <c r="C2749" t="inlineStr">
+        <is>
+          <t>Eurofins</t>
+        </is>
+      </c>
+      <c r="D2749" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2749" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2750">
+      <c r="A2750" t="inlineStr">
+        <is>
+          <t>21BCE10229</t>
+        </is>
+      </c>
+      <c r="B2750" t="inlineStr">
+        <is>
+          <t>10.75LPA</t>
+        </is>
+      </c>
+      <c r="C2750" t="inlineStr">
+        <is>
+          <t>Eurofins</t>
+        </is>
+      </c>
+      <c r="D2750" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2750" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2751">
+      <c r="A2751" t="inlineStr">
+        <is>
+          <t>21BCE0612</t>
+        </is>
+      </c>
+      <c r="B2751" t="inlineStr">
+        <is>
+          <t>10.75LPA</t>
+        </is>
+      </c>
+      <c r="C2751" t="inlineStr">
+        <is>
+          <t>Eurofins</t>
+        </is>
+      </c>
+      <c r="D2751" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2751" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2752">
+      <c r="A2752" t="inlineStr">
+        <is>
+          <t>21BAI1311</t>
+        </is>
+      </c>
+      <c r="B2752" t="inlineStr">
+        <is>
+          <t>12.5LPA</t>
+        </is>
+      </c>
+      <c r="C2752" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="D2752" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2752" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2753">
+      <c r="A2753" t="inlineStr">
+        <is>
+          <t>21BCE10014</t>
+        </is>
+      </c>
+      <c r="B2753" t="inlineStr">
+        <is>
+          <t>12.5LPA</t>
+        </is>
+      </c>
+      <c r="C2753" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="D2753" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2753" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2754">
+      <c r="A2754" t="inlineStr">
+        <is>
+          <t>21BCE1021</t>
+        </is>
+      </c>
+      <c r="B2754" t="inlineStr">
+        <is>
+          <t>12.5LPA</t>
+        </is>
+      </c>
+      <c r="C2754" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="D2754" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2754" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2755">
+      <c r="A2755" t="inlineStr">
+        <is>
+          <t>21BCE2933</t>
+        </is>
+      </c>
+      <c r="B2755" t="inlineStr">
+        <is>
+          <t>12.5LPA</t>
+        </is>
+      </c>
+      <c r="C2755" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="D2755" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2755" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2756">
+      <c r="A2756" t="inlineStr">
+        <is>
+          <t>21BCE3249</t>
+        </is>
+      </c>
+      <c r="B2756" t="inlineStr">
+        <is>
+          <t>12.5LPA</t>
+        </is>
+      </c>
+      <c r="C2756" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="D2756" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2756" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2757">
+      <c r="A2757" t="inlineStr">
+        <is>
+          <t>21BCE9004</t>
+        </is>
+      </c>
+      <c r="B2757" t="inlineStr">
+        <is>
+          <t>12.5LPA</t>
+        </is>
+      </c>
+      <c r="C2757" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="D2757" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2757" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2758">
+      <c r="A2758" t="inlineStr">
+        <is>
+          <t>21BCT0208</t>
+        </is>
+      </c>
+      <c r="B2758" t="inlineStr">
+        <is>
+          <t>12.5LPA</t>
+        </is>
+      </c>
+      <c r="C2758" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="D2758" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+      <c r="E2758" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2759">
+      <c r="A2759" t="inlineStr">
+        <is>
+          <t>21BDS0028</t>
+        </is>
+      </c>
+      <c r="B2759" t="inlineStr">
+        <is>
+          <t>12.5LPA</t>
+        </is>
+      </c>
+      <c r="C2759" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="D2759" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E2759" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2760">
+      <c r="A2760" t="inlineStr">
+        <is>
+          <t>21BIT0298</t>
+        </is>
+      </c>
+      <c r="B2760" t="inlineStr">
+        <is>
+          <t>13.96LPA</t>
+        </is>
+      </c>
+      <c r="C2760" t="inlineStr">
+        <is>
+          <t>Kinaxis</t>
+        </is>
+      </c>
+      <c r="D2760" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E2760" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2761">
+      <c r="A2761" t="inlineStr">
+        <is>
+          <t>21BBT0285</t>
+        </is>
+      </c>
+      <c r="B2761" t="inlineStr">
+        <is>
+          <t>3.8LPA</t>
+        </is>
+      </c>
+      <c r="C2761" t="inlineStr">
+        <is>
+          <t>Labcorp</t>
+        </is>
+      </c>
+      <c r="D2761" t="inlineStr">
+        <is>
+          <t>BBT</t>
+        </is>
+      </c>
+      <c r="E2761" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2762">
+      <c r="A2762" t="inlineStr">
+        <is>
+          <t>21BCE5866</t>
+        </is>
+      </c>
+      <c r="B2762" t="inlineStr">
+        <is>
+          <t>4.3LPA</t>
+        </is>
+      </c>
+      <c r="C2762" t="inlineStr">
+        <is>
+          <t>Labcorp</t>
+        </is>
+      </c>
+      <c r="D2762" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2762" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2763">
+      <c r="A2763" t="inlineStr">
+        <is>
+          <t>21BLC1530</t>
+        </is>
+      </c>
+      <c r="B2763" t="inlineStr">
+        <is>
+          <t>4.3LPA</t>
+        </is>
+      </c>
+      <c r="C2763" t="inlineStr">
+        <is>
+          <t>Labcorp</t>
+        </is>
+      </c>
+      <c r="D2763" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E2763" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2764">
+      <c r="A2764" t="inlineStr">
+        <is>
+          <t>21BCE5608</t>
+        </is>
+      </c>
+      <c r="B2764" t="inlineStr">
+        <is>
+          <t>4.3LPA</t>
+        </is>
+      </c>
+      <c r="C2764" t="inlineStr">
+        <is>
+          <t>Labcorp</t>
+        </is>
+      </c>
+      <c r="D2764" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2764" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2765">
+      <c r="A2765" t="inlineStr">
+        <is>
+          <t>21BAI1191</t>
+        </is>
+      </c>
+      <c r="B2765" t="inlineStr">
+        <is>
+          <t>4.3LPA</t>
+        </is>
+      </c>
+      <c r="C2765" t="inlineStr">
+        <is>
+          <t>Labcorp</t>
+        </is>
+      </c>
+      <c r="D2765" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E2765" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2766">
+      <c r="A2766" t="inlineStr">
+        <is>
+          <t>21BBT0306</t>
+        </is>
+      </c>
+      <c r="B2766" t="inlineStr">
+        <is>
+          <t>3.8LPA</t>
+        </is>
+      </c>
+      <c r="C2766" t="inlineStr">
+        <is>
+          <t>Labcorp</t>
+        </is>
+      </c>
+      <c r="D2766" t="inlineStr">
+        <is>
+          <t>BBT</t>
+        </is>
+      </c>
+      <c r="E2766" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2767">
+      <c r="A2767" t="inlineStr">
+        <is>
+          <t>21BBT0012</t>
+        </is>
+      </c>
+      <c r="B2767" t="inlineStr">
+        <is>
+          <t>3.8LPA</t>
+        </is>
+      </c>
+      <c r="C2767" t="inlineStr">
+        <is>
+          <t>Labcorp</t>
+        </is>
+      </c>
+      <c r="D2767" t="inlineStr">
+        <is>
+          <t>BBT</t>
+        </is>
+      </c>
+      <c r="E2767" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2768">
+      <c r="A2768" t="inlineStr">
+        <is>
+          <t>21BEC1017</t>
+        </is>
+      </c>
+      <c r="B2768" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2768" t="inlineStr">
+        <is>
+          <t>EmbedUR Systems</t>
+        </is>
+      </c>
+      <c r="D2768" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2768" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2769">
+      <c r="A2769" t="inlineStr">
+        <is>
+          <t>21BPS1074</t>
+        </is>
+      </c>
+      <c r="B2769" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2769" t="inlineStr">
+        <is>
+          <t>EmbedUR Systems</t>
+        </is>
+      </c>
+      <c r="D2769" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="E2769" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2770">
+      <c r="A2770" t="inlineStr">
+        <is>
+          <t>21BCE1446</t>
+        </is>
+      </c>
+      <c r="B2770" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2770" t="inlineStr">
+        <is>
+          <t>EmbedUR Systems</t>
+        </is>
+      </c>
+      <c r="D2770" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2770" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2771">
+      <c r="A2771" t="inlineStr">
+        <is>
+          <t>21BCE6165</t>
+        </is>
+      </c>
+      <c r="B2771" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2771" t="inlineStr">
+        <is>
+          <t>EmbedUR Systems</t>
+        </is>
+      </c>
+      <c r="D2771" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2771" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2772">
+      <c r="A2772" t="inlineStr">
+        <is>
+          <t>21BEC1579</t>
+        </is>
+      </c>
+      <c r="B2772" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2772" t="inlineStr">
+        <is>
+          <t>EmbedUR Systems</t>
+        </is>
+      </c>
+      <c r="D2772" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2772" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2773">
+      <c r="A2773" t="inlineStr">
+        <is>
+          <t>21BPS1528</t>
+        </is>
+      </c>
+      <c r="B2773" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2773" t="inlineStr">
+        <is>
+          <t>EmbedUR Systems</t>
+        </is>
+      </c>
+      <c r="D2773" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="E2773" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2774">
+      <c r="A2774" t="inlineStr">
+        <is>
+          <t>21BRS1582</t>
+        </is>
+      </c>
+      <c r="B2774" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2774" t="inlineStr">
+        <is>
+          <t>EmbedUR Systems</t>
+        </is>
+      </c>
+      <c r="D2774" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E2774" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2775">
+      <c r="A2775" t="inlineStr">
+        <is>
+          <t>21BEC1682</t>
+        </is>
+      </c>
+      <c r="B2775" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2775" t="inlineStr">
+        <is>
+          <t>EmbedUR Systems</t>
+        </is>
+      </c>
+      <c r="D2775" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2775" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2776">
+      <c r="A2776" t="inlineStr">
+        <is>
+          <t>21BRS1716</t>
+        </is>
+      </c>
+      <c r="B2776" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2776" t="inlineStr">
+        <is>
+          <t>EmbedUR Systems</t>
+        </is>
+      </c>
+      <c r="D2776" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E2776" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2777">
+      <c r="A2777" t="inlineStr">
+        <is>
+          <t>21BCE0527</t>
+        </is>
+      </c>
+      <c r="B2777" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2777" t="inlineStr">
+        <is>
+          <t>EmbedUR Systems</t>
+        </is>
+      </c>
+      <c r="D2777" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2777" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2778">
+      <c r="A2778" t="inlineStr">
+        <is>
+          <t>21BEC2188</t>
+        </is>
+      </c>
+      <c r="B2778" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C2778" t="inlineStr">
+        <is>
+          <t>EmbedUR Systems</t>
+        </is>
+      </c>
+      <c r="D2778" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2778" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2779">
+      <c r="A2779" t="inlineStr">
+        <is>
+          <t>21BCE8807</t>
+        </is>
+      </c>
+      <c r="B2779" t="inlineStr">
+        <is>
+          <t>10.1LPA</t>
+        </is>
+      </c>
+      <c r="C2779" t="inlineStr">
+        <is>
+          <t>Vivriti Capital</t>
+        </is>
+      </c>
+      <c r="D2779" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2779" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2780">
+      <c r="A2780" t="inlineStr">
+        <is>
+          <t>21BEC0360</t>
+        </is>
+      </c>
+      <c r="B2780" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C2780" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="D2780" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2780" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2781">
+      <c r="A2781" t="inlineStr">
+        <is>
+          <t>21BCE2259</t>
+        </is>
+      </c>
+      <c r="B2781" t="inlineStr">
+        <is>
+          <t>12.5LPA</t>
+        </is>
+      </c>
+      <c r="C2781" t="inlineStr">
+        <is>
+          <t>UBS</t>
+        </is>
+      </c>
+      <c r="D2781" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2781" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2782">
+      <c r="A2782" t="inlineStr">
+        <is>
+          <t>21BEE0119</t>
+        </is>
+      </c>
+      <c r="B2782" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C2782" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D2782" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E2782" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2783">
+      <c r="A2783" t="inlineStr">
+        <is>
+          <t>21BCI0152</t>
+        </is>
+      </c>
+      <c r="B2783" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C2783" t="inlineStr">
+        <is>
+          <t>Kalvium</t>
+        </is>
+      </c>
+      <c r="D2783" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="E2783" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2784">
+      <c r="A2784" t="inlineStr">
+        <is>
+          <t>21BCE8914</t>
+        </is>
+      </c>
+      <c r="B2784" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C2784" t="inlineStr">
+        <is>
+          <t>Kalvium</t>
+        </is>
+      </c>
+      <c r="D2784" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E2784" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2785">
+      <c r="A2785" t="inlineStr">
+        <is>
+          <t>21BIT0500</t>
+        </is>
+      </c>
+      <c r="B2785" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C2785" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="D2785" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E2785" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2786">
+      <c r="A2786" t="inlineStr">
+        <is>
+          <t>21BCB0157</t>
+        </is>
+      </c>
+      <c r="B2786" t="inlineStr">
+        <is>
+          <t>12.95LPA</t>
+        </is>
+      </c>
+      <c r="C2786" t="inlineStr">
+        <is>
+          <t>Thermofisher</t>
+        </is>
+      </c>
+      <c r="D2786" t="inlineStr">
+        <is>
+          <t>BCB</t>
+        </is>
+      </c>
+      <c r="E2786" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2787">
+      <c r="A2787" t="inlineStr">
+        <is>
+          <t>21BPS1628</t>
+        </is>
+      </c>
+      <c r="B2787" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C2787" t="inlineStr">
+        <is>
+          <t>Kalvium</t>
+        </is>
+      </c>
+      <c r="D2787" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="E2787" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2788">
+      <c r="A2788" t="inlineStr">
+        <is>
+          <t>21BEC0833</t>
+        </is>
+      </c>
+      <c r="B2788" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C2788" t="inlineStr">
+        <is>
+          <t>Micron</t>
+        </is>
+      </c>
+      <c r="D2788" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2788" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="2789">
+      <c r="A2789" t="inlineStr">
+        <is>
+          <t>21BEC0192</t>
+        </is>
+      </c>
+      <c r="B2789" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C2789" t="inlineStr">
+        <is>
+          <t>Whirlpool</t>
+        </is>
+      </c>
+      <c r="D2789" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E2789" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2790">
+      <c r="A2790" t="inlineStr">
+        <is>
+          <t>21BEE0083</t>
+        </is>
+      </c>
+      <c r="B2790" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C2790" t="inlineStr">
+        <is>
+          <t>Whirlpool</t>
+        </is>
+      </c>
+      <c r="D2790" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E2790" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2791">
+      <c r="A2791" t="inlineStr">
+        <is>
+          <t>21BME0336</t>
+        </is>
+      </c>
+      <c r="B2791" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C2791" t="inlineStr">
+        <is>
+          <t>Whirlpool</t>
+        </is>
+      </c>
+      <c r="D2791" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E2791" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="2792">
+      <c r="A2792" t="inlineStr">
+        <is>
+          <t>21BME0518</t>
+        </is>
+      </c>
+      <c r="B2792" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C2792" t="inlineStr">
+        <is>
+          <t>Whirlpool</t>
+        </is>
+      </c>
+      <c r="D2792" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E2792" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3251"/>
+  <dimension ref="A1:E3252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88215,6 +88215,33 @@
         </is>
       </c>
     </row>
+    <row r="3252">
+      <c r="A3252" t="inlineStr">
+        <is>
+          <t>21BRS1147</t>
+        </is>
+      </c>
+      <c r="B3252" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3252" t="inlineStr">
+        <is>
+          <t>Volvo</t>
+        </is>
+      </c>
+      <c r="D3252" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E3252" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3252"/>
+  <dimension ref="A1:E3291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75835,7 +75835,7 @@
       </c>
       <c r="C2793" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2793" t="inlineStr">
@@ -75862,7 +75862,7 @@
       </c>
       <c r="C2794" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2794" t="inlineStr">
@@ -75889,7 +75889,7 @@
       </c>
       <c r="C2795" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2795" t="inlineStr">
@@ -75916,7 +75916,7 @@
       </c>
       <c r="C2796" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2796" t="inlineStr">
@@ -75943,7 +75943,7 @@
       </c>
       <c r="C2797" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2797" t="inlineStr">
@@ -75970,7 +75970,7 @@
       </c>
       <c r="C2798" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2798" t="inlineStr">
@@ -75997,7 +75997,7 @@
       </c>
       <c r="C2799" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2799" t="inlineStr">
@@ -76024,7 +76024,7 @@
       </c>
       <c r="C2800" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2800" t="inlineStr">
@@ -76051,7 +76051,7 @@
       </c>
       <c r="C2801" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2801" t="inlineStr">
@@ -76078,7 +76078,7 @@
       </c>
       <c r="C2802" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2802" t="inlineStr">
@@ -76105,7 +76105,7 @@
       </c>
       <c r="C2803" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2803" t="inlineStr">
@@ -76132,7 +76132,7 @@
       </c>
       <c r="C2804" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2804" t="inlineStr">
@@ -76159,7 +76159,7 @@
       </c>
       <c r="C2805" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2805" t="inlineStr">
@@ -76186,7 +76186,7 @@
       </c>
       <c r="C2806" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2806" t="inlineStr">
@@ -76213,7 +76213,7 @@
       </c>
       <c r="C2807" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2807" t="inlineStr">
@@ -76240,7 +76240,7 @@
       </c>
       <c r="C2808" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2808" t="inlineStr">
@@ -76267,7 +76267,7 @@
       </c>
       <c r="C2809" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2809" t="inlineStr">
@@ -76294,7 +76294,7 @@
       </c>
       <c r="C2810" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2810" t="inlineStr">
@@ -76321,7 +76321,7 @@
       </c>
       <c r="C2811" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2811" t="inlineStr">
@@ -76348,7 +76348,7 @@
       </c>
       <c r="C2812" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2812" t="inlineStr">
@@ -76375,7 +76375,7 @@
       </c>
       <c r="C2813" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2813" t="inlineStr">
@@ -76402,7 +76402,7 @@
       </c>
       <c r="C2814" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2814" t="inlineStr">
@@ -76429,7 +76429,7 @@
       </c>
       <c r="C2815" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2815" t="inlineStr">
@@ -76456,7 +76456,7 @@
       </c>
       <c r="C2816" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2816" t="inlineStr">
@@ -76483,7 +76483,7 @@
       </c>
       <c r="C2817" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2817" t="inlineStr">
@@ -76510,7 +76510,7 @@
       </c>
       <c r="C2818" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2818" t="inlineStr">
@@ -76537,7 +76537,7 @@
       </c>
       <c r="C2819" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2819" t="inlineStr">
@@ -76564,7 +76564,7 @@
       </c>
       <c r="C2820" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2820" t="inlineStr">
@@ -76591,7 +76591,7 @@
       </c>
       <c r="C2821" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2821" t="inlineStr">
@@ -76618,7 +76618,7 @@
       </c>
       <c r="C2822" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2822" t="inlineStr">
@@ -76645,7 +76645,7 @@
       </c>
       <c r="C2823" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2823" t="inlineStr">
@@ -76672,7 +76672,7 @@
       </c>
       <c r="C2824" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2824" t="inlineStr">
@@ -76699,7 +76699,7 @@
       </c>
       <c r="C2825" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2825" t="inlineStr">
@@ -76726,7 +76726,7 @@
       </c>
       <c r="C2826" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2826" t="inlineStr">
@@ -76753,7 +76753,7 @@
       </c>
       <c r="C2827" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2827" t="inlineStr">
@@ -76780,7 +76780,7 @@
       </c>
       <c r="C2828" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2828" t="inlineStr">
@@ -76807,7 +76807,7 @@
       </c>
       <c r="C2829" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2829" t="inlineStr">
@@ -76834,7 +76834,7 @@
       </c>
       <c r="C2830" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2830" t="inlineStr">
@@ -76861,7 +76861,7 @@
       </c>
       <c r="C2831" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2831" t="inlineStr">
@@ -76888,7 +76888,7 @@
       </c>
       <c r="C2832" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2832" t="inlineStr">
@@ -76915,7 +76915,7 @@
       </c>
       <c r="C2833" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2833" t="inlineStr">
@@ -76942,7 +76942,7 @@
       </c>
       <c r="C2834" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2834" t="inlineStr">
@@ -76969,7 +76969,7 @@
       </c>
       <c r="C2835" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2835" t="inlineStr">
@@ -76996,7 +76996,7 @@
       </c>
       <c r="C2836" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2836" t="inlineStr">
@@ -77023,7 +77023,7 @@
       </c>
       <c r="C2837" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2837" t="inlineStr">
@@ -77050,7 +77050,7 @@
       </c>
       <c r="C2838" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2838" t="inlineStr">
@@ -77077,7 +77077,7 @@
       </c>
       <c r="C2839" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2839" t="inlineStr">
@@ -77104,7 +77104,7 @@
       </c>
       <c r="C2840" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2840" t="inlineStr">
@@ -77131,7 +77131,7 @@
       </c>
       <c r="C2841" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2841" t="inlineStr">
@@ -77158,7 +77158,7 @@
       </c>
       <c r="C2842" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2842" t="inlineStr">
@@ -77185,7 +77185,7 @@
       </c>
       <c r="C2843" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2843" t="inlineStr">
@@ -77212,7 +77212,7 @@
       </c>
       <c r="C2844" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2844" t="inlineStr">
@@ -77239,7 +77239,7 @@
       </c>
       <c r="C2845" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2845" t="inlineStr">
@@ -77266,7 +77266,7 @@
       </c>
       <c r="C2846" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2846" t="inlineStr">
@@ -77293,7 +77293,7 @@
       </c>
       <c r="C2847" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2847" t="inlineStr">
@@ -77320,7 +77320,7 @@
       </c>
       <c r="C2848" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2848" t="inlineStr">
@@ -77347,7 +77347,7 @@
       </c>
       <c r="C2849" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2849" t="inlineStr">
@@ -77374,7 +77374,7 @@
       </c>
       <c r="C2850" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2850" t="inlineStr">
@@ -77401,7 +77401,7 @@
       </c>
       <c r="C2851" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2851" t="inlineStr">
@@ -77428,7 +77428,7 @@
       </c>
       <c r="C2852" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2852" t="inlineStr">
@@ -77455,7 +77455,7 @@
       </c>
       <c r="C2853" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2853" t="inlineStr">
@@ -77482,7 +77482,7 @@
       </c>
       <c r="C2854" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2854" t="inlineStr">
@@ -77509,7 +77509,7 @@
       </c>
       <c r="C2855" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2855" t="inlineStr">
@@ -77536,7 +77536,7 @@
       </c>
       <c r="C2856" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2856" t="inlineStr">
@@ -77563,7 +77563,7 @@
       </c>
       <c r="C2857" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2857" t="inlineStr">
@@ -77590,7 +77590,7 @@
       </c>
       <c r="C2858" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2858" t="inlineStr">
@@ -77617,7 +77617,7 @@
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2859" t="inlineStr">
@@ -77644,7 +77644,7 @@
       </c>
       <c r="C2860" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2860" t="inlineStr">
@@ -77671,7 +77671,7 @@
       </c>
       <c r="C2861" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2861" t="inlineStr">
@@ -77698,7 +77698,7 @@
       </c>
       <c r="C2862" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2862" t="inlineStr">
@@ -77725,7 +77725,7 @@
       </c>
       <c r="C2863" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2863" t="inlineStr">
@@ -77752,7 +77752,7 @@
       </c>
       <c r="C2864" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2864" t="inlineStr">
@@ -77779,7 +77779,7 @@
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2865" t="inlineStr">
@@ -77806,7 +77806,7 @@
       </c>
       <c r="C2866" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2866" t="inlineStr">
@@ -77833,7 +77833,7 @@
       </c>
       <c r="C2867" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2867" t="inlineStr">
@@ -77860,7 +77860,7 @@
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2868" t="inlineStr">
@@ -77887,7 +77887,7 @@
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr">
@@ -77914,7 +77914,7 @@
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr">
@@ -77941,7 +77941,7 @@
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr">
@@ -77968,7 +77968,7 @@
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2872" t="inlineStr">
@@ -77995,7 +77995,7 @@
       </c>
       <c r="C2873" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2873" t="inlineStr">
@@ -78022,7 +78022,7 @@
       </c>
       <c r="C2874" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2874" t="inlineStr">
@@ -78049,7 +78049,7 @@
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr">
@@ -78076,7 +78076,7 @@
       </c>
       <c r="C2876" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2876" t="inlineStr">
@@ -78103,7 +78103,7 @@
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2877" t="inlineStr">
@@ -78130,7 +78130,7 @@
       </c>
       <c r="C2878" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2878" t="inlineStr">
@@ -78157,7 +78157,7 @@
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr">
@@ -78184,7 +78184,7 @@
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr">
@@ -78211,7 +78211,7 @@
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr">
@@ -78238,7 +78238,7 @@
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr">
@@ -78265,7 +78265,7 @@
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr">
@@ -78292,7 +78292,7 @@
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2884" t="inlineStr">
@@ -78319,7 +78319,7 @@
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2885" t="inlineStr">
@@ -78346,7 +78346,7 @@
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2886" t="inlineStr">
@@ -78373,7 +78373,7 @@
       </c>
       <c r="C2887" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2887" t="inlineStr">
@@ -78400,7 +78400,7 @@
       </c>
       <c r="C2888" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2888" t="inlineStr">
@@ -78427,7 +78427,7 @@
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2889" t="inlineStr">
@@ -78454,7 +78454,7 @@
       </c>
       <c r="C2890" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2890" t="inlineStr">
@@ -78481,7 +78481,7 @@
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2891" t="inlineStr">
@@ -78508,7 +78508,7 @@
       </c>
       <c r="C2892" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2892" t="inlineStr">
@@ -78535,7 +78535,7 @@
       </c>
       <c r="C2893" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2893" t="inlineStr">
@@ -78562,7 +78562,7 @@
       </c>
       <c r="C2894" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2894" t="inlineStr">
@@ -78589,7 +78589,7 @@
       </c>
       <c r="C2895" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2895" t="inlineStr">
@@ -78616,7 +78616,7 @@
       </c>
       <c r="C2896" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2896" t="inlineStr">
@@ -78643,7 +78643,7 @@
       </c>
       <c r="C2897" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2897" t="inlineStr">
@@ -78670,7 +78670,7 @@
       </c>
       <c r="C2898" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2898" t="inlineStr">
@@ -78697,7 +78697,7 @@
       </c>
       <c r="C2899" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2899" t="inlineStr">
@@ -78724,7 +78724,7 @@
       </c>
       <c r="C2900" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2900" t="inlineStr">
@@ -78751,7 +78751,7 @@
       </c>
       <c r="C2901" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2901" t="inlineStr">
@@ -78778,7 +78778,7 @@
       </c>
       <c r="C2902" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2902" t="inlineStr">
@@ -78805,7 +78805,7 @@
       </c>
       <c r="C2903" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2903" t="inlineStr">
@@ -78832,7 +78832,7 @@
       </c>
       <c r="C2904" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2904" t="inlineStr">
@@ -78859,7 +78859,7 @@
       </c>
       <c r="C2905" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2905" t="inlineStr">
@@ -78886,7 +78886,7 @@
       </c>
       <c r="C2906" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2906" t="inlineStr">
@@ -78913,7 +78913,7 @@
       </c>
       <c r="C2907" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2907" t="inlineStr">
@@ -78940,7 +78940,7 @@
       </c>
       <c r="C2908" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2908" t="inlineStr">
@@ -78967,7 +78967,7 @@
       </c>
       <c r="C2909" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2909" t="inlineStr">
@@ -78994,7 +78994,7 @@
       </c>
       <c r="C2910" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2910" t="inlineStr">
@@ -79021,7 +79021,7 @@
       </c>
       <c r="C2911" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2911" t="inlineStr">
@@ -79048,7 +79048,7 @@
       </c>
       <c r="C2912" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2912" t="inlineStr">
@@ -79075,7 +79075,7 @@
       </c>
       <c r="C2913" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2913" t="inlineStr">
@@ -79102,7 +79102,7 @@
       </c>
       <c r="C2914" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2914" t="inlineStr">
@@ -79129,7 +79129,7 @@
       </c>
       <c r="C2915" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2915" t="inlineStr">
@@ -79156,7 +79156,7 @@
       </c>
       <c r="C2916" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2916" t="inlineStr">
@@ -79183,7 +79183,7 @@
       </c>
       <c r="C2917" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2917" t="inlineStr">
@@ -79210,7 +79210,7 @@
       </c>
       <c r="C2918" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2918" t="inlineStr">
@@ -79237,7 +79237,7 @@
       </c>
       <c r="C2919" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2919" t="inlineStr">
@@ -79264,7 +79264,7 @@
       </c>
       <c r="C2920" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2920" t="inlineStr">
@@ -79291,7 +79291,7 @@
       </c>
       <c r="C2921" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2921" t="inlineStr">
@@ -79318,7 +79318,7 @@
       </c>
       <c r="C2922" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2922" t="inlineStr">
@@ -79345,7 +79345,7 @@
       </c>
       <c r="C2923" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2923" t="inlineStr">
@@ -79372,7 +79372,7 @@
       </c>
       <c r="C2924" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2924" t="inlineStr">
@@ -79399,7 +79399,7 @@
       </c>
       <c r="C2925" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2925" t="inlineStr">
@@ -79426,7 +79426,7 @@
       </c>
       <c r="C2926" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2926" t="inlineStr">
@@ -79453,7 +79453,7 @@
       </c>
       <c r="C2927" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2927" t="inlineStr">
@@ -79480,7 +79480,7 @@
       </c>
       <c r="C2928" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2928" t="inlineStr">
@@ -79507,7 +79507,7 @@
       </c>
       <c r="C2929" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2929" t="inlineStr">
@@ -79534,7 +79534,7 @@
       </c>
       <c r="C2930" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2930" t="inlineStr">
@@ -79561,7 +79561,7 @@
       </c>
       <c r="C2931" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2931" t="inlineStr">
@@ -79588,7 +79588,7 @@
       </c>
       <c r="C2932" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2932" t="inlineStr">
@@ -79615,7 +79615,7 @@
       </c>
       <c r="C2933" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2933" t="inlineStr">
@@ -79642,7 +79642,7 @@
       </c>
       <c r="C2934" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2934" t="inlineStr">
@@ -79669,7 +79669,7 @@
       </c>
       <c r="C2935" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2935" t="inlineStr">
@@ -79696,7 +79696,7 @@
       </c>
       <c r="C2936" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2936" t="inlineStr">
@@ -79723,7 +79723,7 @@
       </c>
       <c r="C2937" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2937" t="inlineStr">
@@ -79750,7 +79750,7 @@
       </c>
       <c r="C2938" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2938" t="inlineStr">
@@ -79777,7 +79777,7 @@
       </c>
       <c r="C2939" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2939" t="inlineStr">
@@ -79804,7 +79804,7 @@
       </c>
       <c r="C2940" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2940" t="inlineStr">
@@ -79831,7 +79831,7 @@
       </c>
       <c r="C2941" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2941" t="inlineStr">
@@ -79858,7 +79858,7 @@
       </c>
       <c r="C2942" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2942" t="inlineStr">
@@ -79885,7 +79885,7 @@
       </c>
       <c r="C2943" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2943" t="inlineStr">
@@ -79912,7 +79912,7 @@
       </c>
       <c r="C2944" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2944" t="inlineStr">
@@ -79939,7 +79939,7 @@
       </c>
       <c r="C2945" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2945" t="inlineStr">
@@ -79966,7 +79966,7 @@
       </c>
       <c r="C2946" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2946" t="inlineStr">
@@ -79993,7 +79993,7 @@
       </c>
       <c r="C2947" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2947" t="inlineStr">
@@ -80020,7 +80020,7 @@
       </c>
       <c r="C2948" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2948" t="inlineStr">
@@ -80047,7 +80047,7 @@
       </c>
       <c r="C2949" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2949" t="inlineStr">
@@ -80074,7 +80074,7 @@
       </c>
       <c r="C2950" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2950" t="inlineStr">
@@ -80101,7 +80101,7 @@
       </c>
       <c r="C2951" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2951" t="inlineStr">
@@ -80128,7 +80128,7 @@
       </c>
       <c r="C2952" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2952" t="inlineStr">
@@ -80155,7 +80155,7 @@
       </c>
       <c r="C2953" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2953" t="inlineStr">
@@ -80182,7 +80182,7 @@
       </c>
       <c r="C2954" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2954" t="inlineStr">
@@ -80209,7 +80209,7 @@
       </c>
       <c r="C2955" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2955" t="inlineStr">
@@ -80236,7 +80236,7 @@
       </c>
       <c r="C2956" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2956" t="inlineStr">
@@ -80263,7 +80263,7 @@
       </c>
       <c r="C2957" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2957" t="inlineStr">
@@ -80290,7 +80290,7 @@
       </c>
       <c r="C2958" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2958" t="inlineStr">
@@ -80317,7 +80317,7 @@
       </c>
       <c r="C2959" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2959" t="inlineStr">
@@ -80344,7 +80344,7 @@
       </c>
       <c r="C2960" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2960" t="inlineStr">
@@ -80371,7 +80371,7 @@
       </c>
       <c r="C2961" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2961" t="inlineStr">
@@ -80398,7 +80398,7 @@
       </c>
       <c r="C2962" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2962" t="inlineStr">
@@ -80425,7 +80425,7 @@
       </c>
       <c r="C2963" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2963" t="inlineStr">
@@ -80452,7 +80452,7 @@
       </c>
       <c r="C2964" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2964" t="inlineStr">
@@ -80479,7 +80479,7 @@
       </c>
       <c r="C2965" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2965" t="inlineStr">
@@ -80506,7 +80506,7 @@
       </c>
       <c r="C2966" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2966" t="inlineStr">
@@ -80533,7 +80533,7 @@
       </c>
       <c r="C2967" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2967" t="inlineStr">
@@ -80560,7 +80560,7 @@
       </c>
       <c r="C2968" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2968" t="inlineStr">
@@ -80587,7 +80587,7 @@
       </c>
       <c r="C2969" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2969" t="inlineStr">
@@ -80614,7 +80614,7 @@
       </c>
       <c r="C2970" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2970" t="inlineStr">
@@ -80641,7 +80641,7 @@
       </c>
       <c r="C2971" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2971" t="inlineStr">
@@ -80668,7 +80668,7 @@
       </c>
       <c r="C2972" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2972" t="inlineStr">
@@ -80695,7 +80695,7 @@
       </c>
       <c r="C2973" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2973" t="inlineStr">
@@ -80722,7 +80722,7 @@
       </c>
       <c r="C2974" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2974" t="inlineStr">
@@ -80749,7 +80749,7 @@
       </c>
       <c r="C2975" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2975" t="inlineStr">
@@ -80776,7 +80776,7 @@
       </c>
       <c r="C2976" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2976" t="inlineStr">
@@ -80803,7 +80803,7 @@
       </c>
       <c r="C2977" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2977" t="inlineStr">
@@ -80830,7 +80830,7 @@
       </c>
       <c r="C2978" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2978" t="inlineStr">
@@ -80857,7 +80857,7 @@
       </c>
       <c r="C2979" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2979" t="inlineStr">
@@ -80884,7 +80884,7 @@
       </c>
       <c r="C2980" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2980" t="inlineStr">
@@ -80911,7 +80911,7 @@
       </c>
       <c r="C2981" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2981" t="inlineStr">
@@ -80938,7 +80938,7 @@
       </c>
       <c r="C2982" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2982" t="inlineStr">
@@ -80965,7 +80965,7 @@
       </c>
       <c r="C2983" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2983" t="inlineStr">
@@ -80992,7 +80992,7 @@
       </c>
       <c r="C2984" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2984" t="inlineStr">
@@ -81019,7 +81019,7 @@
       </c>
       <c r="C2985" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2985" t="inlineStr">
@@ -81046,7 +81046,7 @@
       </c>
       <c r="C2986" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2986" t="inlineStr">
@@ -81073,7 +81073,7 @@
       </c>
       <c r="C2987" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2987" t="inlineStr">
@@ -81100,7 +81100,7 @@
       </c>
       <c r="C2988" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2988" t="inlineStr">
@@ -81127,7 +81127,7 @@
       </c>
       <c r="C2989" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2989" t="inlineStr">
@@ -81154,7 +81154,7 @@
       </c>
       <c r="C2990" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2990" t="inlineStr">
@@ -81181,7 +81181,7 @@
       </c>
       <c r="C2991" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2991" t="inlineStr">
@@ -81208,7 +81208,7 @@
       </c>
       <c r="C2992" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2992" t="inlineStr">
@@ -81235,7 +81235,7 @@
       </c>
       <c r="C2993" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2993" t="inlineStr">
@@ -81262,7 +81262,7 @@
       </c>
       <c r="C2994" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2994" t="inlineStr">
@@ -81289,7 +81289,7 @@
       </c>
       <c r="C2995" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2995" t="inlineStr">
@@ -81316,7 +81316,7 @@
       </c>
       <c r="C2996" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2996" t="inlineStr">
@@ -81343,7 +81343,7 @@
       </c>
       <c r="C2997" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2997" t="inlineStr">
@@ -81370,7 +81370,7 @@
       </c>
       <c r="C2998" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2998" t="inlineStr">
@@ -81397,7 +81397,7 @@
       </c>
       <c r="C2999" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D2999" t="inlineStr">
@@ -81424,7 +81424,7 @@
       </c>
       <c r="C3000" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3000" t="inlineStr">
@@ -81451,7 +81451,7 @@
       </c>
       <c r="C3001" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3001" t="inlineStr">
@@ -81478,7 +81478,7 @@
       </c>
       <c r="C3002" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3002" t="inlineStr">
@@ -81505,7 +81505,7 @@
       </c>
       <c r="C3003" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3003" t="inlineStr">
@@ -81532,7 +81532,7 @@
       </c>
       <c r="C3004" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3004" t="inlineStr">
@@ -81559,7 +81559,7 @@
       </c>
       <c r="C3005" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3005" t="inlineStr">
@@ -81586,7 +81586,7 @@
       </c>
       <c r="C3006" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3006" t="inlineStr">
@@ -81613,7 +81613,7 @@
       </c>
       <c r="C3007" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3007" t="inlineStr">
@@ -81640,7 +81640,7 @@
       </c>
       <c r="C3008" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3008" t="inlineStr">
@@ -81667,7 +81667,7 @@
       </c>
       <c r="C3009" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3009" t="inlineStr">
@@ -81694,7 +81694,7 @@
       </c>
       <c r="C3010" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3010" t="inlineStr">
@@ -81721,7 +81721,7 @@
       </c>
       <c r="C3011" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3011" t="inlineStr">
@@ -81748,7 +81748,7 @@
       </c>
       <c r="C3012" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3012" t="inlineStr">
@@ -81775,7 +81775,7 @@
       </c>
       <c r="C3013" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3013" t="inlineStr">
@@ -81802,7 +81802,7 @@
       </c>
       <c r="C3014" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3014" t="inlineStr">
@@ -81829,7 +81829,7 @@
       </c>
       <c r="C3015" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3015" t="inlineStr">
@@ -81856,7 +81856,7 @@
       </c>
       <c r="C3016" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3016" t="inlineStr">
@@ -81883,7 +81883,7 @@
       </c>
       <c r="C3017" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3017" t="inlineStr">
@@ -81910,7 +81910,7 @@
       </c>
       <c r="C3018" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3018" t="inlineStr">
@@ -81937,7 +81937,7 @@
       </c>
       <c r="C3019" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3019" t="inlineStr">
@@ -81964,7 +81964,7 @@
       </c>
       <c r="C3020" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3020" t="inlineStr">
@@ -81991,7 +81991,7 @@
       </c>
       <c r="C3021" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3021" t="inlineStr">
@@ -82018,7 +82018,7 @@
       </c>
       <c r="C3022" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3022" t="inlineStr">
@@ -82045,7 +82045,7 @@
       </c>
       <c r="C3023" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3023" t="inlineStr">
@@ -82072,7 +82072,7 @@
       </c>
       <c r="C3024" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3024" t="inlineStr">
@@ -82099,7 +82099,7 @@
       </c>
       <c r="C3025" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3025" t="inlineStr">
@@ -82126,7 +82126,7 @@
       </c>
       <c r="C3026" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3026" t="inlineStr">
@@ -82153,7 +82153,7 @@
       </c>
       <c r="C3027" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3027" t="inlineStr">
@@ -82180,7 +82180,7 @@
       </c>
       <c r="C3028" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3028" t="inlineStr">
@@ -82207,7 +82207,7 @@
       </c>
       <c r="C3029" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3029" t="inlineStr">
@@ -82234,7 +82234,7 @@
       </c>
       <c r="C3030" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3030" t="inlineStr">
@@ -82261,7 +82261,7 @@
       </c>
       <c r="C3031" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3031" t="inlineStr">
@@ -82288,7 +82288,7 @@
       </c>
       <c r="C3032" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3032" t="inlineStr">
@@ -82315,7 +82315,7 @@
       </c>
       <c r="C3033" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3033" t="inlineStr">
@@ -82342,7 +82342,7 @@
       </c>
       <c r="C3034" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3034" t="inlineStr">
@@ -82369,7 +82369,7 @@
       </c>
       <c r="C3035" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3035" t="inlineStr">
@@ -82396,7 +82396,7 @@
       </c>
       <c r="C3036" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3036" t="inlineStr">
@@ -82423,7 +82423,7 @@
       </c>
       <c r="C3037" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3037" t="inlineStr">
@@ -82450,7 +82450,7 @@
       </c>
       <c r="C3038" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3038" t="inlineStr">
@@ -82477,7 +82477,7 @@
       </c>
       <c r="C3039" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3039" t="inlineStr">
@@ -82504,7 +82504,7 @@
       </c>
       <c r="C3040" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3040" t="inlineStr">
@@ -82531,7 +82531,7 @@
       </c>
       <c r="C3041" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3041" t="inlineStr">
@@ -82558,7 +82558,7 @@
       </c>
       <c r="C3042" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3042" t="inlineStr">
@@ -82585,7 +82585,7 @@
       </c>
       <c r="C3043" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3043" t="inlineStr">
@@ -82612,7 +82612,7 @@
       </c>
       <c r="C3044" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3044" t="inlineStr">
@@ -82639,7 +82639,7 @@
       </c>
       <c r="C3045" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3045" t="inlineStr">
@@ -82666,7 +82666,7 @@
       </c>
       <c r="C3046" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3046" t="inlineStr">
@@ -82693,7 +82693,7 @@
       </c>
       <c r="C3047" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3047" t="inlineStr">
@@ -82720,7 +82720,7 @@
       </c>
       <c r="C3048" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3048" t="inlineStr">
@@ -82747,7 +82747,7 @@
       </c>
       <c r="C3049" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3049" t="inlineStr">
@@ -82774,7 +82774,7 @@
       </c>
       <c r="C3050" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3050" t="inlineStr">
@@ -82801,7 +82801,7 @@
       </c>
       <c r="C3051" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3051" t="inlineStr">
@@ -82828,7 +82828,7 @@
       </c>
       <c r="C3052" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3052" t="inlineStr">
@@ -82855,7 +82855,7 @@
       </c>
       <c r="C3053" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3053" t="inlineStr">
@@ -82882,7 +82882,7 @@
       </c>
       <c r="C3054" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3054" t="inlineStr">
@@ -82909,7 +82909,7 @@
       </c>
       <c r="C3055" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3055" t="inlineStr">
@@ -82936,7 +82936,7 @@
       </c>
       <c r="C3056" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3056" t="inlineStr">
@@ -82963,7 +82963,7 @@
       </c>
       <c r="C3057" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3057" t="inlineStr">
@@ -82990,7 +82990,7 @@
       </c>
       <c r="C3058" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3058" t="inlineStr">
@@ -83017,7 +83017,7 @@
       </c>
       <c r="C3059" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3059" t="inlineStr">
@@ -83044,7 +83044,7 @@
       </c>
       <c r="C3060" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3060" t="inlineStr">
@@ -83071,7 +83071,7 @@
       </c>
       <c r="C3061" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3061" t="inlineStr">
@@ -83098,7 +83098,7 @@
       </c>
       <c r="C3062" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3062" t="inlineStr">
@@ -83125,7 +83125,7 @@
       </c>
       <c r="C3063" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3063" t="inlineStr">
@@ -83152,7 +83152,7 @@
       </c>
       <c r="C3064" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3064" t="inlineStr">
@@ -83179,7 +83179,7 @@
       </c>
       <c r="C3065" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3065" t="inlineStr">
@@ -83206,7 +83206,7 @@
       </c>
       <c r="C3066" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3066" t="inlineStr">
@@ -83233,7 +83233,7 @@
       </c>
       <c r="C3067" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3067" t="inlineStr">
@@ -83260,7 +83260,7 @@
       </c>
       <c r="C3068" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3068" t="inlineStr">
@@ -83287,7 +83287,7 @@
       </c>
       <c r="C3069" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3069" t="inlineStr">
@@ -83314,7 +83314,7 @@
       </c>
       <c r="C3070" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3070" t="inlineStr">
@@ -83341,7 +83341,7 @@
       </c>
       <c r="C3071" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3071" t="inlineStr">
@@ -83368,7 +83368,7 @@
       </c>
       <c r="C3072" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3072" t="inlineStr">
@@ -83395,7 +83395,7 @@
       </c>
       <c r="C3073" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3073" t="inlineStr">
@@ -83422,7 +83422,7 @@
       </c>
       <c r="C3074" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3074" t="inlineStr">
@@ -83449,7 +83449,7 @@
       </c>
       <c r="C3075" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3075" t="inlineStr">
@@ -83476,7 +83476,7 @@
       </c>
       <c r="C3076" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3076" t="inlineStr">
@@ -83503,7 +83503,7 @@
       </c>
       <c r="C3077" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3077" t="inlineStr">
@@ -83530,7 +83530,7 @@
       </c>
       <c r="C3078" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3078" t="inlineStr">
@@ -83557,7 +83557,7 @@
       </c>
       <c r="C3079" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3079" t="inlineStr">
@@ -83584,7 +83584,7 @@
       </c>
       <c r="C3080" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3080" t="inlineStr">
@@ -83611,7 +83611,7 @@
       </c>
       <c r="C3081" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3081" t="inlineStr">
@@ -83638,7 +83638,7 @@
       </c>
       <c r="C3082" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3082" t="inlineStr">
@@ -83665,7 +83665,7 @@
       </c>
       <c r="C3083" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3083" t="inlineStr">
@@ -83692,7 +83692,7 @@
       </c>
       <c r="C3084" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3084" t="inlineStr">
@@ -83719,7 +83719,7 @@
       </c>
       <c r="C3085" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3085" t="inlineStr">
@@ -83746,7 +83746,7 @@
       </c>
       <c r="C3086" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3086" t="inlineStr">
@@ -83773,7 +83773,7 @@
       </c>
       <c r="C3087" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3087" t="inlineStr">
@@ -83800,7 +83800,7 @@
       </c>
       <c r="C3088" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3088" t="inlineStr">
@@ -83827,7 +83827,7 @@
       </c>
       <c r="C3089" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3089" t="inlineStr">
@@ -83854,7 +83854,7 @@
       </c>
       <c r="C3090" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3090" t="inlineStr">
@@ -83881,7 +83881,7 @@
       </c>
       <c r="C3091" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3091" t="inlineStr">
@@ -83908,7 +83908,7 @@
       </c>
       <c r="C3092" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3092" t="inlineStr">
@@ -83935,7 +83935,7 @@
       </c>
       <c r="C3093" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3093" t="inlineStr">
@@ -83962,7 +83962,7 @@
       </c>
       <c r="C3094" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3094" t="inlineStr">
@@ -83989,7 +83989,7 @@
       </c>
       <c r="C3095" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3095" t="inlineStr">
@@ -84016,7 +84016,7 @@
       </c>
       <c r="C3096" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3096" t="inlineStr">
@@ -84043,7 +84043,7 @@
       </c>
       <c r="C3097" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3097" t="inlineStr">
@@ -84070,7 +84070,7 @@
       </c>
       <c r="C3098" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3098" t="inlineStr">
@@ -84097,7 +84097,7 @@
       </c>
       <c r="C3099" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3099" t="inlineStr">
@@ -84124,7 +84124,7 @@
       </c>
       <c r="C3100" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3100" t="inlineStr">
@@ -84151,7 +84151,7 @@
       </c>
       <c r="C3101" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3101" t="inlineStr">
@@ -84178,7 +84178,7 @@
       </c>
       <c r="C3102" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3102" t="inlineStr">
@@ -84205,7 +84205,7 @@
       </c>
       <c r="C3103" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3103" t="inlineStr">
@@ -84232,7 +84232,7 @@
       </c>
       <c r="C3104" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3104" t="inlineStr">
@@ -84259,7 +84259,7 @@
       </c>
       <c r="C3105" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3105" t="inlineStr">
@@ -84286,7 +84286,7 @@
       </c>
       <c r="C3106" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3106" t="inlineStr">
@@ -84313,7 +84313,7 @@
       </c>
       <c r="C3107" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3107" t="inlineStr">
@@ -84340,7 +84340,7 @@
       </c>
       <c r="C3108" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3108" t="inlineStr">
@@ -84367,7 +84367,7 @@
       </c>
       <c r="C3109" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3109" t="inlineStr">
@@ -84394,7 +84394,7 @@
       </c>
       <c r="C3110" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3110" t="inlineStr">
@@ -84421,7 +84421,7 @@
       </c>
       <c r="C3111" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3111" t="inlineStr">
@@ -84448,7 +84448,7 @@
       </c>
       <c r="C3112" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3112" t="inlineStr">
@@ -84475,7 +84475,7 @@
       </c>
       <c r="C3113" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3113" t="inlineStr">
@@ -84502,7 +84502,7 @@
       </c>
       <c r="C3114" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3114" t="inlineStr">
@@ -84529,7 +84529,7 @@
       </c>
       <c r="C3115" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3115" t="inlineStr">
@@ -84556,7 +84556,7 @@
       </c>
       <c r="C3116" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3116" t="inlineStr">
@@ -84583,7 +84583,7 @@
       </c>
       <c r="C3117" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3117" t="inlineStr">
@@ -84610,7 +84610,7 @@
       </c>
       <c r="C3118" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3118" t="inlineStr">
@@ -84637,7 +84637,7 @@
       </c>
       <c r="C3119" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3119" t="inlineStr">
@@ -84664,7 +84664,7 @@
       </c>
       <c r="C3120" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3120" t="inlineStr">
@@ -84691,7 +84691,7 @@
       </c>
       <c r="C3121" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3121" t="inlineStr">
@@ -84718,7 +84718,7 @@
       </c>
       <c r="C3122" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3122" t="inlineStr">
@@ -84745,7 +84745,7 @@
       </c>
       <c r="C3123" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3123" t="inlineStr">
@@ -84772,7 +84772,7 @@
       </c>
       <c r="C3124" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3124" t="inlineStr">
@@ -84799,7 +84799,7 @@
       </c>
       <c r="C3125" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3125" t="inlineStr">
@@ -84826,7 +84826,7 @@
       </c>
       <c r="C3126" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3126" t="inlineStr">
@@ -84853,7 +84853,7 @@
       </c>
       <c r="C3127" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3127" t="inlineStr">
@@ -84880,7 +84880,7 @@
       </c>
       <c r="C3128" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3128" t="inlineStr">
@@ -84907,7 +84907,7 @@
       </c>
       <c r="C3129" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3129" t="inlineStr">
@@ -84934,7 +84934,7 @@
       </c>
       <c r="C3130" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3130" t="inlineStr">
@@ -84961,7 +84961,7 @@
       </c>
       <c r="C3131" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3131" t="inlineStr">
@@ -84988,7 +84988,7 @@
       </c>
       <c r="C3132" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3132" t="inlineStr">
@@ -85015,7 +85015,7 @@
       </c>
       <c r="C3133" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3133" t="inlineStr">
@@ -85042,7 +85042,7 @@
       </c>
       <c r="C3134" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3134" t="inlineStr">
@@ -85069,7 +85069,7 @@
       </c>
       <c r="C3135" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3135" t="inlineStr">
@@ -85096,7 +85096,7 @@
       </c>
       <c r="C3136" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3136" t="inlineStr">
@@ -85123,7 +85123,7 @@
       </c>
       <c r="C3137" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3137" t="inlineStr">
@@ -85150,7 +85150,7 @@
       </c>
       <c r="C3138" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3138" t="inlineStr">
@@ -85177,7 +85177,7 @@
       </c>
       <c r="C3139" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3139" t="inlineStr">
@@ -85204,7 +85204,7 @@
       </c>
       <c r="C3140" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3140" t="inlineStr">
@@ -85231,7 +85231,7 @@
       </c>
       <c r="C3141" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3141" t="inlineStr">
@@ -85258,7 +85258,7 @@
       </c>
       <c r="C3142" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3142" t="inlineStr">
@@ -85285,7 +85285,7 @@
       </c>
       <c r="C3143" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3143" t="inlineStr">
@@ -85312,7 +85312,7 @@
       </c>
       <c r="C3144" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3144" t="inlineStr">
@@ -85339,7 +85339,7 @@
       </c>
       <c r="C3145" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3145" t="inlineStr">
@@ -85366,7 +85366,7 @@
       </c>
       <c r="C3146" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3146" t="inlineStr">
@@ -85393,7 +85393,7 @@
       </c>
       <c r="C3147" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3147" t="inlineStr">
@@ -85420,7 +85420,7 @@
       </c>
       <c r="C3148" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3148" t="inlineStr">
@@ -85447,7 +85447,7 @@
       </c>
       <c r="C3149" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3149" t="inlineStr">
@@ -85474,7 +85474,7 @@
       </c>
       <c r="C3150" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3150" t="inlineStr">
@@ -85501,7 +85501,7 @@
       </c>
       <c r="C3151" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3151" t="inlineStr">
@@ -85528,7 +85528,7 @@
       </c>
       <c r="C3152" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3152" t="inlineStr">
@@ -85555,7 +85555,7 @@
       </c>
       <c r="C3153" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3153" t="inlineStr">
@@ -85582,7 +85582,7 @@
       </c>
       <c r="C3154" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3154" t="inlineStr">
@@ -85609,7 +85609,7 @@
       </c>
       <c r="C3155" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3155" t="inlineStr">
@@ -85636,7 +85636,7 @@
       </c>
       <c r="C3156" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3156" t="inlineStr">
@@ -85663,7 +85663,7 @@
       </c>
       <c r="C3157" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3157" t="inlineStr">
@@ -85690,7 +85690,7 @@
       </c>
       <c r="C3158" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3158" t="inlineStr">
@@ -85717,7 +85717,7 @@
       </c>
       <c r="C3159" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3159" t="inlineStr">
@@ -85744,7 +85744,7 @@
       </c>
       <c r="C3160" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3160" t="inlineStr">
@@ -85771,7 +85771,7 @@
       </c>
       <c r="C3161" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3161" t="inlineStr">
@@ -85798,7 +85798,7 @@
       </c>
       <c r="C3162" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3162" t="inlineStr">
@@ -85825,7 +85825,7 @@
       </c>
       <c r="C3163" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3163" t="inlineStr">
@@ -85852,7 +85852,7 @@
       </c>
       <c r="C3164" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3164" t="inlineStr">
@@ -85879,7 +85879,7 @@
       </c>
       <c r="C3165" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3165" t="inlineStr">
@@ -85906,7 +85906,7 @@
       </c>
       <c r="C3166" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3166" t="inlineStr">
@@ -85933,7 +85933,7 @@
       </c>
       <c r="C3167" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3167" t="inlineStr">
@@ -85960,7 +85960,7 @@
       </c>
       <c r="C3168" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3168" t="inlineStr">
@@ -85987,7 +85987,7 @@
       </c>
       <c r="C3169" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3169" t="inlineStr">
@@ -86014,7 +86014,7 @@
       </c>
       <c r="C3170" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3170" t="inlineStr">
@@ -86041,7 +86041,7 @@
       </c>
       <c r="C3171" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3171" t="inlineStr">
@@ -86068,7 +86068,7 @@
       </c>
       <c r="C3172" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3172" t="inlineStr">
@@ -86095,7 +86095,7 @@
       </c>
       <c r="C3173" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3173" t="inlineStr">
@@ -86122,7 +86122,7 @@
       </c>
       <c r="C3174" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3174" t="inlineStr">
@@ -86149,7 +86149,7 @@
       </c>
       <c r="C3175" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3175" t="inlineStr">
@@ -86176,7 +86176,7 @@
       </c>
       <c r="C3176" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3176" t="inlineStr">
@@ -86203,7 +86203,7 @@
       </c>
       <c r="C3177" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3177" t="inlineStr">
@@ -86230,7 +86230,7 @@
       </c>
       <c r="C3178" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3178" t="inlineStr">
@@ -86257,7 +86257,7 @@
       </c>
       <c r="C3179" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3179" t="inlineStr">
@@ -86284,7 +86284,7 @@
       </c>
       <c r="C3180" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3180" t="inlineStr">
@@ -86311,7 +86311,7 @@
       </c>
       <c r="C3181" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3181" t="inlineStr">
@@ -86338,7 +86338,7 @@
       </c>
       <c r="C3182" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3182" t="inlineStr">
@@ -86365,7 +86365,7 @@
       </c>
       <c r="C3183" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3183" t="inlineStr">
@@ -86392,7 +86392,7 @@
       </c>
       <c r="C3184" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3184" t="inlineStr">
@@ -86419,7 +86419,7 @@
       </c>
       <c r="C3185" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3185" t="inlineStr">
@@ -86446,7 +86446,7 @@
       </c>
       <c r="C3186" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3186" t="inlineStr">
@@ -86473,7 +86473,7 @@
       </c>
       <c r="C3187" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3187" t="inlineStr">
@@ -86500,7 +86500,7 @@
       </c>
       <c r="C3188" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3188" t="inlineStr">
@@ -86527,7 +86527,7 @@
       </c>
       <c r="C3189" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3189" t="inlineStr">
@@ -86554,7 +86554,7 @@
       </c>
       <c r="C3190" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3190" t="inlineStr">
@@ -86581,7 +86581,7 @@
       </c>
       <c r="C3191" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3191" t="inlineStr">
@@ -86608,7 +86608,7 @@
       </c>
       <c r="C3192" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3192" t="inlineStr">
@@ -86635,7 +86635,7 @@
       </c>
       <c r="C3193" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3193" t="inlineStr">
@@ -86662,7 +86662,7 @@
       </c>
       <c r="C3194" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3194" t="inlineStr">
@@ -86689,7 +86689,7 @@
       </c>
       <c r="C3195" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3195" t="inlineStr">
@@ -86716,7 +86716,7 @@
       </c>
       <c r="C3196" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3196" t="inlineStr">
@@ -86743,7 +86743,7 @@
       </c>
       <c r="C3197" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3197" t="inlineStr">
@@ -86770,7 +86770,7 @@
       </c>
       <c r="C3198" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Digital</t>
         </is>
       </c>
       <c r="D3198" t="inlineStr">
@@ -86797,7 +86797,7 @@
       </c>
       <c r="C3199" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3199" t="inlineStr">
@@ -86824,7 +86824,7 @@
       </c>
       <c r="C3200" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3200" t="inlineStr">
@@ -86851,7 +86851,7 @@
       </c>
       <c r="C3201" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3201" t="inlineStr">
@@ -86878,7 +86878,7 @@
       </c>
       <c r="C3202" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3202" t="inlineStr">
@@ -86905,7 +86905,7 @@
       </c>
       <c r="C3203" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3203" t="inlineStr">
@@ -86932,7 +86932,7 @@
       </c>
       <c r="C3204" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3204" t="inlineStr">
@@ -86959,7 +86959,7 @@
       </c>
       <c r="C3205" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3205" t="inlineStr">
@@ -86986,7 +86986,7 @@
       </c>
       <c r="C3206" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3206" t="inlineStr">
@@ -87013,7 +87013,7 @@
       </c>
       <c r="C3207" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3207" t="inlineStr">
@@ -87040,7 +87040,7 @@
       </c>
       <c r="C3208" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3208" t="inlineStr">
@@ -87067,7 +87067,7 @@
       </c>
       <c r="C3209" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3209" t="inlineStr">
@@ -87094,7 +87094,7 @@
       </c>
       <c r="C3210" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3210" t="inlineStr">
@@ -87121,7 +87121,7 @@
       </c>
       <c r="C3211" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3211" t="inlineStr">
@@ -87148,7 +87148,7 @@
       </c>
       <c r="C3212" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3212" t="inlineStr">
@@ -87175,7 +87175,7 @@
       </c>
       <c r="C3213" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3213" t="inlineStr">
@@ -87202,7 +87202,7 @@
       </c>
       <c r="C3214" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3214" t="inlineStr">
@@ -87229,7 +87229,7 @@
       </c>
       <c r="C3215" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3215" t="inlineStr">
@@ -87256,7 +87256,7 @@
       </c>
       <c r="C3216" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3216" t="inlineStr">
@@ -87283,7 +87283,7 @@
       </c>
       <c r="C3217" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3217" t="inlineStr">
@@ -87310,7 +87310,7 @@
       </c>
       <c r="C3218" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3218" t="inlineStr">
@@ -87337,7 +87337,7 @@
       </c>
       <c r="C3219" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3219" t="inlineStr">
@@ -87364,7 +87364,7 @@
       </c>
       <c r="C3220" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3220" t="inlineStr">
@@ -87391,7 +87391,7 @@
       </c>
       <c r="C3221" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3221" t="inlineStr">
@@ -87418,7 +87418,7 @@
       </c>
       <c r="C3222" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3222" t="inlineStr">
@@ -87445,7 +87445,7 @@
       </c>
       <c r="C3223" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3223" t="inlineStr">
@@ -87472,7 +87472,7 @@
       </c>
       <c r="C3224" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3224" t="inlineStr">
@@ -87499,7 +87499,7 @@
       </c>
       <c r="C3225" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3225" t="inlineStr">
@@ -87526,7 +87526,7 @@
       </c>
       <c r="C3226" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3226" t="inlineStr">
@@ -87553,7 +87553,7 @@
       </c>
       <c r="C3227" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3227" t="inlineStr">
@@ -87580,7 +87580,7 @@
       </c>
       <c r="C3228" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3228" t="inlineStr">
@@ -87607,7 +87607,7 @@
       </c>
       <c r="C3229" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3229" t="inlineStr">
@@ -87634,7 +87634,7 @@
       </c>
       <c r="C3230" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3230" t="inlineStr">
@@ -87661,7 +87661,7 @@
       </c>
       <c r="C3231" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3231" t="inlineStr">
@@ -87688,7 +87688,7 @@
       </c>
       <c r="C3232" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3232" t="inlineStr">
@@ -87715,7 +87715,7 @@
       </c>
       <c r="C3233" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3233" t="inlineStr">
@@ -87742,7 +87742,7 @@
       </c>
       <c r="C3234" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3234" t="inlineStr">
@@ -87769,7 +87769,7 @@
       </c>
       <c r="C3235" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3235" t="inlineStr">
@@ -87796,7 +87796,7 @@
       </c>
       <c r="C3236" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3236" t="inlineStr">
@@ -87823,7 +87823,7 @@
       </c>
       <c r="C3237" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3237" t="inlineStr">
@@ -87850,7 +87850,7 @@
       </c>
       <c r="C3238" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3238" t="inlineStr">
@@ -87877,7 +87877,7 @@
       </c>
       <c r="C3239" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3239" t="inlineStr">
@@ -87904,7 +87904,7 @@
       </c>
       <c r="C3240" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3240" t="inlineStr">
@@ -87931,7 +87931,7 @@
       </c>
       <c r="C3241" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3241" t="inlineStr">
@@ -87958,7 +87958,7 @@
       </c>
       <c r="C3242" t="inlineStr">
         <is>
-          <t>TCS Digital/Prime</t>
+          <t>TCS Prime</t>
         </is>
       </c>
       <c r="D3242" t="inlineStr">
@@ -88237,6 +88237,1059 @@
         </is>
       </c>
       <c r="E3252" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3253">
+      <c r="A3253" t="inlineStr">
+        <is>
+          <t>21BCL0029</t>
+        </is>
+      </c>
+      <c r="B3253" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3253" t="inlineStr">
+        <is>
+          <t>Powerica</t>
+        </is>
+      </c>
+      <c r="D3253" t="inlineStr">
+        <is>
+          <t>BCL</t>
+        </is>
+      </c>
+      <c r="E3253" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3254">
+      <c r="A3254" t="inlineStr">
+        <is>
+          <t>21BCL0177</t>
+        </is>
+      </c>
+      <c r="B3254" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3254" t="inlineStr">
+        <is>
+          <t>Powerica</t>
+        </is>
+      </c>
+      <c r="D3254" t="inlineStr">
+        <is>
+          <t>BCL</t>
+        </is>
+      </c>
+      <c r="E3254" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3255">
+      <c r="A3255" t="inlineStr">
+        <is>
+          <t>21BCL0238</t>
+        </is>
+      </c>
+      <c r="B3255" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3255" t="inlineStr">
+        <is>
+          <t>Powerica</t>
+        </is>
+      </c>
+      <c r="D3255" t="inlineStr">
+        <is>
+          <t>BCL</t>
+        </is>
+      </c>
+      <c r="E3255" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3256">
+      <c r="A3256" t="inlineStr">
+        <is>
+          <t>21BCL0256</t>
+        </is>
+      </c>
+      <c r="B3256" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3256" t="inlineStr">
+        <is>
+          <t>Powerica</t>
+        </is>
+      </c>
+      <c r="D3256" t="inlineStr">
+        <is>
+          <t>BCL</t>
+        </is>
+      </c>
+      <c r="E3256" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3257">
+      <c r="A3257" t="inlineStr">
+        <is>
+          <t>21BEE0085</t>
+        </is>
+      </c>
+      <c r="B3257" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3257" t="inlineStr">
+        <is>
+          <t>Powerica</t>
+        </is>
+      </c>
+      <c r="D3257" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3257" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3258">
+      <c r="A3258" t="inlineStr">
+        <is>
+          <t>21BEE0092</t>
+        </is>
+      </c>
+      <c r="B3258" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3258" t="inlineStr">
+        <is>
+          <t>Powerica</t>
+        </is>
+      </c>
+      <c r="D3258" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3258" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3259">
+      <c r="A3259" t="inlineStr">
+        <is>
+          <t>21BEE0125</t>
+        </is>
+      </c>
+      <c r="B3259" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3259" t="inlineStr">
+        <is>
+          <t>Powerica</t>
+        </is>
+      </c>
+      <c r="D3259" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3259" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3260">
+      <c r="A3260" t="inlineStr">
+        <is>
+          <t>21BEE0216</t>
+        </is>
+      </c>
+      <c r="B3260" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3260" t="inlineStr">
+        <is>
+          <t>Powerica</t>
+        </is>
+      </c>
+      <c r="D3260" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3260" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3261">
+      <c r="A3261" t="inlineStr">
+        <is>
+          <t>21BEE0256</t>
+        </is>
+      </c>
+      <c r="B3261" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3261" t="inlineStr">
+        <is>
+          <t>Powerica</t>
+        </is>
+      </c>
+      <c r="D3261" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3261" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3262">
+      <c r="A3262" t="inlineStr">
+        <is>
+          <t>21BEE0387</t>
+        </is>
+      </c>
+      <c r="B3262" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3262" t="inlineStr">
+        <is>
+          <t>Powerica</t>
+        </is>
+      </c>
+      <c r="D3262" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3262" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3263">
+      <c r="A3263" t="inlineStr">
+        <is>
+          <t>21BEE1194</t>
+        </is>
+      </c>
+      <c r="B3263" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3263" t="inlineStr">
+        <is>
+          <t>Powerica</t>
+        </is>
+      </c>
+      <c r="D3263" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3263" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3264">
+      <c r="A3264" t="inlineStr">
+        <is>
+          <t>21BEE1242</t>
+        </is>
+      </c>
+      <c r="B3264" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3264" t="inlineStr">
+        <is>
+          <t>Powerica</t>
+        </is>
+      </c>
+      <c r="D3264" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3264" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3265">
+      <c r="A3265" t="inlineStr">
+        <is>
+          <t>21BCL0238</t>
+        </is>
+      </c>
+      <c r="B3265" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3265" t="inlineStr">
+        <is>
+          <t>Powerica</t>
+        </is>
+      </c>
+      <c r="D3265" t="inlineStr">
+        <is>
+          <t>BCL</t>
+        </is>
+      </c>
+      <c r="E3265" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3266">
+      <c r="A3266" t="inlineStr">
+        <is>
+          <t>21BCL0256</t>
+        </is>
+      </c>
+      <c r="B3266" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3266" t="inlineStr">
+        <is>
+          <t>Powerica</t>
+        </is>
+      </c>
+      <c r="D3266" t="inlineStr">
+        <is>
+          <t>BCL</t>
+        </is>
+      </c>
+      <c r="E3266" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3267">
+      <c r="A3267" t="inlineStr">
+        <is>
+          <t>21BEC1363</t>
+        </is>
+      </c>
+      <c r="B3267" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3267" t="inlineStr">
+        <is>
+          <t>Saipem India</t>
+        </is>
+      </c>
+      <c r="D3267" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3267" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3268">
+      <c r="A3268" t="inlineStr">
+        <is>
+          <t>21BEC1010</t>
+        </is>
+      </c>
+      <c r="B3268" t="inlineStr">
+        <is>
+          <t>4.1LPA</t>
+        </is>
+      </c>
+      <c r="C3268" t="inlineStr">
+        <is>
+          <t>Brakes India</t>
+        </is>
+      </c>
+      <c r="D3268" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3268" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3269">
+      <c r="A3269" t="inlineStr">
+        <is>
+          <t>21BEC0762</t>
+        </is>
+      </c>
+      <c r="B3269" t="inlineStr">
+        <is>
+          <t>4.1LPA</t>
+        </is>
+      </c>
+      <c r="C3269" t="inlineStr">
+        <is>
+          <t>Brakes India</t>
+        </is>
+      </c>
+      <c r="D3269" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3269" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3270">
+      <c r="A3270" t="inlineStr">
+        <is>
+          <t>21BMM0032</t>
+        </is>
+      </c>
+      <c r="B3270" t="inlineStr">
+        <is>
+          <t>4.1LPA</t>
+        </is>
+      </c>
+      <c r="C3270" t="inlineStr">
+        <is>
+          <t>Brakes India</t>
+        </is>
+      </c>
+      <c r="D3270" t="inlineStr">
+        <is>
+          <t>BMM</t>
+        </is>
+      </c>
+      <c r="E3270" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3271">
+      <c r="A3271" t="inlineStr">
+        <is>
+          <t>21BCE1050</t>
+        </is>
+      </c>
+      <c r="B3271" t="inlineStr">
+        <is>
+          <t>14.5LPA</t>
+        </is>
+      </c>
+      <c r="C3271" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D3271" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3271" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3272">
+      <c r="A3272" t="inlineStr">
+        <is>
+          <t>21BCE2448</t>
+        </is>
+      </c>
+      <c r="B3272" t="inlineStr">
+        <is>
+          <t>14.5LPA</t>
+        </is>
+      </c>
+      <c r="C3272" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D3272" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3272" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3273">
+      <c r="A3273" t="inlineStr">
+        <is>
+          <t>21BCE3127</t>
+        </is>
+      </c>
+      <c r="B3273" t="inlineStr">
+        <is>
+          <t>14.5LPA</t>
+        </is>
+      </c>
+      <c r="C3273" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D3273" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3273" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3274">
+      <c r="A3274" t="inlineStr">
+        <is>
+          <t>21BCE3172</t>
+        </is>
+      </c>
+      <c r="B3274" t="inlineStr">
+        <is>
+          <t>14.5LPA</t>
+        </is>
+      </c>
+      <c r="C3274" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D3274" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3274" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3275">
+      <c r="A3275" t="inlineStr">
+        <is>
+          <t>21BCE5256</t>
+        </is>
+      </c>
+      <c r="B3275" t="inlineStr">
+        <is>
+          <t>14.5LPA</t>
+        </is>
+      </c>
+      <c r="C3275" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D3275" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3275" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3276">
+      <c r="A3276" t="inlineStr">
+        <is>
+          <t>21BCE5303</t>
+        </is>
+      </c>
+      <c r="B3276" t="inlineStr">
+        <is>
+          <t>14.5LPA</t>
+        </is>
+      </c>
+      <c r="C3276" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D3276" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3276" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3277">
+      <c r="A3277" t="inlineStr">
+        <is>
+          <t>21BSA10001</t>
+        </is>
+      </c>
+      <c r="B3277" t="inlineStr">
+        <is>
+          <t>14.5LPA</t>
+        </is>
+      </c>
+      <c r="C3277" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D3277" t="inlineStr">
+        <is>
+          <t>BSA</t>
+        </is>
+      </c>
+      <c r="E3277" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3278">
+      <c r="A3278" t="inlineStr">
+        <is>
+          <t>21BSA10093</t>
+        </is>
+      </c>
+      <c r="B3278" t="inlineStr">
+        <is>
+          <t>14.5LPA</t>
+        </is>
+      </c>
+      <c r="C3278" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D3278" t="inlineStr">
+        <is>
+          <t>BSA</t>
+        </is>
+      </c>
+      <c r="E3278" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3279">
+      <c r="A3279" t="inlineStr">
+        <is>
+          <t>21BAI10123</t>
+        </is>
+      </c>
+      <c r="B3279" t="inlineStr">
+        <is>
+          <t>14.5LPA</t>
+        </is>
+      </c>
+      <c r="C3279" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D3279" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E3279" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3280">
+      <c r="A3280" t="inlineStr">
+        <is>
+          <t>21BIT0691</t>
+        </is>
+      </c>
+      <c r="B3280" t="inlineStr">
+        <is>
+          <t>14.5LPA</t>
+        </is>
+      </c>
+      <c r="C3280" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D3280" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E3280" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3281">
+      <c r="A3281" t="inlineStr">
+        <is>
+          <t>21BPS1034</t>
+        </is>
+      </c>
+      <c r="B3281" t="inlineStr">
+        <is>
+          <t>14.5LPA</t>
+        </is>
+      </c>
+      <c r="C3281" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D3281" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="E3281" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3282">
+      <c r="A3282" t="inlineStr">
+        <is>
+          <t>21BLC1095</t>
+        </is>
+      </c>
+      <c r="B3282" t="inlineStr">
+        <is>
+          <t>11.1LPA</t>
+        </is>
+      </c>
+      <c r="C3282" t="inlineStr">
+        <is>
+          <t>Salescode.AI</t>
+        </is>
+      </c>
+      <c r="D3282" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E3282" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3283">
+      <c r="A3283" t="inlineStr">
+        <is>
+          <t>21BEE0377</t>
+        </is>
+      </c>
+      <c r="B3283" t="inlineStr">
+        <is>
+          <t>5LPA</t>
+        </is>
+      </c>
+      <c r="C3283" t="inlineStr">
+        <is>
+          <t>Aditya Birla's Novel Jewels</t>
+        </is>
+      </c>
+      <c r="D3283" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3283" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3284">
+      <c r="A3284" t="inlineStr">
+        <is>
+          <t>21BCL0063</t>
+        </is>
+      </c>
+      <c r="B3284" t="inlineStr">
+        <is>
+          <t>5LPA</t>
+        </is>
+      </c>
+      <c r="C3284" t="inlineStr">
+        <is>
+          <t>Aditya Birla's Novel Jewels</t>
+        </is>
+      </c>
+      <c r="D3284" t="inlineStr">
+        <is>
+          <t>BCL</t>
+        </is>
+      </c>
+      <c r="E3284" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3285">
+      <c r="A3285" t="inlineStr">
+        <is>
+          <t>21BCL1004</t>
+        </is>
+      </c>
+      <c r="B3285" t="inlineStr">
+        <is>
+          <t>5LPA</t>
+        </is>
+      </c>
+      <c r="C3285" t="inlineStr">
+        <is>
+          <t>Aditya Birla's Novel Jewels</t>
+        </is>
+      </c>
+      <c r="D3285" t="inlineStr">
+        <is>
+          <t>BCL</t>
+        </is>
+      </c>
+      <c r="E3285" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3286">
+      <c r="A3286" t="inlineStr">
+        <is>
+          <t>21BCL1028</t>
+        </is>
+      </c>
+      <c r="B3286" t="inlineStr">
+        <is>
+          <t>5LPA</t>
+        </is>
+      </c>
+      <c r="C3286" t="inlineStr">
+        <is>
+          <t>Aditya Birla's Novel Jewels</t>
+        </is>
+      </c>
+      <c r="D3286" t="inlineStr">
+        <is>
+          <t>BCL</t>
+        </is>
+      </c>
+      <c r="E3286" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3287">
+      <c r="A3287" t="inlineStr">
+        <is>
+          <t>21BCL0140</t>
+        </is>
+      </c>
+      <c r="B3287" t="inlineStr">
+        <is>
+          <t>5LPA</t>
+        </is>
+      </c>
+      <c r="C3287" t="inlineStr">
+        <is>
+          <t>Aditya Birla's Novel Jewels</t>
+        </is>
+      </c>
+      <c r="D3287" t="inlineStr">
+        <is>
+          <t>BCL</t>
+        </is>
+      </c>
+      <c r="E3287" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3288">
+      <c r="A3288" t="inlineStr">
+        <is>
+          <t>21BCL0116</t>
+        </is>
+      </c>
+      <c r="B3288" t="inlineStr">
+        <is>
+          <t>5LPA</t>
+        </is>
+      </c>
+      <c r="C3288" t="inlineStr">
+        <is>
+          <t>Aditya Birla's Novel Jewels</t>
+        </is>
+      </c>
+      <c r="D3288" t="inlineStr">
+        <is>
+          <t>BCL</t>
+        </is>
+      </c>
+      <c r="E3288" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3289">
+      <c r="A3289" t="inlineStr">
+        <is>
+          <t>21BME0197</t>
+        </is>
+      </c>
+      <c r="B3289" t="inlineStr">
+        <is>
+          <t>5LPA</t>
+        </is>
+      </c>
+      <c r="C3289" t="inlineStr">
+        <is>
+          <t>Aditya Birla's Novel Jewels</t>
+        </is>
+      </c>
+      <c r="D3289" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3289" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3290">
+      <c r="A3290" t="inlineStr">
+        <is>
+          <t>21BMM0051</t>
+        </is>
+      </c>
+      <c r="B3290" t="inlineStr">
+        <is>
+          <t>5LPA</t>
+        </is>
+      </c>
+      <c r="C3290" t="inlineStr">
+        <is>
+          <t>Aditya Birla's Novel Jewels</t>
+        </is>
+      </c>
+      <c r="D3290" t="inlineStr">
+        <is>
+          <t>BMM</t>
+        </is>
+      </c>
+      <c r="E3290" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3291">
+      <c r="A3291" t="inlineStr">
+        <is>
+          <t>21BCE5443</t>
+        </is>
+      </c>
+      <c r="B3291" t="inlineStr">
+        <is>
+          <t>23LPA</t>
+        </is>
+      </c>
+      <c r="C3291" t="inlineStr">
+        <is>
+          <t>Synopsys</t>
+        </is>
+      </c>
+      <c r="D3291" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3291" t="inlineStr">
         <is>
           <t>Male</t>
         </is>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>27.8LPA</t>
+          <t>43.2LPA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>27.8LPA</t>
+          <t>43.2LPA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>27.8LPA</t>
+          <t>43.2LPA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>27.8LPA</t>
+          <t>43.2LPA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>27.8LPA</t>
+          <t>43.2LPA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>27.8LPA</t>
+          <t>43.2LPA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>27.8LPA</t>
+          <t>43.2LPA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3291"/>
+  <dimension ref="A1:E3330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89295,6 +89295,1059 @@
         </is>
       </c>
     </row>
+    <row r="3292">
+      <c r="A3292" t="inlineStr">
+        <is>
+          <t>21BCE9559</t>
+        </is>
+      </c>
+      <c r="B3292" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3292" t="inlineStr">
+        <is>
+          <t>Incedo Inc</t>
+        </is>
+      </c>
+      <c r="D3292" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3292" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3293">
+      <c r="A3293" t="inlineStr">
+        <is>
+          <t>21BCE1721</t>
+        </is>
+      </c>
+      <c r="B3293" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3293" t="inlineStr">
+        <is>
+          <t>Incedo Inc</t>
+        </is>
+      </c>
+      <c r="D3293" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3293" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3294">
+      <c r="A3294" t="inlineStr">
+        <is>
+          <t>21BCE1185</t>
+        </is>
+      </c>
+      <c r="B3294" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3294" t="inlineStr">
+        <is>
+          <t>Incedo Inc</t>
+        </is>
+      </c>
+      <c r="D3294" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3294" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3295">
+      <c r="A3295" t="inlineStr">
+        <is>
+          <t>21BCE2418</t>
+        </is>
+      </c>
+      <c r="B3295" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3295" t="inlineStr">
+        <is>
+          <t>Incedo Inc</t>
+        </is>
+      </c>
+      <c r="D3295" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3295" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3296">
+      <c r="A3296" t="inlineStr">
+        <is>
+          <t>21BCE2487</t>
+        </is>
+      </c>
+      <c r="B3296" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3296" t="inlineStr">
+        <is>
+          <t>Incedo Inc</t>
+        </is>
+      </c>
+      <c r="D3296" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3296" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3297">
+      <c r="A3297" t="inlineStr">
+        <is>
+          <t>21BIT0592</t>
+        </is>
+      </c>
+      <c r="B3297" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3297" t="inlineStr">
+        <is>
+          <t>Incedo Inc</t>
+        </is>
+      </c>
+      <c r="D3297" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E3297" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3298">
+      <c r="A3298" t="inlineStr">
+        <is>
+          <t>21BCE10949</t>
+        </is>
+      </c>
+      <c r="B3298" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3298" t="inlineStr">
+        <is>
+          <t>Incedo Inc</t>
+        </is>
+      </c>
+      <c r="D3298" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3298" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3299">
+      <c r="A3299" t="inlineStr">
+        <is>
+          <t>21BIT0065</t>
+        </is>
+      </c>
+      <c r="B3299" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3299" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3299" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E3299" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3300">
+      <c r="A3300" t="inlineStr">
+        <is>
+          <t>21BCE3958</t>
+        </is>
+      </c>
+      <c r="B3300" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3300" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3300" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3300" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3301">
+      <c r="A3301" t="inlineStr">
+        <is>
+          <t>21BCB0077</t>
+        </is>
+      </c>
+      <c r="B3301" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3301" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3301" t="inlineStr">
+        <is>
+          <t>BCB</t>
+        </is>
+      </c>
+      <c r="E3301" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3302">
+      <c r="A3302" t="inlineStr">
+        <is>
+          <t>21BCE0788</t>
+        </is>
+      </c>
+      <c r="B3302" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3302" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3302" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3302" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3303">
+      <c r="A3303" t="inlineStr">
+        <is>
+          <t>21BCE3992</t>
+        </is>
+      </c>
+      <c r="B3303" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3303" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3303" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3303" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3304">
+      <c r="A3304" t="inlineStr">
+        <is>
+          <t>21BCE0723</t>
+        </is>
+      </c>
+      <c r="B3304" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3304" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3304" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3304" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3305">
+      <c r="A3305" t="inlineStr">
+        <is>
+          <t>21BCE3312</t>
+        </is>
+      </c>
+      <c r="B3305" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3305" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3305" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3305" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3306">
+      <c r="A3306" t="inlineStr">
+        <is>
+          <t>21BCB0110</t>
+        </is>
+      </c>
+      <c r="B3306" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3306" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3306" t="inlineStr">
+        <is>
+          <t>BCB</t>
+        </is>
+      </c>
+      <c r="E3306" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3307">
+      <c r="A3307" t="inlineStr">
+        <is>
+          <t>21BCB0188</t>
+        </is>
+      </c>
+      <c r="B3307" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3307" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3307" t="inlineStr">
+        <is>
+          <t>BCB</t>
+        </is>
+      </c>
+      <c r="E3307" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3308">
+      <c r="A3308" t="inlineStr">
+        <is>
+          <t>21BDS0146</t>
+        </is>
+      </c>
+      <c r="B3308" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3308" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3308" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E3308" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3309">
+      <c r="A3309" t="inlineStr">
+        <is>
+          <t>21BCE3282</t>
+        </is>
+      </c>
+      <c r="B3309" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3309" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3309" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3309" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3310">
+      <c r="A3310" t="inlineStr">
+        <is>
+          <t>21BCE0888</t>
+        </is>
+      </c>
+      <c r="B3310" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3310" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3310" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3310" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3311">
+      <c r="A3311" t="inlineStr">
+        <is>
+          <t>21BCE3747</t>
+        </is>
+      </c>
+      <c r="B3311" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3311" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3311" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3311" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3312">
+      <c r="A3312" t="inlineStr">
+        <is>
+          <t>21BCE0636</t>
+        </is>
+      </c>
+      <c r="B3312" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3312" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3312" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3312" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3313">
+      <c r="A3313" t="inlineStr">
+        <is>
+          <t>21BCE2999</t>
+        </is>
+      </c>
+      <c r="B3313" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3313" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3313" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3313" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3314">
+      <c r="A3314" t="inlineStr">
+        <is>
+          <t>21BCE3601</t>
+        </is>
+      </c>
+      <c r="B3314" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3314" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3314" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3314" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3315">
+      <c r="A3315" t="inlineStr">
+        <is>
+          <t>21BDS0365</t>
+        </is>
+      </c>
+      <c r="B3315" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3315" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3315" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E3315" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3316">
+      <c r="A3316" t="inlineStr">
+        <is>
+          <t>21BCE3668</t>
+        </is>
+      </c>
+      <c r="B3316" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3316" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3316" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3316" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3317">
+      <c r="A3317" t="inlineStr">
+        <is>
+          <t>21BCT0352</t>
+        </is>
+      </c>
+      <c r="B3317" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3317" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3317" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+      <c r="E3317" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3318">
+      <c r="A3318" t="inlineStr">
+        <is>
+          <t>21BCE2397</t>
+        </is>
+      </c>
+      <c r="B3318" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3318" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3318" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3318" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3319">
+      <c r="A3319" t="inlineStr">
+        <is>
+          <t>21BCT0153</t>
+        </is>
+      </c>
+      <c r="B3319" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3319" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3319" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+      <c r="E3319" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3320">
+      <c r="A3320" t="inlineStr">
+        <is>
+          <t>21BCE2075</t>
+        </is>
+      </c>
+      <c r="B3320" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3320" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3320" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3320" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3321">
+      <c r="A3321" t="inlineStr">
+        <is>
+          <t>21BIT0140</t>
+        </is>
+      </c>
+      <c r="B3321" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3321" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3321" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E3321" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3322">
+      <c r="A3322" t="inlineStr">
+        <is>
+          <t>21BMM0007</t>
+        </is>
+      </c>
+      <c r="B3322" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3322" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3322" t="inlineStr">
+        <is>
+          <t>BMM</t>
+        </is>
+      </c>
+      <c r="E3322" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3323">
+      <c r="A3323" t="inlineStr">
+        <is>
+          <t>21BME0638</t>
+        </is>
+      </c>
+      <c r="B3323" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3323" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3323" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3323" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3324">
+      <c r="A3324" t="inlineStr">
+        <is>
+          <t>21BMA0081</t>
+        </is>
+      </c>
+      <c r="B3324" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3324" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3324" t="inlineStr">
+        <is>
+          <t>BMA</t>
+        </is>
+      </c>
+      <c r="E3324" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3325">
+      <c r="A3325" t="inlineStr">
+        <is>
+          <t>21BMA0057</t>
+        </is>
+      </c>
+      <c r="B3325" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3325" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3325" t="inlineStr">
+        <is>
+          <t>BMA</t>
+        </is>
+      </c>
+      <c r="E3325" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3326">
+      <c r="A3326" t="inlineStr">
+        <is>
+          <t>21BMA0085</t>
+        </is>
+      </c>
+      <c r="B3326" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3326" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3326" t="inlineStr">
+        <is>
+          <t>BMA</t>
+        </is>
+      </c>
+      <c r="E3326" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3327">
+      <c r="A3327" t="inlineStr">
+        <is>
+          <t>21BMH1228</t>
+        </is>
+      </c>
+      <c r="B3327" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3327" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3327" t="inlineStr">
+        <is>
+          <t>BMH</t>
+        </is>
+      </c>
+      <c r="E3327" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3328">
+      <c r="A3328" t="inlineStr">
+        <is>
+          <t>21BMA0088</t>
+        </is>
+      </c>
+      <c r="B3328" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3328" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3328" t="inlineStr">
+        <is>
+          <t>BMA</t>
+        </is>
+      </c>
+      <c r="E3328" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3329">
+      <c r="A3329" t="inlineStr">
+        <is>
+          <t>21BME1162</t>
+        </is>
+      </c>
+      <c r="B3329" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3329" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3329" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3329" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3330">
+      <c r="A3330" t="inlineStr">
+        <is>
+          <t>21BRS1305</t>
+        </is>
+      </c>
+      <c r="B3330" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3330" t="inlineStr">
+        <is>
+          <t>Tata Technologies</t>
+        </is>
+      </c>
+      <c r="D3330" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E3330" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -75560,7 +75560,7 @@
       </c>
       <c r="B2783" t="inlineStr">
         <is>
-          <t>6LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C2783" t="inlineStr">
@@ -75587,7 +75587,7 @@
       </c>
       <c r="B2784" t="inlineStr">
         <is>
-          <t>6LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C2784" t="inlineStr">
@@ -75668,7 +75668,7 @@
       </c>
       <c r="B2787" t="inlineStr">
         <is>
-          <t>6LPA</t>
+          <t>13LPA</t>
         </is>
       </c>
       <c r="C2787" t="inlineStr">

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3330"/>
+  <dimension ref="A1:E3339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,7 +657,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>33LPA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>33LPA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>33LPA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>33LPA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>33LPA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -69323,7 +69323,7 @@
       </c>
       <c r="B2552" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2552" t="inlineStr">
@@ -69350,7 +69350,7 @@
       </c>
       <c r="B2553" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2553" t="inlineStr">
@@ -69377,7 +69377,7 @@
       </c>
       <c r="B2554" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2554" t="inlineStr">
@@ -69404,7 +69404,7 @@
       </c>
       <c r="B2555" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2555" t="inlineStr">
@@ -69431,7 +69431,7 @@
       </c>
       <c r="B2556" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2556" t="inlineStr">
@@ -69458,7 +69458,7 @@
       </c>
       <c r="B2557" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2557" t="inlineStr">
@@ -69485,7 +69485,7 @@
       </c>
       <c r="B2558" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2558" t="inlineStr">
@@ -69512,7 +69512,7 @@
       </c>
       <c r="B2559" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2559" t="inlineStr">
@@ -69539,7 +69539,7 @@
       </c>
       <c r="B2560" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2560" t="inlineStr">
@@ -69566,7 +69566,7 @@
       </c>
       <c r="B2561" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2561" t="inlineStr">
@@ -69593,7 +69593,7 @@
       </c>
       <c r="B2562" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2562" t="inlineStr">
@@ -69620,7 +69620,7 @@
       </c>
       <c r="B2563" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2563" t="inlineStr">
@@ -69647,7 +69647,7 @@
       </c>
       <c r="B2564" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2564" t="inlineStr">
@@ -69674,7 +69674,7 @@
       </c>
       <c r="B2565" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2565" t="inlineStr">
@@ -69701,7 +69701,7 @@
       </c>
       <c r="B2566" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2566" t="inlineStr">
@@ -69728,7 +69728,7 @@
       </c>
       <c r="B2567" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2567" t="inlineStr">
@@ -69755,7 +69755,7 @@
       </c>
       <c r="B2568" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2568" t="inlineStr">
@@ -69782,7 +69782,7 @@
       </c>
       <c r="B2569" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2569" t="inlineStr">
@@ -69809,7 +69809,7 @@
       </c>
       <c r="B2570" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2570" t="inlineStr">
@@ -69836,7 +69836,7 @@
       </c>
       <c r="B2571" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2571" t="inlineStr">
@@ -69863,7 +69863,7 @@
       </c>
       <c r="B2572" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2572" t="inlineStr">
@@ -69890,7 +69890,7 @@
       </c>
       <c r="B2573" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2573" t="inlineStr">
@@ -69917,7 +69917,7 @@
       </c>
       <c r="B2574" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2574" t="inlineStr">
@@ -69944,7 +69944,7 @@
       </c>
       <c r="B2575" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2575" t="inlineStr">
@@ -69971,7 +69971,7 @@
       </c>
       <c r="B2576" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2576" t="inlineStr">
@@ -69998,7 +69998,7 @@
       </c>
       <c r="B2577" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2577" t="inlineStr">
@@ -70025,7 +70025,7 @@
       </c>
       <c r="B2578" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2578" t="inlineStr">
@@ -70052,7 +70052,7 @@
       </c>
       <c r="B2579" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2579" t="inlineStr">
@@ -70079,7 +70079,7 @@
       </c>
       <c r="B2580" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>16.5LPA</t>
         </is>
       </c>
       <c r="C2580" t="inlineStr">
@@ -90343,6 +90343,249 @@
         </is>
       </c>
       <c r="E3330" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3331">
+      <c r="A3331" t="inlineStr">
+        <is>
+          <t>21BLC1531</t>
+        </is>
+      </c>
+      <c r="B3331" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3331" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="D3331" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E3331" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3332">
+      <c r="A3332" t="inlineStr">
+        <is>
+          <t>21BCE2959</t>
+        </is>
+      </c>
+      <c r="B3332" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3332" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="D3332" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3332" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3333">
+      <c r="A3333" t="inlineStr">
+        <is>
+          <t>21BIT0179</t>
+        </is>
+      </c>
+      <c r="B3333" t="inlineStr">
+        <is>
+          <t>29LPA</t>
+        </is>
+      </c>
+      <c r="C3333" t="inlineStr">
+        <is>
+          <t>NVIDIA</t>
+        </is>
+      </c>
+      <c r="D3333" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E3333" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3334">
+      <c r="A3334" t="inlineStr">
+        <is>
+          <t>21BCE1910</t>
+        </is>
+      </c>
+      <c r="B3334" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3334" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="D3334" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3334" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3335">
+      <c r="A3335" t="inlineStr">
+        <is>
+          <t>21BRS1342</t>
+        </is>
+      </c>
+      <c r="B3335" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3335" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="D3335" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E3335" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3336">
+      <c r="A3336" t="inlineStr">
+        <is>
+          <t>21BCE5986</t>
+        </is>
+      </c>
+      <c r="B3336" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3336" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="D3336" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3336" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3337">
+      <c r="A3337" t="inlineStr">
+        <is>
+          <t>21BCE5024</t>
+        </is>
+      </c>
+      <c r="B3337" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3337" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="D3337" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3337" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3338">
+      <c r="A3338" t="inlineStr">
+        <is>
+          <t>21BEC1365</t>
+        </is>
+      </c>
+      <c r="B3338" t="inlineStr">
+        <is>
+          <t>5.25LPA</t>
+        </is>
+      </c>
+      <c r="C3338" t="inlineStr">
+        <is>
+          <t>Renault Nissan</t>
+        </is>
+      </c>
+      <c r="D3338" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3338" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3339">
+      <c r="A3339" t="inlineStr">
+        <is>
+          <t>21BEC2163</t>
+        </is>
+      </c>
+      <c r="B3339" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C3339" t="inlineStr">
+        <is>
+          <t>Lumenci</t>
+        </is>
+      </c>
+      <c r="D3339" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3339" t="inlineStr">
         <is>
           <t>Male</t>
         </is>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3351"/>
+  <dimension ref="A1:E3380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90915,6 +90915,789 @@
         </is>
       </c>
     </row>
+    <row r="3352">
+      <c r="A3352" t="inlineStr">
+        <is>
+          <t>21BCE5141</t>
+        </is>
+      </c>
+      <c r="B3352" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3352" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="D3352" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3352" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3353">
+      <c r="A3353" t="inlineStr">
+        <is>
+          <t>21BCE10295</t>
+        </is>
+      </c>
+      <c r="B3353" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C3353" t="inlineStr">
+        <is>
+          <t>Cimpress</t>
+        </is>
+      </c>
+      <c r="D3353" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3353" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3354">
+      <c r="A3354" t="inlineStr">
+        <is>
+          <t>21BME0261</t>
+        </is>
+      </c>
+      <c r="B3354" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3354" t="inlineStr">
+        <is>
+          <t>Proscape</t>
+        </is>
+      </c>
+      <c r="D3354" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3354" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3355">
+      <c r="A3355" t="inlineStr">
+        <is>
+          <t>21BCE2345</t>
+        </is>
+      </c>
+      <c r="B3355" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C3355" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D3355" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3355" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3356">
+      <c r="A3356" t="inlineStr">
+        <is>
+          <t>21BCE5705</t>
+        </is>
+      </c>
+      <c r="B3356" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C3356" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D3356" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3356" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3357">
+      <c r="A3357" t="inlineStr">
+        <is>
+          <t>21BAI10157</t>
+        </is>
+      </c>
+      <c r="B3357" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C3357" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D3357" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E3357" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3358">
+      <c r="A3358" t="inlineStr">
+        <is>
+          <t>21BCE7864</t>
+        </is>
+      </c>
+      <c r="B3358" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C3358" t="inlineStr">
+        <is>
+          <t>EY Global Delivery Services</t>
+        </is>
+      </c>
+      <c r="D3358" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3358" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3359">
+      <c r="A3359" t="inlineStr">
+        <is>
+          <t>21BCE0611</t>
+        </is>
+      </c>
+      <c r="B3359" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3359" t="inlineStr">
+        <is>
+          <t>BALKAN ID</t>
+        </is>
+      </c>
+      <c r="D3359" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3359" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3360">
+      <c r="A3360" t="inlineStr">
+        <is>
+          <t>21BLC1562</t>
+        </is>
+      </c>
+      <c r="B3360" t="inlineStr">
+        <is>
+          <t>24LPA</t>
+        </is>
+      </c>
+      <c r="C3360" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="D3360" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E3360" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3361">
+      <c r="A3361" t="inlineStr">
+        <is>
+          <t>21BCE1406</t>
+        </is>
+      </c>
+      <c r="B3361" t="inlineStr">
+        <is>
+          <t>24LPA</t>
+        </is>
+      </c>
+      <c r="C3361" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="D3361" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3361" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3362">
+      <c r="A3362" t="inlineStr">
+        <is>
+          <t>21BCE2091</t>
+        </is>
+      </c>
+      <c r="B3362" t="inlineStr">
+        <is>
+          <t>24LPA</t>
+        </is>
+      </c>
+      <c r="C3362" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="D3362" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3362" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3363">
+      <c r="A3363" t="inlineStr">
+        <is>
+          <t>21BCE2957</t>
+        </is>
+      </c>
+      <c r="B3363" t="inlineStr">
+        <is>
+          <t>24LPA</t>
+        </is>
+      </c>
+      <c r="C3363" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="D3363" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3363" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3364">
+      <c r="A3364" t="inlineStr">
+        <is>
+          <t>21BIT0319</t>
+        </is>
+      </c>
+      <c r="B3364" t="inlineStr">
+        <is>
+          <t>24LPA</t>
+        </is>
+      </c>
+      <c r="C3364" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="D3364" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E3364" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3365">
+      <c r="A3365" t="inlineStr">
+        <is>
+          <t>21BRS1595</t>
+        </is>
+      </c>
+      <c r="B3365" t="inlineStr">
+        <is>
+          <t>24LPA</t>
+        </is>
+      </c>
+      <c r="C3365" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="D3365" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E3365" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3366">
+      <c r="A3366" t="inlineStr">
+        <is>
+          <t>21BBS0115</t>
+        </is>
+      </c>
+      <c r="B3366" t="inlineStr">
+        <is>
+          <t>24LPA</t>
+        </is>
+      </c>
+      <c r="C3366" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="D3366" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="E3366" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3367">
+      <c r="A3367" t="inlineStr">
+        <is>
+          <t>21BKT0107</t>
+        </is>
+      </c>
+      <c r="B3367" t="inlineStr">
+        <is>
+          <t>24LPA</t>
+        </is>
+      </c>
+      <c r="C3367" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="D3367" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+      <c r="E3367" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3368">
+      <c r="A3368" t="inlineStr">
+        <is>
+          <t>21BCE1314</t>
+        </is>
+      </c>
+      <c r="B3368" t="inlineStr">
+        <is>
+          <t>24LPA</t>
+        </is>
+      </c>
+      <c r="C3368" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="D3368" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3368" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3369">
+      <c r="A3369" t="inlineStr">
+        <is>
+          <t>21BCI0264</t>
+        </is>
+      </c>
+      <c r="B3369" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3369" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="D3369" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="E3369" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3370">
+      <c r="A3370" t="inlineStr">
+        <is>
+          <t>21BCI0042</t>
+        </is>
+      </c>
+      <c r="B3370" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3370" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="D3370" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="E3370" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3371">
+      <c r="A3371" t="inlineStr">
+        <is>
+          <t>21BCI0335</t>
+        </is>
+      </c>
+      <c r="B3371" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3371" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="D3371" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="E3371" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3372">
+      <c r="A3372" t="inlineStr">
+        <is>
+          <t>21BCI0158</t>
+        </is>
+      </c>
+      <c r="B3372" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3372" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="D3372" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="E3372" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3373">
+      <c r="A3373" t="inlineStr">
+        <is>
+          <t>21BCI0055</t>
+        </is>
+      </c>
+      <c r="B3373" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3373" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="D3373" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="E3373" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3374">
+      <c r="A3374" t="inlineStr">
+        <is>
+          <t>21BCI0101</t>
+        </is>
+      </c>
+      <c r="B3374" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3374" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="D3374" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="E3374" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3375">
+      <c r="A3375" t="inlineStr">
+        <is>
+          <t>21BCI0152</t>
+        </is>
+      </c>
+      <c r="B3375" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3375" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+      <c r="D3375" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="E3375" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3376">
+      <c r="A3376" t="inlineStr">
+        <is>
+          <t>21BAI1439</t>
+        </is>
+      </c>
+      <c r="B3376" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3376" t="inlineStr">
+        <is>
+          <t>RELX Group (Elsevier)</t>
+        </is>
+      </c>
+      <c r="D3376" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E3376" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3377">
+      <c r="A3377" t="inlineStr">
+        <is>
+          <t>21BCE10047</t>
+        </is>
+      </c>
+      <c r="B3377" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3377" t="inlineStr">
+        <is>
+          <t>RELX Group (Elsevier)</t>
+        </is>
+      </c>
+      <c r="D3377" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3377" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3378">
+      <c r="A3378" t="inlineStr">
+        <is>
+          <t>21BBS0257</t>
+        </is>
+      </c>
+      <c r="B3378" t="inlineStr">
+        <is>
+          <t>18LPA</t>
+        </is>
+      </c>
+      <c r="C3378" t="inlineStr">
+        <is>
+          <t>Blackrock</t>
+        </is>
+      </c>
+      <c r="D3378" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="E3378" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3379">
+      <c r="A3379" t="inlineStr">
+        <is>
+          <t>21BDS0002</t>
+        </is>
+      </c>
+      <c r="B3379" t="inlineStr">
+        <is>
+          <t>14.5LPA</t>
+        </is>
+      </c>
+      <c r="C3379" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D3379" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E3379" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3380">
+      <c r="A3380" t="inlineStr">
+        <is>
+          <t>21BME0075</t>
+        </is>
+      </c>
+      <c r="B3380" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C3380" t="inlineStr">
+        <is>
+          <t>Whirlpool</t>
+        </is>
+      </c>
+      <c r="D3380" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3380" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3380"/>
+  <dimension ref="A1:E3510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61141,7 +61141,7 @@
       </c>
       <c r="B2249" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>11.26LPA</t>
         </is>
       </c>
       <c r="C2249" t="inlineStr">
@@ -61168,7 +61168,7 @@
       </c>
       <c r="B2250" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>11.26LPA</t>
         </is>
       </c>
       <c r="C2250" t="inlineStr">
@@ -61195,7 +61195,7 @@
       </c>
       <c r="B2251" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>11.26LPA</t>
         </is>
       </c>
       <c r="C2251" t="inlineStr">
@@ -61222,7 +61222,7 @@
       </c>
       <c r="B2252" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>11.26LPA</t>
         </is>
       </c>
       <c r="C2252" t="inlineStr">
@@ -61249,7 +61249,7 @@
       </c>
       <c r="B2253" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>11.26LPA</t>
         </is>
       </c>
       <c r="C2253" t="inlineStr">
@@ -61276,7 +61276,7 @@
       </c>
       <c r="B2254" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>11.26LPA</t>
         </is>
       </c>
       <c r="C2254" t="inlineStr">
@@ -61303,7 +61303,7 @@
       </c>
       <c r="B2255" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>11.26LPA</t>
         </is>
       </c>
       <c r="C2255" t="inlineStr">
@@ -61330,7 +61330,7 @@
       </c>
       <c r="B2256" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>11.26LPA</t>
         </is>
       </c>
       <c r="C2256" t="inlineStr">
@@ -61357,7 +61357,7 @@
       </c>
       <c r="B2257" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>11.26LPA</t>
         </is>
       </c>
       <c r="C2257" t="inlineStr">
@@ -62411,7 +62411,7 @@
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>29LPA</t>
+          <t>32LPA</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
@@ -63707,7 +63707,7 @@
       </c>
       <c r="B2344" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>11.26LPA</t>
         </is>
       </c>
       <c r="C2344" t="inlineStr">
@@ -63734,7 +63734,7 @@
       </c>
       <c r="B2345" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>11.26LPA</t>
         </is>
       </c>
       <c r="C2345" t="inlineStr">
@@ -63761,7 +63761,7 @@
       </c>
       <c r="B2346" t="inlineStr">
         <is>
-          <t>10LPA</t>
+          <t>11.26LPA</t>
         </is>
       </c>
       <c r="C2346" t="inlineStr">
@@ -65840,7 +65840,7 @@
       </c>
       <c r="B2423" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>11LPA</t>
         </is>
       </c>
       <c r="C2423" t="inlineStr">
@@ -68324,7 +68324,7 @@
       </c>
       <c r="B2515" t="inlineStr">
         <is>
-          <t>8LPA</t>
+          <t>11.5LPA</t>
         </is>
       </c>
       <c r="C2515" t="inlineStr">
@@ -68351,7 +68351,7 @@
       </c>
       <c r="B2516" t="inlineStr">
         <is>
-          <t>7LPA</t>
+          <t>9.5LPA</t>
         </is>
       </c>
       <c r="C2516" t="inlineStr">
@@ -68378,7 +68378,7 @@
       </c>
       <c r="B2517" t="inlineStr">
         <is>
-          <t>7LPA</t>
+          <t>11.5LPA</t>
         </is>
       </c>
       <c r="C2517" t="inlineStr">
@@ -68405,7 +68405,7 @@
       </c>
       <c r="B2518" t="inlineStr">
         <is>
-          <t>7LPA</t>
+          <t>11.5LPA</t>
         </is>
       </c>
       <c r="C2518" t="inlineStr">
@@ -70511,7 +70511,7 @@
       </c>
       <c r="B2596" t="inlineStr">
         <is>
-          <t>29LPA</t>
+          <t>32LPA</t>
         </is>
       </c>
       <c r="C2596" t="inlineStr">
@@ -72104,7 +72104,7 @@
       </c>
       <c r="B2655" t="inlineStr">
         <is>
-          <t>6LPA</t>
+          <t>20LPA</t>
         </is>
       </c>
       <c r="C2655" t="inlineStr">
@@ -72131,7 +72131,7 @@
       </c>
       <c r="B2656" t="inlineStr">
         <is>
-          <t>6LPA</t>
+          <t>20LPA</t>
         </is>
       </c>
       <c r="C2656" t="inlineStr">
@@ -72158,7 +72158,7 @@
       </c>
       <c r="B2657" t="inlineStr">
         <is>
-          <t>6LPA</t>
+          <t>20LPA</t>
         </is>
       </c>
       <c r="C2657" t="inlineStr">
@@ -72185,7 +72185,7 @@
       </c>
       <c r="B2658" t="inlineStr">
         <is>
-          <t>6LPA</t>
+          <t>20LPA</t>
         </is>
       </c>
       <c r="C2658" t="inlineStr">
@@ -73346,7 +73346,7 @@
       </c>
       <c r="B2701" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9.5LPA</t>
         </is>
       </c>
       <c r="C2701" t="inlineStr">
@@ -73373,7 +73373,7 @@
       </c>
       <c r="B2702" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9.5LPA</t>
         </is>
       </c>
       <c r="C2702" t="inlineStr">
@@ -73400,7 +73400,7 @@
       </c>
       <c r="B2703" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9.5LPA</t>
         </is>
       </c>
       <c r="C2703" t="inlineStr">
@@ -73427,7 +73427,7 @@
       </c>
       <c r="B2704" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9.5LPA</t>
         </is>
       </c>
       <c r="C2704" t="inlineStr">
@@ -73454,7 +73454,7 @@
       </c>
       <c r="B2705" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9.5LPA</t>
         </is>
       </c>
       <c r="C2705" t="inlineStr">
@@ -73481,7 +73481,7 @@
       </c>
       <c r="B2706" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9.5LPA</t>
         </is>
       </c>
       <c r="C2706" t="inlineStr">
@@ -73508,7 +73508,7 @@
       </c>
       <c r="B2707" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9.5LPA</t>
         </is>
       </c>
       <c r="C2707" t="inlineStr">
@@ -73535,7 +73535,7 @@
       </c>
       <c r="B2708" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9.5LPA</t>
         </is>
       </c>
       <c r="C2708" t="inlineStr">
@@ -73562,7 +73562,7 @@
       </c>
       <c r="B2709" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9.5LPA</t>
         </is>
       </c>
       <c r="C2709" t="inlineStr">
@@ -73589,7 +73589,7 @@
       </c>
       <c r="B2710" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9.5LPA</t>
         </is>
       </c>
       <c r="C2710" t="inlineStr">
@@ -73616,7 +73616,7 @@
       </c>
       <c r="B2711" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>9.5LPA</t>
         </is>
       </c>
       <c r="C2711" t="inlineStr">
@@ -90113,7 +90113,7 @@
       </c>
       <c r="B3322" t="inlineStr">
         <is>
-          <t>29LPA</t>
+          <t>32LPA</t>
         </is>
       </c>
       <c r="C3322" t="inlineStr">
@@ -91382,7 +91382,7 @@
       </c>
       <c r="B3369" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>22.6LPA</t>
         </is>
       </c>
       <c r="C3369" t="inlineStr">
@@ -91409,7 +91409,7 @@
       </c>
       <c r="B3370" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>22.6LPA</t>
         </is>
       </c>
       <c r="C3370" t="inlineStr">
@@ -91436,7 +91436,7 @@
       </c>
       <c r="B3371" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>22.6LPA</t>
         </is>
       </c>
       <c r="C3371" t="inlineStr">
@@ -91463,7 +91463,7 @@
       </c>
       <c r="B3372" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>22.6LPA</t>
         </is>
       </c>
       <c r="C3372" t="inlineStr">
@@ -91490,7 +91490,7 @@
       </c>
       <c r="B3373" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>22.6LPA</t>
         </is>
       </c>
       <c r="C3373" t="inlineStr">
@@ -91517,7 +91517,7 @@
       </c>
       <c r="B3374" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>22.6LPA</t>
         </is>
       </c>
       <c r="C3374" t="inlineStr">
@@ -91544,7 +91544,7 @@
       </c>
       <c r="B3375" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>22.6LPA</t>
         </is>
       </c>
       <c r="C3375" t="inlineStr">
@@ -91693,6 +91693,3516 @@
         </is>
       </c>
       <c r="E3380" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3381">
+      <c r="A3381" t="inlineStr">
+        <is>
+          <t>21BCE0942</t>
+        </is>
+      </c>
+      <c r="B3381" t="inlineStr">
+        <is>
+          <t>8.8LPA</t>
+        </is>
+      </c>
+      <c r="C3381" t="inlineStr">
+        <is>
+          <t>Bristol Myers Squibb</t>
+        </is>
+      </c>
+      <c r="D3381" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3381" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3382">
+      <c r="A3382" t="inlineStr">
+        <is>
+          <t>21BCE3142</t>
+        </is>
+      </c>
+      <c r="B3382" t="inlineStr">
+        <is>
+          <t>8.8LPA</t>
+        </is>
+      </c>
+      <c r="C3382" t="inlineStr">
+        <is>
+          <t>Bristol Myers Squibb</t>
+        </is>
+      </c>
+      <c r="D3382" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3382" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3383">
+      <c r="A3383" t="inlineStr">
+        <is>
+          <t>21BPS1397</t>
+        </is>
+      </c>
+      <c r="B3383" t="inlineStr">
+        <is>
+          <t>8.8LPA</t>
+        </is>
+      </c>
+      <c r="C3383" t="inlineStr">
+        <is>
+          <t>Bristol Myers Squibb</t>
+        </is>
+      </c>
+      <c r="D3383" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="E3383" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3384">
+      <c r="A3384" t="inlineStr">
+        <is>
+          <t>21BCE3626</t>
+        </is>
+      </c>
+      <c r="B3384" t="inlineStr">
+        <is>
+          <t>8.8LPA</t>
+        </is>
+      </c>
+      <c r="C3384" t="inlineStr">
+        <is>
+          <t>Bristol Myers Squibb</t>
+        </is>
+      </c>
+      <c r="D3384" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3384" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3385">
+      <c r="A3385" t="inlineStr">
+        <is>
+          <t>21BLC1174</t>
+        </is>
+      </c>
+      <c r="B3385" t="inlineStr">
+        <is>
+          <t>8.8LPA</t>
+        </is>
+      </c>
+      <c r="C3385" t="inlineStr">
+        <is>
+          <t>Bristol Myers Squibb</t>
+        </is>
+      </c>
+      <c r="D3385" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E3385" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3386">
+      <c r="A3386" t="inlineStr">
+        <is>
+          <t>21BCE0349</t>
+        </is>
+      </c>
+      <c r="B3386" t="inlineStr">
+        <is>
+          <t>8.8LPA</t>
+        </is>
+      </c>
+      <c r="C3386" t="inlineStr">
+        <is>
+          <t>Bristol Myers Squibb</t>
+        </is>
+      </c>
+      <c r="D3386" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3386" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3387">
+      <c r="A3387" t="inlineStr">
+        <is>
+          <t>21BCB0156</t>
+        </is>
+      </c>
+      <c r="B3387" t="inlineStr">
+        <is>
+          <t>8.8LPA</t>
+        </is>
+      </c>
+      <c r="C3387" t="inlineStr">
+        <is>
+          <t>Bristol Myers Squibb</t>
+        </is>
+      </c>
+      <c r="D3387" t="inlineStr">
+        <is>
+          <t>BCB</t>
+        </is>
+      </c>
+      <c r="E3387" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3388">
+      <c r="A3388" t="inlineStr">
+        <is>
+          <t>21BAI1119</t>
+        </is>
+      </c>
+      <c r="B3388" t="inlineStr">
+        <is>
+          <t>8.8LPA</t>
+        </is>
+      </c>
+      <c r="C3388" t="inlineStr">
+        <is>
+          <t>Bristol Myers Squibb</t>
+        </is>
+      </c>
+      <c r="D3388" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E3388" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3389">
+      <c r="A3389" t="inlineStr">
+        <is>
+          <t>21BCE2057</t>
+        </is>
+      </c>
+      <c r="B3389" t="inlineStr">
+        <is>
+          <t>8.8LPA</t>
+        </is>
+      </c>
+      <c r="C3389" t="inlineStr">
+        <is>
+          <t>Bristol Myers Squibb</t>
+        </is>
+      </c>
+      <c r="D3389" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3389" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3390">
+      <c r="A3390" t="inlineStr">
+        <is>
+          <t>21BDS0224</t>
+        </is>
+      </c>
+      <c r="B3390" t="inlineStr">
+        <is>
+          <t>8.8LPA</t>
+        </is>
+      </c>
+      <c r="C3390" t="inlineStr">
+        <is>
+          <t>Bristol Myers Squibb</t>
+        </is>
+      </c>
+      <c r="D3390" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E3390" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3391">
+      <c r="A3391" t="inlineStr">
+        <is>
+          <t>21BAI1456</t>
+        </is>
+      </c>
+      <c r="B3391" t="inlineStr">
+        <is>
+          <t>8.8LPA</t>
+        </is>
+      </c>
+      <c r="C3391" t="inlineStr">
+        <is>
+          <t>Bristol Myers Squibb</t>
+        </is>
+      </c>
+      <c r="D3391" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E3391" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3392">
+      <c r="A3392" t="inlineStr">
+        <is>
+          <t>21BAI1772</t>
+        </is>
+      </c>
+      <c r="B3392" t="inlineStr">
+        <is>
+          <t>8.8LPA</t>
+        </is>
+      </c>
+      <c r="C3392" t="inlineStr">
+        <is>
+          <t>Bristol Myers Squibb</t>
+        </is>
+      </c>
+      <c r="D3392" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E3392" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3393">
+      <c r="A3393" t="inlineStr">
+        <is>
+          <t>21BBT0270</t>
+        </is>
+      </c>
+      <c r="B3393" t="inlineStr">
+        <is>
+          <t>4.5LPA</t>
+        </is>
+      </c>
+      <c r="C3393" t="inlineStr">
+        <is>
+          <t>Zepto</t>
+        </is>
+      </c>
+      <c r="D3393" t="inlineStr">
+        <is>
+          <t>BBT</t>
+        </is>
+      </c>
+      <c r="E3393" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3394">
+      <c r="A3394" t="inlineStr">
+        <is>
+          <t>21BMV1111</t>
+        </is>
+      </c>
+      <c r="B3394" t="inlineStr">
+        <is>
+          <t>4.5LPA</t>
+        </is>
+      </c>
+      <c r="C3394" t="inlineStr">
+        <is>
+          <t>Zepto</t>
+        </is>
+      </c>
+      <c r="D3394" t="inlineStr">
+        <is>
+          <t>BMV</t>
+        </is>
+      </c>
+      <c r="E3394" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3395">
+      <c r="A3395" t="inlineStr">
+        <is>
+          <t>21BEC1584</t>
+        </is>
+      </c>
+      <c r="B3395" t="inlineStr">
+        <is>
+          <t>4.5LPA</t>
+        </is>
+      </c>
+      <c r="C3395" t="inlineStr">
+        <is>
+          <t>Zepto</t>
+        </is>
+      </c>
+      <c r="D3395" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3395" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3396">
+      <c r="A3396" t="inlineStr">
+        <is>
+          <t>21BCE5717</t>
+        </is>
+      </c>
+      <c r="B3396" t="inlineStr">
+        <is>
+          <t>4.5LPA</t>
+        </is>
+      </c>
+      <c r="C3396" t="inlineStr">
+        <is>
+          <t>Zepto</t>
+        </is>
+      </c>
+      <c r="D3396" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3396" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3397">
+      <c r="A3397" t="inlineStr">
+        <is>
+          <t>21BEC1073</t>
+        </is>
+      </c>
+      <c r="B3397" t="inlineStr">
+        <is>
+          <t>4.5LPA</t>
+        </is>
+      </c>
+      <c r="C3397" t="inlineStr">
+        <is>
+          <t>Zepto</t>
+        </is>
+      </c>
+      <c r="D3397" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3397" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3398">
+      <c r="A3398" t="inlineStr">
+        <is>
+          <t>21BEC1478</t>
+        </is>
+      </c>
+      <c r="B3398" t="inlineStr">
+        <is>
+          <t>4.5LPA</t>
+        </is>
+      </c>
+      <c r="C3398" t="inlineStr">
+        <is>
+          <t>Zepto</t>
+        </is>
+      </c>
+      <c r="D3398" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3398" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3399">
+      <c r="A3399" t="inlineStr">
+        <is>
+          <t>21BCE7358</t>
+        </is>
+      </c>
+      <c r="B3399" t="inlineStr">
+        <is>
+          <t>4.5LPA</t>
+        </is>
+      </c>
+      <c r="C3399" t="inlineStr">
+        <is>
+          <t>Zepto</t>
+        </is>
+      </c>
+      <c r="D3399" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3399" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3400">
+      <c r="A3400" t="inlineStr">
+        <is>
+          <t>21BLC1630</t>
+        </is>
+      </c>
+      <c r="B3400" t="inlineStr">
+        <is>
+          <t>4.5LPA</t>
+        </is>
+      </c>
+      <c r="C3400" t="inlineStr">
+        <is>
+          <t>Zepto</t>
+        </is>
+      </c>
+      <c r="D3400" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E3400" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3401">
+      <c r="A3401" t="inlineStr">
+        <is>
+          <t>21BCE8864</t>
+        </is>
+      </c>
+      <c r="B3401" t="inlineStr">
+        <is>
+          <t>4.5LPA</t>
+        </is>
+      </c>
+      <c r="C3401" t="inlineStr">
+        <is>
+          <t>Zepto</t>
+        </is>
+      </c>
+      <c r="D3401" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3401" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3402">
+      <c r="A3402" t="inlineStr">
+        <is>
+          <t>21BEC1339</t>
+        </is>
+      </c>
+      <c r="B3402" t="inlineStr">
+        <is>
+          <t>4.5LPA</t>
+        </is>
+      </c>
+      <c r="C3402" t="inlineStr">
+        <is>
+          <t>Zepto</t>
+        </is>
+      </c>
+      <c r="D3402" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3402" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3403">
+      <c r="A3403" t="inlineStr">
+        <is>
+          <t>21BMH1065</t>
+        </is>
+      </c>
+      <c r="B3403" t="inlineStr">
+        <is>
+          <t>4.5LPA</t>
+        </is>
+      </c>
+      <c r="C3403" t="inlineStr">
+        <is>
+          <t>Zepto</t>
+        </is>
+      </c>
+      <c r="D3403" t="inlineStr">
+        <is>
+          <t>BMH</t>
+        </is>
+      </c>
+      <c r="E3403" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3404">
+      <c r="A3404" t="inlineStr">
+        <is>
+          <t>21BMV1046</t>
+        </is>
+      </c>
+      <c r="B3404" t="inlineStr">
+        <is>
+          <t>4.5LPA</t>
+        </is>
+      </c>
+      <c r="C3404" t="inlineStr">
+        <is>
+          <t>Zepto</t>
+        </is>
+      </c>
+      <c r="D3404" t="inlineStr">
+        <is>
+          <t>BMV</t>
+        </is>
+      </c>
+      <c r="E3404" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3405">
+      <c r="A3405" t="inlineStr">
+        <is>
+          <t>21BMV1085</t>
+        </is>
+      </c>
+      <c r="B3405" t="inlineStr">
+        <is>
+          <t>4.5LPA</t>
+        </is>
+      </c>
+      <c r="C3405" t="inlineStr">
+        <is>
+          <t>Zepto</t>
+        </is>
+      </c>
+      <c r="D3405" t="inlineStr">
+        <is>
+          <t>BMV</t>
+        </is>
+      </c>
+      <c r="E3405" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3406">
+      <c r="A3406" t="inlineStr">
+        <is>
+          <t>21BEC7085</t>
+        </is>
+      </c>
+      <c r="B3406" t="inlineStr">
+        <is>
+          <t>4.5LPA</t>
+        </is>
+      </c>
+      <c r="C3406" t="inlineStr">
+        <is>
+          <t>Zepto</t>
+        </is>
+      </c>
+      <c r="D3406" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3406" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3407">
+      <c r="A3407" t="inlineStr">
+        <is>
+          <t>21BCE9957</t>
+        </is>
+      </c>
+      <c r="B3407" t="inlineStr">
+        <is>
+          <t>4.5LPA</t>
+        </is>
+      </c>
+      <c r="C3407" t="inlineStr">
+        <is>
+          <t>Zepto</t>
+        </is>
+      </c>
+      <c r="D3407" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3407" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3408">
+      <c r="A3408" t="inlineStr">
+        <is>
+          <t>21BPS1534</t>
+        </is>
+      </c>
+      <c r="B3408" t="inlineStr">
+        <is>
+          <t>4.5LPA</t>
+        </is>
+      </c>
+      <c r="C3408" t="inlineStr">
+        <is>
+          <t>Zepto</t>
+        </is>
+      </c>
+      <c r="D3408" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="E3408" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3409">
+      <c r="A3409" t="inlineStr">
+        <is>
+          <t>21BEC1093</t>
+        </is>
+      </c>
+      <c r="B3409" t="inlineStr">
+        <is>
+          <t>4.5LPA</t>
+        </is>
+      </c>
+      <c r="C3409" t="inlineStr">
+        <is>
+          <t>Zepto</t>
+        </is>
+      </c>
+      <c r="D3409" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3409" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3410">
+      <c r="A3410" t="inlineStr">
+        <is>
+          <t>21BLC1505</t>
+        </is>
+      </c>
+      <c r="B3410" t="inlineStr">
+        <is>
+          <t>4.5LPA</t>
+        </is>
+      </c>
+      <c r="C3410" t="inlineStr">
+        <is>
+          <t>Zepto</t>
+        </is>
+      </c>
+      <c r="D3410" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E3410" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3411">
+      <c r="A3411" t="inlineStr">
+        <is>
+          <t>21BEC1210</t>
+        </is>
+      </c>
+      <c r="B3411" t="inlineStr">
+        <is>
+          <t>4.5LPA</t>
+        </is>
+      </c>
+      <c r="C3411" t="inlineStr">
+        <is>
+          <t>Zepto</t>
+        </is>
+      </c>
+      <c r="D3411" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3411" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3412">
+      <c r="A3412" t="inlineStr">
+        <is>
+          <t>21BEC2510</t>
+        </is>
+      </c>
+      <c r="B3412" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C3412" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="D3412" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3412" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3413">
+      <c r="A3413" t="inlineStr">
+        <is>
+          <t>21BEC0098</t>
+        </is>
+      </c>
+      <c r="B3413" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C3413" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="D3413" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3413" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3414">
+      <c r="A3414" t="inlineStr">
+        <is>
+          <t>21BCE0903</t>
+        </is>
+      </c>
+      <c r="B3414" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C3414" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="D3414" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3414" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3415">
+      <c r="A3415" t="inlineStr">
+        <is>
+          <t>21BCE0008</t>
+        </is>
+      </c>
+      <c r="B3415" t="inlineStr">
+        <is>
+          <t>7.6LPA</t>
+        </is>
+      </c>
+      <c r="C3415" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="D3415" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3415" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3416">
+      <c r="A3416" t="inlineStr">
+        <is>
+          <t>21BCE3595</t>
+        </is>
+      </c>
+      <c r="B3416" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3416" t="inlineStr">
+        <is>
+          <t>IBM-CIO</t>
+        </is>
+      </c>
+      <c r="D3416" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3416" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3417">
+      <c r="A3417" t="inlineStr">
+        <is>
+          <t>21BCE9173</t>
+        </is>
+      </c>
+      <c r="B3417" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3417" t="inlineStr">
+        <is>
+          <t>IBM-CIO</t>
+        </is>
+      </c>
+      <c r="D3417" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3417" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3418">
+      <c r="A3418" t="inlineStr">
+        <is>
+          <t>21BCE8019</t>
+        </is>
+      </c>
+      <c r="B3418" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3418" t="inlineStr">
+        <is>
+          <t>IBM-CIO</t>
+        </is>
+      </c>
+      <c r="D3418" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3418" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3419">
+      <c r="A3419" t="inlineStr">
+        <is>
+          <t>21BCE0782</t>
+        </is>
+      </c>
+      <c r="B3419" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3419" t="inlineStr">
+        <is>
+          <t>IBM-CIO</t>
+        </is>
+      </c>
+      <c r="D3419" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3419" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3420">
+      <c r="A3420" t="inlineStr">
+        <is>
+          <t>21BCE7020</t>
+        </is>
+      </c>
+      <c r="B3420" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3420" t="inlineStr">
+        <is>
+          <t>IBM-CIO</t>
+        </is>
+      </c>
+      <c r="D3420" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3420" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3421">
+      <c r="A3421" t="inlineStr">
+        <is>
+          <t>21BIT0570</t>
+        </is>
+      </c>
+      <c r="B3421" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3421" t="inlineStr">
+        <is>
+          <t>IBM-CIO</t>
+        </is>
+      </c>
+      <c r="D3421" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E3421" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3422">
+      <c r="A3422" t="inlineStr">
+        <is>
+          <t>21BCE9537</t>
+        </is>
+      </c>
+      <c r="B3422" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3422" t="inlineStr">
+        <is>
+          <t>IBM-CIO</t>
+        </is>
+      </c>
+      <c r="D3422" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3422" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3423">
+      <c r="A3423" t="inlineStr">
+        <is>
+          <t>21BRS1066</t>
+        </is>
+      </c>
+      <c r="B3423" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3423" t="inlineStr">
+        <is>
+          <t>IBM-CIO</t>
+        </is>
+      </c>
+      <c r="D3423" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E3423" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3424">
+      <c r="A3424" t="inlineStr">
+        <is>
+          <t>21BCE9496</t>
+        </is>
+      </c>
+      <c r="B3424" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3424" t="inlineStr">
+        <is>
+          <t>IBM-CIO</t>
+        </is>
+      </c>
+      <c r="D3424" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3424" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3425">
+      <c r="A3425" t="inlineStr">
+        <is>
+          <t>21BCE3190</t>
+        </is>
+      </c>
+      <c r="B3425" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3425" t="inlineStr">
+        <is>
+          <t>IBM-CIO</t>
+        </is>
+      </c>
+      <c r="D3425" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3425" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3426">
+      <c r="A3426" t="inlineStr">
+        <is>
+          <t>21BAI1553</t>
+        </is>
+      </c>
+      <c r="B3426" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3426" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="D3426" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E3426" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3427">
+      <c r="A3427" t="inlineStr">
+        <is>
+          <t>21BBT0119</t>
+        </is>
+      </c>
+      <c r="B3427" t="inlineStr">
+        <is>
+          <t>4.3LPA</t>
+        </is>
+      </c>
+      <c r="C3427" t="inlineStr">
+        <is>
+          <t>Labcorp</t>
+        </is>
+      </c>
+      <c r="D3427" t="inlineStr">
+        <is>
+          <t>BBT</t>
+        </is>
+      </c>
+      <c r="E3427" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3428">
+      <c r="A3428" t="inlineStr">
+        <is>
+          <t>21BCE3046</t>
+        </is>
+      </c>
+      <c r="B3428" t="inlineStr">
+        <is>
+          <t>4.3LPA</t>
+        </is>
+      </c>
+      <c r="C3428" t="inlineStr">
+        <is>
+          <t>Labcorp</t>
+        </is>
+      </c>
+      <c r="D3428" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3428" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3429">
+      <c r="A3429" t="inlineStr">
+        <is>
+          <t>21BPS1538</t>
+        </is>
+      </c>
+      <c r="B3429" t="inlineStr">
+        <is>
+          <t>4.3LPA</t>
+        </is>
+      </c>
+      <c r="C3429" t="inlineStr">
+        <is>
+          <t>Labcorp</t>
+        </is>
+      </c>
+      <c r="D3429" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="E3429" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3430">
+      <c r="A3430" t="inlineStr">
+        <is>
+          <t>21BCM0126</t>
+        </is>
+      </c>
+      <c r="B3430" t="inlineStr">
+        <is>
+          <t>8.6LPA</t>
+        </is>
+      </c>
+      <c r="C3430" t="inlineStr">
+        <is>
+          <t>PharmaACE</t>
+        </is>
+      </c>
+      <c r="D3430" t="inlineStr">
+        <is>
+          <t>BCM</t>
+        </is>
+      </c>
+      <c r="E3430" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3431">
+      <c r="A3431" t="inlineStr">
+        <is>
+          <t>21BBT0262</t>
+        </is>
+      </c>
+      <c r="B3431" t="inlineStr">
+        <is>
+          <t>8.6LPA</t>
+        </is>
+      </c>
+      <c r="C3431" t="inlineStr">
+        <is>
+          <t>PharmaACE</t>
+        </is>
+      </c>
+      <c r="D3431" t="inlineStr">
+        <is>
+          <t>BBT</t>
+        </is>
+      </c>
+      <c r="E3431" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3432">
+      <c r="A3432" t="inlineStr">
+        <is>
+          <t>21BEC1848</t>
+        </is>
+      </c>
+      <c r="B3432" t="inlineStr">
+        <is>
+          <t>8.6LPA</t>
+        </is>
+      </c>
+      <c r="C3432" t="inlineStr">
+        <is>
+          <t>PharmaACE</t>
+        </is>
+      </c>
+      <c r="D3432" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3432" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3433">
+      <c r="A3433" t="inlineStr">
+        <is>
+          <t>21BMA0037</t>
+        </is>
+      </c>
+      <c r="B3433" t="inlineStr">
+        <is>
+          <t>11LPA</t>
+        </is>
+      </c>
+      <c r="C3433" t="inlineStr">
+        <is>
+          <t>Vguard</t>
+        </is>
+      </c>
+      <c r="D3433" t="inlineStr">
+        <is>
+          <t>BMA</t>
+        </is>
+      </c>
+      <c r="E3433" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3434">
+      <c r="A3434" t="inlineStr">
+        <is>
+          <t>21BMH1210</t>
+        </is>
+      </c>
+      <c r="B3434" t="inlineStr">
+        <is>
+          <t>11LPA</t>
+        </is>
+      </c>
+      <c r="C3434" t="inlineStr">
+        <is>
+          <t>Vguard</t>
+        </is>
+      </c>
+      <c r="D3434" t="inlineStr">
+        <is>
+          <t>BMH</t>
+        </is>
+      </c>
+      <c r="E3434" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3435">
+      <c r="A3435" t="inlineStr">
+        <is>
+          <t>21BME1062</t>
+        </is>
+      </c>
+      <c r="B3435" t="inlineStr">
+        <is>
+          <t>11LPA</t>
+        </is>
+      </c>
+      <c r="C3435" t="inlineStr">
+        <is>
+          <t>Vguard</t>
+        </is>
+      </c>
+      <c r="D3435" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3435" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3436">
+      <c r="A3436" t="inlineStr">
+        <is>
+          <t>21BEE0212</t>
+        </is>
+      </c>
+      <c r="B3436" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3436" t="inlineStr">
+        <is>
+          <t>Aumyaa Consulting Services LLP</t>
+        </is>
+      </c>
+      <c r="D3436" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3436" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3437">
+      <c r="A3437" t="inlineStr">
+        <is>
+          <t>21BCE2838</t>
+        </is>
+      </c>
+      <c r="B3437" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3437" t="inlineStr">
+        <is>
+          <t>Aumyaa Consulting Services LLP</t>
+        </is>
+      </c>
+      <c r="D3437" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3437" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3438">
+      <c r="A3438" t="inlineStr">
+        <is>
+          <t>21BCE2050</t>
+        </is>
+      </c>
+      <c r="B3438" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3438" t="inlineStr">
+        <is>
+          <t>Aumyaa Consulting Services LLP</t>
+        </is>
+      </c>
+      <c r="D3438" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3438" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3439">
+      <c r="A3439" t="inlineStr">
+        <is>
+          <t>21BCE1800</t>
+        </is>
+      </c>
+      <c r="B3439" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3439" t="inlineStr">
+        <is>
+          <t>Smart Data Solution</t>
+        </is>
+      </c>
+      <c r="D3439" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3439" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3440">
+      <c r="A3440" t="inlineStr">
+        <is>
+          <t>21BLC1632</t>
+        </is>
+      </c>
+      <c r="B3440" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3440" t="inlineStr">
+        <is>
+          <t>Smart Data Solution</t>
+        </is>
+      </c>
+      <c r="D3440" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E3440" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3441">
+      <c r="A3441" t="inlineStr">
+        <is>
+          <t>21BAI1392</t>
+        </is>
+      </c>
+      <c r="B3441" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3441" t="inlineStr">
+        <is>
+          <t>Smart Data Solution</t>
+        </is>
+      </c>
+      <c r="D3441" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E3441" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3442">
+      <c r="A3442" t="inlineStr">
+        <is>
+          <t>21BCE9250</t>
+        </is>
+      </c>
+      <c r="B3442" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3442" t="inlineStr">
+        <is>
+          <t>Smart Data Solution</t>
+        </is>
+      </c>
+      <c r="D3442" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3442" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3443">
+      <c r="A3443" t="inlineStr">
+        <is>
+          <t>21BEE0017</t>
+        </is>
+      </c>
+      <c r="B3443" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C3443" t="inlineStr">
+        <is>
+          <t>Sparrow Risk Management</t>
+        </is>
+      </c>
+      <c r="D3443" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3443" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3444">
+      <c r="A3444" t="inlineStr">
+        <is>
+          <t>21BEE0115</t>
+        </is>
+      </c>
+      <c r="B3444" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C3444" t="inlineStr">
+        <is>
+          <t>Sparrow Risk Management</t>
+        </is>
+      </c>
+      <c r="D3444" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3444" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3445">
+      <c r="A3445" t="inlineStr">
+        <is>
+          <t>21BCE8774</t>
+        </is>
+      </c>
+      <c r="B3445" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3445" t="inlineStr">
+        <is>
+          <t>Appointy</t>
+        </is>
+      </c>
+      <c r="D3445" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3445" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3446">
+      <c r="A3446" t="inlineStr">
+        <is>
+          <t>21BCE9310</t>
+        </is>
+      </c>
+      <c r="B3446" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3446" t="inlineStr">
+        <is>
+          <t>HSBC(Finops)</t>
+        </is>
+      </c>
+      <c r="D3446" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3446" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3447">
+      <c r="A3447" t="inlineStr">
+        <is>
+          <t>21BCE8887</t>
+        </is>
+      </c>
+      <c r="B3447" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3447" t="inlineStr">
+        <is>
+          <t>HSBC(Finops)</t>
+        </is>
+      </c>
+      <c r="D3447" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3447" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3448">
+      <c r="A3448" t="inlineStr">
+        <is>
+          <t>21BCE10110</t>
+        </is>
+      </c>
+      <c r="B3448" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3448" t="inlineStr">
+        <is>
+          <t>HSBC(Finops)</t>
+        </is>
+      </c>
+      <c r="D3448" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3448" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3449">
+      <c r="A3449" t="inlineStr">
+        <is>
+          <t>21BAI1381</t>
+        </is>
+      </c>
+      <c r="B3449" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3449" t="inlineStr">
+        <is>
+          <t>HSBC(Finops)</t>
+        </is>
+      </c>
+      <c r="D3449" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E3449" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3450">
+      <c r="A3450" t="inlineStr">
+        <is>
+          <t>21BCE10182</t>
+        </is>
+      </c>
+      <c r="B3450" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3450" t="inlineStr">
+        <is>
+          <t>HSBC(Finops)</t>
+        </is>
+      </c>
+      <c r="D3450" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3450" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3451">
+      <c r="A3451" t="inlineStr">
+        <is>
+          <t>21BCE8993</t>
+        </is>
+      </c>
+      <c r="B3451" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3451" t="inlineStr">
+        <is>
+          <t>HSBC(Finops)</t>
+        </is>
+      </c>
+      <c r="D3451" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3451" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3452">
+      <c r="A3452" t="inlineStr">
+        <is>
+          <t>21BCE3590</t>
+        </is>
+      </c>
+      <c r="B3452" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3452" t="inlineStr">
+        <is>
+          <t>HSBC(Finops)</t>
+        </is>
+      </c>
+      <c r="D3452" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3452" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3453">
+      <c r="A3453" t="inlineStr">
+        <is>
+          <t>21BCE8995</t>
+        </is>
+      </c>
+      <c r="B3453" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3453" t="inlineStr">
+        <is>
+          <t>HSBC(Finops)</t>
+        </is>
+      </c>
+      <c r="D3453" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3453" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3454">
+      <c r="A3454" t="inlineStr">
+        <is>
+          <t>21BCE3143</t>
+        </is>
+      </c>
+      <c r="B3454" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3454" t="inlineStr">
+        <is>
+          <t>HSBC(Finops)</t>
+        </is>
+      </c>
+      <c r="D3454" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3454" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3455">
+      <c r="A3455" t="inlineStr">
+        <is>
+          <t>21BCE9922</t>
+        </is>
+      </c>
+      <c r="B3455" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3455" t="inlineStr">
+        <is>
+          <t>HSBC(Finops)</t>
+        </is>
+      </c>
+      <c r="D3455" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3455" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3456">
+      <c r="A3456" t="inlineStr">
+        <is>
+          <t>21BCE9111</t>
+        </is>
+      </c>
+      <c r="B3456" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3456" t="inlineStr">
+        <is>
+          <t>HSBC(Finops)</t>
+        </is>
+      </c>
+      <c r="D3456" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3456" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3457">
+      <c r="A3457" t="inlineStr">
+        <is>
+          <t>21BCE10344</t>
+        </is>
+      </c>
+      <c r="B3457" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3457" t="inlineStr">
+        <is>
+          <t>HSBC(Finops)</t>
+        </is>
+      </c>
+      <c r="D3457" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3457" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3458">
+      <c r="A3458" t="inlineStr">
+        <is>
+          <t>21BCE9339</t>
+        </is>
+      </c>
+      <c r="B3458" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3458" t="inlineStr">
+        <is>
+          <t>HSBC(Finops)</t>
+        </is>
+      </c>
+      <c r="D3458" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3458" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3459">
+      <c r="A3459" t="inlineStr">
+        <is>
+          <t>21BCE9066</t>
+        </is>
+      </c>
+      <c r="B3459" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3459" t="inlineStr">
+        <is>
+          <t>HSBC(Finops)</t>
+        </is>
+      </c>
+      <c r="D3459" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3459" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3460">
+      <c r="A3460" t="inlineStr">
+        <is>
+          <t>21BCE10606</t>
+        </is>
+      </c>
+      <c r="B3460" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3460" t="inlineStr">
+        <is>
+          <t>HSBC(Finops)</t>
+        </is>
+      </c>
+      <c r="D3460" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3460" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3461">
+      <c r="A3461" t="inlineStr">
+        <is>
+          <t>21BAI1522</t>
+        </is>
+      </c>
+      <c r="B3461" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3461" t="inlineStr">
+        <is>
+          <t>HSBC(Finops)</t>
+        </is>
+      </c>
+      <c r="D3461" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E3461" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3462">
+      <c r="A3462" t="inlineStr">
+        <is>
+          <t>21BAI1280</t>
+        </is>
+      </c>
+      <c r="B3462" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3462" t="inlineStr">
+        <is>
+          <t>HSBC(Finops)</t>
+        </is>
+      </c>
+      <c r="D3462" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E3462" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3463">
+      <c r="A3463" t="inlineStr">
+        <is>
+          <t>21BCE9899</t>
+        </is>
+      </c>
+      <c r="B3463" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3463" t="inlineStr">
+        <is>
+          <t>HSBC(Finops)</t>
+        </is>
+      </c>
+      <c r="D3463" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3463" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3464">
+      <c r="A3464" t="inlineStr">
+        <is>
+          <t>21BME1116</t>
+        </is>
+      </c>
+      <c r="B3464" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3464" t="inlineStr">
+        <is>
+          <t>Daimler India Commercial Vehicles Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="D3464" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3464" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3465">
+      <c r="A3465" t="inlineStr">
+        <is>
+          <t>21BCE5259</t>
+        </is>
+      </c>
+      <c r="B3465" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3465" t="inlineStr">
+        <is>
+          <t>Cleartax</t>
+        </is>
+      </c>
+      <c r="D3465" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3465" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3466">
+      <c r="A3466" t="inlineStr">
+        <is>
+          <t>21BCE6051</t>
+        </is>
+      </c>
+      <c r="B3466" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3466" t="inlineStr">
+        <is>
+          <t>Cleartax</t>
+        </is>
+      </c>
+      <c r="D3466" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3466" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3467">
+      <c r="A3467" t="inlineStr">
+        <is>
+          <t>21BCE0763</t>
+        </is>
+      </c>
+      <c r="B3467" t="inlineStr">
+        <is>
+          <t>6.5LPA</t>
+        </is>
+      </c>
+      <c r="C3467" t="inlineStr">
+        <is>
+          <t>Cleartax</t>
+        </is>
+      </c>
+      <c r="D3467" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3467" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3468">
+      <c r="A3468" t="inlineStr">
+        <is>
+          <t>21BCE5180</t>
+        </is>
+      </c>
+      <c r="B3468" t="inlineStr">
+        <is>
+          <t>5.5LPA</t>
+        </is>
+      </c>
+      <c r="C3468" t="inlineStr">
+        <is>
+          <t>Cleartax</t>
+        </is>
+      </c>
+      <c r="D3468" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3468" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3469">
+      <c r="A3469" t="inlineStr">
+        <is>
+          <t>21BCE7057</t>
+        </is>
+      </c>
+      <c r="B3469" t="inlineStr">
+        <is>
+          <t>5.5LPA</t>
+        </is>
+      </c>
+      <c r="C3469" t="inlineStr">
+        <is>
+          <t>Cleartax</t>
+        </is>
+      </c>
+      <c r="D3469" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3469" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3470">
+      <c r="A3470" t="inlineStr">
+        <is>
+          <t>21BBS0177</t>
+        </is>
+      </c>
+      <c r="B3470" t="inlineStr">
+        <is>
+          <t>8.4LPA</t>
+        </is>
+      </c>
+      <c r="C3470" t="inlineStr">
+        <is>
+          <t>Cleartax</t>
+        </is>
+      </c>
+      <c r="D3470" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="E3470" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3471">
+      <c r="A3471" t="inlineStr">
+        <is>
+          <t>21BCE9406</t>
+        </is>
+      </c>
+      <c r="B3471" t="inlineStr">
+        <is>
+          <t>5LPA</t>
+        </is>
+      </c>
+      <c r="C3471" t="inlineStr">
+        <is>
+          <t>Cleartax</t>
+        </is>
+      </c>
+      <c r="D3471" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3471" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3472">
+      <c r="A3472" t="inlineStr">
+        <is>
+          <t>21BMH1082</t>
+        </is>
+      </c>
+      <c r="B3472" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3472" t="inlineStr">
+        <is>
+          <t>Daimler India Commercial Vehicles Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="D3472" t="inlineStr">
+        <is>
+          <t>BMH</t>
+        </is>
+      </c>
+      <c r="E3472" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3473">
+      <c r="A3473" t="inlineStr">
+        <is>
+          <t>21BMH1151</t>
+        </is>
+      </c>
+      <c r="B3473" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3473" t="inlineStr">
+        <is>
+          <t>Daimler India Commercial Vehicles Pvt. Ltd</t>
+        </is>
+      </c>
+      <c r="D3473" t="inlineStr">
+        <is>
+          <t>BMH</t>
+        </is>
+      </c>
+      <c r="E3473" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3474">
+      <c r="A3474" t="inlineStr">
+        <is>
+          <t>21BEC0840</t>
+        </is>
+      </c>
+      <c r="B3474" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3474" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="D3474" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3474" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3475">
+      <c r="A3475" t="inlineStr">
+        <is>
+          <t>21BCE9762</t>
+        </is>
+      </c>
+      <c r="B3475" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3475" t="inlineStr">
+        <is>
+          <t>Ericsson</t>
+        </is>
+      </c>
+      <c r="D3475" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3475" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3476">
+      <c r="A3476" t="inlineStr">
+        <is>
+          <t>21BAI1739</t>
+        </is>
+      </c>
+      <c r="B3476" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3476" t="inlineStr">
+        <is>
+          <t>Ericsson</t>
+        </is>
+      </c>
+      <c r="D3476" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E3476" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3477">
+      <c r="A3477" t="inlineStr">
+        <is>
+          <t>21BCE9498</t>
+        </is>
+      </c>
+      <c r="B3477" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3477" t="inlineStr">
+        <is>
+          <t>Ericsson</t>
+        </is>
+      </c>
+      <c r="D3477" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3477" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3478">
+      <c r="A3478" t="inlineStr">
+        <is>
+          <t>21BCE9521</t>
+        </is>
+      </c>
+      <c r="B3478" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3478" t="inlineStr">
+        <is>
+          <t>Ericsson</t>
+        </is>
+      </c>
+      <c r="D3478" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3478" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3479">
+      <c r="A3479" t="inlineStr">
+        <is>
+          <t>21BCE7338</t>
+        </is>
+      </c>
+      <c r="B3479" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3479" t="inlineStr">
+        <is>
+          <t>Ericsson</t>
+        </is>
+      </c>
+      <c r="D3479" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3479" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3480">
+      <c r="A3480" t="inlineStr">
+        <is>
+          <t>21BCE9401</t>
+        </is>
+      </c>
+      <c r="B3480" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3480" t="inlineStr">
+        <is>
+          <t>Ericsson</t>
+        </is>
+      </c>
+      <c r="D3480" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3480" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3481">
+      <c r="A3481" t="inlineStr">
+        <is>
+          <t>21BCE2746</t>
+        </is>
+      </c>
+      <c r="B3481" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3481" t="inlineStr">
+        <is>
+          <t>Ericsson</t>
+        </is>
+      </c>
+      <c r="D3481" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3481" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3482">
+      <c r="A3482" t="inlineStr">
+        <is>
+          <t>21BCE9503</t>
+        </is>
+      </c>
+      <c r="B3482" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3482" t="inlineStr">
+        <is>
+          <t>Ericsson</t>
+        </is>
+      </c>
+      <c r="D3482" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3482" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3483">
+      <c r="A3483" t="inlineStr">
+        <is>
+          <t>21BCE11339</t>
+        </is>
+      </c>
+      <c r="B3483" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3483" t="inlineStr">
+        <is>
+          <t>Ericsson</t>
+        </is>
+      </c>
+      <c r="D3483" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3483" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3484">
+      <c r="A3484" t="inlineStr">
+        <is>
+          <t>21BCE9919</t>
+        </is>
+      </c>
+      <c r="B3484" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3484" t="inlineStr">
+        <is>
+          <t>Ericsson</t>
+        </is>
+      </c>
+      <c r="D3484" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3484" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3485">
+      <c r="A3485" t="inlineStr">
+        <is>
+          <t>21BBS0272</t>
+        </is>
+      </c>
+      <c r="B3485" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3485" t="inlineStr">
+        <is>
+          <t>Ericsson</t>
+        </is>
+      </c>
+      <c r="D3485" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="E3485" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3486">
+      <c r="A3486" t="inlineStr">
+        <is>
+          <t>21BCE9450</t>
+        </is>
+      </c>
+      <c r="B3486" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3486" t="inlineStr">
+        <is>
+          <t>Ericsson</t>
+        </is>
+      </c>
+      <c r="D3486" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3486" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3487">
+      <c r="A3487" t="inlineStr">
+        <is>
+          <t>21BCE9304</t>
+        </is>
+      </c>
+      <c r="B3487" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3487" t="inlineStr">
+        <is>
+          <t>Ericsson</t>
+        </is>
+      </c>
+      <c r="D3487" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3487" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3488">
+      <c r="A3488" t="inlineStr">
+        <is>
+          <t>21BCE7838</t>
+        </is>
+      </c>
+      <c r="B3488" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3488" t="inlineStr">
+        <is>
+          <t>Ericsson</t>
+        </is>
+      </c>
+      <c r="D3488" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3488" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3489">
+      <c r="A3489" t="inlineStr">
+        <is>
+          <t>21BCE9754</t>
+        </is>
+      </c>
+      <c r="B3489" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3489" t="inlineStr">
+        <is>
+          <t>Ericsson</t>
+        </is>
+      </c>
+      <c r="D3489" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3489" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3490">
+      <c r="A3490" t="inlineStr">
+        <is>
+          <t>21BCE9859</t>
+        </is>
+      </c>
+      <c r="B3490" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3490" t="inlineStr">
+        <is>
+          <t>Ericsson</t>
+        </is>
+      </c>
+      <c r="D3490" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3490" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3491">
+      <c r="A3491" t="inlineStr">
+        <is>
+          <t>21BRS1654</t>
+        </is>
+      </c>
+      <c r="B3491" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3491" t="inlineStr">
+        <is>
+          <t>Ericsson</t>
+        </is>
+      </c>
+      <c r="D3491" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E3491" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3492">
+      <c r="A3492" t="inlineStr">
+        <is>
+          <t>21BCE3377</t>
+        </is>
+      </c>
+      <c r="B3492" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C3492" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="D3492" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3492" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3493">
+      <c r="A3493" t="inlineStr">
+        <is>
+          <t>21BLC1373</t>
+        </is>
+      </c>
+      <c r="B3493" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C3493" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="D3493" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E3493" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3494">
+      <c r="A3494" t="inlineStr">
+        <is>
+          <t>21BCL0063</t>
+        </is>
+      </c>
+      <c r="B3494" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C3494" t="inlineStr">
+        <is>
+          <t>Godrej Properties Limited</t>
+        </is>
+      </c>
+      <c r="D3494" t="inlineStr">
+        <is>
+          <t>BCL</t>
+        </is>
+      </c>
+      <c r="E3494" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3495">
+      <c r="A3495" t="inlineStr">
+        <is>
+          <t>21BCL0029</t>
+        </is>
+      </c>
+      <c r="B3495" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C3495" t="inlineStr">
+        <is>
+          <t>Godrej Properties Limited</t>
+        </is>
+      </c>
+      <c r="D3495" t="inlineStr">
+        <is>
+          <t>BCL</t>
+        </is>
+      </c>
+      <c r="E3495" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3496">
+      <c r="A3496" t="inlineStr">
+        <is>
+          <t>21BCL0079</t>
+        </is>
+      </c>
+      <c r="B3496" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C3496" t="inlineStr">
+        <is>
+          <t>Godrej Properties Limited</t>
+        </is>
+      </c>
+      <c r="D3496" t="inlineStr">
+        <is>
+          <t>BCL</t>
+        </is>
+      </c>
+      <c r="E3496" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3497">
+      <c r="A3497" t="inlineStr">
+        <is>
+          <t>21BCE10173</t>
+        </is>
+      </c>
+      <c r="B3497" t="inlineStr">
+        <is>
+          <t>16LPA</t>
+        </is>
+      </c>
+      <c r="C3497" t="inlineStr">
+        <is>
+          <t>Mercari</t>
+        </is>
+      </c>
+      <c r="D3497" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3497" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3498">
+      <c r="A3498" t="inlineStr">
+        <is>
+          <t>21BCE10411</t>
+        </is>
+      </c>
+      <c r="B3498" t="inlineStr">
+        <is>
+          <t>16LPA</t>
+        </is>
+      </c>
+      <c r="C3498" t="inlineStr">
+        <is>
+          <t>Mercari</t>
+        </is>
+      </c>
+      <c r="D3498" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3498" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3499">
+      <c r="A3499" t="inlineStr">
+        <is>
+          <t>21BCE1230</t>
+        </is>
+      </c>
+      <c r="B3499" t="inlineStr">
+        <is>
+          <t>16LPA</t>
+        </is>
+      </c>
+      <c r="C3499" t="inlineStr">
+        <is>
+          <t>Mercari</t>
+        </is>
+      </c>
+      <c r="D3499" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3499" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3500">
+      <c r="A3500" t="inlineStr">
+        <is>
+          <t>21BCE2312</t>
+        </is>
+      </c>
+      <c r="B3500" t="inlineStr">
+        <is>
+          <t>16LPA</t>
+        </is>
+      </c>
+      <c r="C3500" t="inlineStr">
+        <is>
+          <t>Mercari</t>
+        </is>
+      </c>
+      <c r="D3500" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3500" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3501">
+      <c r="A3501" t="inlineStr">
+        <is>
+          <t>21BCE9221</t>
+        </is>
+      </c>
+      <c r="B3501" t="inlineStr">
+        <is>
+          <t>16LPA</t>
+        </is>
+      </c>
+      <c r="C3501" t="inlineStr">
+        <is>
+          <t>Mercari</t>
+        </is>
+      </c>
+      <c r="D3501" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3501" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3502">
+      <c r="A3502" t="inlineStr">
+        <is>
+          <t>21BCE11147</t>
+        </is>
+      </c>
+      <c r="B3502" t="inlineStr">
+        <is>
+          <t>16LPA</t>
+        </is>
+      </c>
+      <c r="C3502" t="inlineStr">
+        <is>
+          <t>Mercari</t>
+        </is>
+      </c>
+      <c r="D3502" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3502" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3503">
+      <c r="A3503" t="inlineStr">
+        <is>
+          <t>21BCE10048</t>
+        </is>
+      </c>
+      <c r="B3503" t="inlineStr">
+        <is>
+          <t>16LPA</t>
+        </is>
+      </c>
+      <c r="C3503" t="inlineStr">
+        <is>
+          <t>Mercari</t>
+        </is>
+      </c>
+      <c r="D3503" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3503" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3504">
+      <c r="A3504" t="inlineStr">
+        <is>
+          <t>21BCE10484</t>
+        </is>
+      </c>
+      <c r="B3504" t="inlineStr">
+        <is>
+          <t>16LPA</t>
+        </is>
+      </c>
+      <c r="C3504" t="inlineStr">
+        <is>
+          <t>Mercari</t>
+        </is>
+      </c>
+      <c r="D3504" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3504" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3505">
+      <c r="A3505" t="inlineStr">
+        <is>
+          <t>21BCE11353</t>
+        </is>
+      </c>
+      <c r="B3505" t="inlineStr">
+        <is>
+          <t>16LPA</t>
+        </is>
+      </c>
+      <c r="C3505" t="inlineStr">
+        <is>
+          <t>Mercari</t>
+        </is>
+      </c>
+      <c r="D3505" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3505" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3506">
+      <c r="A3506" t="inlineStr">
+        <is>
+          <t>21BCE1734</t>
+        </is>
+      </c>
+      <c r="B3506" t="inlineStr">
+        <is>
+          <t>16LPA</t>
+        </is>
+      </c>
+      <c r="C3506" t="inlineStr">
+        <is>
+          <t>Mercari</t>
+        </is>
+      </c>
+      <c r="D3506" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3506" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3507">
+      <c r="A3507" t="inlineStr">
+        <is>
+          <t>21BEC0685</t>
+        </is>
+      </c>
+      <c r="B3507" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C3507" t="inlineStr">
+        <is>
+          <t>Whirlpool</t>
+        </is>
+      </c>
+      <c r="D3507" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3507" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3508">
+      <c r="A3508" t="inlineStr">
+        <is>
+          <t>21BCE9287</t>
+        </is>
+      </c>
+      <c r="B3508" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3508" t="inlineStr">
+        <is>
+          <t>Indigo</t>
+        </is>
+      </c>
+      <c r="D3508" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3508" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3509">
+      <c r="A3509" t="inlineStr">
+        <is>
+          <t>21BIT0292</t>
+        </is>
+      </c>
+      <c r="B3509" t="inlineStr">
+        <is>
+          <t>5.5LPA</t>
+        </is>
+      </c>
+      <c r="C3509" t="inlineStr">
+        <is>
+          <t>Cleartax</t>
+        </is>
+      </c>
+      <c r="D3509" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E3509" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3510">
+      <c r="A3510" t="inlineStr">
+        <is>
+          <t>21BCE10095</t>
+        </is>
+      </c>
+      <c r="B3510" t="inlineStr">
+        <is>
+          <t>5.5LPA</t>
+        </is>
+      </c>
+      <c r="C3510" t="inlineStr">
+        <is>
+          <t>Cleartax</t>
+        </is>
+      </c>
+      <c r="D3510" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3510" t="inlineStr">
         <is>
           <t>Female</t>
         </is>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3510"/>
+  <dimension ref="A1:E3657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95208,6 +95208,3975 @@
         </is>
       </c>
     </row>
+    <row r="3511">
+      <c r="A3511" t="inlineStr">
+        <is>
+          <t>21BRS1607</t>
+        </is>
+      </c>
+      <c r="B3511" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C3511" t="inlineStr">
+        <is>
+          <t>Pegasystems</t>
+        </is>
+      </c>
+      <c r="D3511" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E3511" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3512">
+      <c r="A3512" t="inlineStr">
+        <is>
+          <t>21BCE7120</t>
+        </is>
+      </c>
+      <c r="B3512" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C3512" t="inlineStr">
+        <is>
+          <t>Pegasystems</t>
+        </is>
+      </c>
+      <c r="D3512" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3512" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3513">
+      <c r="A3513" t="inlineStr">
+        <is>
+          <t>21BCE2847</t>
+        </is>
+      </c>
+      <c r="B3513" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C3513" t="inlineStr">
+        <is>
+          <t>Pegasystems</t>
+        </is>
+      </c>
+      <c r="D3513" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3513" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3514">
+      <c r="A3514" t="inlineStr">
+        <is>
+          <t>21BCT0440</t>
+        </is>
+      </c>
+      <c r="B3514" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C3514" t="inlineStr">
+        <is>
+          <t>Pegasystems</t>
+        </is>
+      </c>
+      <c r="D3514" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+      <c r="E3514" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3515">
+      <c r="A3515" t="inlineStr">
+        <is>
+          <t>21BCE1039</t>
+        </is>
+      </c>
+      <c r="B3515" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C3515" t="inlineStr">
+        <is>
+          <t>Pegasystems</t>
+        </is>
+      </c>
+      <c r="D3515" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3515" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3516">
+      <c r="A3516" t="inlineStr">
+        <is>
+          <t>21BDS0010</t>
+        </is>
+      </c>
+      <c r="B3516" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C3516" t="inlineStr">
+        <is>
+          <t>Pegasystems</t>
+        </is>
+      </c>
+      <c r="D3516" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E3516" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3517">
+      <c r="A3517" t="inlineStr">
+        <is>
+          <t>21BCE9935</t>
+        </is>
+      </c>
+      <c r="B3517" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C3517" t="inlineStr">
+        <is>
+          <t>Pegasystems</t>
+        </is>
+      </c>
+      <c r="D3517" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3517" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3518">
+      <c r="A3518" t="inlineStr">
+        <is>
+          <t>21BCE3996</t>
+        </is>
+      </c>
+      <c r="B3518" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C3518" t="inlineStr">
+        <is>
+          <t>Pegasystems</t>
+        </is>
+      </c>
+      <c r="D3518" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3518" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3519">
+      <c r="A3519" t="inlineStr">
+        <is>
+          <t>21BCE11008</t>
+        </is>
+      </c>
+      <c r="B3519" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C3519" t="inlineStr">
+        <is>
+          <t>Pegasystems</t>
+        </is>
+      </c>
+      <c r="D3519" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3519" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3520">
+      <c r="A3520" t="inlineStr">
+        <is>
+          <t>21BCE0378</t>
+        </is>
+      </c>
+      <c r="B3520" t="inlineStr">
+        <is>
+          <t>16LPA</t>
+        </is>
+      </c>
+      <c r="C3520" t="inlineStr">
+        <is>
+          <t>Greyorange</t>
+        </is>
+      </c>
+      <c r="D3520" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3520" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3521">
+      <c r="A3521" t="inlineStr">
+        <is>
+          <t>21BCE1608</t>
+        </is>
+      </c>
+      <c r="B3521" t="inlineStr">
+        <is>
+          <t>16LPA</t>
+        </is>
+      </c>
+      <c r="C3521" t="inlineStr">
+        <is>
+          <t>Greyorange</t>
+        </is>
+      </c>
+      <c r="D3521" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3521" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3522">
+      <c r="A3522" t="inlineStr">
+        <is>
+          <t>21BEE0434</t>
+        </is>
+      </c>
+      <c r="B3522" t="inlineStr">
+        <is>
+          <t>8.4LPA</t>
+        </is>
+      </c>
+      <c r="C3522" t="inlineStr">
+        <is>
+          <t>Kirloskar</t>
+        </is>
+      </c>
+      <c r="D3522" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3522" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3523">
+      <c r="A3523" t="inlineStr">
+        <is>
+          <t>21BEE1160</t>
+        </is>
+      </c>
+      <c r="B3523" t="inlineStr">
+        <is>
+          <t>8.4LPA</t>
+        </is>
+      </c>
+      <c r="C3523" t="inlineStr">
+        <is>
+          <t>Kirloskar</t>
+        </is>
+      </c>
+      <c r="D3523" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3523" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3524">
+      <c r="A3524" t="inlineStr">
+        <is>
+          <t>21BEE1284</t>
+        </is>
+      </c>
+      <c r="B3524" t="inlineStr">
+        <is>
+          <t>8.4LPA</t>
+        </is>
+      </c>
+      <c r="C3524" t="inlineStr">
+        <is>
+          <t>Kirloskar</t>
+        </is>
+      </c>
+      <c r="D3524" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3524" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3525">
+      <c r="A3525" t="inlineStr">
+        <is>
+          <t>21BEE1282</t>
+        </is>
+      </c>
+      <c r="B3525" t="inlineStr">
+        <is>
+          <t>8.4LPA</t>
+        </is>
+      </c>
+      <c r="C3525" t="inlineStr">
+        <is>
+          <t>Kirloskar</t>
+        </is>
+      </c>
+      <c r="D3525" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3525" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3526">
+      <c r="A3526" t="inlineStr">
+        <is>
+          <t>21BML0128</t>
+        </is>
+      </c>
+      <c r="B3526" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3526" t="inlineStr">
+        <is>
+          <t>Aumyaa Consulting</t>
+        </is>
+      </c>
+      <c r="D3526" t="inlineStr">
+        <is>
+          <t>BML</t>
+        </is>
+      </c>
+      <c r="E3526" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3527">
+      <c r="A3527" t="inlineStr">
+        <is>
+          <t>21BDS0078</t>
+        </is>
+      </c>
+      <c r="B3527" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C3527" t="inlineStr">
+        <is>
+          <t>UST</t>
+        </is>
+      </c>
+      <c r="D3527" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E3527" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3528">
+      <c r="A3528" t="inlineStr">
+        <is>
+          <t>21BBS0164</t>
+        </is>
+      </c>
+      <c r="B3528" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C3528" t="inlineStr">
+        <is>
+          <t>UST</t>
+        </is>
+      </c>
+      <c r="D3528" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="E3528" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3529">
+      <c r="A3529" t="inlineStr">
+        <is>
+          <t>21BAI1900</t>
+        </is>
+      </c>
+      <c r="B3529" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C3529" t="inlineStr">
+        <is>
+          <t>UST</t>
+        </is>
+      </c>
+      <c r="D3529" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E3529" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3530">
+      <c r="A3530" t="inlineStr">
+        <is>
+          <t>21BAI1075</t>
+        </is>
+      </c>
+      <c r="B3530" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C3530" t="inlineStr">
+        <is>
+          <t>UST</t>
+        </is>
+      </c>
+      <c r="D3530" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E3530" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3531">
+      <c r="A3531" t="inlineStr">
+        <is>
+          <t>21BIT0158</t>
+        </is>
+      </c>
+      <c r="B3531" t="inlineStr">
+        <is>
+          <t>10LPA</t>
+        </is>
+      </c>
+      <c r="C3531" t="inlineStr">
+        <is>
+          <t>UST</t>
+        </is>
+      </c>
+      <c r="D3531" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E3531" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3532">
+      <c r="A3532" t="inlineStr">
+        <is>
+          <t>21BCE0097</t>
+        </is>
+      </c>
+      <c r="B3532" t="inlineStr">
+        <is>
+          <t>4.25LPA</t>
+        </is>
+      </c>
+      <c r="C3532" t="inlineStr">
+        <is>
+          <t>UST</t>
+        </is>
+      </c>
+      <c r="D3532" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3532" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3533">
+      <c r="A3533" t="inlineStr">
+        <is>
+          <t>21BCE2054</t>
+        </is>
+      </c>
+      <c r="B3533" t="inlineStr">
+        <is>
+          <t>4.25LPA</t>
+        </is>
+      </c>
+      <c r="C3533" t="inlineStr">
+        <is>
+          <t>UST</t>
+        </is>
+      </c>
+      <c r="D3533" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3533" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3534">
+      <c r="A3534" t="inlineStr">
+        <is>
+          <t>21BAI1697</t>
+        </is>
+      </c>
+      <c r="B3534" t="inlineStr">
+        <is>
+          <t>4.25LPA</t>
+        </is>
+      </c>
+      <c r="C3534" t="inlineStr">
+        <is>
+          <t>UST</t>
+        </is>
+      </c>
+      <c r="D3534" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E3534" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3535">
+      <c r="A3535" t="inlineStr">
+        <is>
+          <t>21BME0639</t>
+        </is>
+      </c>
+      <c r="B3535" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C3535" t="inlineStr">
+        <is>
+          <t>Sparrow Risk Management</t>
+        </is>
+      </c>
+      <c r="D3535" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3535" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3536">
+      <c r="A3536" t="inlineStr">
+        <is>
+          <t>21BME0222</t>
+        </is>
+      </c>
+      <c r="B3536" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C3536" t="inlineStr">
+        <is>
+          <t>Sparrow Risk Management</t>
+        </is>
+      </c>
+      <c r="D3536" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3536" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3537">
+      <c r="A3537" t="inlineStr">
+        <is>
+          <t>21BME1294</t>
+        </is>
+      </c>
+      <c r="B3537" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C3537" t="inlineStr">
+        <is>
+          <t>Sparrow Risk Management</t>
+        </is>
+      </c>
+      <c r="D3537" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3537" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3538">
+      <c r="A3538" t="inlineStr">
+        <is>
+          <t>21BCE3181</t>
+        </is>
+      </c>
+      <c r="B3538" t="inlineStr">
+        <is>
+          <t>11LPA</t>
+        </is>
+      </c>
+      <c r="C3538" t="inlineStr">
+        <is>
+          <t>Sparrow Risk Management</t>
+        </is>
+      </c>
+      <c r="D3538" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3538" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3539">
+      <c r="A3539" t="inlineStr">
+        <is>
+          <t>21BCT0237</t>
+        </is>
+      </c>
+      <c r="B3539" t="inlineStr">
+        <is>
+          <t>11LPA</t>
+        </is>
+      </c>
+      <c r="C3539" t="inlineStr">
+        <is>
+          <t>Sparrow Risk Management</t>
+        </is>
+      </c>
+      <c r="D3539" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+      <c r="E3539" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3540">
+      <c r="A3540" t="inlineStr">
+        <is>
+          <t>21BCE0479</t>
+        </is>
+      </c>
+      <c r="B3540" t="inlineStr">
+        <is>
+          <t>11LPA</t>
+        </is>
+      </c>
+      <c r="C3540" t="inlineStr">
+        <is>
+          <t>Sparrow Risk Management</t>
+        </is>
+      </c>
+      <c r="D3540" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3540" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3541">
+      <c r="A3541" t="inlineStr">
+        <is>
+          <t>21BCE3214</t>
+        </is>
+      </c>
+      <c r="B3541" t="inlineStr">
+        <is>
+          <t>11LPA</t>
+        </is>
+      </c>
+      <c r="C3541" t="inlineStr">
+        <is>
+          <t>Sparrow Risk Management</t>
+        </is>
+      </c>
+      <c r="D3541" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3541" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3542">
+      <c r="A3542" t="inlineStr">
+        <is>
+          <t>21BCE11240</t>
+        </is>
+      </c>
+      <c r="B3542" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3542" t="inlineStr">
+        <is>
+          <t>Osfin.ai</t>
+        </is>
+      </c>
+      <c r="D3542" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3542" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3543">
+      <c r="A3543" t="inlineStr">
+        <is>
+          <t>21BCE3707</t>
+        </is>
+      </c>
+      <c r="B3543" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3543" t="inlineStr">
+        <is>
+          <t>Osfin.ai</t>
+        </is>
+      </c>
+      <c r="D3543" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3543" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3544">
+      <c r="A3544" t="inlineStr">
+        <is>
+          <t>21BRS1283</t>
+        </is>
+      </c>
+      <c r="B3544" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3544" t="inlineStr">
+        <is>
+          <t>Addverb Technologies</t>
+        </is>
+      </c>
+      <c r="D3544" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E3544" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3545">
+      <c r="A3545" t="inlineStr">
+        <is>
+          <t>21BCE9301</t>
+        </is>
+      </c>
+      <c r="B3545" t="inlineStr">
+        <is>
+          <t>16LPA</t>
+        </is>
+      </c>
+      <c r="C3545" t="inlineStr">
+        <is>
+          <t>Addverb Technologies</t>
+        </is>
+      </c>
+      <c r="D3545" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3545" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3546">
+      <c r="A3546" t="inlineStr">
+        <is>
+          <t>21BCE2999</t>
+        </is>
+      </c>
+      <c r="B3546" t="inlineStr">
+        <is>
+          <t>16LPA</t>
+        </is>
+      </c>
+      <c r="C3546" t="inlineStr">
+        <is>
+          <t>Addverb Technologies</t>
+        </is>
+      </c>
+      <c r="D3546" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3546" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3547">
+      <c r="A3547" t="inlineStr">
+        <is>
+          <t>21BEC1095</t>
+        </is>
+      </c>
+      <c r="B3547" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3547" t="inlineStr">
+        <is>
+          <t>Addverb Technologies</t>
+        </is>
+      </c>
+      <c r="D3547" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3547" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3548">
+      <c r="A3548" t="inlineStr">
+        <is>
+          <t>21BDS0192</t>
+        </is>
+      </c>
+      <c r="B3548" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3548" t="inlineStr">
+        <is>
+          <t>DCM Shriram</t>
+        </is>
+      </c>
+      <c r="D3548" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E3548" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3549">
+      <c r="A3549" t="inlineStr">
+        <is>
+          <t>21BCE1299</t>
+        </is>
+      </c>
+      <c r="B3549" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3549" t="inlineStr">
+        <is>
+          <t>DCM Shriram</t>
+        </is>
+      </c>
+      <c r="D3549" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3549" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3550">
+      <c r="A3550" t="inlineStr">
+        <is>
+          <t>21BCT0199</t>
+        </is>
+      </c>
+      <c r="B3550" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3550" t="inlineStr">
+        <is>
+          <t>NVIDIA</t>
+        </is>
+      </c>
+      <c r="D3550" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+      <c r="E3550" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3551">
+      <c r="A3551" t="inlineStr">
+        <is>
+          <t>21BCE8039</t>
+        </is>
+      </c>
+      <c r="B3551" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3551" t="inlineStr">
+        <is>
+          <t>NVIDIA</t>
+        </is>
+      </c>
+      <c r="D3551" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3551" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3552">
+      <c r="A3552" t="inlineStr">
+        <is>
+          <t>21BCE0768</t>
+        </is>
+      </c>
+      <c r="B3552" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3552" t="inlineStr">
+        <is>
+          <t>NVIDIA</t>
+        </is>
+      </c>
+      <c r="D3552" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3552" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3553">
+      <c r="A3553" t="inlineStr">
+        <is>
+          <t>21BBT0116</t>
+        </is>
+      </c>
+      <c r="B3553" t="inlineStr">
+        <is>
+          <t>3.6LPA</t>
+        </is>
+      </c>
+      <c r="C3553" t="inlineStr">
+        <is>
+          <t>Raspa Pharma</t>
+        </is>
+      </c>
+      <c r="D3553" t="inlineStr">
+        <is>
+          <t>BBT</t>
+        </is>
+      </c>
+      <c r="E3553" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3554">
+      <c r="A3554" t="inlineStr">
+        <is>
+          <t>21BCE8937</t>
+        </is>
+      </c>
+      <c r="B3554" t="inlineStr">
+        <is>
+          <t>11.26LPA</t>
+        </is>
+      </c>
+      <c r="C3554" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="D3554" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3554" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3555">
+      <c r="A3555" t="inlineStr">
+        <is>
+          <t>21BCE10049</t>
+        </is>
+      </c>
+      <c r="B3555" t="inlineStr">
+        <is>
+          <t>16LPA</t>
+        </is>
+      </c>
+      <c r="C3555" t="inlineStr">
+        <is>
+          <t>Greyorange</t>
+        </is>
+      </c>
+      <c r="D3555" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3555" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3556">
+      <c r="A3556" t="inlineStr">
+        <is>
+          <t>21BCE5194</t>
+        </is>
+      </c>
+      <c r="B3556" t="inlineStr">
+        <is>
+          <t>16LPA</t>
+        </is>
+      </c>
+      <c r="C3556" t="inlineStr">
+        <is>
+          <t>Greyorange</t>
+        </is>
+      </c>
+      <c r="D3556" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3556" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3557">
+      <c r="A3557" t="inlineStr">
+        <is>
+          <t>21BCE11055</t>
+        </is>
+      </c>
+      <c r="B3557" t="inlineStr">
+        <is>
+          <t>15LPA</t>
+        </is>
+      </c>
+      <c r="C3557" t="inlineStr">
+        <is>
+          <t>Relito</t>
+        </is>
+      </c>
+      <c r="D3557" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3557" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3558">
+      <c r="A3558" t="inlineStr">
+        <is>
+          <t>21BCE9039</t>
+        </is>
+      </c>
+      <c r="B3558" t="inlineStr">
+        <is>
+          <t>15LPA</t>
+        </is>
+      </c>
+      <c r="C3558" t="inlineStr">
+        <is>
+          <t>Relito</t>
+        </is>
+      </c>
+      <c r="D3558" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3558" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3559">
+      <c r="A3559" t="inlineStr">
+        <is>
+          <t>21BEE1064</t>
+        </is>
+      </c>
+      <c r="B3559" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3559" t="inlineStr">
+        <is>
+          <t>Yamaha</t>
+        </is>
+      </c>
+      <c r="D3559" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3559" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3560">
+      <c r="A3560" t="inlineStr">
+        <is>
+          <t>21BEE1100</t>
+        </is>
+      </c>
+      <c r="B3560" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3560" t="inlineStr">
+        <is>
+          <t>Yamaha</t>
+        </is>
+      </c>
+      <c r="D3560" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3560" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3561">
+      <c r="A3561" t="inlineStr">
+        <is>
+          <t>21BME0600</t>
+        </is>
+      </c>
+      <c r="B3561" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3561" t="inlineStr">
+        <is>
+          <t>Yamaha</t>
+        </is>
+      </c>
+      <c r="D3561" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3561" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3562">
+      <c r="A3562" t="inlineStr">
+        <is>
+          <t>21BME0224</t>
+        </is>
+      </c>
+      <c r="B3562" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3562" t="inlineStr">
+        <is>
+          <t>Yamaha</t>
+        </is>
+      </c>
+      <c r="D3562" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3562" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3563">
+      <c r="A3563" t="inlineStr">
+        <is>
+          <t>21BEE0257</t>
+        </is>
+      </c>
+      <c r="B3563" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3563" t="inlineStr">
+        <is>
+          <t>Yamaha</t>
+        </is>
+      </c>
+      <c r="D3563" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3563" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3564">
+      <c r="A3564" t="inlineStr">
+        <is>
+          <t>21BEE0355</t>
+        </is>
+      </c>
+      <c r="B3564" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3564" t="inlineStr">
+        <is>
+          <t>Yamaha</t>
+        </is>
+      </c>
+      <c r="D3564" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3564" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3565">
+      <c r="A3565" t="inlineStr">
+        <is>
+          <t>21BMM0019</t>
+        </is>
+      </c>
+      <c r="B3565" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3565" t="inlineStr">
+        <is>
+          <t>Yamaha</t>
+        </is>
+      </c>
+      <c r="D3565" t="inlineStr">
+        <is>
+          <t>BMM</t>
+        </is>
+      </c>
+      <c r="E3565" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3566">
+      <c r="A3566" t="inlineStr">
+        <is>
+          <t>21BME0021</t>
+        </is>
+      </c>
+      <c r="B3566" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3566" t="inlineStr">
+        <is>
+          <t>Yamaha</t>
+        </is>
+      </c>
+      <c r="D3566" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3566" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3567">
+      <c r="A3567" t="inlineStr">
+        <is>
+          <t>21BME0161</t>
+        </is>
+      </c>
+      <c r="B3567" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3567" t="inlineStr">
+        <is>
+          <t>Yamaha</t>
+        </is>
+      </c>
+      <c r="D3567" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3567" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3568">
+      <c r="A3568" t="inlineStr">
+        <is>
+          <t>21BME0386</t>
+        </is>
+      </c>
+      <c r="B3568" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3568" t="inlineStr">
+        <is>
+          <t>Yamaha</t>
+        </is>
+      </c>
+      <c r="D3568" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3568" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3569">
+      <c r="A3569" t="inlineStr">
+        <is>
+          <t>21BME0164</t>
+        </is>
+      </c>
+      <c r="B3569" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3569" t="inlineStr">
+        <is>
+          <t>Yamaha</t>
+        </is>
+      </c>
+      <c r="D3569" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3569" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3570">
+      <c r="A3570" t="inlineStr">
+        <is>
+          <t>21BCE2802</t>
+        </is>
+      </c>
+      <c r="B3570" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C3570" t="inlineStr">
+        <is>
+          <t>Ford Business Solutions</t>
+        </is>
+      </c>
+      <c r="D3570" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3570" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3571">
+      <c r="A3571" t="inlineStr">
+        <is>
+          <t>21BDS0027</t>
+        </is>
+      </c>
+      <c r="B3571" t="inlineStr">
+        <is>
+          <t>6.3LPA</t>
+        </is>
+      </c>
+      <c r="C3571" t="inlineStr">
+        <is>
+          <t>Ford Business Solutions</t>
+        </is>
+      </c>
+      <c r="D3571" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E3571" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3572">
+      <c r="A3572" t="inlineStr">
+        <is>
+          <t>21BCE1411</t>
+        </is>
+      </c>
+      <c r="B3572" t="inlineStr">
+        <is>
+          <t>6.3LPA</t>
+        </is>
+      </c>
+      <c r="C3572" t="inlineStr">
+        <is>
+          <t>Ford Business Solutions</t>
+        </is>
+      </c>
+      <c r="D3572" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3572" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3573">
+      <c r="A3573" t="inlineStr">
+        <is>
+          <t>21BCE6194</t>
+        </is>
+      </c>
+      <c r="B3573" t="inlineStr">
+        <is>
+          <t>6.3LPA</t>
+        </is>
+      </c>
+      <c r="C3573" t="inlineStr">
+        <is>
+          <t>Ford Business Solutions</t>
+        </is>
+      </c>
+      <c r="D3573" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3573" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3574">
+      <c r="A3574" t="inlineStr">
+        <is>
+          <t>21BDS0039</t>
+        </is>
+      </c>
+      <c r="B3574" t="inlineStr">
+        <is>
+          <t>6.3LPA</t>
+        </is>
+      </c>
+      <c r="C3574" t="inlineStr">
+        <is>
+          <t>Ford Business Solutions</t>
+        </is>
+      </c>
+      <c r="D3574" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E3574" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3575">
+      <c r="A3575" t="inlineStr">
+        <is>
+          <t>21BCE3408</t>
+        </is>
+      </c>
+      <c r="B3575" t="inlineStr">
+        <is>
+          <t>6.3LPA</t>
+        </is>
+      </c>
+      <c r="C3575" t="inlineStr">
+        <is>
+          <t>Ford Business Solutions</t>
+        </is>
+      </c>
+      <c r="D3575" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3575" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3576">
+      <c r="A3576" t="inlineStr">
+        <is>
+          <t>21BCT0073</t>
+        </is>
+      </c>
+      <c r="B3576" t="inlineStr">
+        <is>
+          <t>6.3LPA</t>
+        </is>
+      </c>
+      <c r="C3576" t="inlineStr">
+        <is>
+          <t>Ford Business Solutions</t>
+        </is>
+      </c>
+      <c r="D3576" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+      <c r="E3576" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3577">
+      <c r="A3577" t="inlineStr">
+        <is>
+          <t>21BIT0687</t>
+        </is>
+      </c>
+      <c r="B3577" t="inlineStr">
+        <is>
+          <t>6.3LPA</t>
+        </is>
+      </c>
+      <c r="C3577" t="inlineStr">
+        <is>
+          <t>Ford Business Solutions</t>
+        </is>
+      </c>
+      <c r="D3577" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E3577" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3578">
+      <c r="A3578" t="inlineStr">
+        <is>
+          <t>21BCE5632</t>
+        </is>
+      </c>
+      <c r="B3578" t="inlineStr">
+        <is>
+          <t>6.3LPA</t>
+        </is>
+      </c>
+      <c r="C3578" t="inlineStr">
+        <is>
+          <t>Ford Business Solutions</t>
+        </is>
+      </c>
+      <c r="D3578" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3578" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3579">
+      <c r="A3579" t="inlineStr">
+        <is>
+          <t>21BEC1495</t>
+        </is>
+      </c>
+      <c r="B3579" t="inlineStr">
+        <is>
+          <t>6.3LPA</t>
+        </is>
+      </c>
+      <c r="C3579" t="inlineStr">
+        <is>
+          <t>Ford Business Solutions</t>
+        </is>
+      </c>
+      <c r="D3579" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3579" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3580">
+      <c r="A3580" t="inlineStr">
+        <is>
+          <t>21BCE7114</t>
+        </is>
+      </c>
+      <c r="B3580" t="inlineStr">
+        <is>
+          <t>6.3LPA</t>
+        </is>
+      </c>
+      <c r="C3580" t="inlineStr">
+        <is>
+          <t>Ford Business Solutions</t>
+        </is>
+      </c>
+      <c r="D3580" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3580" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3581">
+      <c r="A3581" t="inlineStr">
+        <is>
+          <t>21BMM0088</t>
+        </is>
+      </c>
+      <c r="B3581" t="inlineStr">
+        <is>
+          <t>4.5LPA</t>
+        </is>
+      </c>
+      <c r="C3581" t="inlineStr">
+        <is>
+          <t>Nilkamal</t>
+        </is>
+      </c>
+      <c r="D3581" t="inlineStr">
+        <is>
+          <t>BMM</t>
+        </is>
+      </c>
+      <c r="E3581" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3582">
+      <c r="A3582" t="inlineStr">
+        <is>
+          <t>21BMH1067</t>
+        </is>
+      </c>
+      <c r="B3582" t="inlineStr">
+        <is>
+          <t>4.5LPA</t>
+        </is>
+      </c>
+      <c r="C3582" t="inlineStr">
+        <is>
+          <t>Nilkamal</t>
+        </is>
+      </c>
+      <c r="D3582" t="inlineStr">
+        <is>
+          <t>BMH</t>
+        </is>
+      </c>
+      <c r="E3582" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3583">
+      <c r="A3583" t="inlineStr">
+        <is>
+          <t>21BME0328</t>
+        </is>
+      </c>
+      <c r="B3583" t="inlineStr">
+        <is>
+          <t>4.5LPA</t>
+        </is>
+      </c>
+      <c r="C3583" t="inlineStr">
+        <is>
+          <t>Nilkamal</t>
+        </is>
+      </c>
+      <c r="D3583" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3583" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3584">
+      <c r="A3584" t="inlineStr">
+        <is>
+          <t>21BMH1138</t>
+        </is>
+      </c>
+      <c r="B3584" t="inlineStr">
+        <is>
+          <t>4.5LPA</t>
+        </is>
+      </c>
+      <c r="C3584" t="inlineStr">
+        <is>
+          <t>Nilkamal</t>
+        </is>
+      </c>
+      <c r="D3584" t="inlineStr">
+        <is>
+          <t>BMH</t>
+        </is>
+      </c>
+      <c r="E3584" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3585">
+      <c r="A3585" t="inlineStr">
+        <is>
+          <t>21BME7026</t>
+        </is>
+      </c>
+      <c r="B3585" t="inlineStr">
+        <is>
+          <t>4.5LPA</t>
+        </is>
+      </c>
+      <c r="C3585" t="inlineStr">
+        <is>
+          <t>Nilkamal</t>
+        </is>
+      </c>
+      <c r="D3585" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3585" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3586">
+      <c r="A3586" t="inlineStr">
+        <is>
+          <t>21BAI1724</t>
+        </is>
+      </c>
+      <c r="B3586" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3586" t="inlineStr">
+        <is>
+          <t>Osfin.ai</t>
+        </is>
+      </c>
+      <c r="D3586" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E3586" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3587">
+      <c r="A3587" t="inlineStr">
+        <is>
+          <t>21BCE6068</t>
+        </is>
+      </c>
+      <c r="B3587" t="inlineStr">
+        <is>
+          <t>10.7LPA</t>
+        </is>
+      </c>
+      <c r="C3587" t="inlineStr">
+        <is>
+          <t>PepsiCo</t>
+        </is>
+      </c>
+      <c r="D3587" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3587" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3588">
+      <c r="A3588" t="inlineStr">
+        <is>
+          <t>21BAI1109</t>
+        </is>
+      </c>
+      <c r="B3588" t="inlineStr">
+        <is>
+          <t>10.7LPA</t>
+        </is>
+      </c>
+      <c r="C3588" t="inlineStr">
+        <is>
+          <t>PepsiCo</t>
+        </is>
+      </c>
+      <c r="D3588" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E3588" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3589">
+      <c r="A3589" t="inlineStr">
+        <is>
+          <t>21BCE6194</t>
+        </is>
+      </c>
+      <c r="B3589" t="inlineStr">
+        <is>
+          <t>10.7LPA</t>
+        </is>
+      </c>
+      <c r="C3589" t="inlineStr">
+        <is>
+          <t>PepsiCo</t>
+        </is>
+      </c>
+      <c r="D3589" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3589" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3590">
+      <c r="A3590" t="inlineStr">
+        <is>
+          <t>21BCT0189</t>
+        </is>
+      </c>
+      <c r="B3590" t="inlineStr">
+        <is>
+          <t>10.7LPA</t>
+        </is>
+      </c>
+      <c r="C3590" t="inlineStr">
+        <is>
+          <t>PepsiCo</t>
+        </is>
+      </c>
+      <c r="D3590" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+      <c r="E3590" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3591">
+      <c r="A3591" t="inlineStr">
+        <is>
+          <t>21BCE3809</t>
+        </is>
+      </c>
+      <c r="B3591" t="inlineStr">
+        <is>
+          <t>10.7LPA</t>
+        </is>
+      </c>
+      <c r="C3591" t="inlineStr">
+        <is>
+          <t>PepsiCo</t>
+        </is>
+      </c>
+      <c r="D3591" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3591" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3592">
+      <c r="A3592" t="inlineStr">
+        <is>
+          <t>21BRS1420</t>
+        </is>
+      </c>
+      <c r="B3592" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3592" t="inlineStr">
+        <is>
+          <t>Turing</t>
+        </is>
+      </c>
+      <c r="D3592" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E3592" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3593">
+      <c r="A3593" t="inlineStr">
+        <is>
+          <t>21BCE5587</t>
+        </is>
+      </c>
+      <c r="B3593" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3593" t="inlineStr">
+        <is>
+          <t>Turing</t>
+        </is>
+      </c>
+      <c r="D3593" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3593" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3594">
+      <c r="A3594" t="inlineStr">
+        <is>
+          <t>21BCE5746</t>
+        </is>
+      </c>
+      <c r="B3594" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3594" t="inlineStr">
+        <is>
+          <t>Turing</t>
+        </is>
+      </c>
+      <c r="D3594" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3594" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3595">
+      <c r="A3595" t="inlineStr">
+        <is>
+          <t>21BRS1121</t>
+        </is>
+      </c>
+      <c r="B3595" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3595" t="inlineStr">
+        <is>
+          <t>Turing</t>
+        </is>
+      </c>
+      <c r="D3595" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E3595" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3596">
+      <c r="A3596" t="inlineStr">
+        <is>
+          <t>21BCE0014</t>
+        </is>
+      </c>
+      <c r="B3596" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3596" t="inlineStr">
+        <is>
+          <t>Turing</t>
+        </is>
+      </c>
+      <c r="D3596" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3596" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3597">
+      <c r="A3597" t="inlineStr">
+        <is>
+          <t>21BEC0459</t>
+        </is>
+      </c>
+      <c r="B3597" t="inlineStr">
+        <is>
+          <t>4LPA</t>
+        </is>
+      </c>
+      <c r="C3597" t="inlineStr">
+        <is>
+          <t>Turing</t>
+        </is>
+      </c>
+      <c r="D3597" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3597" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3598">
+      <c r="A3598" t="inlineStr">
+        <is>
+          <t>21BEC0263</t>
+        </is>
+      </c>
+      <c r="B3598" t="inlineStr">
+        <is>
+          <t>4LPA</t>
+        </is>
+      </c>
+      <c r="C3598" t="inlineStr">
+        <is>
+          <t>Turing</t>
+        </is>
+      </c>
+      <c r="D3598" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3598" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3599">
+      <c r="A3599" t="inlineStr">
+        <is>
+          <t>21BEC0462</t>
+        </is>
+      </c>
+      <c r="B3599" t="inlineStr">
+        <is>
+          <t>4LPA</t>
+        </is>
+      </c>
+      <c r="C3599" t="inlineStr">
+        <is>
+          <t>Turing</t>
+        </is>
+      </c>
+      <c r="D3599" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3599" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3600">
+      <c r="A3600" t="inlineStr">
+        <is>
+          <t>21BCE1432</t>
+        </is>
+      </c>
+      <c r="B3600" t="inlineStr">
+        <is>
+          <t>4LPA</t>
+        </is>
+      </c>
+      <c r="C3600" t="inlineStr">
+        <is>
+          <t>Turing</t>
+        </is>
+      </c>
+      <c r="D3600" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3600" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3601">
+      <c r="A3601" t="inlineStr">
+        <is>
+          <t>21BEC1219</t>
+        </is>
+      </c>
+      <c r="B3601" t="inlineStr">
+        <is>
+          <t>4LPA</t>
+        </is>
+      </c>
+      <c r="C3601" t="inlineStr">
+        <is>
+          <t>Turing</t>
+        </is>
+      </c>
+      <c r="D3601" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3601" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3602">
+      <c r="A3602" t="inlineStr">
+        <is>
+          <t>21BEE1274</t>
+        </is>
+      </c>
+      <c r="B3602" t="inlineStr">
+        <is>
+          <t>4LPA</t>
+        </is>
+      </c>
+      <c r="C3602" t="inlineStr">
+        <is>
+          <t>Turing</t>
+        </is>
+      </c>
+      <c r="D3602" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3602" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3603">
+      <c r="A3603" t="inlineStr">
+        <is>
+          <t>21BEE1051</t>
+        </is>
+      </c>
+      <c r="B3603" t="inlineStr">
+        <is>
+          <t>4LPA</t>
+        </is>
+      </c>
+      <c r="C3603" t="inlineStr">
+        <is>
+          <t>Turing</t>
+        </is>
+      </c>
+      <c r="D3603" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3603" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3604">
+      <c r="A3604" t="inlineStr">
+        <is>
+          <t>21BEC0468</t>
+        </is>
+      </c>
+      <c r="B3604" t="inlineStr">
+        <is>
+          <t>4.25LPA</t>
+        </is>
+      </c>
+      <c r="C3604" t="inlineStr">
+        <is>
+          <t>UST</t>
+        </is>
+      </c>
+      <c r="D3604" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3604" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3605">
+      <c r="A3605" t="inlineStr">
+        <is>
+          <t>21BEE0140</t>
+        </is>
+      </c>
+      <c r="B3605" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3605" t="inlineStr">
+        <is>
+          <t>Hyundai Motor</t>
+        </is>
+      </c>
+      <c r="D3605" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3605" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3606">
+      <c r="A3606" t="inlineStr">
+        <is>
+          <t>21BME0485</t>
+        </is>
+      </c>
+      <c r="B3606" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3606" t="inlineStr">
+        <is>
+          <t>Hyundai Motor</t>
+        </is>
+      </c>
+      <c r="D3606" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3606" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3607">
+      <c r="A3607" t="inlineStr">
+        <is>
+          <t>21BME0666</t>
+        </is>
+      </c>
+      <c r="B3607" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3607" t="inlineStr">
+        <is>
+          <t>Hyundai Motor</t>
+        </is>
+      </c>
+      <c r="D3607" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3607" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3608">
+      <c r="A3608" t="inlineStr">
+        <is>
+          <t>21BME1058</t>
+        </is>
+      </c>
+      <c r="B3608" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3608" t="inlineStr">
+        <is>
+          <t>Hyundai Motor</t>
+        </is>
+      </c>
+      <c r="D3608" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3608" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3609">
+      <c r="A3609" t="inlineStr">
+        <is>
+          <t>21BEC0586</t>
+        </is>
+      </c>
+      <c r="B3609" t="inlineStr">
+        <is>
+          <t>13LPA</t>
+        </is>
+      </c>
+      <c r="C3609" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="D3609" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3609" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3610">
+      <c r="A3610" t="inlineStr">
+        <is>
+          <t>21BLC1255</t>
+        </is>
+      </c>
+      <c r="B3610" t="inlineStr">
+        <is>
+          <t>13LPA</t>
+        </is>
+      </c>
+      <c r="C3610" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="D3610" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E3610" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3611">
+      <c r="A3611" t="inlineStr">
+        <is>
+          <t>21BEC2352</t>
+        </is>
+      </c>
+      <c r="B3611" t="inlineStr">
+        <is>
+          <t>13LPA</t>
+        </is>
+      </c>
+      <c r="C3611" t="inlineStr">
+        <is>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="D3611" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3611" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3612">
+      <c r="A3612" t="inlineStr">
+        <is>
+          <t>21BCM0004</t>
+        </is>
+      </c>
+      <c r="B3612" t="inlineStr">
+        <is>
+          <t>6.6LPA</t>
+        </is>
+      </c>
+      <c r="C3612" t="inlineStr">
+        <is>
+          <t>Adani Wilmar</t>
+        </is>
+      </c>
+      <c r="D3612" t="inlineStr">
+        <is>
+          <t>BCM</t>
+        </is>
+      </c>
+      <c r="E3612" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3613">
+      <c r="A3613" t="inlineStr">
+        <is>
+          <t>21BCL0045</t>
+        </is>
+      </c>
+      <c r="B3613" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C3613" t="inlineStr">
+        <is>
+          <t>Godrej Properties Limited</t>
+        </is>
+      </c>
+      <c r="D3613" t="inlineStr">
+        <is>
+          <t>BCL</t>
+        </is>
+      </c>
+      <c r="E3613" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3614">
+      <c r="A3614" t="inlineStr">
+        <is>
+          <t>21BCL1049</t>
+        </is>
+      </c>
+      <c r="B3614" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C3614" t="inlineStr">
+        <is>
+          <t>Godrej Properties Limited</t>
+        </is>
+      </c>
+      <c r="D3614" t="inlineStr">
+        <is>
+          <t>BCL</t>
+        </is>
+      </c>
+      <c r="E3614" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3615">
+      <c r="A3615" t="inlineStr">
+        <is>
+          <t>21BCL0070</t>
+        </is>
+      </c>
+      <c r="B3615" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C3615" t="inlineStr">
+        <is>
+          <t>Godrej Properties Limited</t>
+        </is>
+      </c>
+      <c r="D3615" t="inlineStr">
+        <is>
+          <t>BCL</t>
+        </is>
+      </c>
+      <c r="E3615" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3616">
+      <c r="A3616" t="inlineStr">
+        <is>
+          <t>21BCL0034</t>
+        </is>
+      </c>
+      <c r="B3616" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C3616" t="inlineStr">
+        <is>
+          <t>Godrej Properties Limited</t>
+        </is>
+      </c>
+      <c r="D3616" t="inlineStr">
+        <is>
+          <t>BCL</t>
+        </is>
+      </c>
+      <c r="E3616" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3617">
+      <c r="A3617" t="inlineStr">
+        <is>
+          <t>21BCL1030</t>
+        </is>
+      </c>
+      <c r="B3617" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C3617" t="inlineStr">
+        <is>
+          <t>Godrej Properties Limited</t>
+        </is>
+      </c>
+      <c r="D3617" t="inlineStr">
+        <is>
+          <t>BCL</t>
+        </is>
+      </c>
+      <c r="E3617" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3618">
+      <c r="A3618" t="inlineStr">
+        <is>
+          <t>21BHI10094</t>
+        </is>
+      </c>
+      <c r="B3618" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C3618" t="inlineStr">
+        <is>
+          <t>Flobiz</t>
+        </is>
+      </c>
+      <c r="D3618" t="inlineStr">
+        <is>
+          <t>BHI</t>
+        </is>
+      </c>
+      <c r="E3618" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3619">
+      <c r="A3619" t="inlineStr">
+        <is>
+          <t>21BCE1619</t>
+        </is>
+      </c>
+      <c r="B3619" t="inlineStr">
+        <is>
+          <t>15LPA</t>
+        </is>
+      </c>
+      <c r="C3619" t="inlineStr">
+        <is>
+          <t>Equal</t>
+        </is>
+      </c>
+      <c r="D3619" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3619" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3620">
+      <c r="A3620" t="inlineStr">
+        <is>
+          <t>21BCE9789</t>
+        </is>
+      </c>
+      <c r="B3620" t="inlineStr">
+        <is>
+          <t>15LPA</t>
+        </is>
+      </c>
+      <c r="C3620" t="inlineStr">
+        <is>
+          <t>Equal</t>
+        </is>
+      </c>
+      <c r="D3620" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3620" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3621">
+      <c r="A3621" t="inlineStr">
+        <is>
+          <t>21BKT0188</t>
+        </is>
+      </c>
+      <c r="B3621" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3621" t="inlineStr">
+        <is>
+          <t>Aaizel</t>
+        </is>
+      </c>
+      <c r="D3621" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+      <c r="E3621" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3622">
+      <c r="A3622" t="inlineStr">
+        <is>
+          <t>21BKT0194</t>
+        </is>
+      </c>
+      <c r="B3622" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3622" t="inlineStr">
+        <is>
+          <t>Aaizel</t>
+        </is>
+      </c>
+      <c r="D3622" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+      <c r="E3622" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3623">
+      <c r="A3623" t="inlineStr">
+        <is>
+          <t>21BKT0056</t>
+        </is>
+      </c>
+      <c r="B3623" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3623" t="inlineStr">
+        <is>
+          <t>Aaizel</t>
+        </is>
+      </c>
+      <c r="D3623" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+      <c r="E3623" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3624">
+      <c r="A3624" t="inlineStr">
+        <is>
+          <t>21BCY10219</t>
+        </is>
+      </c>
+      <c r="B3624" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3624" t="inlineStr">
+        <is>
+          <t>Aaizel</t>
+        </is>
+      </c>
+      <c r="D3624" t="inlineStr">
+        <is>
+          <t>BCY</t>
+        </is>
+      </c>
+      <c r="E3624" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3625">
+      <c r="A3625" t="inlineStr">
+        <is>
+          <t>21BCY10252</t>
+        </is>
+      </c>
+      <c r="B3625" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3625" t="inlineStr">
+        <is>
+          <t>Aaizel</t>
+        </is>
+      </c>
+      <c r="D3625" t="inlineStr">
+        <is>
+          <t>BCY</t>
+        </is>
+      </c>
+      <c r="E3625" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3626">
+      <c r="A3626" t="inlineStr">
+        <is>
+          <t>21BCE9134</t>
+        </is>
+      </c>
+      <c r="B3626" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3626" t="inlineStr">
+        <is>
+          <t>Aaizel</t>
+        </is>
+      </c>
+      <c r="D3626" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3626" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3627">
+      <c r="A3627" t="inlineStr">
+        <is>
+          <t>21BDS0093</t>
+        </is>
+      </c>
+      <c r="B3627" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3627" t="inlineStr">
+        <is>
+          <t>Bajaj Allianz</t>
+        </is>
+      </c>
+      <c r="D3627" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E3627" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3628">
+      <c r="A3628" t="inlineStr">
+        <is>
+          <t>21BCE8683</t>
+        </is>
+      </c>
+      <c r="B3628" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3628" t="inlineStr">
+        <is>
+          <t>Bajaj Allianz</t>
+        </is>
+      </c>
+      <c r="D3628" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3628" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3629">
+      <c r="A3629" t="inlineStr">
+        <is>
+          <t>21BDS0230</t>
+        </is>
+      </c>
+      <c r="B3629" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3629" t="inlineStr">
+        <is>
+          <t>Appointy</t>
+        </is>
+      </c>
+      <c r="D3629" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E3629" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3630">
+      <c r="A3630" t="inlineStr">
+        <is>
+          <t>21BRS1444</t>
+        </is>
+      </c>
+      <c r="B3630" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3630" t="inlineStr">
+        <is>
+          <t>Appointy</t>
+        </is>
+      </c>
+      <c r="D3630" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E3630" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3631">
+      <c r="A3631" t="inlineStr">
+        <is>
+          <t>21BCE0301</t>
+        </is>
+      </c>
+      <c r="B3631" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3631" t="inlineStr">
+        <is>
+          <t>Appointy</t>
+        </is>
+      </c>
+      <c r="D3631" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3631" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3632">
+      <c r="A3632" t="inlineStr">
+        <is>
+          <t>21BCE11234</t>
+        </is>
+      </c>
+      <c r="B3632" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3632" t="inlineStr">
+        <is>
+          <t>Appointy</t>
+        </is>
+      </c>
+      <c r="D3632" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3632" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3633">
+      <c r="A3633" t="inlineStr">
+        <is>
+          <t>21BAI10367</t>
+        </is>
+      </c>
+      <c r="B3633" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3633" t="inlineStr">
+        <is>
+          <t>Appointy</t>
+        </is>
+      </c>
+      <c r="D3633" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E3633" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3634">
+      <c r="A3634" t="inlineStr">
+        <is>
+          <t>21BEI0062</t>
+        </is>
+      </c>
+      <c r="B3634" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3634" t="inlineStr">
+        <is>
+          <t>Vishvaraj</t>
+        </is>
+      </c>
+      <c r="D3634" t="inlineStr">
+        <is>
+          <t>BEI</t>
+        </is>
+      </c>
+      <c r="E3634" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3635">
+      <c r="A3635" t="inlineStr">
+        <is>
+          <t>21BME1259</t>
+        </is>
+      </c>
+      <c r="B3635" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3635" t="inlineStr">
+        <is>
+          <t>Vishvaraj</t>
+        </is>
+      </c>
+      <c r="D3635" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3635" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3636">
+      <c r="A3636" t="inlineStr">
+        <is>
+          <t>21BME0109</t>
+        </is>
+      </c>
+      <c r="B3636" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3636" t="inlineStr">
+        <is>
+          <t>Vishvaraj</t>
+        </is>
+      </c>
+      <c r="D3636" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3636" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3637">
+      <c r="A3637" t="inlineStr">
+        <is>
+          <t>21BDS0073</t>
+        </is>
+      </c>
+      <c r="B3637" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3637" t="inlineStr">
+        <is>
+          <t>Osfin.ai</t>
+        </is>
+      </c>
+      <c r="D3637" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E3637" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3638">
+      <c r="A3638" t="inlineStr">
+        <is>
+          <t>21BEC1512</t>
+        </is>
+      </c>
+      <c r="B3638" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3638" t="inlineStr">
+        <is>
+          <t>Osfin.ai</t>
+        </is>
+      </c>
+      <c r="D3638" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3638" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3639">
+      <c r="A3639" t="inlineStr">
+        <is>
+          <t>21BCM0131</t>
+        </is>
+      </c>
+      <c r="B3639" t="inlineStr">
+        <is>
+          <t>10.5LPA</t>
+        </is>
+      </c>
+      <c r="C3639" t="inlineStr">
+        <is>
+          <t>Tata motors</t>
+        </is>
+      </c>
+      <c r="D3639" t="inlineStr">
+        <is>
+          <t>BCM</t>
+        </is>
+      </c>
+      <c r="E3639" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3640">
+      <c r="A3640" t="inlineStr">
+        <is>
+          <t>21BMH1017</t>
+        </is>
+      </c>
+      <c r="B3640" t="inlineStr">
+        <is>
+          <t>10.5LPA</t>
+        </is>
+      </c>
+      <c r="C3640" t="inlineStr">
+        <is>
+          <t>Tata motors</t>
+        </is>
+      </c>
+      <c r="D3640" t="inlineStr">
+        <is>
+          <t>BMH</t>
+        </is>
+      </c>
+      <c r="E3640" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3641">
+      <c r="A3641" t="inlineStr">
+        <is>
+          <t>21BMH1025</t>
+        </is>
+      </c>
+      <c r="B3641" t="inlineStr">
+        <is>
+          <t>10.5LPA</t>
+        </is>
+      </c>
+      <c r="C3641" t="inlineStr">
+        <is>
+          <t>Tata motors</t>
+        </is>
+      </c>
+      <c r="D3641" t="inlineStr">
+        <is>
+          <t>BMH</t>
+        </is>
+      </c>
+      <c r="E3641" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3642">
+      <c r="A3642" t="inlineStr">
+        <is>
+          <t>21BMH1035</t>
+        </is>
+      </c>
+      <c r="B3642" t="inlineStr">
+        <is>
+          <t>10.5LPA</t>
+        </is>
+      </c>
+      <c r="C3642" t="inlineStr">
+        <is>
+          <t>Tata motors</t>
+        </is>
+      </c>
+      <c r="D3642" t="inlineStr">
+        <is>
+          <t>BMH</t>
+        </is>
+      </c>
+      <c r="E3642" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3643">
+      <c r="A3643" t="inlineStr">
+        <is>
+          <t>21BMH1049</t>
+        </is>
+      </c>
+      <c r="B3643" t="inlineStr">
+        <is>
+          <t>10.5LPA</t>
+        </is>
+      </c>
+      <c r="C3643" t="inlineStr">
+        <is>
+          <t>Tata motors</t>
+        </is>
+      </c>
+      <c r="D3643" t="inlineStr">
+        <is>
+          <t>BMH</t>
+        </is>
+      </c>
+      <c r="E3643" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3644">
+      <c r="A3644" t="inlineStr">
+        <is>
+          <t>21BMH1114</t>
+        </is>
+      </c>
+      <c r="B3644" t="inlineStr">
+        <is>
+          <t>10.5LPA</t>
+        </is>
+      </c>
+      <c r="C3644" t="inlineStr">
+        <is>
+          <t>Tata motors</t>
+        </is>
+      </c>
+      <c r="D3644" t="inlineStr">
+        <is>
+          <t>BMH</t>
+        </is>
+      </c>
+      <c r="E3644" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3645">
+      <c r="A3645" t="inlineStr">
+        <is>
+          <t>21BMH1122</t>
+        </is>
+      </c>
+      <c r="B3645" t="inlineStr">
+        <is>
+          <t>10.5LPA</t>
+        </is>
+      </c>
+      <c r="C3645" t="inlineStr">
+        <is>
+          <t>Tata motors</t>
+        </is>
+      </c>
+      <c r="D3645" t="inlineStr">
+        <is>
+          <t>BMH</t>
+        </is>
+      </c>
+      <c r="E3645" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3646">
+      <c r="A3646" t="inlineStr">
+        <is>
+          <t>21BMH1149</t>
+        </is>
+      </c>
+      <c r="B3646" t="inlineStr">
+        <is>
+          <t>10.5LPA</t>
+        </is>
+      </c>
+      <c r="C3646" t="inlineStr">
+        <is>
+          <t>Tata motors</t>
+        </is>
+      </c>
+      <c r="D3646" t="inlineStr">
+        <is>
+          <t>BMH</t>
+        </is>
+      </c>
+      <c r="E3646" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3647">
+      <c r="A3647" t="inlineStr">
+        <is>
+          <t>21BMH1158</t>
+        </is>
+      </c>
+      <c r="B3647" t="inlineStr">
+        <is>
+          <t>10.5LPA</t>
+        </is>
+      </c>
+      <c r="C3647" t="inlineStr">
+        <is>
+          <t>Tata motors</t>
+        </is>
+      </c>
+      <c r="D3647" t="inlineStr">
+        <is>
+          <t>BMH</t>
+        </is>
+      </c>
+      <c r="E3647" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3648">
+      <c r="A3648" t="inlineStr">
+        <is>
+          <t>21BMH1168</t>
+        </is>
+      </c>
+      <c r="B3648" t="inlineStr">
+        <is>
+          <t>10.5LPA</t>
+        </is>
+      </c>
+      <c r="C3648" t="inlineStr">
+        <is>
+          <t>Tata motors</t>
+        </is>
+      </c>
+      <c r="D3648" t="inlineStr">
+        <is>
+          <t>BMH</t>
+        </is>
+      </c>
+      <c r="E3648" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3649">
+      <c r="A3649" t="inlineStr">
+        <is>
+          <t>21BCM0024</t>
+        </is>
+      </c>
+      <c r="B3649" t="inlineStr">
+        <is>
+          <t>10.5LPA</t>
+        </is>
+      </c>
+      <c r="C3649" t="inlineStr">
+        <is>
+          <t>Tata motors</t>
+        </is>
+      </c>
+      <c r="D3649" t="inlineStr">
+        <is>
+          <t>BCM</t>
+        </is>
+      </c>
+      <c r="E3649" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3650">
+      <c r="A3650" t="inlineStr">
+        <is>
+          <t>21BCM0209</t>
+        </is>
+      </c>
+      <c r="B3650" t="inlineStr">
+        <is>
+          <t>10.5LPA</t>
+        </is>
+      </c>
+      <c r="C3650" t="inlineStr">
+        <is>
+          <t>Tata motors</t>
+        </is>
+      </c>
+      <c r="D3650" t="inlineStr">
+        <is>
+          <t>BCM</t>
+        </is>
+      </c>
+      <c r="E3650" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3651">
+      <c r="A3651" t="inlineStr">
+        <is>
+          <t>21BCL0215</t>
+        </is>
+      </c>
+      <c r="B3651" t="inlineStr">
+        <is>
+          <t>10.5LPA</t>
+        </is>
+      </c>
+      <c r="C3651" t="inlineStr">
+        <is>
+          <t>Tata motors</t>
+        </is>
+      </c>
+      <c r="D3651" t="inlineStr">
+        <is>
+          <t>BCL</t>
+        </is>
+      </c>
+      <c r="E3651" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3652">
+      <c r="A3652" t="inlineStr">
+        <is>
+          <t>21BMH1034</t>
+        </is>
+      </c>
+      <c r="B3652" t="inlineStr">
+        <is>
+          <t>10.5LPA</t>
+        </is>
+      </c>
+      <c r="C3652" t="inlineStr">
+        <is>
+          <t>Tata motors</t>
+        </is>
+      </c>
+      <c r="D3652" t="inlineStr">
+        <is>
+          <t>BMH</t>
+        </is>
+      </c>
+      <c r="E3652" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3653">
+      <c r="A3653" t="inlineStr">
+        <is>
+          <t>21BAI1436</t>
+        </is>
+      </c>
+      <c r="B3653" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3653" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="D3653" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E3653" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3654">
+      <c r="A3654" t="inlineStr">
+        <is>
+          <t>21BCE2562</t>
+        </is>
+      </c>
+      <c r="B3654" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3654" t="inlineStr">
+        <is>
+          <t>Osfin.ai</t>
+        </is>
+      </c>
+      <c r="D3654" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3654" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3655">
+      <c r="A3655" t="inlineStr">
+        <is>
+          <t>21BME0527</t>
+        </is>
+      </c>
+      <c r="B3655" t="inlineStr">
+        <is>
+          <t>13.96LPA</t>
+        </is>
+      </c>
+      <c r="C3655" t="inlineStr">
+        <is>
+          <t>Kinaxis</t>
+        </is>
+      </c>
+      <c r="D3655" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3655" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3656">
+      <c r="A3656" t="inlineStr">
+        <is>
+          <t>21BRS1334</t>
+        </is>
+      </c>
+      <c r="B3656" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3656" t="inlineStr">
+        <is>
+          <t>MSG Global</t>
+        </is>
+      </c>
+      <c r="D3656" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E3656" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3657">
+      <c r="A3657" t="inlineStr">
+        <is>
+          <t>21BRS1643</t>
+        </is>
+      </c>
+      <c r="B3657" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3657" t="inlineStr">
+        <is>
+          <t>MSG Global</t>
+        </is>
+      </c>
+      <c r="D3657" t="inlineStr">
+        <is>
+          <t>BRS</t>
+        </is>
+      </c>
+      <c r="E3657" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/google_sheet_data.xlsx
+++ b/google_sheet_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3657"/>
+  <dimension ref="A1:E3831"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99177,6 +99177,4704 @@
         </is>
       </c>
     </row>
+    <row r="3658">
+      <c r="A3658" t="inlineStr">
+        <is>
+          <t>21BCE3383</t>
+        </is>
+      </c>
+      <c r="B3658" t="inlineStr">
+        <is>
+          <t>7.5LPA</t>
+        </is>
+      </c>
+      <c r="C3658" t="inlineStr">
+        <is>
+          <t>Forbes Marshall</t>
+        </is>
+      </c>
+      <c r="D3658" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3658" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3659">
+      <c r="A3659" t="inlineStr">
+        <is>
+          <t>21BCI0279</t>
+        </is>
+      </c>
+      <c r="B3659" t="inlineStr">
+        <is>
+          <t>9.1LPA</t>
+        </is>
+      </c>
+      <c r="C3659" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D3659" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="E3659" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3660">
+      <c r="A3660" t="inlineStr">
+        <is>
+          <t>21BCI0121</t>
+        </is>
+      </c>
+      <c r="B3660" t="inlineStr">
+        <is>
+          <t>9.1LPA</t>
+        </is>
+      </c>
+      <c r="C3660" t="inlineStr">
+        <is>
+          <t>Bank of America</t>
+        </is>
+      </c>
+      <c r="D3660" t="inlineStr">
+        <is>
+          <t>BCI</t>
+        </is>
+      </c>
+      <c r="E3660" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3661">
+      <c r="A3661" t="inlineStr">
+        <is>
+          <t>21BCE0730</t>
+        </is>
+      </c>
+      <c r="B3661" t="inlineStr">
+        <is>
+          <t>14.25LPA</t>
+        </is>
+      </c>
+      <c r="C3661" t="inlineStr">
+        <is>
+          <t>Sapiens Technologies</t>
+        </is>
+      </c>
+      <c r="D3661" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3661" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3662">
+      <c r="A3662" t="inlineStr">
+        <is>
+          <t>21BCE1483</t>
+        </is>
+      </c>
+      <c r="B3662" t="inlineStr">
+        <is>
+          <t>14.25LPA</t>
+        </is>
+      </c>
+      <c r="C3662" t="inlineStr">
+        <is>
+          <t>Sapiens Technologies</t>
+        </is>
+      </c>
+      <c r="D3662" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3662" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3663">
+      <c r="A3663" t="inlineStr">
+        <is>
+          <t>21BCE3397</t>
+        </is>
+      </c>
+      <c r="B3663" t="inlineStr">
+        <is>
+          <t>14.25LPA</t>
+        </is>
+      </c>
+      <c r="C3663" t="inlineStr">
+        <is>
+          <t>Sapiens Technologies</t>
+        </is>
+      </c>
+      <c r="D3663" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3663" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3664">
+      <c r="A3664" t="inlineStr">
+        <is>
+          <t>21BCE0538</t>
+        </is>
+      </c>
+      <c r="B3664" t="inlineStr">
+        <is>
+          <t>14.25LPA</t>
+        </is>
+      </c>
+      <c r="C3664" t="inlineStr">
+        <is>
+          <t>Sapiens Technologies</t>
+        </is>
+      </c>
+      <c r="D3664" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3664" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3665">
+      <c r="A3665" t="inlineStr">
+        <is>
+          <t>21BCE10070</t>
+        </is>
+      </c>
+      <c r="B3665" t="inlineStr">
+        <is>
+          <t>14.25LPA</t>
+        </is>
+      </c>
+      <c r="C3665" t="inlineStr">
+        <is>
+          <t>Sapiens Technologies</t>
+        </is>
+      </c>
+      <c r="D3665" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3665" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3666">
+      <c r="A3666" t="inlineStr">
+        <is>
+          <t>21BCE9251</t>
+        </is>
+      </c>
+      <c r="B3666" t="inlineStr">
+        <is>
+          <t>14.25LPA</t>
+        </is>
+      </c>
+      <c r="C3666" t="inlineStr">
+        <is>
+          <t>Sapiens Technologies</t>
+        </is>
+      </c>
+      <c r="D3666" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3666" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3667">
+      <c r="A3667" t="inlineStr">
+        <is>
+          <t>21BCE5600</t>
+        </is>
+      </c>
+      <c r="B3667" t="inlineStr">
+        <is>
+          <t>14.25LPA</t>
+        </is>
+      </c>
+      <c r="C3667" t="inlineStr">
+        <is>
+          <t>Sapiens Technologies</t>
+        </is>
+      </c>
+      <c r="D3667" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3667" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3668">
+      <c r="A3668" t="inlineStr">
+        <is>
+          <t>21BSA10129</t>
+        </is>
+      </c>
+      <c r="B3668" t="inlineStr">
+        <is>
+          <t>14.25LPA</t>
+        </is>
+      </c>
+      <c r="C3668" t="inlineStr">
+        <is>
+          <t>Sapiens Technologies</t>
+        </is>
+      </c>
+      <c r="D3668" t="inlineStr">
+        <is>
+          <t>BSA</t>
+        </is>
+      </c>
+      <c r="E3668" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3669">
+      <c r="A3669" t="inlineStr">
+        <is>
+          <t>21BCE0875</t>
+        </is>
+      </c>
+      <c r="B3669" t="inlineStr">
+        <is>
+          <t>14.25LPA</t>
+        </is>
+      </c>
+      <c r="C3669" t="inlineStr">
+        <is>
+          <t>Sapiens Technologies</t>
+        </is>
+      </c>
+      <c r="D3669" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3669" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3670">
+      <c r="A3670" t="inlineStr">
+        <is>
+          <t>21BCE9448</t>
+        </is>
+      </c>
+      <c r="B3670" t="inlineStr">
+        <is>
+          <t>15LPA</t>
+        </is>
+      </c>
+      <c r="C3670" t="inlineStr">
+        <is>
+          <t>Equal</t>
+        </is>
+      </c>
+      <c r="D3670" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3670" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3671">
+      <c r="A3671" t="inlineStr">
+        <is>
+          <t>21BEC2142</t>
+        </is>
+      </c>
+      <c r="B3671" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C3671" t="inlineStr">
+        <is>
+          <t>Whirlpool</t>
+        </is>
+      </c>
+      <c r="D3671" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3671" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3672">
+      <c r="A3672" t="inlineStr">
+        <is>
+          <t>21BEC0733</t>
+        </is>
+      </c>
+      <c r="B3672" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C3672" t="inlineStr">
+        <is>
+          <t>Whirlpool</t>
+        </is>
+      </c>
+      <c r="D3672" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3672" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3673">
+      <c r="A3673" t="inlineStr">
+        <is>
+          <t>21BEC1215</t>
+        </is>
+      </c>
+      <c r="B3673" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3673" t="inlineStr">
+        <is>
+          <t>Weekday (YC W21)</t>
+        </is>
+      </c>
+      <c r="D3673" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3673" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3674">
+      <c r="A3674" t="inlineStr">
+        <is>
+          <t>21BEE1329</t>
+        </is>
+      </c>
+      <c r="B3674" t="inlineStr">
+        <is>
+          <t>5LPA</t>
+        </is>
+      </c>
+      <c r="C3674" t="inlineStr">
+        <is>
+          <t>VOLTAS</t>
+        </is>
+      </c>
+      <c r="D3674" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3674" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3675">
+      <c r="A3675" t="inlineStr">
+        <is>
+          <t>21BCE9130</t>
+        </is>
+      </c>
+      <c r="B3675" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3675" t="inlineStr">
+        <is>
+          <t>Malomatia</t>
+        </is>
+      </c>
+      <c r="D3675" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3675" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3676">
+      <c r="A3676" t="inlineStr">
+        <is>
+          <t>21BCE9618</t>
+        </is>
+      </c>
+      <c r="B3676" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3676" t="inlineStr">
+        <is>
+          <t>Malomatia</t>
+        </is>
+      </c>
+      <c r="D3676" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3676" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3677">
+      <c r="A3677" t="inlineStr">
+        <is>
+          <t>21BCE2483</t>
+        </is>
+      </c>
+      <c r="B3677" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3677" t="inlineStr">
+        <is>
+          <t>Malomatia</t>
+        </is>
+      </c>
+      <c r="D3677" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3677" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3678">
+      <c r="A3678" t="inlineStr">
+        <is>
+          <t>21BCE8084</t>
+        </is>
+      </c>
+      <c r="B3678" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3678" t="inlineStr">
+        <is>
+          <t>Malomatia</t>
+        </is>
+      </c>
+      <c r="D3678" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3678" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3679">
+      <c r="A3679" t="inlineStr">
+        <is>
+          <t>21BCE1255</t>
+        </is>
+      </c>
+      <c r="B3679" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3679" t="inlineStr">
+        <is>
+          <t>Malomatia</t>
+        </is>
+      </c>
+      <c r="D3679" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3679" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3680">
+      <c r="A3680" t="inlineStr">
+        <is>
+          <t>21BAI10142</t>
+        </is>
+      </c>
+      <c r="B3680" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3680" t="inlineStr">
+        <is>
+          <t>Malomatia</t>
+        </is>
+      </c>
+      <c r="D3680" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E3680" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3681">
+      <c r="A3681" t="inlineStr">
+        <is>
+          <t>21BCE1330</t>
+        </is>
+      </c>
+      <c r="B3681" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C3681" t="inlineStr">
+        <is>
+          <t>Verteil</t>
+        </is>
+      </c>
+      <c r="D3681" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3681" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3682">
+      <c r="A3682" t="inlineStr">
+        <is>
+          <t>21BPS1506</t>
+        </is>
+      </c>
+      <c r="B3682" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C3682" t="inlineStr">
+        <is>
+          <t>Verteil</t>
+        </is>
+      </c>
+      <c r="D3682" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="E3682" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3683">
+      <c r="A3683" t="inlineStr">
+        <is>
+          <t>21BLC1308</t>
+        </is>
+      </c>
+      <c r="B3683" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C3683" t="inlineStr">
+        <is>
+          <t>Verteil</t>
+        </is>
+      </c>
+      <c r="D3683" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E3683" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3684">
+      <c r="A3684" t="inlineStr">
+        <is>
+          <t>21BPS1508</t>
+        </is>
+      </c>
+      <c r="B3684" t="inlineStr">
+        <is>
+          <t>12LPA</t>
+        </is>
+      </c>
+      <c r="C3684" t="inlineStr">
+        <is>
+          <t>Verteil</t>
+        </is>
+      </c>
+      <c r="D3684" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="E3684" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3685">
+      <c r="A3685" t="inlineStr">
+        <is>
+          <t>21BMA0078</t>
+        </is>
+      </c>
+      <c r="B3685" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C3685" t="inlineStr">
+        <is>
+          <t>Carrier Technologies</t>
+        </is>
+      </c>
+      <c r="D3685" t="inlineStr">
+        <is>
+          <t>BMA</t>
+        </is>
+      </c>
+      <c r="E3685" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3686">
+      <c r="A3686" t="inlineStr">
+        <is>
+          <t>21BEE1047</t>
+        </is>
+      </c>
+      <c r="B3686" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C3686" t="inlineStr">
+        <is>
+          <t>Carrier Technologies</t>
+        </is>
+      </c>
+      <c r="D3686" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3686" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3687">
+      <c r="A3687" t="inlineStr">
+        <is>
+          <t>21BME0186</t>
+        </is>
+      </c>
+      <c r="B3687" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C3687" t="inlineStr">
+        <is>
+          <t>Aditya Birla Group</t>
+        </is>
+      </c>
+      <c r="D3687" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3687" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3688">
+      <c r="A3688" t="inlineStr">
+        <is>
+          <t>21BME0527</t>
+        </is>
+      </c>
+      <c r="B3688" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C3688" t="inlineStr">
+        <is>
+          <t>Aditya Birla Group</t>
+        </is>
+      </c>
+      <c r="D3688" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3688" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3689">
+      <c r="A3689" t="inlineStr">
+        <is>
+          <t>21BMH1087</t>
+        </is>
+      </c>
+      <c r="B3689" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C3689" t="inlineStr">
+        <is>
+          <t>Aditya Birla Group</t>
+        </is>
+      </c>
+      <c r="D3689" t="inlineStr">
+        <is>
+          <t>BMH</t>
+        </is>
+      </c>
+      <c r="E3689" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3690">
+      <c r="A3690" t="inlineStr">
+        <is>
+          <t>21BMH1156</t>
+        </is>
+      </c>
+      <c r="B3690" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C3690" t="inlineStr">
+        <is>
+          <t>Aditya Birla Group</t>
+        </is>
+      </c>
+      <c r="D3690" t="inlineStr">
+        <is>
+          <t>BMH</t>
+        </is>
+      </c>
+      <c r="E3690" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3691">
+      <c r="A3691" t="inlineStr">
+        <is>
+          <t>21BMH1179</t>
+        </is>
+      </c>
+      <c r="B3691" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C3691" t="inlineStr">
+        <is>
+          <t>Aditya Birla Group</t>
+        </is>
+      </c>
+      <c r="D3691" t="inlineStr">
+        <is>
+          <t>BMH</t>
+        </is>
+      </c>
+      <c r="E3691" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3692">
+      <c r="A3692" t="inlineStr">
+        <is>
+          <t>21BEI0019</t>
+        </is>
+      </c>
+      <c r="B3692" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C3692" t="inlineStr">
+        <is>
+          <t>Aditya Birla Group</t>
+        </is>
+      </c>
+      <c r="D3692" t="inlineStr">
+        <is>
+          <t>BEI</t>
+        </is>
+      </c>
+      <c r="E3692" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3693">
+      <c r="A3693" t="inlineStr">
+        <is>
+          <t>21BEI0114</t>
+        </is>
+      </c>
+      <c r="B3693" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C3693" t="inlineStr">
+        <is>
+          <t>Aditya Birla Group</t>
+        </is>
+      </c>
+      <c r="D3693" t="inlineStr">
+        <is>
+          <t>BEI</t>
+        </is>
+      </c>
+      <c r="E3693" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3694">
+      <c r="A3694" t="inlineStr">
+        <is>
+          <t>21BEI0096</t>
+        </is>
+      </c>
+      <c r="B3694" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C3694" t="inlineStr">
+        <is>
+          <t>Aditya Birla Group</t>
+        </is>
+      </c>
+      <c r="D3694" t="inlineStr">
+        <is>
+          <t>BEI</t>
+        </is>
+      </c>
+      <c r="E3694" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3695">
+      <c r="A3695" t="inlineStr">
+        <is>
+          <t>21BKT0100</t>
+        </is>
+      </c>
+      <c r="B3695" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3695" t="inlineStr">
+        <is>
+          <t>Mygate</t>
+        </is>
+      </c>
+      <c r="D3695" t="inlineStr">
+        <is>
+          <t>BKT</t>
+        </is>
+      </c>
+      <c r="E3695" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3696">
+      <c r="A3696" t="inlineStr">
+        <is>
+          <t>21BME1302</t>
+        </is>
+      </c>
+      <c r="B3696" t="inlineStr">
+        <is>
+          <t>13.96LPA</t>
+        </is>
+      </c>
+      <c r="C3696" t="inlineStr">
+        <is>
+          <t>Kinaxis</t>
+        </is>
+      </c>
+      <c r="D3696" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3696" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3697">
+      <c r="A3697" t="inlineStr">
+        <is>
+          <t>21BME0058</t>
+        </is>
+      </c>
+      <c r="B3697" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3697" t="inlineStr">
+        <is>
+          <t>Credence Automation</t>
+        </is>
+      </c>
+      <c r="D3697" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3697" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3698">
+      <c r="A3698" t="inlineStr">
+        <is>
+          <t>21BMM0083</t>
+        </is>
+      </c>
+      <c r="B3698" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3698" t="inlineStr">
+        <is>
+          <t>Credence Automation</t>
+        </is>
+      </c>
+      <c r="D3698" t="inlineStr">
+        <is>
+          <t>BMM</t>
+        </is>
+      </c>
+      <c r="E3698" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3699">
+      <c r="A3699" t="inlineStr">
+        <is>
+          <t>21BME10009</t>
+        </is>
+      </c>
+      <c r="B3699" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3699" t="inlineStr">
+        <is>
+          <t>Credence Automation</t>
+        </is>
+      </c>
+      <c r="D3699" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3699" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3700">
+      <c r="A3700" t="inlineStr">
+        <is>
+          <t>21BEC0468</t>
+        </is>
+      </c>
+      <c r="B3700" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3700" t="inlineStr">
+        <is>
+          <t>Weekday (YC W21)</t>
+        </is>
+      </c>
+      <c r="D3700" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3700" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3701">
+      <c r="A3701" t="inlineStr">
+        <is>
+          <t>21BCE10047</t>
+        </is>
+      </c>
+      <c r="B3701" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3701" t="inlineStr">
+        <is>
+          <t>ZETA</t>
+        </is>
+      </c>
+      <c r="D3701" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3701" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3702">
+      <c r="A3702" t="inlineStr">
+        <is>
+          <t>21BCE11159</t>
+        </is>
+      </c>
+      <c r="B3702" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3702" t="inlineStr">
+        <is>
+          <t>ZETA</t>
+        </is>
+      </c>
+      <c r="D3702" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3702" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3703">
+      <c r="A3703" t="inlineStr">
+        <is>
+          <t>21BIT0355</t>
+        </is>
+      </c>
+      <c r="B3703" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3703" t="inlineStr">
+        <is>
+          <t>ZETA</t>
+        </is>
+      </c>
+      <c r="D3703" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E3703" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3704">
+      <c r="A3704" t="inlineStr">
+        <is>
+          <t>21BEC0080</t>
+        </is>
+      </c>
+      <c r="B3704" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3704" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3704" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3704" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3705">
+      <c r="A3705" t="inlineStr">
+        <is>
+          <t>21BEC0180</t>
+        </is>
+      </c>
+      <c r="B3705" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3705" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3705" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3705" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3706">
+      <c r="A3706" t="inlineStr">
+        <is>
+          <t>21BEC0296</t>
+        </is>
+      </c>
+      <c r="B3706" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3706" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3706" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3706" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3707">
+      <c r="A3707" t="inlineStr">
+        <is>
+          <t>21BEC0337</t>
+        </is>
+      </c>
+      <c r="B3707" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3707" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3707" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3707" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3708">
+      <c r="A3708" t="inlineStr">
+        <is>
+          <t>21BEC0341</t>
+        </is>
+      </c>
+      <c r="B3708" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3708" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3708" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3708" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3709">
+      <c r="A3709" t="inlineStr">
+        <is>
+          <t>21BEC0344</t>
+        </is>
+      </c>
+      <c r="B3709" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3709" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3709" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3709" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3710">
+      <c r="A3710" t="inlineStr">
+        <is>
+          <t>21BEC0448</t>
+        </is>
+      </c>
+      <c r="B3710" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3710" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3710" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3710" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3711">
+      <c r="A3711" t="inlineStr">
+        <is>
+          <t>21BEC0472</t>
+        </is>
+      </c>
+      <c r="B3711" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3711" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3711" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3711" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3712">
+      <c r="A3712" t="inlineStr">
+        <is>
+          <t>21BEC0509</t>
+        </is>
+      </c>
+      <c r="B3712" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3712" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3712" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3712" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3713">
+      <c r="A3713" t="inlineStr">
+        <is>
+          <t>21BEC0653</t>
+        </is>
+      </c>
+      <c r="B3713" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3713" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3713" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3713" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3714">
+      <c r="A3714" t="inlineStr">
+        <is>
+          <t>21BEC0667</t>
+        </is>
+      </c>
+      <c r="B3714" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3714" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3714" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3714" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3715">
+      <c r="A3715" t="inlineStr">
+        <is>
+          <t>21BEC0719</t>
+        </is>
+      </c>
+      <c r="B3715" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3715" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3715" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3715" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3716">
+      <c r="A3716" t="inlineStr">
+        <is>
+          <t>21BEC0865</t>
+        </is>
+      </c>
+      <c r="B3716" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3716" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3716" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3716" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3717">
+      <c r="A3717" t="inlineStr">
+        <is>
+          <t>21BEC0880</t>
+        </is>
+      </c>
+      <c r="B3717" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3717" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3717" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3717" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3718">
+      <c r="A3718" t="inlineStr">
+        <is>
+          <t>21BEC0892</t>
+        </is>
+      </c>
+      <c r="B3718" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3718" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3718" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3718" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3719">
+      <c r="A3719" t="inlineStr">
+        <is>
+          <t>21BEC0950</t>
+        </is>
+      </c>
+      <c r="B3719" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3719" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3719" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3719" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3720">
+      <c r="A3720" t="inlineStr">
+        <is>
+          <t>21BEC1133</t>
+        </is>
+      </c>
+      <c r="B3720" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3720" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3720" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3720" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3721">
+      <c r="A3721" t="inlineStr">
+        <is>
+          <t>21BEC1283</t>
+        </is>
+      </c>
+      <c r="B3721" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3721" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3721" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3721" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3722">
+      <c r="A3722" t="inlineStr">
+        <is>
+          <t>21BEC1442</t>
+        </is>
+      </c>
+      <c r="B3722" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3722" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3722" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3722" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3723">
+      <c r="A3723" t="inlineStr">
+        <is>
+          <t>21BEC1544</t>
+        </is>
+      </c>
+      <c r="B3723" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3723" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3723" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3723" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3724">
+      <c r="A3724" t="inlineStr">
+        <is>
+          <t>21BEC1575</t>
+        </is>
+      </c>
+      <c r="B3724" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3724" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3724" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3724" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3725">
+      <c r="A3725" t="inlineStr">
+        <is>
+          <t>21BEC1625</t>
+        </is>
+      </c>
+      <c r="B3725" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3725" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3725" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3725" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3726">
+      <c r="A3726" t="inlineStr">
+        <is>
+          <t>21BEC1809</t>
+        </is>
+      </c>
+      <c r="B3726" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3726" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3726" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3726" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3727">
+      <c r="A3727" t="inlineStr">
+        <is>
+          <t>21BEC2056</t>
+        </is>
+      </c>
+      <c r="B3727" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3727" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3727" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3727" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3728">
+      <c r="A3728" t="inlineStr">
+        <is>
+          <t>21BEC2145</t>
+        </is>
+      </c>
+      <c r="B3728" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3728" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3728" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3728" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3729">
+      <c r="A3729" t="inlineStr">
+        <is>
+          <t>21BEC2147</t>
+        </is>
+      </c>
+      <c r="B3729" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3729" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3729" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3729" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3730">
+      <c r="A3730" t="inlineStr">
+        <is>
+          <t>21BEC2168</t>
+        </is>
+      </c>
+      <c r="B3730" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3730" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3730" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3730" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3731">
+      <c r="A3731" t="inlineStr">
+        <is>
+          <t>21BEC2170</t>
+        </is>
+      </c>
+      <c r="B3731" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3731" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3731" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3731" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3732">
+      <c r="A3732" t="inlineStr">
+        <is>
+          <t>21BEC2325</t>
+        </is>
+      </c>
+      <c r="B3732" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3732" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3732" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3732" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3733">
+      <c r="A3733" t="inlineStr">
+        <is>
+          <t>21BEC2505</t>
+        </is>
+      </c>
+      <c r="B3733" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3733" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3733" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3733" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3734">
+      <c r="A3734" t="inlineStr">
+        <is>
+          <t>21BEC2521</t>
+        </is>
+      </c>
+      <c r="B3734" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3734" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3734" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3734" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3735">
+      <c r="A3735" t="inlineStr">
+        <is>
+          <t>21BEE0070</t>
+        </is>
+      </c>
+      <c r="B3735" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3735" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3735" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3735" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3736">
+      <c r="A3736" t="inlineStr">
+        <is>
+          <t>21BEE0073</t>
+        </is>
+      </c>
+      <c r="B3736" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3736" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3736" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3736" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3737">
+      <c r="A3737" t="inlineStr">
+        <is>
+          <t>21BEE0136</t>
+        </is>
+      </c>
+      <c r="B3737" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3737" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3737" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3737" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3738">
+      <c r="A3738" t="inlineStr">
+        <is>
+          <t>21BEE0428</t>
+        </is>
+      </c>
+      <c r="B3738" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3738" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3738" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3738" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3739">
+      <c r="A3739" t="inlineStr">
+        <is>
+          <t>21BEE1051</t>
+        </is>
+      </c>
+      <c r="B3739" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3739" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3739" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3739" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3740">
+      <c r="A3740" t="inlineStr">
+        <is>
+          <t>21BEE1105</t>
+        </is>
+      </c>
+      <c r="B3740" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3740" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3740" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3740" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3741">
+      <c r="A3741" t="inlineStr">
+        <is>
+          <t>21BEE1314</t>
+        </is>
+      </c>
+      <c r="B3741" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3741" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3741" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3741" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3742">
+      <c r="A3742" t="inlineStr">
+        <is>
+          <t>21BLC1547</t>
+        </is>
+      </c>
+      <c r="B3742" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3742" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3742" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E3742" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3743">
+      <c r="A3743" t="inlineStr">
+        <is>
+          <t>21BML0033</t>
+        </is>
+      </c>
+      <c r="B3743" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3743" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3743" t="inlineStr">
+        <is>
+          <t>BML</t>
+        </is>
+      </c>
+      <c r="E3743" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3744">
+      <c r="A3744" t="inlineStr">
+        <is>
+          <t>21BML0086</t>
+        </is>
+      </c>
+      <c r="B3744" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3744" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3744" t="inlineStr">
+        <is>
+          <t>BML</t>
+        </is>
+      </c>
+      <c r="E3744" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3745">
+      <c r="A3745" t="inlineStr">
+        <is>
+          <t>21BEC2315</t>
+        </is>
+      </c>
+      <c r="B3745" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3745" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3745" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3745" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3746">
+      <c r="A3746" t="inlineStr">
+        <is>
+          <t>21BEC1226</t>
+        </is>
+      </c>
+      <c r="B3746" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3746" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3746" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3746" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3747">
+      <c r="A3747" t="inlineStr">
+        <is>
+          <t>21BEC1451</t>
+        </is>
+      </c>
+      <c r="B3747" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3747" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3747" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3747" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3748">
+      <c r="A3748" t="inlineStr">
+        <is>
+          <t>21BEE1071</t>
+        </is>
+      </c>
+      <c r="B3748" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3748" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3748" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3748" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3749">
+      <c r="A3749" t="inlineStr">
+        <is>
+          <t>21BEC0912</t>
+        </is>
+      </c>
+      <c r="B3749" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3749" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3749" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3749" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3750">
+      <c r="A3750" t="inlineStr">
+        <is>
+          <t>21BEC2146</t>
+        </is>
+      </c>
+      <c r="B3750" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3750" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3750" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3750" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3751">
+      <c r="A3751" t="inlineStr">
+        <is>
+          <t>21BEC0241</t>
+        </is>
+      </c>
+      <c r="B3751" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3751" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3751" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3751" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3752">
+      <c r="A3752" t="inlineStr">
+        <is>
+          <t>21BEC1114</t>
+        </is>
+      </c>
+      <c r="B3752" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3752" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3752" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3752" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3753">
+      <c r="A3753" t="inlineStr">
+        <is>
+          <t>21BEC0656</t>
+        </is>
+      </c>
+      <c r="B3753" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3753" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3753" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3753" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3754">
+      <c r="A3754" t="inlineStr">
+        <is>
+          <t>21BEC0867</t>
+        </is>
+      </c>
+      <c r="B3754" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3754" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3754" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3754" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3755">
+      <c r="A3755" t="inlineStr">
+        <is>
+          <t>21BEC0993</t>
+        </is>
+      </c>
+      <c r="B3755" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3755" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3755" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3755" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3756">
+      <c r="A3756" t="inlineStr">
+        <is>
+          <t>21BEC2097</t>
+        </is>
+      </c>
+      <c r="B3756" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3756" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3756" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3756" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3757">
+      <c r="A3757" t="inlineStr">
+        <is>
+          <t>21BEC2124</t>
+        </is>
+      </c>
+      <c r="B3757" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3757" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3757" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3757" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3758">
+      <c r="A3758" t="inlineStr">
+        <is>
+          <t>21BEC2296</t>
+        </is>
+      </c>
+      <c r="B3758" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3758" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3758" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3758" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3759">
+      <c r="A3759" t="inlineStr">
+        <is>
+          <t>21BEE0002</t>
+        </is>
+      </c>
+      <c r="B3759" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3759" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3759" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3759" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3760">
+      <c r="A3760" t="inlineStr">
+        <is>
+          <t>21BEI0114</t>
+        </is>
+      </c>
+      <c r="B3760" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3760" t="inlineStr">
+        <is>
+          <t>KPIT</t>
+        </is>
+      </c>
+      <c r="D3760" t="inlineStr">
+        <is>
+          <t>BEI</t>
+        </is>
+      </c>
+      <c r="E3760" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3761">
+      <c r="A3761" t="inlineStr">
+        <is>
+          <t>21BEE1108</t>
+        </is>
+      </c>
+      <c r="B3761" t="inlineStr">
+        <is>
+          <t>5LPA</t>
+        </is>
+      </c>
+      <c r="C3761" t="inlineStr">
+        <is>
+          <t>Everrenew</t>
+        </is>
+      </c>
+      <c r="D3761" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3761" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3762">
+      <c r="A3762" t="inlineStr">
+        <is>
+          <t>21BEE1051</t>
+        </is>
+      </c>
+      <c r="B3762" t="inlineStr">
+        <is>
+          <t>5LPA</t>
+        </is>
+      </c>
+      <c r="C3762" t="inlineStr">
+        <is>
+          <t>Everrenew</t>
+        </is>
+      </c>
+      <c r="D3762" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3762" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3763">
+      <c r="A3763" t="inlineStr">
+        <is>
+          <t>21BEE1069</t>
+        </is>
+      </c>
+      <c r="B3763" t="inlineStr">
+        <is>
+          <t>5LPA</t>
+        </is>
+      </c>
+      <c r="C3763" t="inlineStr">
+        <is>
+          <t>Everrenew</t>
+        </is>
+      </c>
+      <c r="D3763" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3763" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3764">
+      <c r="A3764" t="inlineStr">
+        <is>
+          <t>21BEI0022</t>
+        </is>
+      </c>
+      <c r="B3764" t="inlineStr">
+        <is>
+          <t>5LPA</t>
+        </is>
+      </c>
+      <c r="C3764" t="inlineStr">
+        <is>
+          <t>Everrenew</t>
+        </is>
+      </c>
+      <c r="D3764" t="inlineStr">
+        <is>
+          <t>BEI</t>
+        </is>
+      </c>
+      <c r="E3764" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3765">
+      <c r="A3765" t="inlineStr">
+        <is>
+          <t>21BCL0128</t>
+        </is>
+      </c>
+      <c r="B3765" t="inlineStr">
+        <is>
+          <t>5LPA</t>
+        </is>
+      </c>
+      <c r="C3765" t="inlineStr">
+        <is>
+          <t>Everrenew</t>
+        </is>
+      </c>
+      <c r="D3765" t="inlineStr">
+        <is>
+          <t>BCL</t>
+        </is>
+      </c>
+      <c r="E3765" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3766">
+      <c r="A3766" t="inlineStr">
+        <is>
+          <t>21BCE9063</t>
+        </is>
+      </c>
+      <c r="B3766" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3766" t="inlineStr">
+        <is>
+          <t>Vivriti Capital</t>
+        </is>
+      </c>
+      <c r="D3766" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3766" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3767">
+      <c r="A3767" t="inlineStr">
+        <is>
+          <t>21BCE7217</t>
+        </is>
+      </c>
+      <c r="B3767" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3767" t="inlineStr">
+        <is>
+          <t>Vivriti Capital</t>
+        </is>
+      </c>
+      <c r="D3767" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3767" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3768">
+      <c r="A3768" t="inlineStr">
+        <is>
+          <t>21BDS0041</t>
+        </is>
+      </c>
+      <c r="B3768" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3768" t="inlineStr">
+        <is>
+          <t>Vivriti Capital</t>
+        </is>
+      </c>
+      <c r="D3768" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E3768" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3769">
+      <c r="A3769" t="inlineStr">
+        <is>
+          <t>21BDS0160</t>
+        </is>
+      </c>
+      <c r="B3769" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3769" t="inlineStr">
+        <is>
+          <t>Vivriti Capital</t>
+        </is>
+      </c>
+      <c r="D3769" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E3769" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3770">
+      <c r="A3770" t="inlineStr">
+        <is>
+          <t>21BDS0050</t>
+        </is>
+      </c>
+      <c r="B3770" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3770" t="inlineStr">
+        <is>
+          <t>Vivriti Capital</t>
+        </is>
+      </c>
+      <c r="D3770" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E3770" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3771">
+      <c r="A3771" t="inlineStr">
+        <is>
+          <t>21BCE5716</t>
+        </is>
+      </c>
+      <c r="B3771" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C3771" t="inlineStr">
+        <is>
+          <t>TCS R&amp;D</t>
+        </is>
+      </c>
+      <c r="D3771" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3771" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3772">
+      <c r="A3772" t="inlineStr">
+        <is>
+          <t>21BCE11310</t>
+        </is>
+      </c>
+      <c r="B3772" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3772" t="inlineStr">
+        <is>
+          <t>ZETA</t>
+        </is>
+      </c>
+      <c r="D3772" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3772" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3773">
+      <c r="A3773" t="inlineStr">
+        <is>
+          <t>21BCE9183</t>
+        </is>
+      </c>
+      <c r="B3773" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3773" t="inlineStr">
+        <is>
+          <t>ZETA</t>
+        </is>
+      </c>
+      <c r="D3773" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3773" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3774">
+      <c r="A3774" t="inlineStr">
+        <is>
+          <t>21BCE1233</t>
+        </is>
+      </c>
+      <c r="B3774" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3774" t="inlineStr">
+        <is>
+          <t>BNP Paribas</t>
+        </is>
+      </c>
+      <c r="D3774" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3774" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3775">
+      <c r="A3775" t="inlineStr">
+        <is>
+          <t>21BEE1335</t>
+        </is>
+      </c>
+      <c r="B3775" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3775" t="inlineStr">
+        <is>
+          <t>BNP Paribas</t>
+        </is>
+      </c>
+      <c r="D3775" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3775" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3776">
+      <c r="A3776" t="inlineStr">
+        <is>
+          <t>21BEC1378</t>
+        </is>
+      </c>
+      <c r="B3776" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3776" t="inlineStr">
+        <is>
+          <t>BNP Paribas</t>
+        </is>
+      </c>
+      <c r="D3776" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3776" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3777">
+      <c r="A3777" t="inlineStr">
+        <is>
+          <t>21BCE1227</t>
+        </is>
+      </c>
+      <c r="B3777" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3777" t="inlineStr">
+        <is>
+          <t>BNP Paribas</t>
+        </is>
+      </c>
+      <c r="D3777" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3777" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3778">
+      <c r="A3778" t="inlineStr">
+        <is>
+          <t>21BLC1033</t>
+        </is>
+      </c>
+      <c r="B3778" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3778" t="inlineStr">
+        <is>
+          <t>BNP Paribas</t>
+        </is>
+      </c>
+      <c r="D3778" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E3778" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3779">
+      <c r="A3779" t="inlineStr">
+        <is>
+          <t>21BPS1152</t>
+        </is>
+      </c>
+      <c r="B3779" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3779" t="inlineStr">
+        <is>
+          <t>BNP Paribas</t>
+        </is>
+      </c>
+      <c r="D3779" t="inlineStr">
+        <is>
+          <t>BPS</t>
+        </is>
+      </c>
+      <c r="E3779" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3780">
+      <c r="A3780" t="inlineStr">
+        <is>
+          <t>21BAI1217</t>
+        </is>
+      </c>
+      <c r="B3780" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3780" t="inlineStr">
+        <is>
+          <t>BNP Paribas</t>
+        </is>
+      </c>
+      <c r="D3780" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E3780" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3781">
+      <c r="A3781" t="inlineStr">
+        <is>
+          <t>21BCE2060</t>
+        </is>
+      </c>
+      <c r="B3781" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3781" t="inlineStr">
+        <is>
+          <t>TruEstate</t>
+        </is>
+      </c>
+      <c r="D3781" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3781" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3782">
+      <c r="A3782" t="inlineStr">
+        <is>
+          <t>21BCE0236</t>
+        </is>
+      </c>
+      <c r="B3782" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3782" t="inlineStr">
+        <is>
+          <t>TruEstate</t>
+        </is>
+      </c>
+      <c r="D3782" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3782" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3783">
+      <c r="A3783" t="inlineStr">
+        <is>
+          <t>21BCE1182</t>
+        </is>
+      </c>
+      <c r="B3783" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3783" t="inlineStr">
+        <is>
+          <t>TruEstate</t>
+        </is>
+      </c>
+      <c r="D3783" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3783" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3784">
+      <c r="A3784" t="inlineStr">
+        <is>
+          <t>21BEC2092</t>
+        </is>
+      </c>
+      <c r="B3784" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3784" t="inlineStr">
+        <is>
+          <t>TruEstate</t>
+        </is>
+      </c>
+      <c r="D3784" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3784" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3785">
+      <c r="A3785" t="inlineStr">
+        <is>
+          <t>21BEE1274</t>
+        </is>
+      </c>
+      <c r="B3785" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3785" t="inlineStr">
+        <is>
+          <t>TruEstate</t>
+        </is>
+      </c>
+      <c r="D3785" t="inlineStr">
+        <is>
+          <t>BEE</t>
+        </is>
+      </c>
+      <c r="E3785" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3786">
+      <c r="A3786" t="inlineStr">
+        <is>
+          <t>21BCE5212</t>
+        </is>
+      </c>
+      <c r="B3786" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3786" t="inlineStr">
+        <is>
+          <t>TruEstate</t>
+        </is>
+      </c>
+      <c r="D3786" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3786" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3787">
+      <c r="A3787" t="inlineStr">
+        <is>
+          <t>21BME0450</t>
+        </is>
+      </c>
+      <c r="B3787" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3787" t="inlineStr">
+        <is>
+          <t>TruEstate</t>
+        </is>
+      </c>
+      <c r="D3787" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3787" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3788">
+      <c r="A3788" t="inlineStr">
+        <is>
+          <t>21BEC0462</t>
+        </is>
+      </c>
+      <c r="B3788" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3788" t="inlineStr">
+        <is>
+          <t>TruEstate</t>
+        </is>
+      </c>
+      <c r="D3788" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3788" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3789">
+      <c r="A3789" t="inlineStr">
+        <is>
+          <t>21BBT0260</t>
+        </is>
+      </c>
+      <c r="B3789" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3789" t="inlineStr">
+        <is>
+          <t>TruEstate</t>
+        </is>
+      </c>
+      <c r="D3789" t="inlineStr">
+        <is>
+          <t>BBT</t>
+        </is>
+      </c>
+      <c r="E3789" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3790">
+      <c r="A3790" t="inlineStr">
+        <is>
+          <t>21BIT0113</t>
+        </is>
+      </c>
+      <c r="B3790" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3790" t="inlineStr">
+        <is>
+          <t>TruEstate</t>
+        </is>
+      </c>
+      <c r="D3790" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E3790" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3791">
+      <c r="A3791" t="inlineStr">
+        <is>
+          <t>21BIT0191</t>
+        </is>
+      </c>
+      <c r="B3791" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3791" t="inlineStr">
+        <is>
+          <t>TruEstate</t>
+        </is>
+      </c>
+      <c r="D3791" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E3791" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3792">
+      <c r="A3792" t="inlineStr">
+        <is>
+          <t>21BCB0258</t>
+        </is>
+      </c>
+      <c r="B3792" t="inlineStr">
+        <is>
+          <t>8LPA</t>
+        </is>
+      </c>
+      <c r="C3792" t="inlineStr">
+        <is>
+          <t>TruEstate</t>
+        </is>
+      </c>
+      <c r="D3792" t="inlineStr">
+        <is>
+          <t>BCB</t>
+        </is>
+      </c>
+      <c r="E3792" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3793">
+      <c r="A3793" t="inlineStr">
+        <is>
+          <t>21BME7062</t>
+        </is>
+      </c>
+      <c r="B3793" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3793" t="inlineStr">
+        <is>
+          <t>Vistex Asia Pacific</t>
+        </is>
+      </c>
+      <c r="D3793" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3793" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3794">
+      <c r="A3794" t="inlineStr">
+        <is>
+          <t>21BCM0062</t>
+        </is>
+      </c>
+      <c r="B3794" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3794" t="inlineStr">
+        <is>
+          <t>Vistex Asia Pacific</t>
+        </is>
+      </c>
+      <c r="D3794" t="inlineStr">
+        <is>
+          <t>BCM</t>
+        </is>
+      </c>
+      <c r="E3794" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3795">
+      <c r="A3795" t="inlineStr">
+        <is>
+          <t>21BME0571</t>
+        </is>
+      </c>
+      <c r="B3795" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3795" t="inlineStr">
+        <is>
+          <t>Vistex Asia Pacific</t>
+        </is>
+      </c>
+      <c r="D3795" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3795" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3796">
+      <c r="A3796" t="inlineStr">
+        <is>
+          <t>21BEC1652</t>
+        </is>
+      </c>
+      <c r="B3796" t="inlineStr">
+        <is>
+          <t>8.5LPA</t>
+        </is>
+      </c>
+      <c r="C3796" t="inlineStr">
+        <is>
+          <t>Whirlpool</t>
+        </is>
+      </c>
+      <c r="D3796" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3796" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3797">
+      <c r="A3797" t="inlineStr">
+        <is>
+          <t>21BCE3473</t>
+        </is>
+      </c>
+      <c r="B3797" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C3797" t="inlineStr">
+        <is>
+          <t>Kumaran Systems</t>
+        </is>
+      </c>
+      <c r="D3797" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3797" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3798">
+      <c r="A3798" t="inlineStr">
+        <is>
+          <t>21BCE2961</t>
+        </is>
+      </c>
+      <c r="B3798" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C3798" t="inlineStr">
+        <is>
+          <t>Kumaran Systems</t>
+        </is>
+      </c>
+      <c r="D3798" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3798" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3799">
+      <c r="A3799" t="inlineStr">
+        <is>
+          <t>21BIT0679</t>
+        </is>
+      </c>
+      <c r="B3799" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C3799" t="inlineStr">
+        <is>
+          <t>Kumaran Systems</t>
+        </is>
+      </c>
+      <c r="D3799" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E3799" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3800">
+      <c r="A3800" t="inlineStr">
+        <is>
+          <t>21BCE5570</t>
+        </is>
+      </c>
+      <c r="B3800" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C3800" t="inlineStr">
+        <is>
+          <t>Kumaran Systems</t>
+        </is>
+      </c>
+      <c r="D3800" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3800" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3801">
+      <c r="A3801" t="inlineStr">
+        <is>
+          <t>21BCE5511</t>
+        </is>
+      </c>
+      <c r="B3801" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C3801" t="inlineStr">
+        <is>
+          <t>Kumaran Systems</t>
+        </is>
+      </c>
+      <c r="D3801" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3801" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3802">
+      <c r="A3802" t="inlineStr">
+        <is>
+          <t>21BAI1296</t>
+        </is>
+      </c>
+      <c r="B3802" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C3802" t="inlineStr">
+        <is>
+          <t>Kumaran Systems</t>
+        </is>
+      </c>
+      <c r="D3802" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E3802" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3803">
+      <c r="A3803" t="inlineStr">
+        <is>
+          <t>21BCE2352</t>
+        </is>
+      </c>
+      <c r="B3803" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C3803" t="inlineStr">
+        <is>
+          <t>Kumaran Systems</t>
+        </is>
+      </c>
+      <c r="D3803" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3803" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3804">
+      <c r="A3804" t="inlineStr">
+        <is>
+          <t>21BDS0194</t>
+        </is>
+      </c>
+      <c r="B3804" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C3804" t="inlineStr">
+        <is>
+          <t>Kumaran Systems</t>
+        </is>
+      </c>
+      <c r="D3804" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E3804" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3805">
+      <c r="A3805" t="inlineStr">
+        <is>
+          <t>21BCE2105</t>
+        </is>
+      </c>
+      <c r="B3805" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C3805" t="inlineStr">
+        <is>
+          <t>Kumaran Systems</t>
+        </is>
+      </c>
+      <c r="D3805" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3805" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3806">
+      <c r="A3806" t="inlineStr">
+        <is>
+          <t>21BIT0687</t>
+        </is>
+      </c>
+      <c r="B3806" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C3806" t="inlineStr">
+        <is>
+          <t>Kumaran Systems</t>
+        </is>
+      </c>
+      <c r="D3806" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E3806" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3807">
+      <c r="A3807" t="inlineStr">
+        <is>
+          <t>21BCE1034</t>
+        </is>
+      </c>
+      <c r="B3807" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C3807" t="inlineStr">
+        <is>
+          <t>Kumaran Systems</t>
+        </is>
+      </c>
+      <c r="D3807" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3807" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3808">
+      <c r="A3808" t="inlineStr">
+        <is>
+          <t>21BCE3768</t>
+        </is>
+      </c>
+      <c r="B3808" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C3808" t="inlineStr">
+        <is>
+          <t>Kumaran Systems</t>
+        </is>
+      </c>
+      <c r="D3808" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3808" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3809">
+      <c r="A3809" t="inlineStr">
+        <is>
+          <t>21BIT0372</t>
+        </is>
+      </c>
+      <c r="B3809" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C3809" t="inlineStr">
+        <is>
+          <t>Kumaran Systems</t>
+        </is>
+      </c>
+      <c r="D3809" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E3809" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3810">
+      <c r="A3810" t="inlineStr">
+        <is>
+          <t>21BCE5372</t>
+        </is>
+      </c>
+      <c r="B3810" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C3810" t="inlineStr">
+        <is>
+          <t>Kumaran Systems</t>
+        </is>
+      </c>
+      <c r="D3810" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3810" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3811">
+      <c r="A3811" t="inlineStr">
+        <is>
+          <t>21BCE5102</t>
+        </is>
+      </c>
+      <c r="B3811" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C3811" t="inlineStr">
+        <is>
+          <t>Kumaran Systems</t>
+        </is>
+      </c>
+      <c r="D3811" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3811" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3812">
+      <c r="A3812" t="inlineStr">
+        <is>
+          <t>21BDS0255</t>
+        </is>
+      </c>
+      <c r="B3812" t="inlineStr">
+        <is>
+          <t>7LPA</t>
+        </is>
+      </c>
+      <c r="C3812" t="inlineStr">
+        <is>
+          <t>Kumaran Systems</t>
+        </is>
+      </c>
+      <c r="D3812" t="inlineStr">
+        <is>
+          <t>BDS</t>
+        </is>
+      </c>
+      <c r="E3812" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3813">
+      <c r="A3813" t="inlineStr">
+        <is>
+          <t>21BME0235</t>
+        </is>
+      </c>
+      <c r="B3813" t="inlineStr">
+        <is>
+          <t>4LPA</t>
+        </is>
+      </c>
+      <c r="C3813" t="inlineStr">
+        <is>
+          <t>UFI FILTERS</t>
+        </is>
+      </c>
+      <c r="D3813" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3813" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3814">
+      <c r="A3814" t="inlineStr">
+        <is>
+          <t>21BME0094</t>
+        </is>
+      </c>
+      <c r="B3814" t="inlineStr">
+        <is>
+          <t>4LPA</t>
+        </is>
+      </c>
+      <c r="C3814" t="inlineStr">
+        <is>
+          <t>UFI FILTERS</t>
+        </is>
+      </c>
+      <c r="D3814" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3814" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3815">
+      <c r="A3815" t="inlineStr">
+        <is>
+          <t>21BME0462</t>
+        </is>
+      </c>
+      <c r="B3815" t="inlineStr">
+        <is>
+          <t>4LPA</t>
+        </is>
+      </c>
+      <c r="C3815" t="inlineStr">
+        <is>
+          <t>UFI FILTERS</t>
+        </is>
+      </c>
+      <c r="D3815" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3815" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3816">
+      <c r="A3816" t="inlineStr">
+        <is>
+          <t>21BME0528</t>
+        </is>
+      </c>
+      <c r="B3816" t="inlineStr">
+        <is>
+          <t>4LPA</t>
+        </is>
+      </c>
+      <c r="C3816" t="inlineStr">
+        <is>
+          <t>UFI FILTERS</t>
+        </is>
+      </c>
+      <c r="D3816" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3816" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3817">
+      <c r="A3817" t="inlineStr">
+        <is>
+          <t>21BME0077</t>
+        </is>
+      </c>
+      <c r="B3817" t="inlineStr">
+        <is>
+          <t>4LPA</t>
+        </is>
+      </c>
+      <c r="C3817" t="inlineStr">
+        <is>
+          <t>UFI FILTERS</t>
+        </is>
+      </c>
+      <c r="D3817" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3817" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3818">
+      <c r="A3818" t="inlineStr">
+        <is>
+          <t>21BME0543</t>
+        </is>
+      </c>
+      <c r="B3818" t="inlineStr">
+        <is>
+          <t>4LPA</t>
+        </is>
+      </c>
+      <c r="C3818" t="inlineStr">
+        <is>
+          <t>UFI FILTERS</t>
+        </is>
+      </c>
+      <c r="D3818" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3818" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3819">
+      <c r="A3819" t="inlineStr">
+        <is>
+          <t>21BLC1480</t>
+        </is>
+      </c>
+      <c r="B3819" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C3819" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D3819" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E3819" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3820">
+      <c r="A3820" t="inlineStr">
+        <is>
+          <t>21BEC1176</t>
+        </is>
+      </c>
+      <c r="B3820" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C3820" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D3820" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3820" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3821">
+      <c r="A3821" t="inlineStr">
+        <is>
+          <t>21BCE5469</t>
+        </is>
+      </c>
+      <c r="B3821" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C3821" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D3821" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3821" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3822">
+      <c r="A3822" t="inlineStr">
+        <is>
+          <t>21BIT0700</t>
+        </is>
+      </c>
+      <c r="B3822" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C3822" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D3822" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E3822" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3823">
+      <c r="A3823" t="inlineStr">
+        <is>
+          <t>21BAI1849</t>
+        </is>
+      </c>
+      <c r="B3823" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C3823" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D3823" t="inlineStr">
+        <is>
+          <t>BAI</t>
+        </is>
+      </c>
+      <c r="E3823" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3824">
+      <c r="A3824" t="inlineStr">
+        <is>
+          <t>21BCE3660</t>
+        </is>
+      </c>
+      <c r="B3824" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C3824" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D3824" t="inlineStr">
+        <is>
+          <t>BCE</t>
+        </is>
+      </c>
+      <c r="E3824" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3825">
+      <c r="A3825" t="inlineStr">
+        <is>
+          <t>21BEC1366</t>
+        </is>
+      </c>
+      <c r="B3825" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C3825" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D3825" t="inlineStr">
+        <is>
+          <t>BEC</t>
+        </is>
+      </c>
+      <c r="E3825" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3826">
+      <c r="A3826" t="inlineStr">
+        <is>
+          <t>21BLC1434</t>
+        </is>
+      </c>
+      <c r="B3826" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C3826" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D3826" t="inlineStr">
+        <is>
+          <t>BLC</t>
+        </is>
+      </c>
+      <c r="E3826" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3827">
+      <c r="A3827" t="inlineStr">
+        <is>
+          <t>21BBS0169</t>
+        </is>
+      </c>
+      <c r="B3827" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C3827" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D3827" t="inlineStr">
+        <is>
+          <t>BBS</t>
+        </is>
+      </c>
+      <c r="E3827" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3828">
+      <c r="A3828" t="inlineStr">
+        <is>
+          <t>21BIT0125</t>
+        </is>
+      </c>
+      <c r="B3828" t="inlineStr">
+        <is>
+          <t>9LPA</t>
+        </is>
+      </c>
+      <c r="C3828" t="inlineStr">
+        <is>
+          <t>PWC</t>
+        </is>
+      </c>
+      <c r="D3828" t="inlineStr">
+        <is>
+          <t>BIT</t>
+        </is>
+      </c>
+      <c r="E3828" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3829">
+      <c r="A3829" t="inlineStr">
+        <is>
+          <t>21BME1230</t>
+        </is>
+      </c>
+      <c r="B3829" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3829" t="inlineStr">
+        <is>
+          <t>Vistex Asia Pacific</t>
+        </is>
+      </c>
+      <c r="D3829" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3829" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="3830">
+      <c r="A3830" t="inlineStr">
+        <is>
+          <t>21BMV1014</t>
+        </is>
+      </c>
+      <c r="B3830" t="inlineStr">
+        <is>
+          <t>6LPA</t>
+        </is>
+      </c>
+      <c r="C3830" t="inlineStr">
+        <is>
+          <t>Vistex Asia Pacific</t>
+        </is>
+      </c>
+      <c r="D3830" t="inlineStr">
+        <is>
+          <t>BMV</t>
+        </is>
+      </c>
+      <c r="E3830" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+    </row>
+    <row r="3831">
+      <c r="A3831" t="inlineStr">
+        <is>
+          <t>21BME0602</t>
+        </is>
+      </c>
+      <c r="B3831" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="C3831" t="inlineStr">
+        <is>
+          <t>Astr Defence</t>
+        </is>
+      </c>
+      <c r="D3831" t="inlineStr">
+        <is>
+          <t>BME</t>
+        </is>
+      </c>
+      <c r="E3831" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
